--- a/Viki Audio Link extractor & Merger.xlsx
+++ b/Viki Audio Link extractor & Merger.xlsx
@@ -9,23 +9,19 @@
   <sheets>
     <sheet name="IDM Codes" sheetId="1" r:id="rId1"/>
     <sheet name="ffmpegCodes" sheetId="3" r:id="rId2"/>
-    <sheet name="Params" sheetId="2" r:id="rId3"/>
+    <sheet name="IDM Params" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>C:\Program Files (x86)\Internet Download Manager\idman.exe</t>
   </si>
   <si>
     <t>/a /d "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-</t>
   </si>
   <si>
     <t>https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track1_dashinit.mp4</t>
@@ -127,9 +123,6 @@
     <t>Make sure mp4, mp3 &amp; srt files are all here</t>
   </si>
   <si>
-    <t>Please save all codes as a BATCH FILE(*.bat) first</t>
-  </si>
-  <si>
     <t>eng</t>
   </si>
   <si>
@@ -137,6 +130,24 @@
   </si>
   <si>
     <t>Video Start</t>
+  </si>
+  <si>
+    <t>Please save all commands as a BATCH FILE(*.bat) first &amp; then execute that file</t>
+  </si>
+  <si>
+    <t>Check codes here</t>
+  </si>
+  <si>
+    <t>IDM Directory</t>
+  </si>
+  <si>
+    <t>/f = custom filename</t>
+  </si>
+  <si>
+    <t>/a = append to download list</t>
+  </si>
+  <si>
+    <t>/d = download link or url</t>
   </si>
 </sst>
 </file>
@@ -182,19 +193,18 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -273,11 +283,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -316,20 +330,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -623,310 +636,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="109.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A2))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A2, Params!$A$3,"""", TEXT('IDM Codes'!B2,"00"), ". Episode_", TEXT('IDM Codes'!B2,"00"), ".mp4"""))</f>
+      <c r="C5" s="3" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A5))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A5, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B5,"00"), ". Episode_", TEXT('IDM Codes'!B5,"00"), ".mp4"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track1_dashinit.mp4" /f "01. Episode_01.mp4"</v>
       </c>
-      <c r="D2" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A2))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A2, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B2, "00"),". Episode_", TEXT('IDM Codes'!B2, "00"), ".mp3"""))</f>
+      <c r="D5" s="4" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A5))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A5, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B5, "00"),". Episode_", TEXT('IDM Codes'!B5, "00"), ".mp3"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track2_dashinit.mp4" /f "01. Episode_01.mp3"</v>
-      </c>
-      <c r="E2" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A2))=0, "", C2&amp;" &amp; "&amp;D2)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track1_dashinit.mp4" /f "01. Episode_01.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track2_dashinit.mp4" /f "01. Episode_01.mp3"</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <f>IF(LEN(TRIM('IDM Codes'!A3))=0,"", INT('IDM Codes'!B2)+1)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A3))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A3, Params!$A$3,"""", TEXT('IDM Codes'!B3,"00"), ". Episode_", TEXT('IDM Codes'!B3,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track1_dashinit.mp4" /f "02. Episode_02.mp4"</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A3))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A3, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B3, "00"),". Episode_", TEXT('IDM Codes'!B3, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track2_dashinit.mp4" /f "02. Episode_02.mp3"</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A3))=0, "", C3&amp;" &amp; "&amp;D3)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track1_dashinit.mp4" /f "02. Episode_02.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track2_dashinit.mp4" /f "02. Episode_02.mp3"</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <f>IF(LEN(TRIM('IDM Codes'!A4))=0,"", INT('IDM Codes'!B3)+1)</f>
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A4))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A4, Params!$A$3,"""", TEXT('IDM Codes'!B4,"00"), ". Episode_", TEXT('IDM Codes'!B4,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track1_dashinit.mp4" /f "03. Episode_03.mp4"</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A4))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A4, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B4, "00"),". Episode_", TEXT('IDM Codes'!B4, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track2_dashinit.mp4" /f "03. Episode_03.mp3"</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A4))=0, "", C4&amp;" &amp; "&amp;D4)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track1_dashinit.mp4" /f "03. Episode_03.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track2_dashinit.mp4" /f "03. Episode_03.mp3"</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <f>IF(LEN(TRIM('IDM Codes'!A5))=0,"", INT('IDM Codes'!B4)+1)</f>
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A5))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A5, Params!$A$3,"""", TEXT('IDM Codes'!B5,"00"), ". Episode_", TEXT('IDM Codes'!B5,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track1_dashinit.mp4" /f "04. Episode_04.mp4"</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A5))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A5, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B5, "00"),". Episode_", TEXT('IDM Codes'!B5, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track2_dashinit.mp4" /f "04. Episode_04.mp3"</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A5))=0, "", C5&amp;" &amp; "&amp;D5)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track1_dashinit.mp4" /f "04. Episode_04.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track2_dashinit.mp4" /f "04. Episode_04.mp3"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track1_dashinit.mp4" /f "01. Episode_01.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track2_dashinit.mp4" /f "01. Episode_01.mp3"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <f>IF(LEN(TRIM('IDM Codes'!A6))=0,"", INT('IDM Codes'!B5)+1)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A6))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A6, Params!$A$3,"""", TEXT('IDM Codes'!B6,"00"), ". Episode_", TEXT('IDM Codes'!B6,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track1_dashinit.mp4" /f "05. Episode_05.mp4"</v>
+        <f>IF(LEN(TRIM('IDM Codes'!A6))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A6, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B6,"00"), ". Episode_", TEXT('IDM Codes'!B6,"00"), ".mp4"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track1_dashinit.mp4" /f "02. Episode_02.mp4"</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A6))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A6, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B6, "00"),". Episode_", TEXT('IDM Codes'!B6, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track2_dashinit.mp4" /f "05. Episode_05.mp3"</v>
+        <f>IF(LEN(TRIM('IDM Codes'!A6))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A6, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B6, "00"),". Episode_", TEXT('IDM Codes'!B6, "00"), ".mp3"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track2_dashinit.mp4" /f "02. Episode_02.mp3"</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A6))=0, "", C6&amp;" &amp; "&amp;D6)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track1_dashinit.mp4" /f "05. Episode_05.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track2_dashinit.mp4" /f "05. Episode_05.mp3"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track1_dashinit.mp4" /f "02. Episode_02.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track2_dashinit.mp4" /f "02. Episode_02.mp3"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <f>IF(LEN(TRIM('IDM Codes'!A7))=0,"", INT('IDM Codes'!B6)+1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A7))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A7, Params!$A$3,"""", TEXT('IDM Codes'!B7,"00"), ". Episode_", TEXT('IDM Codes'!B7,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track1_dashinit.mp4" /f "06. Episode_06.mp4"</v>
+        <f>IF(LEN(TRIM('IDM Codes'!A7))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A7, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B7,"00"), ". Episode_", TEXT('IDM Codes'!B7,"00"), ".mp4"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track1_dashinit.mp4" /f "03. Episode_03.mp4"</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A7))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A7, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B7, "00"),". Episode_", TEXT('IDM Codes'!B7, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track2_dashinit.mp4" /f "06. Episode_06.mp3"</v>
+        <f>IF(LEN(TRIM('IDM Codes'!A7))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A7, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B7, "00"),". Episode_", TEXT('IDM Codes'!B7, "00"), ".mp3"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track2_dashinit.mp4" /f "03. Episode_03.mp3"</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A7))=0, "", C7&amp;" &amp; "&amp;D7)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track1_dashinit.mp4" /f "06. Episode_06.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track2_dashinit.mp4" /f "06. Episode_06.mp3"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track1_dashinit.mp4" /f "03. Episode_03.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track2_dashinit.mp4" /f "03. Episode_03.mp3"</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <f>IF(LEN(TRIM('IDM Codes'!A8))=0,"", INT('IDM Codes'!B7)+1)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A8))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A8, Params!$A$3,"""", TEXT('IDM Codes'!B8,"00"), ". Episode_", TEXT('IDM Codes'!B8,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track1_dashinit.mp4" /f "07. Episode_07.mp4"</v>
+        <f>IF(LEN(TRIM('IDM Codes'!A8))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A8, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B8,"00"), ". Episode_", TEXT('IDM Codes'!B8,"00"), ".mp4"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track1_dashinit.mp4" /f "04. Episode_04.mp4"</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A8))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A8, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B8, "00"),". Episode_", TEXT('IDM Codes'!B8, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track2_dashinit.mp4" /f "07. Episode_07.mp3"</v>
+        <f>IF(LEN(TRIM('IDM Codes'!A8))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A8, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B8, "00"),". Episode_", TEXT('IDM Codes'!B8, "00"), ".mp3"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track2_dashinit.mp4" /f "04. Episode_04.mp3"</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A8))=0, "", C8&amp;" &amp; "&amp;D8)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track1_dashinit.mp4" /f "07. Episode_07.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track2_dashinit.mp4" /f "07. Episode_07.mp3"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track1_dashinit.mp4" /f "04. Episode_04.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track2_dashinit.mp4" /f "04. Episode_04.mp3"</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <f>IF(LEN(TRIM('IDM Codes'!A9))=0,"", INT('IDM Codes'!B8)+1)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A9))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A9, Params!$A$3,"""", TEXT('IDM Codes'!B9,"00"), ". Episode_", TEXT('IDM Codes'!B9,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track1_dashinit.mp4" /f "08. Episode_08.mp4"</v>
+        <f>IF(LEN(TRIM('IDM Codes'!A9))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A9, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B9,"00"), ". Episode_", TEXT('IDM Codes'!B9,"00"), ".mp4"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track1_dashinit.mp4" /f "05. Episode_05.mp4"</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A9))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A9, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B9, "00"),". Episode_", TEXT('IDM Codes'!B9, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track2_dashinit.mp4" /f "08. Episode_08.mp3"</v>
+        <f>IF(LEN(TRIM('IDM Codes'!A9))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A9, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B9, "00"),". Episode_", TEXT('IDM Codes'!B9, "00"), ".mp3"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track2_dashinit.mp4" /f "05. Episode_05.mp3"</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A9))=0, "", C9&amp;" &amp; "&amp;D9)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track1_dashinit.mp4" /f "08. Episode_08.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track2_dashinit.mp4" /f "08. Episode_08.mp3"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track1_dashinit.mp4" /f "05. Episode_05.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track2_dashinit.mp4" /f "05. Episode_05.mp3"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <f>IF(LEN(TRIM('IDM Codes'!A10))=0,"", INT('IDM Codes'!B9)+1)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A10))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A10, Params!$A$3,"""", TEXT('IDM Codes'!B10,"00"), ". Episode_", TEXT('IDM Codes'!B10,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track1_dashinit.mp4" /f "09. Episode_09.mp4"</v>
+        <f>IF(LEN(TRIM('IDM Codes'!A10))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A10, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B10,"00"), ". Episode_", TEXT('IDM Codes'!B10,"00"), ".mp4"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track1_dashinit.mp4" /f "06. Episode_06.mp4"</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A10))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A10, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B10, "00"),". Episode_", TEXT('IDM Codes'!B10, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track2_dashinit.mp4" /f "09. Episode_09.mp3"</v>
+        <f>IF(LEN(TRIM('IDM Codes'!A10))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A10, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B10, "00"),". Episode_", TEXT('IDM Codes'!B10, "00"), ".mp3"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track2_dashinit.mp4" /f "06. Episode_06.mp3"</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A10))=0, "", C10&amp;" &amp; "&amp;D10)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track1_dashinit.mp4" /f "09. Episode_09.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track2_dashinit.mp4" /f "09. Episode_09.mp3"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track1_dashinit.mp4" /f "06. Episode_06.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track2_dashinit.mp4" /f "06. Episode_06.mp3"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <f>IF(LEN(TRIM('IDM Codes'!A11))=0,"", INT('IDM Codes'!B10)+1)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A11))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A11, Params!$A$3,"""", TEXT('IDM Codes'!B11,"00"), ". Episode_", TEXT('IDM Codes'!B11,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track1_dashinit.mp4" /f "10. Episode_10.mp4"</v>
+        <f>IF(LEN(TRIM('IDM Codes'!A11))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A11, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B11,"00"), ". Episode_", TEXT('IDM Codes'!B11,"00"), ".mp4"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track1_dashinit.mp4" /f "07. Episode_07.mp4"</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A11))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A11, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B11, "00"),". Episode_", TEXT('IDM Codes'!B11, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track2_dashinit.mp4" /f "10. Episode_10.mp3"</v>
+        <f>IF(LEN(TRIM('IDM Codes'!A11))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A11, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B11, "00"),". Episode_", TEXT('IDM Codes'!B11, "00"), ".mp3"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track2_dashinit.mp4" /f "07. Episode_07.mp3"</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A11))=0, "", C11&amp;" &amp; "&amp;D11)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track1_dashinit.mp4" /f "10. Episode_10.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track2_dashinit.mp4" /f "10. Episode_10.mp3"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" t="str">
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track1_dashinit.mp4" /f "07. Episode_07.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track2_dashinit.mp4" /f "07. Episode_07.mp3"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
         <f>IF(LEN(TRIM('IDM Codes'!A12))=0,"", INT('IDM Codes'!B11)+1)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A12))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A12, Params!$A$3,"""", TEXT('IDM Codes'!B12,"00"), ". Episode_", TEXT('IDM Codes'!B12,"00"), ".mp4"""))</f>
-        <v/>
+        <f>IF(LEN(TRIM('IDM Codes'!A12))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A12, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B12,"00"), ". Episode_", TEXT('IDM Codes'!B12,"00"), ".mp4"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track1_dashinit.mp4" /f "08. Episode_08.mp4"</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A12))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A12, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B12, "00"),". Episode_", TEXT('IDM Codes'!B12, "00"), ".mp3"""))</f>
-        <v/>
+        <f>IF(LEN(TRIM('IDM Codes'!A12))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A12, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B12, "00"),". Episode_", TEXT('IDM Codes'!B12, "00"), ".mp3"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track2_dashinit.mp4" /f "08. Episode_08.mp3"</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A12))=0, "", C12&amp;" &amp; "&amp;D12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" t="str">
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track1_dashinit.mp4" /f "08. Episode_08.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track2_dashinit.mp4" /f "08. Episode_08.mp3"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
         <f>IF(LEN(TRIM('IDM Codes'!A13))=0,"", INT('IDM Codes'!B12)+1)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A13))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A13, Params!$A$3,"""", TEXT('IDM Codes'!B13,"00"), ". Episode_", TEXT('IDM Codes'!B13,"00"), ".mp4"""))</f>
-        <v/>
+        <f>IF(LEN(TRIM('IDM Codes'!A13))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A13, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B13,"00"), ". Episode_", TEXT('IDM Codes'!B13,"00"), ".mp4"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track1_dashinit.mp4" /f "09. Episode_09.mp4"</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A13))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A13, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B13, "00"),". Episode_", TEXT('IDM Codes'!B13, "00"), ".mp3"""))</f>
-        <v/>
+        <f>IF(LEN(TRIM('IDM Codes'!A13))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A13, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B13, "00"),". Episode_", TEXT('IDM Codes'!B13, "00"), ".mp3"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track2_dashinit.mp4" /f "09. Episode_09.mp3"</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A13))=0, "", C13&amp;" &amp; "&amp;D13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" t="str">
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track1_dashinit.mp4" /f "09. Episode_09.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track2_dashinit.mp4" /f "09. Episode_09.mp3"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
         <f>IF(LEN(TRIM('IDM Codes'!A14))=0,"", INT('IDM Codes'!B13)+1)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A14))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A14, Params!$A$3,"""", TEXT('IDM Codes'!B14,"00"), ". Episode_", TEXT('IDM Codes'!B14,"00"), ".mp4"""))</f>
-        <v/>
+        <f>IF(LEN(TRIM('IDM Codes'!A14))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A14, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B14,"00"), ". Episode_", TEXT('IDM Codes'!B14,"00"), ".mp4"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track1_dashinit.mp4" /f "10. Episode_10.mp4"</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A14))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A14, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B14, "00"),". Episode_", TEXT('IDM Codes'!B14, "00"), ".mp3"""))</f>
-        <v/>
+        <f>IF(LEN(TRIM('IDM Codes'!A14))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A14, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B14, "00"),". Episode_", TEXT('IDM Codes'!B14, "00"), ".mp3"""))</f>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track2_dashinit.mp4" /f "10. Episode_10.mp3"</v>
       </c>
       <c r="E14" s="4" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A14))=0, "", C14&amp;" &amp; "&amp;D14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track1_dashinit.mp4" /f "10. Episode_10.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track2_dashinit.mp4" /f "10. Episode_10.mp3"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A15))=0,"", INT('IDM Codes'!B14)+1)</f>
         <v/>
       </c>
       <c r="C15" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A15))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A15, Params!$A$3,"""", TEXT('IDM Codes'!B15,"00"), ". Episode_", TEXT('IDM Codes'!B15,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A15))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A15, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B15,"00"), ". Episode_", TEXT('IDM Codes'!B15,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D15" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A15))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A15, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B15, "00"),". Episode_", TEXT('IDM Codes'!B15, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A15))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A15, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B15, "00"),". Episode_", TEXT('IDM Codes'!B15, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E15" s="4" t="str">
@@ -934,17 +909,17 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:10">
       <c r="B16" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A16))=0,"", INT('IDM Codes'!B15)+1)</f>
         <v/>
       </c>
       <c r="C16" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A16))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A16, Params!$A$3,"""", TEXT('IDM Codes'!B16,"00"), ". Episode_", TEXT('IDM Codes'!B16,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A16))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A16, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B16,"00"), ". Episode_", TEXT('IDM Codes'!B16,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D16" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A16))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A16, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B16, "00"),". Episode_", TEXT('IDM Codes'!B16, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A16))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A16, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B16, "00"),". Episode_", TEXT('IDM Codes'!B16, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E16" s="4" t="str">
@@ -958,11 +933,11 @@
         <v/>
       </c>
       <c r="C17" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A17))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A17, Params!$A$3,"""", TEXT('IDM Codes'!B17,"00"), ". Episode_", TEXT('IDM Codes'!B17,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A17))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A17, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B17,"00"), ". Episode_", TEXT('IDM Codes'!B17,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D17" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A17))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A17, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B17, "00"),". Episode_", TEXT('IDM Codes'!B17, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A17))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A17, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B17, "00"),". Episode_", TEXT('IDM Codes'!B17, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E17" s="4" t="str">
@@ -976,11 +951,11 @@
         <v/>
       </c>
       <c r="C18" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A18))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A18, Params!$A$3,"""", TEXT('IDM Codes'!B18,"00"), ". Episode_", TEXT('IDM Codes'!B18,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A18))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A18, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B18,"00"), ". Episode_", TEXT('IDM Codes'!B18,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D18" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A18))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A18, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B18, "00"),". Episode_", TEXT('IDM Codes'!B18, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A18))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A18, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B18, "00"),". Episode_", TEXT('IDM Codes'!B18, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E18" s="4" t="str">
@@ -994,11 +969,11 @@
         <v/>
       </c>
       <c r="C19" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A19))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A19, Params!$A$3,"""", TEXT('IDM Codes'!B19,"00"), ". Episode_", TEXT('IDM Codes'!B19,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A19))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A19, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B19,"00"), ". Episode_", TEXT('IDM Codes'!B19,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D19" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A19))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A19, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B19, "00"),". Episode_", TEXT('IDM Codes'!B19, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A19))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A19, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B19, "00"),". Episode_", TEXT('IDM Codes'!B19, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E19" s="4" t="str">
@@ -1012,11 +987,11 @@
         <v/>
       </c>
       <c r="C20" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A20))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A20, Params!$A$3,"""", TEXT('IDM Codes'!B20,"00"), ". Episode_", TEXT('IDM Codes'!B20,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A20))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A20, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B20,"00"), ". Episode_", TEXT('IDM Codes'!B20,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D20" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A20))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A20, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B20, "00"),". Episode_", TEXT('IDM Codes'!B20, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A20))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A20, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B20, "00"),". Episode_", TEXT('IDM Codes'!B20, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E20" s="4" t="str">
@@ -1030,11 +1005,11 @@
         <v/>
       </c>
       <c r="C21" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A21))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A21, Params!$A$3,"""", TEXT('IDM Codes'!B21,"00"), ". Episode_", TEXT('IDM Codes'!B21,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A21))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A21, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B21,"00"), ". Episode_", TEXT('IDM Codes'!B21,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D21" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A21))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A21, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B21, "00"),". Episode_", TEXT('IDM Codes'!B21, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A21))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A21, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B21, "00"),". Episode_", TEXT('IDM Codes'!B21, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E21" s="4" t="str">
@@ -1048,11 +1023,11 @@
         <v/>
       </c>
       <c r="C22" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A22))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A22, Params!$A$3,"""", TEXT('IDM Codes'!B22,"00"), ". Episode_", TEXT('IDM Codes'!B22,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A22))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A22, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B22,"00"), ". Episode_", TEXT('IDM Codes'!B22,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D22" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A22))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A22, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B22, "00"),". Episode_", TEXT('IDM Codes'!B22, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A22))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A22, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B22, "00"),". Episode_", TEXT('IDM Codes'!B22, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E22" s="4" t="str">
@@ -1066,11 +1041,11 @@
         <v/>
       </c>
       <c r="C23" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A23))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A23, Params!$A$3,"""", TEXT('IDM Codes'!B23,"00"), ". Episode_", TEXT('IDM Codes'!B23,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A23))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A23, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B23,"00"), ". Episode_", TEXT('IDM Codes'!B23,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D23" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A23))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A23, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B23, "00"),". Episode_", TEXT('IDM Codes'!B23, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A23))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A23, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B23, "00"),". Episode_", TEXT('IDM Codes'!B23, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E23" s="4" t="str">
@@ -1084,11 +1059,11 @@
         <v/>
       </c>
       <c r="C24" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A24))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A24, Params!$A$3,"""", TEXT('IDM Codes'!B24,"00"), ". Episode_", TEXT('IDM Codes'!B24,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A24))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A24, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B24,"00"), ". Episode_", TEXT('IDM Codes'!B24,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A24))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A24, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B24, "00"),". Episode_", TEXT('IDM Codes'!B24, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A24))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A24, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B24, "00"),". Episode_", TEXT('IDM Codes'!B24, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E24" s="4" t="str">
@@ -1102,11 +1077,11 @@
         <v/>
       </c>
       <c r="C25" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A25))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A25, Params!$A$3,"""", TEXT('IDM Codes'!B25,"00"), ". Episode_", TEXT('IDM Codes'!B25,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A25))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A25, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B25,"00"), ". Episode_", TEXT('IDM Codes'!B25,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D25" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A25))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A25, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B25, "00"),". Episode_", TEXT('IDM Codes'!B25, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A25))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A25, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B25, "00"),". Episode_", TEXT('IDM Codes'!B25, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E25" s="4" t="str">
@@ -1120,11 +1095,11 @@
         <v/>
       </c>
       <c r="C26" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A26))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A26, Params!$A$3,"""", TEXT('IDM Codes'!B26,"00"), ". Episode_", TEXT('IDM Codes'!B26,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A26))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A26, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B26,"00"), ". Episode_", TEXT('IDM Codes'!B26,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D26" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A26))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A26, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B26, "00"),". Episode_", TEXT('IDM Codes'!B26, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A26))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A26, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B26, "00"),". Episode_", TEXT('IDM Codes'!B26, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E26" s="4" t="str">
@@ -1138,11 +1113,11 @@
         <v/>
       </c>
       <c r="C27" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A27))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A27, Params!$A$3,"""", TEXT('IDM Codes'!B27,"00"), ". Episode_", TEXT('IDM Codes'!B27,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A27))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A27, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B27,"00"), ". Episode_", TEXT('IDM Codes'!B27,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D27" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A27))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A27, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B27, "00"),". Episode_", TEXT('IDM Codes'!B27, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A27))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A27, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B27, "00"),". Episode_", TEXT('IDM Codes'!B27, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E27" s="4" t="str">
@@ -1156,11 +1131,11 @@
         <v/>
       </c>
       <c r="C28" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A28))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A28, Params!$A$3,"""", TEXT('IDM Codes'!B28,"00"), ". Episode_", TEXT('IDM Codes'!B28,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A28))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A28, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B28,"00"), ". Episode_", TEXT('IDM Codes'!B28,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A28))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A28, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B28, "00"),". Episode_", TEXT('IDM Codes'!B28, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A28))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A28, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B28, "00"),". Episode_", TEXT('IDM Codes'!B28, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E28" s="4" t="str">
@@ -1174,11 +1149,11 @@
         <v/>
       </c>
       <c r="C29" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A29))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A29, Params!$A$3,"""", TEXT('IDM Codes'!B29,"00"), ". Episode_", TEXT('IDM Codes'!B29,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A29))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A29, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B29,"00"), ". Episode_", TEXT('IDM Codes'!B29,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D29" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A29))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A29, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B29, "00"),". Episode_", TEXT('IDM Codes'!B29, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A29))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A29, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B29, "00"),". Episode_", TEXT('IDM Codes'!B29, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E29" s="4" t="str">
@@ -1192,11 +1167,11 @@
         <v/>
       </c>
       <c r="C30" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A30))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A30, Params!$A$3,"""", TEXT('IDM Codes'!B30,"00"), ". Episode_", TEXT('IDM Codes'!B30,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A30))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A30, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B30,"00"), ". Episode_", TEXT('IDM Codes'!B30,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D30" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A30))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A30, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B30, "00"),". Episode_", TEXT('IDM Codes'!B30, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A30))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A30, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B30, "00"),". Episode_", TEXT('IDM Codes'!B30, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E30" s="4" t="str">
@@ -1210,11 +1185,11 @@
         <v/>
       </c>
       <c r="C31" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A31))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A31, Params!$A$3,"""", TEXT('IDM Codes'!B31,"00"), ". Episode_", TEXT('IDM Codes'!B31,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A31))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A31, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B31,"00"), ". Episode_", TEXT('IDM Codes'!B31,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D31" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A31))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A31, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B31, "00"),". Episode_", TEXT('IDM Codes'!B31, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A31))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A31, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B31, "00"),". Episode_", TEXT('IDM Codes'!B31, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E31" s="4" t="str">
@@ -1228,11 +1203,11 @@
         <v/>
       </c>
       <c r="C32" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A32))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A32, Params!$A$3,"""", TEXT('IDM Codes'!B32,"00"), ". Episode_", TEXT('IDM Codes'!B32,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A32))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A32, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B32,"00"), ". Episode_", TEXT('IDM Codes'!B32,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D32" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A32))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A32, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B32, "00"),". Episode_", TEXT('IDM Codes'!B32, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A32))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A32, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B32, "00"),". Episode_", TEXT('IDM Codes'!B32, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E32" s="4" t="str">
@@ -1246,11 +1221,11 @@
         <v/>
       </c>
       <c r="C33" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A33))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A33, Params!$A$3,"""", TEXT('IDM Codes'!B33,"00"), ". Episode_", TEXT('IDM Codes'!B33,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A33))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A33, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B33,"00"), ". Episode_", TEXT('IDM Codes'!B33,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D33" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A33))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A33, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B33, "00"),". Episode_", TEXT('IDM Codes'!B33, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A33))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A33, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B33, "00"),". Episode_", TEXT('IDM Codes'!B33, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E33" s="4" t="str">
@@ -1264,11 +1239,11 @@
         <v/>
       </c>
       <c r="C34" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A34))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A34, Params!$A$3,"""", TEXT('IDM Codes'!B34,"00"), ". Episode_", TEXT('IDM Codes'!B34,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A34))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A34, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B34,"00"), ". Episode_", TEXT('IDM Codes'!B34,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D34" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A34))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A34, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B34, "00"),". Episode_", TEXT('IDM Codes'!B34, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A34))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A34, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B34, "00"),". Episode_", TEXT('IDM Codes'!B34, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E34" s="4" t="str">
@@ -1282,11 +1257,11 @@
         <v/>
       </c>
       <c r="C35" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A35))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A35, Params!$A$3,"""", TEXT('IDM Codes'!B35,"00"), ". Episode_", TEXT('IDM Codes'!B35,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A35))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A35, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B35,"00"), ". Episode_", TEXT('IDM Codes'!B35,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D35" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A35))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A35, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B35, "00"),". Episode_", TEXT('IDM Codes'!B35, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A35))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A35, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B35, "00"),". Episode_", TEXT('IDM Codes'!B35, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E35" s="4" t="str">
@@ -1300,11 +1275,11 @@
         <v/>
       </c>
       <c r="C36" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A36))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A36, Params!$A$3,"""", TEXT('IDM Codes'!B36,"00"), ". Episode_", TEXT('IDM Codes'!B36,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A36))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A36, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B36,"00"), ". Episode_", TEXT('IDM Codes'!B36,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D36" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A36))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A36, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B36, "00"),". Episode_", TEXT('IDM Codes'!B36, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A36))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A36, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B36, "00"),". Episode_", TEXT('IDM Codes'!B36, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E36" s="4" t="str">
@@ -1318,11 +1293,11 @@
         <v/>
       </c>
       <c r="C37" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A37))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A37, Params!$A$3,"""", TEXT('IDM Codes'!B37,"00"), ". Episode_", TEXT('IDM Codes'!B37,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A37))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A37, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B37,"00"), ". Episode_", TEXT('IDM Codes'!B37,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D37" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A37))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A37, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B37, "00"),". Episode_", TEXT('IDM Codes'!B37, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A37))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A37, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B37, "00"),". Episode_", TEXT('IDM Codes'!B37, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E37" s="4" t="str">
@@ -1336,11 +1311,11 @@
         <v/>
       </c>
       <c r="C38" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A38))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A38, Params!$A$3,"""", TEXT('IDM Codes'!B38,"00"), ". Episode_", TEXT('IDM Codes'!B38,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A38))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A38, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B38,"00"), ". Episode_", TEXT('IDM Codes'!B38,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D38" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A38))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A38, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B38, "00"),". Episode_", TEXT('IDM Codes'!B38, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A38))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A38, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B38, "00"),". Episode_", TEXT('IDM Codes'!B38, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E38" s="4" t="str">
@@ -1354,11 +1329,11 @@
         <v/>
       </c>
       <c r="C39" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A39))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A39, Params!$A$3,"""", TEXT('IDM Codes'!B39,"00"), ". Episode_", TEXT('IDM Codes'!B39,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A39))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A39, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B39,"00"), ". Episode_", TEXT('IDM Codes'!B39,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D39" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A39))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A39, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B39, "00"),". Episode_", TEXT('IDM Codes'!B39, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A39))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A39, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B39, "00"),". Episode_", TEXT('IDM Codes'!B39, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E39" s="4" t="str">
@@ -1372,11 +1347,11 @@
         <v/>
       </c>
       <c r="C40" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A40))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A40, Params!$A$3,"""", TEXT('IDM Codes'!B40,"00"), ". Episode_", TEXT('IDM Codes'!B40,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A40))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A40, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B40,"00"), ". Episode_", TEXT('IDM Codes'!B40,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D40" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A40))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A40, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B40, "00"),". Episode_", TEXT('IDM Codes'!B40, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A40))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A40, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B40, "00"),". Episode_", TEXT('IDM Codes'!B40, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E40" s="4" t="str">
@@ -1390,11 +1365,11 @@
         <v/>
       </c>
       <c r="C41" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A41))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A41, Params!$A$3,"""", TEXT('IDM Codes'!B41,"00"), ". Episode_", TEXT('IDM Codes'!B41,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A41))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A41, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B41,"00"), ". Episode_", TEXT('IDM Codes'!B41,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D41" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A41))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A41, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B41, "00"),". Episode_", TEXT('IDM Codes'!B41, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A41))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A41, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B41, "00"),". Episode_", TEXT('IDM Codes'!B41, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E41" s="4" t="str">
@@ -1408,11 +1383,11 @@
         <v/>
       </c>
       <c r="C42" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A42))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A42, Params!$A$3,"""", TEXT('IDM Codes'!B42,"00"), ". Episode_", TEXT('IDM Codes'!B42,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A42))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A42, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B42,"00"), ". Episode_", TEXT('IDM Codes'!B42,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D42" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A42))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A42, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B42, "00"),". Episode_", TEXT('IDM Codes'!B42, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A42))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A42, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B42, "00"),". Episode_", TEXT('IDM Codes'!B42, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E42" s="4" t="str">
@@ -1426,11 +1401,11 @@
         <v/>
       </c>
       <c r="C43" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A43))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A43, Params!$A$3,"""", TEXT('IDM Codes'!B43,"00"), ". Episode_", TEXT('IDM Codes'!B43,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A43))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A43, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B43,"00"), ". Episode_", TEXT('IDM Codes'!B43,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D43" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A43))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A43, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B43, "00"),". Episode_", TEXT('IDM Codes'!B43, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A43))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A43, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B43, "00"),". Episode_", TEXT('IDM Codes'!B43, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E43" s="4" t="str">
@@ -1444,11 +1419,11 @@
         <v/>
       </c>
       <c r="C44" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A44))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A44, Params!$A$3,"""", TEXT('IDM Codes'!B44,"00"), ". Episode_", TEXT('IDM Codes'!B44,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A44))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A44, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B44,"00"), ". Episode_", TEXT('IDM Codes'!B44,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D44" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A44))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A44, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B44, "00"),". Episode_", TEXT('IDM Codes'!B44, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A44))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A44, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B44, "00"),". Episode_", TEXT('IDM Codes'!B44, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E44" s="4" t="str">
@@ -1462,11 +1437,11 @@
         <v/>
       </c>
       <c r="C45" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A45))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A45, Params!$A$3,"""", TEXT('IDM Codes'!B45,"00"), ". Episode_", TEXT('IDM Codes'!B45,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A45))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A45, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B45,"00"), ". Episode_", TEXT('IDM Codes'!B45,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D45" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A45))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A45, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B45, "00"),". Episode_", TEXT('IDM Codes'!B45, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A45))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A45, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B45, "00"),". Episode_", TEXT('IDM Codes'!B45, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E45" s="4" t="str">
@@ -1480,11 +1455,11 @@
         <v/>
       </c>
       <c r="C46" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A46))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A46, Params!$A$3,"""", TEXT('IDM Codes'!B46,"00"), ". Episode_", TEXT('IDM Codes'!B46,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A46))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A46, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B46,"00"), ". Episode_", TEXT('IDM Codes'!B46,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D46" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A46))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A46, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B46, "00"),". Episode_", TEXT('IDM Codes'!B46, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A46))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A46, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B46, "00"),". Episode_", TEXT('IDM Codes'!B46, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E46" s="4" t="str">
@@ -1498,11 +1473,11 @@
         <v/>
       </c>
       <c r="C47" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A47))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A47, Params!$A$3,"""", TEXT('IDM Codes'!B47,"00"), ". Episode_", TEXT('IDM Codes'!B47,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A47))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A47, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B47,"00"), ". Episode_", TEXT('IDM Codes'!B47,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D47" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A47))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A47, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B47, "00"),". Episode_", TEXT('IDM Codes'!B47, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A47))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A47, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B47, "00"),". Episode_", TEXT('IDM Codes'!B47, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E47" s="4" t="str">
@@ -1516,11 +1491,11 @@
         <v/>
       </c>
       <c r="C48" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A48))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A48, Params!$A$3,"""", TEXT('IDM Codes'!B48,"00"), ". Episode_", TEXT('IDM Codes'!B48,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A48))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A48, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B48,"00"), ". Episode_", TEXT('IDM Codes'!B48,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D48" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A48))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A48, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B48, "00"),". Episode_", TEXT('IDM Codes'!B48, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A48))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A48, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B48, "00"),". Episode_", TEXT('IDM Codes'!B48, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E48" s="4" t="str">
@@ -1534,11 +1509,11 @@
         <v/>
       </c>
       <c r="C49" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A49))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A49, Params!$A$3,"""", TEXT('IDM Codes'!B49,"00"), ". Episode_", TEXT('IDM Codes'!B49,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A49))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A49, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B49,"00"), ". Episode_", TEXT('IDM Codes'!B49,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D49" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A49))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A49, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B49, "00"),". Episode_", TEXT('IDM Codes'!B49, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A49))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A49, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B49, "00"),". Episode_", TEXT('IDM Codes'!B49, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E49" s="4" t="str">
@@ -1552,11 +1527,11 @@
         <v/>
       </c>
       <c r="C50" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A50))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A50, Params!$A$3,"""", TEXT('IDM Codes'!B50,"00"), ". Episode_", TEXT('IDM Codes'!B50,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A50))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A50, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B50,"00"), ". Episode_", TEXT('IDM Codes'!B50,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D50" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A50))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A50, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B50, "00"),". Episode_", TEXT('IDM Codes'!B50, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A50))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A50, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B50, "00"),". Episode_", TEXT('IDM Codes'!B50, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E50" s="4" t="str">
@@ -1570,11 +1545,11 @@
         <v/>
       </c>
       <c r="C51" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A51))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A51, Params!$A$3,"""", TEXT('IDM Codes'!B51,"00"), ". Episode_", TEXT('IDM Codes'!B51,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A51))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A51, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B51,"00"), ". Episode_", TEXT('IDM Codes'!B51,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D51" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A51))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A51, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B51, "00"),". Episode_", TEXT('IDM Codes'!B51, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A51))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A51, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B51, "00"),". Episode_", TEXT('IDM Codes'!B51, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E51" s="4" t="str">
@@ -1588,11 +1563,11 @@
         <v/>
       </c>
       <c r="C52" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A52))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A52, Params!$A$3,"""", TEXT('IDM Codes'!B52,"00"), ". Episode_", TEXT('IDM Codes'!B52,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A52))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A52, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B52,"00"), ". Episode_", TEXT('IDM Codes'!B52,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D52" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A52))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A52, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B52, "00"),". Episode_", TEXT('IDM Codes'!B52, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A52))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A52, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B52, "00"),". Episode_", TEXT('IDM Codes'!B52, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E52" s="4" t="str">
@@ -1606,11 +1581,11 @@
         <v/>
       </c>
       <c r="C53" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A53))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A53, Params!$A$3,"""", TEXT('IDM Codes'!B53,"00"), ". Episode_", TEXT('IDM Codes'!B53,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A53))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A53, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B53,"00"), ". Episode_", TEXT('IDM Codes'!B53,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D53" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A53))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A53, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B53, "00"),". Episode_", TEXT('IDM Codes'!B53, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A53))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A53, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B53, "00"),". Episode_", TEXT('IDM Codes'!B53, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E53" s="4" t="str">
@@ -1624,11 +1599,11 @@
         <v/>
       </c>
       <c r="C54" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A54))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A54, Params!$A$3,"""", TEXT('IDM Codes'!B54,"00"), ". Episode_", TEXT('IDM Codes'!B54,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A54))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A54, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B54,"00"), ". Episode_", TEXT('IDM Codes'!B54,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D54" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A54))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A54, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B54, "00"),". Episode_", TEXT('IDM Codes'!B54, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A54))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A54, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B54, "00"),". Episode_", TEXT('IDM Codes'!B54, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E54" s="4" t="str">
@@ -1642,11 +1617,11 @@
         <v/>
       </c>
       <c r="C55" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A55))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A55, Params!$A$3,"""", TEXT('IDM Codes'!B55,"00"), ". Episode_", TEXT('IDM Codes'!B55,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A55))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A55, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B55,"00"), ". Episode_", TEXT('IDM Codes'!B55,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D55" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A55))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A55, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B55, "00"),". Episode_", TEXT('IDM Codes'!B55, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A55))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A55, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B55, "00"),". Episode_", TEXT('IDM Codes'!B55, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E55" s="4" t="str">
@@ -1660,11 +1635,11 @@
         <v/>
       </c>
       <c r="C56" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A56))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A56, Params!$A$3,"""", TEXT('IDM Codes'!B56,"00"), ". Episode_", TEXT('IDM Codes'!B56,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A56))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A56, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B56,"00"), ". Episode_", TEXT('IDM Codes'!B56,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D56" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A56))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A56, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B56, "00"),". Episode_", TEXT('IDM Codes'!B56, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A56))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A56, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B56, "00"),". Episode_", TEXT('IDM Codes'!B56, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E56" s="4" t="str">
@@ -1678,11 +1653,11 @@
         <v/>
       </c>
       <c r="C57" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A57))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A57, Params!$A$3,"""", TEXT('IDM Codes'!B57,"00"), ". Episode_", TEXT('IDM Codes'!B57,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A57))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A57, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B57,"00"), ". Episode_", TEXT('IDM Codes'!B57,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D57" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A57))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A57, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B57, "00"),". Episode_", TEXT('IDM Codes'!B57, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A57))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A57, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B57, "00"),". Episode_", TEXT('IDM Codes'!B57, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E57" s="4" t="str">
@@ -1696,11 +1671,11 @@
         <v/>
       </c>
       <c r="C58" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A58))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A58, Params!$A$3,"""", TEXT('IDM Codes'!B58,"00"), ". Episode_", TEXT('IDM Codes'!B58,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A58))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A58, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B58,"00"), ". Episode_", TEXT('IDM Codes'!B58,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D58" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A58))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A58, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B58, "00"),". Episode_", TEXT('IDM Codes'!B58, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A58))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A58, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B58, "00"),". Episode_", TEXT('IDM Codes'!B58, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E58" s="4" t="str">
@@ -1714,11 +1689,11 @@
         <v/>
       </c>
       <c r="C59" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A59))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A59, Params!$A$3,"""", TEXT('IDM Codes'!B59,"00"), ". Episode_", TEXT('IDM Codes'!B59,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A59))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A59, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B59,"00"), ". Episode_", TEXT('IDM Codes'!B59,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D59" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A59))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A59, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B59, "00"),". Episode_", TEXT('IDM Codes'!B59, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A59))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A59, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B59, "00"),". Episode_", TEXT('IDM Codes'!B59, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E59" s="4" t="str">
@@ -1732,11 +1707,11 @@
         <v/>
       </c>
       <c r="C60" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A60))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A60, Params!$A$3,"""", TEXT('IDM Codes'!B60,"00"), ". Episode_", TEXT('IDM Codes'!B60,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A60))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A60, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B60,"00"), ". Episode_", TEXT('IDM Codes'!B60,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D60" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A60))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A60, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B60, "00"),". Episode_", TEXT('IDM Codes'!B60, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A60))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A60, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B60, "00"),". Episode_", TEXT('IDM Codes'!B60, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E60" s="4" t="str">
@@ -1750,11 +1725,11 @@
         <v/>
       </c>
       <c r="C61" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A61))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A61, Params!$A$3,"""", TEXT('IDM Codes'!B61,"00"), ". Episode_", TEXT('IDM Codes'!B61,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A61))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A61, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B61,"00"), ". Episode_", TEXT('IDM Codes'!B61,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D61" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A61))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A61, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B61, "00"),". Episode_", TEXT('IDM Codes'!B61, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A61))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A61, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B61, "00"),". Episode_", TEXT('IDM Codes'!B61, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E61" s="4" t="str">
@@ -1768,11 +1743,11 @@
         <v/>
       </c>
       <c r="C62" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A62))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A62, Params!$A$3,"""", TEXT('IDM Codes'!B62,"00"), ". Episode_", TEXT('IDM Codes'!B62,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A62))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A62, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B62,"00"), ". Episode_", TEXT('IDM Codes'!B62,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D62" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A62))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A62, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B62, "00"),". Episode_", TEXT('IDM Codes'!B62, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A62))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A62, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B62, "00"),". Episode_", TEXT('IDM Codes'!B62, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E62" s="4" t="str">
@@ -1786,11 +1761,11 @@
         <v/>
       </c>
       <c r="C63" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A63))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A63, Params!$A$3,"""", TEXT('IDM Codes'!B63,"00"), ". Episode_", TEXT('IDM Codes'!B63,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A63))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A63, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B63,"00"), ". Episode_", TEXT('IDM Codes'!B63,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D63" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A63))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A63, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B63, "00"),". Episode_", TEXT('IDM Codes'!B63, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A63))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A63, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B63, "00"),". Episode_", TEXT('IDM Codes'!B63, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E63" s="4" t="str">
@@ -1804,11 +1779,11 @@
         <v/>
       </c>
       <c r="C64" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A64))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A64, Params!$A$3,"""", TEXT('IDM Codes'!B64,"00"), ". Episode_", TEXT('IDM Codes'!B64,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A64))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A64, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B64,"00"), ". Episode_", TEXT('IDM Codes'!B64,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D64" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A64))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A64, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B64, "00"),". Episode_", TEXT('IDM Codes'!B64, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A64))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A64, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B64, "00"),". Episode_", TEXT('IDM Codes'!B64, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E64" s="4" t="str">
@@ -1822,11 +1797,11 @@
         <v/>
       </c>
       <c r="C65" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A65))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A65, Params!$A$3,"""", TEXT('IDM Codes'!B65,"00"), ". Episode_", TEXT('IDM Codes'!B65,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A65))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A65, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B65,"00"), ". Episode_", TEXT('IDM Codes'!B65,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D65" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A65))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A65, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B65, "00"),". Episode_", TEXT('IDM Codes'!B65, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A65))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A65, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B65, "00"),". Episode_", TEXT('IDM Codes'!B65, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E65" s="4" t="str">
@@ -1840,11 +1815,11 @@
         <v/>
       </c>
       <c r="C66" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A66))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A66, Params!$A$3,"""", TEXT('IDM Codes'!B66,"00"), ". Episode_", TEXT('IDM Codes'!B66,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A66))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A66, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B66,"00"), ". Episode_", TEXT('IDM Codes'!B66,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D66" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A66))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A66, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B66, "00"),". Episode_", TEXT('IDM Codes'!B66, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A66))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A66, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B66, "00"),". Episode_", TEXT('IDM Codes'!B66, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E66" s="4" t="str">
@@ -1858,11 +1833,11 @@
         <v/>
       </c>
       <c r="C67" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A67))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A67, Params!$A$3,"""", TEXT('IDM Codes'!B67,"00"), ". Episode_", TEXT('IDM Codes'!B67,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A67))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A67, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B67,"00"), ". Episode_", TEXT('IDM Codes'!B67,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D67" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A67))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A67, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B67, "00"),". Episode_", TEXT('IDM Codes'!B67, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A67))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A67, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B67, "00"),". Episode_", TEXT('IDM Codes'!B67, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E67" s="4" t="str">
@@ -1876,11 +1851,11 @@
         <v/>
       </c>
       <c r="C68" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A68))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A68, Params!$A$3,"""", TEXT('IDM Codes'!B68,"00"), ". Episode_", TEXT('IDM Codes'!B68,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A68))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A68, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B68,"00"), ". Episode_", TEXT('IDM Codes'!B68,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D68" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A68))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A68, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B68, "00"),". Episode_", TEXT('IDM Codes'!B68, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A68))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A68, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B68, "00"),". Episode_", TEXT('IDM Codes'!B68, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E68" s="4" t="str">
@@ -1894,11 +1869,11 @@
         <v/>
       </c>
       <c r="C69" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A69))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A69, Params!$A$3,"""", TEXT('IDM Codes'!B69,"00"), ". Episode_", TEXT('IDM Codes'!B69,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A69))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A69, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B69,"00"), ". Episode_", TEXT('IDM Codes'!B69,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D69" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A69))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A69, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B69, "00"),". Episode_", TEXT('IDM Codes'!B69, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A69))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A69, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B69, "00"),". Episode_", TEXT('IDM Codes'!B69, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E69" s="4" t="str">
@@ -1912,11 +1887,11 @@
         <v/>
       </c>
       <c r="C70" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A70))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A70, Params!$A$3,"""", TEXT('IDM Codes'!B70,"00"), ". Episode_", TEXT('IDM Codes'!B70,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A70))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A70, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B70,"00"), ". Episode_", TEXT('IDM Codes'!B70,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D70" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A70))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A70, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B70, "00"),". Episode_", TEXT('IDM Codes'!B70, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A70))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A70, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B70, "00"),". Episode_", TEXT('IDM Codes'!B70, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E70" s="4" t="str">
@@ -1930,11 +1905,11 @@
         <v/>
       </c>
       <c r="C71" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A71))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A71, Params!$A$3,"""", TEXT('IDM Codes'!B71,"00"), ". Episode_", TEXT('IDM Codes'!B71,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A71))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A71, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B71,"00"), ". Episode_", TEXT('IDM Codes'!B71,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D71" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A71))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A71, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B71, "00"),". Episode_", TEXT('IDM Codes'!B71, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A71))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A71, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B71, "00"),". Episode_", TEXT('IDM Codes'!B71, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E71" s="4" t="str">
@@ -1948,11 +1923,11 @@
         <v/>
       </c>
       <c r="C72" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A72))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A72, Params!$A$3,"""", TEXT('IDM Codes'!B72,"00"), ". Episode_", TEXT('IDM Codes'!B72,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A72))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A72, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B72,"00"), ". Episode_", TEXT('IDM Codes'!B72,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D72" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A72))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A72, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B72, "00"),". Episode_", TEXT('IDM Codes'!B72, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A72))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A72, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B72, "00"),". Episode_", TEXT('IDM Codes'!B72, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E72" s="4" t="str">
@@ -1966,11 +1941,11 @@
         <v/>
       </c>
       <c r="C73" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A73))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A73, Params!$A$3,"""", TEXT('IDM Codes'!B73,"00"), ". Episode_", TEXT('IDM Codes'!B73,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A73))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A73, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B73,"00"), ". Episode_", TEXT('IDM Codes'!B73,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D73" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A73))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A73, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B73, "00"),". Episode_", TEXT('IDM Codes'!B73, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A73))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A73, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B73, "00"),". Episode_", TEXT('IDM Codes'!B73, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E73" s="4" t="str">
@@ -1984,11 +1959,11 @@
         <v/>
       </c>
       <c r="C74" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A74))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A74, Params!$A$3,"""", TEXT('IDM Codes'!B74,"00"), ". Episode_", TEXT('IDM Codes'!B74,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A74))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A74, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B74,"00"), ". Episode_", TEXT('IDM Codes'!B74,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D74" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A74))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A74, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B74, "00"),". Episode_", TEXT('IDM Codes'!B74, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A74))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A74, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B74, "00"),". Episode_", TEXT('IDM Codes'!B74, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E74" s="4" t="str">
@@ -2002,11 +1977,11 @@
         <v/>
       </c>
       <c r="C75" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A75))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A75, Params!$A$3,"""", TEXT('IDM Codes'!B75,"00"), ". Episode_", TEXT('IDM Codes'!B75,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A75))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A75, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B75,"00"), ". Episode_", TEXT('IDM Codes'!B75,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D75" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A75))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A75, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B75, "00"),". Episode_", TEXT('IDM Codes'!B75, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A75))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A75, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B75, "00"),". Episode_", TEXT('IDM Codes'!B75, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E75" s="4" t="str">
@@ -2020,11 +1995,11 @@
         <v/>
       </c>
       <c r="C76" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A76))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A76, Params!$A$3,"""", TEXT('IDM Codes'!B76,"00"), ". Episode_", TEXT('IDM Codes'!B76,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A76))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A76, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B76,"00"), ". Episode_", TEXT('IDM Codes'!B76,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D76" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A76))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A76, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B76, "00"),". Episode_", TEXT('IDM Codes'!B76, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A76))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A76, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B76, "00"),". Episode_", TEXT('IDM Codes'!B76, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E76" s="4" t="str">
@@ -2038,11 +2013,11 @@
         <v/>
       </c>
       <c r="C77" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A77))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A77, Params!$A$3,"""", TEXT('IDM Codes'!B77,"00"), ". Episode_", TEXT('IDM Codes'!B77,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A77))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A77, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B77,"00"), ". Episode_", TEXT('IDM Codes'!B77,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D77" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A77))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A77, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B77, "00"),". Episode_", TEXT('IDM Codes'!B77, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A77))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A77, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B77, "00"),". Episode_", TEXT('IDM Codes'!B77, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E77" s="4" t="str">
@@ -2056,11 +2031,11 @@
         <v/>
       </c>
       <c r="C78" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A78))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A78, Params!$A$3,"""", TEXT('IDM Codes'!B78,"00"), ". Episode_", TEXT('IDM Codes'!B78,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A78))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A78, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B78,"00"), ". Episode_", TEXT('IDM Codes'!B78,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D78" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A78))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A78, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B78, "00"),". Episode_", TEXT('IDM Codes'!B78, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A78))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A78, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B78, "00"),". Episode_", TEXT('IDM Codes'!B78, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E78" s="4" t="str">
@@ -2074,11 +2049,11 @@
         <v/>
       </c>
       <c r="C79" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A79))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A79, Params!$A$3,"""", TEXT('IDM Codes'!B79,"00"), ". Episode_", TEXT('IDM Codes'!B79,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A79))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A79, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B79,"00"), ". Episode_", TEXT('IDM Codes'!B79,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D79" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A79))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A79, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B79, "00"),". Episode_", TEXT('IDM Codes'!B79, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A79))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A79, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B79, "00"),". Episode_", TEXT('IDM Codes'!B79, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E79" s="4" t="str">
@@ -2092,11 +2067,11 @@
         <v/>
       </c>
       <c r="C80" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A80))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A80, Params!$A$3,"""", TEXT('IDM Codes'!B80,"00"), ". Episode_", TEXT('IDM Codes'!B80,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A80))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A80, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B80,"00"), ". Episode_", TEXT('IDM Codes'!B80,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D80" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A80))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A80, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B80, "00"),". Episode_", TEXT('IDM Codes'!B80, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A80))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A80, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B80, "00"),". Episode_", TEXT('IDM Codes'!B80, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E80" s="4" t="str">
@@ -2110,11 +2085,11 @@
         <v/>
       </c>
       <c r="C81" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A81))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A81, Params!$A$3,"""", TEXT('IDM Codes'!B81,"00"), ". Episode_", TEXT('IDM Codes'!B81,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A81))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A81, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B81,"00"), ". Episode_", TEXT('IDM Codes'!B81,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D81" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A81))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A81, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B81, "00"),". Episode_", TEXT('IDM Codes'!B81, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A81))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A81, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B81, "00"),". Episode_", TEXT('IDM Codes'!B81, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E81" s="4" t="str">
@@ -2128,11 +2103,11 @@
         <v/>
       </c>
       <c r="C82" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A82))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A82, Params!$A$3,"""", TEXT('IDM Codes'!B82,"00"), ". Episode_", TEXT('IDM Codes'!B82,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A82))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A82, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B82,"00"), ". Episode_", TEXT('IDM Codes'!B82,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D82" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A82))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A82, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B82, "00"),". Episode_", TEXT('IDM Codes'!B82, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A82))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A82, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B82, "00"),". Episode_", TEXT('IDM Codes'!B82, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E82" s="4" t="str">
@@ -2146,11 +2121,11 @@
         <v/>
       </c>
       <c r="C83" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A83))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A83, Params!$A$3,"""", TEXT('IDM Codes'!B83,"00"), ". Episode_", TEXT('IDM Codes'!B83,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A83))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A83, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B83,"00"), ". Episode_", TEXT('IDM Codes'!B83,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D83" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A83))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A83, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B83, "00"),". Episode_", TEXT('IDM Codes'!B83, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A83))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A83, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B83, "00"),". Episode_", TEXT('IDM Codes'!B83, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E83" s="4" t="str">
@@ -2164,11 +2139,11 @@
         <v/>
       </c>
       <c r="C84" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A84))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A84, Params!$A$3,"""", TEXT('IDM Codes'!B84,"00"), ". Episode_", TEXT('IDM Codes'!B84,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A84))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A84, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B84,"00"), ". Episode_", TEXT('IDM Codes'!B84,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D84" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A84))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A84, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B84, "00"),". Episode_", TEXT('IDM Codes'!B84, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A84))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A84, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B84, "00"),". Episode_", TEXT('IDM Codes'!B84, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E84" s="4" t="str">
@@ -2182,11 +2157,11 @@
         <v/>
       </c>
       <c r="C85" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A85))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A85, Params!$A$3,"""", TEXT('IDM Codes'!B85,"00"), ". Episode_", TEXT('IDM Codes'!B85,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A85))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A85, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B85,"00"), ". Episode_", TEXT('IDM Codes'!B85,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D85" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A85))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A85, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B85, "00"),". Episode_", TEXT('IDM Codes'!B85, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A85))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A85, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B85, "00"),". Episode_", TEXT('IDM Codes'!B85, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E85" s="4" t="str">
@@ -2200,11 +2175,11 @@
         <v/>
       </c>
       <c r="C86" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A86))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A86, Params!$A$3,"""", TEXT('IDM Codes'!B86,"00"), ". Episode_", TEXT('IDM Codes'!B86,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A86))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A86, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B86,"00"), ". Episode_", TEXT('IDM Codes'!B86,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D86" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A86))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A86, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B86, "00"),". Episode_", TEXT('IDM Codes'!B86, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A86))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A86, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B86, "00"),". Episode_", TEXT('IDM Codes'!B86, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E86" s="4" t="str">
@@ -2218,11 +2193,11 @@
         <v/>
       </c>
       <c r="C87" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A87))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A87, Params!$A$3,"""", TEXT('IDM Codes'!B87,"00"), ". Episode_", TEXT('IDM Codes'!B87,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A87))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A87, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B87,"00"), ". Episode_", TEXT('IDM Codes'!B87,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D87" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A87))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A87, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B87, "00"),". Episode_", TEXT('IDM Codes'!B87, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A87))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A87, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B87, "00"),". Episode_", TEXT('IDM Codes'!B87, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E87" s="4" t="str">
@@ -2236,11 +2211,11 @@
         <v/>
       </c>
       <c r="C88" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A88))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A88, Params!$A$3,"""", TEXT('IDM Codes'!B88,"00"), ". Episode_", TEXT('IDM Codes'!B88,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A88))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A88, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B88,"00"), ". Episode_", TEXT('IDM Codes'!B88,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D88" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A88))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A88, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B88, "00"),". Episode_", TEXT('IDM Codes'!B88, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A88))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A88, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B88, "00"),". Episode_", TEXT('IDM Codes'!B88, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E88" s="4" t="str">
@@ -2254,11 +2229,11 @@
         <v/>
       </c>
       <c r="C89" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A89))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A89, Params!$A$3,"""", TEXT('IDM Codes'!B89,"00"), ". Episode_", TEXT('IDM Codes'!B89,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A89))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A89, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B89,"00"), ". Episode_", TEXT('IDM Codes'!B89,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D89" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A89))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A89, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B89, "00"),". Episode_", TEXT('IDM Codes'!B89, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A89))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A89, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B89, "00"),". Episode_", TEXT('IDM Codes'!B89, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E89" s="4" t="str">
@@ -2272,11 +2247,11 @@
         <v/>
       </c>
       <c r="C90" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A90))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A90, Params!$A$3,"""", TEXT('IDM Codes'!B90,"00"), ". Episode_", TEXT('IDM Codes'!B90,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A90))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A90, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B90,"00"), ". Episode_", TEXT('IDM Codes'!B90,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D90" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A90))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A90, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B90, "00"),". Episode_", TEXT('IDM Codes'!B90, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A90))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A90, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B90, "00"),". Episode_", TEXT('IDM Codes'!B90, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E90" s="4" t="str">
@@ -2290,11 +2265,11 @@
         <v/>
       </c>
       <c r="C91" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A91))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A91, Params!$A$3,"""", TEXT('IDM Codes'!B91,"00"), ". Episode_", TEXT('IDM Codes'!B91,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A91))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A91, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B91,"00"), ". Episode_", TEXT('IDM Codes'!B91,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D91" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A91))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A91, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B91, "00"),". Episode_", TEXT('IDM Codes'!B91, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A91))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A91, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B91, "00"),". Episode_", TEXT('IDM Codes'!B91, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E91" s="4" t="str">
@@ -2308,11 +2283,11 @@
         <v/>
       </c>
       <c r="C92" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A92))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A92, Params!$A$3,"""", TEXT('IDM Codes'!B92,"00"), ". Episode_", TEXT('IDM Codes'!B92,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A92))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A92, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B92,"00"), ". Episode_", TEXT('IDM Codes'!B92,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D92" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A92))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A92, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B92, "00"),". Episode_", TEXT('IDM Codes'!B92, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A92))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A92, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B92, "00"),". Episode_", TEXT('IDM Codes'!B92, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E92" s="4" t="str">
@@ -2326,11 +2301,11 @@
         <v/>
       </c>
       <c r="C93" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A93))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A93, Params!$A$3,"""", TEXT('IDM Codes'!B93,"00"), ". Episode_", TEXT('IDM Codes'!B93,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A93))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A93, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B93,"00"), ". Episode_", TEXT('IDM Codes'!B93,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D93" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A93))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A93, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B93, "00"),". Episode_", TEXT('IDM Codes'!B93, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A93))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A93, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B93, "00"),". Episode_", TEXT('IDM Codes'!B93, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E93" s="4" t="str">
@@ -2344,11 +2319,11 @@
         <v/>
       </c>
       <c r="C94" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A94))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A94, Params!$A$3,"""", TEXT('IDM Codes'!B94,"00"), ". Episode_", TEXT('IDM Codes'!B94,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A94))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A94, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B94,"00"), ". Episode_", TEXT('IDM Codes'!B94,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D94" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A94))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A94, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B94, "00"),". Episode_", TEXT('IDM Codes'!B94, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A94))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A94, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B94, "00"),". Episode_", TEXT('IDM Codes'!B94, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E94" s="4" t="str">
@@ -2362,11 +2337,11 @@
         <v/>
       </c>
       <c r="C95" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A95))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A95, Params!$A$3,"""", TEXT('IDM Codes'!B95,"00"), ". Episode_", TEXT('IDM Codes'!B95,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A95))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A95, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B95,"00"), ". Episode_", TEXT('IDM Codes'!B95,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D95" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A95))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A95, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B95, "00"),". Episode_", TEXT('IDM Codes'!B95, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A95))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A95, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B95, "00"),". Episode_", TEXT('IDM Codes'!B95, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E95" s="4" t="str">
@@ -2380,11 +2355,11 @@
         <v/>
       </c>
       <c r="C96" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A96))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A96, Params!$A$3,"""", TEXT('IDM Codes'!B96,"00"), ". Episode_", TEXT('IDM Codes'!B96,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A96))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A96, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B96,"00"), ". Episode_", TEXT('IDM Codes'!B96,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D96" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A96))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A96, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B96, "00"),". Episode_", TEXT('IDM Codes'!B96, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A96))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A96, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B96, "00"),". Episode_", TEXT('IDM Codes'!B96, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E96" s="4" t="str">
@@ -2398,11 +2373,11 @@
         <v/>
       </c>
       <c r="C97" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A97))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A97, Params!$A$3,"""", TEXT('IDM Codes'!B97,"00"), ". Episode_", TEXT('IDM Codes'!B97,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A97))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A97, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B97,"00"), ". Episode_", TEXT('IDM Codes'!B97,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D97" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A97))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A97, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B97, "00"),". Episode_", TEXT('IDM Codes'!B97, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A97))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A97, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B97, "00"),". Episode_", TEXT('IDM Codes'!B97, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E97" s="4" t="str">
@@ -2416,11 +2391,11 @@
         <v/>
       </c>
       <c r="C98" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A98))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A98, Params!$A$3,"""", TEXT('IDM Codes'!B98,"00"), ". Episode_", TEXT('IDM Codes'!B98,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A98))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A98, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B98,"00"), ". Episode_", TEXT('IDM Codes'!B98,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D98" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A98))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A98, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B98, "00"),". Episode_", TEXT('IDM Codes'!B98, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A98))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A98, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B98, "00"),". Episode_", TEXT('IDM Codes'!B98, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E98" s="4" t="str">
@@ -2434,11 +2409,11 @@
         <v/>
       </c>
       <c r="C99" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A99))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A99, Params!$A$3,"""", TEXT('IDM Codes'!B99,"00"), ". Episode_", TEXT('IDM Codes'!B99,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A99))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A99, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B99,"00"), ". Episode_", TEXT('IDM Codes'!B99,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D99" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A99))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A99, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B99, "00"),". Episode_", TEXT('IDM Codes'!B99, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A99))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A99, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B99, "00"),". Episode_", TEXT('IDM Codes'!B99, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E99" s="4" t="str">
@@ -2452,11 +2427,11 @@
         <v/>
       </c>
       <c r="C100" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A100))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A100, Params!$A$3,"""", TEXT('IDM Codes'!B100,"00"), ". Episode_", TEXT('IDM Codes'!B100,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A100))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A100, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B100,"00"), ". Episode_", TEXT('IDM Codes'!B100,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D100" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A100))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A100, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B100, "00"),". Episode_", TEXT('IDM Codes'!B100, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A100))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A100, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B100, "00"),". Episode_", TEXT('IDM Codes'!B100, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E100" s="4" t="str">
@@ -2470,11 +2445,11 @@
         <v/>
       </c>
       <c r="C101" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A101))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A101, Params!$A$3,"""", TEXT('IDM Codes'!B101,"00"), ". Episode_", TEXT('IDM Codes'!B101,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A101))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A101, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B101,"00"), ". Episode_", TEXT('IDM Codes'!B101,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D101" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A101))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A101, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B101, "00"),". Episode_", TEXT('IDM Codes'!B101, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A101))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A101, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B101, "00"),". Episode_", TEXT('IDM Codes'!B101, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E101" s="4" t="str">
@@ -2488,11 +2463,11 @@
         <v/>
       </c>
       <c r="C102" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A102))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A102, Params!$A$3,"""", TEXT('IDM Codes'!B102,"00"), ". Episode_", TEXT('IDM Codes'!B102,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A102))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A102, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B102,"00"), ". Episode_", TEXT('IDM Codes'!B102,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D102" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A102))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A102, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B102, "00"),". Episode_", TEXT('IDM Codes'!B102, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A102))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A102, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B102, "00"),". Episode_", TEXT('IDM Codes'!B102, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E102" s="4" t="str">
@@ -2506,11 +2481,11 @@
         <v/>
       </c>
       <c r="C103" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A103))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A103, Params!$A$3,"""", TEXT('IDM Codes'!B103,"00"), ". Episode_", TEXT('IDM Codes'!B103,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A103))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A103, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B103,"00"), ". Episode_", TEXT('IDM Codes'!B103,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D103" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A103))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A103, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B103, "00"),". Episode_", TEXT('IDM Codes'!B103, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A103))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A103, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B103, "00"),". Episode_", TEXT('IDM Codes'!B103, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E103" s="4" t="str">
@@ -2524,11 +2499,11 @@
         <v/>
       </c>
       <c r="C104" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A104))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A104, Params!$A$3,"""", TEXT('IDM Codes'!B104,"00"), ". Episode_", TEXT('IDM Codes'!B104,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A104))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A104, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B104,"00"), ". Episode_", TEXT('IDM Codes'!B104,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D104" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A104))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A104, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B104, "00"),". Episode_", TEXT('IDM Codes'!B104, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A104))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A104, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B104, "00"),". Episode_", TEXT('IDM Codes'!B104, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E104" s="4" t="str">
@@ -2542,11 +2517,11 @@
         <v/>
       </c>
       <c r="C105" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A105))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A105, Params!$A$3,"""", TEXT('IDM Codes'!B105,"00"), ". Episode_", TEXT('IDM Codes'!B105,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A105))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A105, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B105,"00"), ". Episode_", TEXT('IDM Codes'!B105,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D105" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A105))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A105, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B105, "00"),". Episode_", TEXT('IDM Codes'!B105, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A105))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A105, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B105, "00"),". Episode_", TEXT('IDM Codes'!B105, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E105" s="4" t="str">
@@ -2560,11 +2535,11 @@
         <v/>
       </c>
       <c r="C106" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A106))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A106, Params!$A$3,"""", TEXT('IDM Codes'!B106,"00"), ". Episode_", TEXT('IDM Codes'!B106,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A106))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A106, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B106,"00"), ". Episode_", TEXT('IDM Codes'!B106,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D106" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A106))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A106, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B106, "00"),". Episode_", TEXT('IDM Codes'!B106, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A106))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A106, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B106, "00"),". Episode_", TEXT('IDM Codes'!B106, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E106" s="4" t="str">
@@ -2578,11 +2553,11 @@
         <v/>
       </c>
       <c r="C107" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A107))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A107, Params!$A$3,"""", TEXT('IDM Codes'!B107,"00"), ". Episode_", TEXT('IDM Codes'!B107,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A107))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A107, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B107,"00"), ". Episode_", TEXT('IDM Codes'!B107,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D107" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A107))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A107, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B107, "00"),". Episode_", TEXT('IDM Codes'!B107, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A107))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A107, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B107, "00"),". Episode_", TEXT('IDM Codes'!B107, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E107" s="4" t="str">
@@ -2596,11 +2571,11 @@
         <v/>
       </c>
       <c r="C108" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A108))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A108, Params!$A$3,"""", TEXT('IDM Codes'!B108,"00"), ". Episode_", TEXT('IDM Codes'!B108,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A108))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A108, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B108,"00"), ". Episode_", TEXT('IDM Codes'!B108,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D108" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A108))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A108, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B108, "00"),". Episode_", TEXT('IDM Codes'!B108, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A108))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A108, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B108, "00"),". Episode_", TEXT('IDM Codes'!B108, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E108" s="4" t="str">
@@ -2614,11 +2589,11 @@
         <v/>
       </c>
       <c r="C109" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A109))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A109, Params!$A$3,"""", TEXT('IDM Codes'!B109,"00"), ". Episode_", TEXT('IDM Codes'!B109,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A109))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A109, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B109,"00"), ". Episode_", TEXT('IDM Codes'!B109,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D109" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A109))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A109, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B109, "00"),". Episode_", TEXT('IDM Codes'!B109, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A109))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A109, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B109, "00"),". Episode_", TEXT('IDM Codes'!B109, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E109" s="4" t="str">
@@ -2632,11 +2607,11 @@
         <v/>
       </c>
       <c r="C110" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A110))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A110, Params!$A$3,"""", TEXT('IDM Codes'!B110,"00"), ". Episode_", TEXT('IDM Codes'!B110,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A110))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A110, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B110,"00"), ". Episode_", TEXT('IDM Codes'!B110,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D110" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A110))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A110, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B110, "00"),". Episode_", TEXT('IDM Codes'!B110, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A110))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A110, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B110, "00"),". Episode_", TEXT('IDM Codes'!B110, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E110" s="4" t="str">
@@ -2650,11 +2625,11 @@
         <v/>
       </c>
       <c r="C111" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A111))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A111, Params!$A$3,"""", TEXT('IDM Codes'!B111,"00"), ". Episode_", TEXT('IDM Codes'!B111,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A111))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A111, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B111,"00"), ". Episode_", TEXT('IDM Codes'!B111,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D111" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A111))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A111, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B111, "00"),". Episode_", TEXT('IDM Codes'!B111, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A111))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A111, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B111, "00"),". Episode_", TEXT('IDM Codes'!B111, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E111" s="4" t="str">
@@ -2668,11 +2643,11 @@
         <v/>
       </c>
       <c r="C112" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A112))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A112, Params!$A$3,"""", TEXT('IDM Codes'!B112,"00"), ". Episode_", TEXT('IDM Codes'!B112,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A112))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A112, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B112,"00"), ". Episode_", TEXT('IDM Codes'!B112,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D112" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A112))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A112, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B112, "00"),". Episode_", TEXT('IDM Codes'!B112, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A112))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A112, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B112, "00"),". Episode_", TEXT('IDM Codes'!B112, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E112" s="4" t="str">
@@ -2686,11 +2661,11 @@
         <v/>
       </c>
       <c r="C113" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A113))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A113, Params!$A$3,"""", TEXT('IDM Codes'!B113,"00"), ". Episode_", TEXT('IDM Codes'!B113,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A113))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A113, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B113,"00"), ". Episode_", TEXT('IDM Codes'!B113,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D113" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A113))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A113, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B113, "00"),". Episode_", TEXT('IDM Codes'!B113, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A113))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A113, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B113, "00"),". Episode_", TEXT('IDM Codes'!B113, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E113" s="4" t="str">
@@ -2704,11 +2679,11 @@
         <v/>
       </c>
       <c r="C114" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A114))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A114, Params!$A$3,"""", TEXT('IDM Codes'!B114,"00"), ". Episode_", TEXT('IDM Codes'!B114,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A114))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A114, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B114,"00"), ". Episode_", TEXT('IDM Codes'!B114,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D114" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A114))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A114, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B114, "00"),". Episode_", TEXT('IDM Codes'!B114, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A114))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A114, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B114, "00"),". Episode_", TEXT('IDM Codes'!B114, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E114" s="4" t="str">
@@ -2722,11 +2697,11 @@
         <v/>
       </c>
       <c r="C115" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A115))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A115, Params!$A$3,"""", TEXT('IDM Codes'!B115,"00"), ". Episode_", TEXT('IDM Codes'!B115,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A115))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A115, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B115,"00"), ". Episode_", TEXT('IDM Codes'!B115,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D115" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A115))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A115, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B115, "00"),". Episode_", TEXT('IDM Codes'!B115, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A115))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A115, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B115, "00"),". Episode_", TEXT('IDM Codes'!B115, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E115" s="4" t="str">
@@ -2740,11 +2715,11 @@
         <v/>
       </c>
       <c r="C116" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A116))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A116, Params!$A$3,"""", TEXT('IDM Codes'!B116,"00"), ". Episode_", TEXT('IDM Codes'!B116,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A116))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A116, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B116,"00"), ". Episode_", TEXT('IDM Codes'!B116,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D116" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A116))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A116, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B116, "00"),". Episode_", TEXT('IDM Codes'!B116, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A116))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A116, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B116, "00"),". Episode_", TEXT('IDM Codes'!B116, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E116" s="4" t="str">
@@ -2758,11 +2733,11 @@
         <v/>
       </c>
       <c r="C117" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A117))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A117, Params!$A$3,"""", TEXT('IDM Codes'!B117,"00"), ". Episode_", TEXT('IDM Codes'!B117,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A117))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A117, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B117,"00"), ". Episode_", TEXT('IDM Codes'!B117,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D117" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A117))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A117, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B117, "00"),". Episode_", TEXT('IDM Codes'!B117, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A117))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A117, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B117, "00"),". Episode_", TEXT('IDM Codes'!B117, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E117" s="4" t="str">
@@ -2776,11 +2751,11 @@
         <v/>
       </c>
       <c r="C118" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A118))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A118, Params!$A$3,"""", TEXT('IDM Codes'!B118,"00"), ". Episode_", TEXT('IDM Codes'!B118,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A118))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A118, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B118,"00"), ". Episode_", TEXT('IDM Codes'!B118,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D118" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A118))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A118, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B118, "00"),". Episode_", TEXT('IDM Codes'!B118, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A118))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A118, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B118, "00"),". Episode_", TEXT('IDM Codes'!B118, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E118" s="4" t="str">
@@ -2794,11 +2769,11 @@
         <v/>
       </c>
       <c r="C119" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A119))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A119, Params!$A$3,"""", TEXT('IDM Codes'!B119,"00"), ". Episode_", TEXT('IDM Codes'!B119,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A119))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A119, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B119,"00"), ". Episode_", TEXT('IDM Codes'!B119,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D119" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A119))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A119, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B119, "00"),". Episode_", TEXT('IDM Codes'!B119, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A119))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A119, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B119, "00"),". Episode_", TEXT('IDM Codes'!B119, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E119" s="4" t="str">
@@ -2812,11 +2787,11 @@
         <v/>
       </c>
       <c r="C120" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A120))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A120, Params!$A$3,"""", TEXT('IDM Codes'!B120,"00"), ". Episode_", TEXT('IDM Codes'!B120,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A120))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A120, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B120,"00"), ". Episode_", TEXT('IDM Codes'!B120,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D120" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A120))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A120, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B120, "00"),". Episode_", TEXT('IDM Codes'!B120, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A120))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A120, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B120, "00"),". Episode_", TEXT('IDM Codes'!B120, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E120" s="4" t="str">
@@ -2830,11 +2805,11 @@
         <v/>
       </c>
       <c r="C121" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A121))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A121, Params!$A$3,"""", TEXT('IDM Codes'!B121,"00"), ". Episode_", TEXT('IDM Codes'!B121,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A121))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A121, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B121,"00"), ". Episode_", TEXT('IDM Codes'!B121,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D121" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A121))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A121, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B121, "00"),". Episode_", TEXT('IDM Codes'!B121, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A121))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A121, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B121, "00"),". Episode_", TEXT('IDM Codes'!B121, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E121" s="4" t="str">
@@ -2848,11 +2823,11 @@
         <v/>
       </c>
       <c r="C122" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A122))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A122, Params!$A$3,"""", TEXT('IDM Codes'!B122,"00"), ". Episode_", TEXT('IDM Codes'!B122,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A122))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A122, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B122,"00"), ". Episode_", TEXT('IDM Codes'!B122,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D122" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A122))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A122, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B122, "00"),". Episode_", TEXT('IDM Codes'!B122, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A122))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A122, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B122, "00"),". Episode_", TEXT('IDM Codes'!B122, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E122" s="4" t="str">
@@ -2866,11 +2841,11 @@
         <v/>
       </c>
       <c r="C123" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A123))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A123, Params!$A$3,"""", TEXT('IDM Codes'!B123,"00"), ". Episode_", TEXT('IDM Codes'!B123,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A123))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A123, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B123,"00"), ". Episode_", TEXT('IDM Codes'!B123,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D123" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A123))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A123, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B123, "00"),". Episode_", TEXT('IDM Codes'!B123, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A123))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A123, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B123, "00"),". Episode_", TEXT('IDM Codes'!B123, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E123" s="4" t="str">
@@ -2884,11 +2859,11 @@
         <v/>
       </c>
       <c r="C124" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A124))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A124, Params!$A$3,"""", TEXT('IDM Codes'!B124,"00"), ". Episode_", TEXT('IDM Codes'!B124,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A124))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A124, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B124,"00"), ". Episode_", TEXT('IDM Codes'!B124,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D124" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A124))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A124, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B124, "00"),". Episode_", TEXT('IDM Codes'!B124, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A124))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A124, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B124, "00"),". Episode_", TEXT('IDM Codes'!B124, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E124" s="4" t="str">
@@ -2902,11 +2877,11 @@
         <v/>
       </c>
       <c r="C125" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A125))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A125, Params!$A$3,"""", TEXT('IDM Codes'!B125,"00"), ". Episode_", TEXT('IDM Codes'!B125,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A125))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A125, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B125,"00"), ". Episode_", TEXT('IDM Codes'!B125,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D125" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A125))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A125, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B125, "00"),". Episode_", TEXT('IDM Codes'!B125, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A125))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A125, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B125, "00"),". Episode_", TEXT('IDM Codes'!B125, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E125" s="4" t="str">
@@ -2920,11 +2895,11 @@
         <v/>
       </c>
       <c r="C126" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A126))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A126, Params!$A$3,"""", TEXT('IDM Codes'!B126,"00"), ". Episode_", TEXT('IDM Codes'!B126,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A126))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A126, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B126,"00"), ". Episode_", TEXT('IDM Codes'!B126,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D126" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A126))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A126, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B126, "00"),". Episode_", TEXT('IDM Codes'!B126, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A126))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A126, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B126, "00"),". Episode_", TEXT('IDM Codes'!B126, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E126" s="4" t="str">
@@ -2938,11 +2913,11 @@
         <v/>
       </c>
       <c r="C127" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A127))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A127, Params!$A$3,"""", TEXT('IDM Codes'!B127,"00"), ". Episode_", TEXT('IDM Codes'!B127,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A127))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A127, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B127,"00"), ". Episode_", TEXT('IDM Codes'!B127,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D127" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A127))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A127, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B127, "00"),". Episode_", TEXT('IDM Codes'!B127, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A127))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A127, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B127, "00"),". Episode_", TEXT('IDM Codes'!B127, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E127" s="4" t="str">
@@ -2956,11 +2931,11 @@
         <v/>
       </c>
       <c r="C128" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A128))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A128, Params!$A$3,"""", TEXT('IDM Codes'!B128,"00"), ". Episode_", TEXT('IDM Codes'!B128,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A128))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A128, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B128,"00"), ". Episode_", TEXT('IDM Codes'!B128,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D128" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A128))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A128, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B128, "00"),". Episode_", TEXT('IDM Codes'!B128, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A128))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A128, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B128, "00"),". Episode_", TEXT('IDM Codes'!B128, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E128" s="4" t="str">
@@ -2974,11 +2949,11 @@
         <v/>
       </c>
       <c r="C129" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A129))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A129, Params!$A$3,"""", TEXT('IDM Codes'!B129,"00"), ". Episode_", TEXT('IDM Codes'!B129,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A129))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A129, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B129,"00"), ". Episode_", TEXT('IDM Codes'!B129,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D129" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A129))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A129, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B129, "00"),". Episode_", TEXT('IDM Codes'!B129, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A129))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A129, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B129, "00"),". Episode_", TEXT('IDM Codes'!B129, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E129" s="4" t="str">
@@ -2992,11 +2967,11 @@
         <v/>
       </c>
       <c r="C130" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A130))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A130, Params!$A$3,"""", TEXT('IDM Codes'!B130,"00"), ". Episode_", TEXT('IDM Codes'!B130,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A130))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A130, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B130,"00"), ". Episode_", TEXT('IDM Codes'!B130,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D130" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A130))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A130, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B130, "00"),". Episode_", TEXT('IDM Codes'!B130, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A130))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A130, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B130, "00"),". Episode_", TEXT('IDM Codes'!B130, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E130" s="4" t="str">
@@ -3010,11 +2985,11 @@
         <v/>
       </c>
       <c r="C131" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A131))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A131, Params!$A$3,"""", TEXT('IDM Codes'!B131,"00"), ". Episode_", TEXT('IDM Codes'!B131,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A131))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A131, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B131,"00"), ". Episode_", TEXT('IDM Codes'!B131,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D131" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A131))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A131, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B131, "00"),". Episode_", TEXT('IDM Codes'!B131, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A131))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A131, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B131, "00"),". Episode_", TEXT('IDM Codes'!B131, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E131" s="4" t="str">
@@ -3028,11 +3003,11 @@
         <v/>
       </c>
       <c r="C132" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A132))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A132, Params!$A$3,"""", TEXT('IDM Codes'!B132,"00"), ". Episode_", TEXT('IDM Codes'!B132,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A132))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A132, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B132,"00"), ". Episode_", TEXT('IDM Codes'!B132,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D132" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A132))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A132, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B132, "00"),". Episode_", TEXT('IDM Codes'!B132, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A132))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A132, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B132, "00"),". Episode_", TEXT('IDM Codes'!B132, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E132" s="4" t="str">
@@ -3046,11 +3021,11 @@
         <v/>
       </c>
       <c r="C133" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A133))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A133, Params!$A$3,"""", TEXT('IDM Codes'!B133,"00"), ". Episode_", TEXT('IDM Codes'!B133,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A133))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A133, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B133,"00"), ". Episode_", TEXT('IDM Codes'!B133,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D133" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A133))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A133, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B133, "00"),". Episode_", TEXT('IDM Codes'!B133, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A133))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A133, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B133, "00"),". Episode_", TEXT('IDM Codes'!B133, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E133" s="4" t="str">
@@ -3064,11 +3039,11 @@
         <v/>
       </c>
       <c r="C134" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A134))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A134, Params!$A$3,"""", TEXT('IDM Codes'!B134,"00"), ". Episode_", TEXT('IDM Codes'!B134,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A134))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A134, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B134,"00"), ". Episode_", TEXT('IDM Codes'!B134,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D134" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A134))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A134, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B134, "00"),". Episode_", TEXT('IDM Codes'!B134, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A134))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A134, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B134, "00"),". Episode_", TEXT('IDM Codes'!B134, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E134" s="4" t="str">
@@ -3082,11 +3057,11 @@
         <v/>
       </c>
       <c r="C135" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A135))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A135, Params!$A$3,"""", TEXT('IDM Codes'!B135,"00"), ". Episode_", TEXT('IDM Codes'!B135,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A135))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A135, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B135,"00"), ". Episode_", TEXT('IDM Codes'!B135,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D135" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A135))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A135, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B135, "00"),". Episode_", TEXT('IDM Codes'!B135, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A135))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A135, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B135, "00"),". Episode_", TEXT('IDM Codes'!B135, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E135" s="4" t="str">
@@ -3100,11 +3075,11 @@
         <v/>
       </c>
       <c r="C136" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A136))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A136, Params!$A$3,"""", TEXT('IDM Codes'!B136,"00"), ". Episode_", TEXT('IDM Codes'!B136,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A136))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A136, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B136,"00"), ". Episode_", TEXT('IDM Codes'!B136,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D136" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A136))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A136, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B136, "00"),". Episode_", TEXT('IDM Codes'!B136, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A136))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A136, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B136, "00"),". Episode_", TEXT('IDM Codes'!B136, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E136" s="4" t="str">
@@ -3118,11 +3093,11 @@
         <v/>
       </c>
       <c r="C137" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A137))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A137, Params!$A$3,"""", TEXT('IDM Codes'!B137,"00"), ". Episode_", TEXT('IDM Codes'!B137,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A137))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A137, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B137,"00"), ". Episode_", TEXT('IDM Codes'!B137,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D137" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A137))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A137, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B137, "00"),". Episode_", TEXT('IDM Codes'!B137, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A137))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A137, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B137, "00"),". Episode_", TEXT('IDM Codes'!B137, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E137" s="4" t="str">
@@ -3136,11 +3111,11 @@
         <v/>
       </c>
       <c r="C138" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A138))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A138, Params!$A$3,"""", TEXT('IDM Codes'!B138,"00"), ". Episode_", TEXT('IDM Codes'!B138,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A138))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A138, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B138,"00"), ". Episode_", TEXT('IDM Codes'!B138,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D138" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A138))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A138, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B138, "00"),". Episode_", TEXT('IDM Codes'!B138, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A138))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A138, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B138, "00"),". Episode_", TEXT('IDM Codes'!B138, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E138" s="4" t="str">
@@ -3154,11 +3129,11 @@
         <v/>
       </c>
       <c r="C139" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A139))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A139, Params!$A$3,"""", TEXT('IDM Codes'!B139,"00"), ". Episode_", TEXT('IDM Codes'!B139,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A139))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A139, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B139,"00"), ". Episode_", TEXT('IDM Codes'!B139,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D139" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A139))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A139, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B139, "00"),". Episode_", TEXT('IDM Codes'!B139, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A139))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A139, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B139, "00"),". Episode_", TEXT('IDM Codes'!B139, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E139" s="4" t="str">
@@ -3172,11 +3147,11 @@
         <v/>
       </c>
       <c r="C140" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A140))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A140, Params!$A$3,"""", TEXT('IDM Codes'!B140,"00"), ". Episode_", TEXT('IDM Codes'!B140,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A140))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A140, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B140,"00"), ". Episode_", TEXT('IDM Codes'!B140,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D140" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A140))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A140, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B140, "00"),". Episode_", TEXT('IDM Codes'!B140, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A140))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A140, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B140, "00"),". Episode_", TEXT('IDM Codes'!B140, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E140" s="4" t="str">
@@ -3190,11 +3165,11 @@
         <v/>
       </c>
       <c r="C141" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A141))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A141, Params!$A$3,"""", TEXT('IDM Codes'!B141,"00"), ". Episode_", TEXT('IDM Codes'!B141,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A141))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A141, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B141,"00"), ". Episode_", TEXT('IDM Codes'!B141,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D141" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A141))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A141, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B141, "00"),". Episode_", TEXT('IDM Codes'!B141, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A141))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A141, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B141, "00"),". Episode_", TEXT('IDM Codes'!B141, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E141" s="4" t="str">
@@ -3208,11 +3183,11 @@
         <v/>
       </c>
       <c r="C142" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A142))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A142, Params!$A$3,"""", TEXT('IDM Codes'!B142,"00"), ". Episode_", TEXT('IDM Codes'!B142,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A142))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A142, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B142,"00"), ". Episode_", TEXT('IDM Codes'!B142,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D142" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A142))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A142, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B142, "00"),". Episode_", TEXT('IDM Codes'!B142, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A142))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A142, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B142, "00"),". Episode_", TEXT('IDM Codes'!B142, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E142" s="4" t="str">
@@ -3226,11 +3201,11 @@
         <v/>
       </c>
       <c r="C143" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A143))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A143, Params!$A$3,"""", TEXT('IDM Codes'!B143,"00"), ". Episode_", TEXT('IDM Codes'!B143,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A143))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A143, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B143,"00"), ". Episode_", TEXT('IDM Codes'!B143,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D143" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A143))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A143, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B143, "00"),". Episode_", TEXT('IDM Codes'!B143, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A143))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A143, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B143, "00"),". Episode_", TEXT('IDM Codes'!B143, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E143" s="4" t="str">
@@ -3244,11 +3219,11 @@
         <v/>
       </c>
       <c r="C144" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A144))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A144, Params!$A$3,"""", TEXT('IDM Codes'!B144,"00"), ". Episode_", TEXT('IDM Codes'!B144,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A144))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A144, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B144,"00"), ". Episode_", TEXT('IDM Codes'!B144,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D144" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A144))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A144, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B144, "00"),". Episode_", TEXT('IDM Codes'!B144, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A144))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A144, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B144, "00"),". Episode_", TEXT('IDM Codes'!B144, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E144" s="4" t="str">
@@ -3262,11 +3237,11 @@
         <v/>
       </c>
       <c r="C145" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A145))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A145, Params!$A$3,"""", TEXT('IDM Codes'!B145,"00"), ". Episode_", TEXT('IDM Codes'!B145,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A145))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A145, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B145,"00"), ". Episode_", TEXT('IDM Codes'!B145,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D145" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A145))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A145, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B145, "00"),". Episode_", TEXT('IDM Codes'!B145, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A145))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A145, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B145, "00"),". Episode_", TEXT('IDM Codes'!B145, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E145" s="4" t="str">
@@ -3280,11 +3255,11 @@
         <v/>
       </c>
       <c r="C146" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A146))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A146, Params!$A$3,"""", TEXT('IDM Codes'!B146,"00"), ". Episode_", TEXT('IDM Codes'!B146,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A146))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A146, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B146,"00"), ". Episode_", TEXT('IDM Codes'!B146,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D146" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A146))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A146, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B146, "00"),". Episode_", TEXT('IDM Codes'!B146, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A146))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A146, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B146, "00"),". Episode_", TEXT('IDM Codes'!B146, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E146" s="4" t="str">
@@ -3298,11 +3273,11 @@
         <v/>
       </c>
       <c r="C147" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A147))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A147, Params!$A$3,"""", TEXT('IDM Codes'!B147,"00"), ". Episode_", TEXT('IDM Codes'!B147,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A147))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A147, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B147,"00"), ". Episode_", TEXT('IDM Codes'!B147,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D147" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A147))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A147, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B147, "00"),". Episode_", TEXT('IDM Codes'!B147, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A147))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A147, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B147, "00"),". Episode_", TEXT('IDM Codes'!B147, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E147" s="4" t="str">
@@ -3316,11 +3291,11 @@
         <v/>
       </c>
       <c r="C148" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A148))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A148, Params!$A$3,"""", TEXT('IDM Codes'!B148,"00"), ". Episode_", TEXT('IDM Codes'!B148,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A148))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A148, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B148,"00"), ". Episode_", TEXT('IDM Codes'!B148,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D148" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A148))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A148, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B148, "00"),". Episode_", TEXT('IDM Codes'!B148, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A148))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A148, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B148, "00"),". Episode_", TEXT('IDM Codes'!B148, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E148" s="4" t="str">
@@ -3334,11 +3309,11 @@
         <v/>
       </c>
       <c r="C149" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A149))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A149, Params!$A$3,"""", TEXT('IDM Codes'!B149,"00"), ". Episode_", TEXT('IDM Codes'!B149,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A149))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A149, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B149,"00"), ". Episode_", TEXT('IDM Codes'!B149,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D149" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A149))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A149, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B149, "00"),". Episode_", TEXT('IDM Codes'!B149, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A149))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A149, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B149, "00"),". Episode_", TEXT('IDM Codes'!B149, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E149" s="4" t="str">
@@ -3352,11 +3327,11 @@
         <v/>
       </c>
       <c r="C150" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A150))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A150, Params!$A$3,"""", TEXT('IDM Codes'!B150,"00"), ". Episode_", TEXT('IDM Codes'!B150,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A150))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A150, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B150,"00"), ". Episode_", TEXT('IDM Codes'!B150,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D150" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A150))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A150, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B150, "00"),". Episode_", TEXT('IDM Codes'!B150, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A150))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A150, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B150, "00"),". Episode_", TEXT('IDM Codes'!B150, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E150" s="4" t="str">
@@ -3370,11 +3345,11 @@
         <v/>
       </c>
       <c r="C151" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A151))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A151, Params!$A$3,"""", TEXT('IDM Codes'!B151,"00"), ". Episode_", TEXT('IDM Codes'!B151,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A151))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A151, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B151,"00"), ". Episode_", TEXT('IDM Codes'!B151,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D151" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A151))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A151, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B151, "00"),". Episode_", TEXT('IDM Codes'!B151, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A151))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A151, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B151, "00"),". Episode_", TEXT('IDM Codes'!B151, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E151" s="4" t="str">
@@ -3388,11 +3363,11 @@
         <v/>
       </c>
       <c r="C152" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A152))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A152, Params!$A$3,"""", TEXT('IDM Codes'!B152,"00"), ". Episode_", TEXT('IDM Codes'!B152,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A152))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A152, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B152,"00"), ". Episode_", TEXT('IDM Codes'!B152,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D152" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A152))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A152, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B152, "00"),". Episode_", TEXT('IDM Codes'!B152, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A152))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A152, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B152, "00"),". Episode_", TEXT('IDM Codes'!B152, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E152" s="4" t="str">
@@ -3406,11 +3381,11 @@
         <v/>
       </c>
       <c r="C153" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A153))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A153, Params!$A$3,"""", TEXT('IDM Codes'!B153,"00"), ". Episode_", TEXT('IDM Codes'!B153,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A153))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A153, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B153,"00"), ". Episode_", TEXT('IDM Codes'!B153,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D153" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A153))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A153, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B153, "00"),". Episode_", TEXT('IDM Codes'!B153, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A153))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A153, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B153, "00"),". Episode_", TEXT('IDM Codes'!B153, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E153" s="4" t="str">
@@ -3424,11 +3399,11 @@
         <v/>
       </c>
       <c r="C154" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A154))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A154, Params!$A$3,"""", TEXT('IDM Codes'!B154,"00"), ". Episode_", TEXT('IDM Codes'!B154,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A154))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A154, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B154,"00"), ". Episode_", TEXT('IDM Codes'!B154,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D154" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A154))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A154, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B154, "00"),". Episode_", TEXT('IDM Codes'!B154, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A154))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A154, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B154, "00"),". Episode_", TEXT('IDM Codes'!B154, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E154" s="4" t="str">
@@ -3442,11 +3417,11 @@
         <v/>
       </c>
       <c r="C155" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A155))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A155, Params!$A$3,"""", TEXT('IDM Codes'!B155,"00"), ". Episode_", TEXT('IDM Codes'!B155,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A155))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A155, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B155,"00"), ". Episode_", TEXT('IDM Codes'!B155,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D155" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A155))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A155, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B155, "00"),". Episode_", TEXT('IDM Codes'!B155, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A155))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A155, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B155, "00"),". Episode_", TEXT('IDM Codes'!B155, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E155" s="4" t="str">
@@ -3460,11 +3435,11 @@
         <v/>
       </c>
       <c r="C156" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A156))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A156, Params!$A$3,"""", TEXT('IDM Codes'!B156,"00"), ". Episode_", TEXT('IDM Codes'!B156,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A156))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A156, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B156,"00"), ". Episode_", TEXT('IDM Codes'!B156,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D156" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A156))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A156, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B156, "00"),". Episode_", TEXT('IDM Codes'!B156, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A156))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A156, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B156, "00"),". Episode_", TEXT('IDM Codes'!B156, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E156" s="4" t="str">
@@ -3478,11 +3453,11 @@
         <v/>
       </c>
       <c r="C157" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A157))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A157, Params!$A$3,"""", TEXT('IDM Codes'!B157,"00"), ". Episode_", TEXT('IDM Codes'!B157,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A157))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A157, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B157,"00"), ". Episode_", TEXT('IDM Codes'!B157,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D157" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A157))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A157, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B157, "00"),". Episode_", TEXT('IDM Codes'!B157, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A157))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A157, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B157, "00"),". Episode_", TEXT('IDM Codes'!B157, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E157" s="4" t="str">
@@ -3496,11 +3471,11 @@
         <v/>
       </c>
       <c r="C158" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A158))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A158, Params!$A$3,"""", TEXT('IDM Codes'!B158,"00"), ". Episode_", TEXT('IDM Codes'!B158,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A158))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A158, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B158,"00"), ". Episode_", TEXT('IDM Codes'!B158,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D158" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A158))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A158, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B158, "00"),". Episode_", TEXT('IDM Codes'!B158, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A158))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A158, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B158, "00"),". Episode_", TEXT('IDM Codes'!B158, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E158" s="4" t="str">
@@ -3514,11 +3489,11 @@
         <v/>
       </c>
       <c r="C159" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A159))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A159, Params!$A$3,"""", TEXT('IDM Codes'!B159,"00"), ". Episode_", TEXT('IDM Codes'!B159,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A159))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A159, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B159,"00"), ". Episode_", TEXT('IDM Codes'!B159,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D159" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A159))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A159, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B159, "00"),". Episode_", TEXT('IDM Codes'!B159, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A159))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A159, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B159, "00"),". Episode_", TEXT('IDM Codes'!B159, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E159" s="4" t="str">
@@ -3532,11 +3507,11 @@
         <v/>
       </c>
       <c r="C160" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A160))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A160, Params!$A$3,"""", TEXT('IDM Codes'!B160,"00"), ". Episode_", TEXT('IDM Codes'!B160,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A160))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A160, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B160,"00"), ". Episode_", TEXT('IDM Codes'!B160,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D160" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A160))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A160, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B160, "00"),". Episode_", TEXT('IDM Codes'!B160, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A160))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A160, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B160, "00"),". Episode_", TEXT('IDM Codes'!B160, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E160" s="4" t="str">
@@ -3550,11 +3525,11 @@
         <v/>
       </c>
       <c r="C161" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A161))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A161, Params!$A$3,"""", TEXT('IDM Codes'!B161,"00"), ". Episode_", TEXT('IDM Codes'!B161,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A161))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A161, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B161,"00"), ". Episode_", TEXT('IDM Codes'!B161,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D161" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A161))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A161, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B161, "00"),". Episode_", TEXT('IDM Codes'!B161, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A161))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A161, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B161, "00"),". Episode_", TEXT('IDM Codes'!B161, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E161" s="4" t="str">
@@ -3568,11 +3543,11 @@
         <v/>
       </c>
       <c r="C162" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A162))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A162, Params!$A$3,"""", TEXT('IDM Codes'!B162,"00"), ". Episode_", TEXT('IDM Codes'!B162,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A162))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A162, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B162,"00"), ". Episode_", TEXT('IDM Codes'!B162,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D162" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A162))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A162, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B162, "00"),". Episode_", TEXT('IDM Codes'!B162, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A162))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A162, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B162, "00"),". Episode_", TEXT('IDM Codes'!B162, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E162" s="4" t="str">
@@ -3586,11 +3561,11 @@
         <v/>
       </c>
       <c r="C163" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A163))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A163, Params!$A$3,"""", TEXT('IDM Codes'!B163,"00"), ". Episode_", TEXT('IDM Codes'!B163,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A163))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A163, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B163,"00"), ". Episode_", TEXT('IDM Codes'!B163,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D163" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A163))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A163, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B163, "00"),". Episode_", TEXT('IDM Codes'!B163, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A163))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A163, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B163, "00"),". Episode_", TEXT('IDM Codes'!B163, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E163" s="4" t="str">
@@ -3604,11 +3579,11 @@
         <v/>
       </c>
       <c r="C164" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A164))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A164, Params!$A$3,"""", TEXT('IDM Codes'!B164,"00"), ". Episode_", TEXT('IDM Codes'!B164,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A164))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A164, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B164,"00"), ". Episode_", TEXT('IDM Codes'!B164,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D164" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A164))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A164, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B164, "00"),". Episode_", TEXT('IDM Codes'!B164, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A164))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A164, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B164, "00"),". Episode_", TEXT('IDM Codes'!B164, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E164" s="4" t="str">
@@ -3622,11 +3597,11 @@
         <v/>
       </c>
       <c r="C165" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A165))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A165, Params!$A$3,"""", TEXT('IDM Codes'!B165,"00"), ". Episode_", TEXT('IDM Codes'!B165,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A165))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A165, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B165,"00"), ". Episode_", TEXT('IDM Codes'!B165,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D165" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A165))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A165, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B165, "00"),". Episode_", TEXT('IDM Codes'!B165, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A165))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A165, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B165, "00"),". Episode_", TEXT('IDM Codes'!B165, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E165" s="4" t="str">
@@ -3640,11 +3615,11 @@
         <v/>
       </c>
       <c r="C166" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A166))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A166, Params!$A$3,"""", TEXT('IDM Codes'!B166,"00"), ". Episode_", TEXT('IDM Codes'!B166,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A166))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A166, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B166,"00"), ". Episode_", TEXT('IDM Codes'!B166,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D166" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A166))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A166, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B166, "00"),". Episode_", TEXT('IDM Codes'!B166, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A166))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A166, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B166, "00"),". Episode_", TEXT('IDM Codes'!B166, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E166" s="4" t="str">
@@ -3658,11 +3633,11 @@
         <v/>
       </c>
       <c r="C167" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A167))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A167, Params!$A$3,"""", TEXT('IDM Codes'!B167,"00"), ". Episode_", TEXT('IDM Codes'!B167,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A167))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A167, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B167,"00"), ". Episode_", TEXT('IDM Codes'!B167,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D167" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A167))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A167, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B167, "00"),". Episode_", TEXT('IDM Codes'!B167, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A167))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A167, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B167, "00"),". Episode_", TEXT('IDM Codes'!B167, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E167" s="4" t="str">
@@ -3676,11 +3651,11 @@
         <v/>
       </c>
       <c r="C168" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A168))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A168, Params!$A$3,"""", TEXT('IDM Codes'!B168,"00"), ". Episode_", TEXT('IDM Codes'!B168,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A168))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A168, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B168,"00"), ". Episode_", TEXT('IDM Codes'!B168,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D168" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A168))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A168, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B168, "00"),". Episode_", TEXT('IDM Codes'!B168, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A168))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A168, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B168, "00"),". Episode_", TEXT('IDM Codes'!B168, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E168" s="4" t="str">
@@ -3694,11 +3669,11 @@
         <v/>
       </c>
       <c r="C169" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A169))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A169, Params!$A$3,"""", TEXT('IDM Codes'!B169,"00"), ". Episode_", TEXT('IDM Codes'!B169,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A169))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A169, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B169,"00"), ". Episode_", TEXT('IDM Codes'!B169,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D169" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A169))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A169, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B169, "00"),". Episode_", TEXT('IDM Codes'!B169, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A169))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A169, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B169, "00"),". Episode_", TEXT('IDM Codes'!B169, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E169" s="4" t="str">
@@ -3712,11 +3687,11 @@
         <v/>
       </c>
       <c r="C170" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A170))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A170, Params!$A$3,"""", TEXT('IDM Codes'!B170,"00"), ". Episode_", TEXT('IDM Codes'!B170,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A170))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A170, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B170,"00"), ". Episode_", TEXT('IDM Codes'!B170,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D170" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A170))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A170, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B170, "00"),". Episode_", TEXT('IDM Codes'!B170, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A170))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A170, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B170, "00"),". Episode_", TEXT('IDM Codes'!B170, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E170" s="4" t="str">
@@ -3730,11 +3705,11 @@
         <v/>
       </c>
       <c r="C171" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A171))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A171, Params!$A$3,"""", TEXT('IDM Codes'!B171,"00"), ". Episode_", TEXT('IDM Codes'!B171,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A171))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A171, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B171,"00"), ". Episode_", TEXT('IDM Codes'!B171,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D171" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A171))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A171, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B171, "00"),". Episode_", TEXT('IDM Codes'!B171, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A171))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A171, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B171, "00"),". Episode_", TEXT('IDM Codes'!B171, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E171" s="4" t="str">
@@ -3748,11 +3723,11 @@
         <v/>
       </c>
       <c r="C172" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A172))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A172, Params!$A$3,"""", TEXT('IDM Codes'!B172,"00"), ". Episode_", TEXT('IDM Codes'!B172,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A172))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A172, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B172,"00"), ". Episode_", TEXT('IDM Codes'!B172,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D172" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A172))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A172, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B172, "00"),". Episode_", TEXT('IDM Codes'!B172, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A172))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A172, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B172, "00"),". Episode_", TEXT('IDM Codes'!B172, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E172" s="4" t="str">
@@ -3766,11 +3741,11 @@
         <v/>
       </c>
       <c r="C173" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A173))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A173, Params!$A$3,"""", TEXT('IDM Codes'!B173,"00"), ". Episode_", TEXT('IDM Codes'!B173,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A173))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A173, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B173,"00"), ". Episode_", TEXT('IDM Codes'!B173,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D173" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A173))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A173, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B173, "00"),". Episode_", TEXT('IDM Codes'!B173, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A173))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A173, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B173, "00"),". Episode_", TEXT('IDM Codes'!B173, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E173" s="4" t="str">
@@ -3784,11 +3759,11 @@
         <v/>
       </c>
       <c r="C174" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A174))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A174, Params!$A$3,"""", TEXT('IDM Codes'!B174,"00"), ". Episode_", TEXT('IDM Codes'!B174,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A174))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A174, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B174,"00"), ". Episode_", TEXT('IDM Codes'!B174,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D174" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A174))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A174, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B174, "00"),". Episode_", TEXT('IDM Codes'!B174, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A174))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A174, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B174, "00"),". Episode_", TEXT('IDM Codes'!B174, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E174" s="4" t="str">
@@ -3802,11 +3777,11 @@
         <v/>
       </c>
       <c r="C175" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A175))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A175, Params!$A$3,"""", TEXT('IDM Codes'!B175,"00"), ". Episode_", TEXT('IDM Codes'!B175,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A175))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A175, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B175,"00"), ". Episode_", TEXT('IDM Codes'!B175,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D175" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A175))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A175, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B175, "00"),". Episode_", TEXT('IDM Codes'!B175, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A175))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A175, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B175, "00"),". Episode_", TEXT('IDM Codes'!B175, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E175" s="4" t="str">
@@ -3820,11 +3795,11 @@
         <v/>
       </c>
       <c r="C176" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A176))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A176, Params!$A$3,"""", TEXT('IDM Codes'!B176,"00"), ". Episode_", TEXT('IDM Codes'!B176,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A176))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A176, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B176,"00"), ". Episode_", TEXT('IDM Codes'!B176,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D176" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A176))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A176, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B176, "00"),". Episode_", TEXT('IDM Codes'!B176, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A176))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A176, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B176, "00"),". Episode_", TEXT('IDM Codes'!B176, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E176" s="4" t="str">
@@ -3838,11 +3813,11 @@
         <v/>
       </c>
       <c r="C177" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A177))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A177, Params!$A$3,"""", TEXT('IDM Codes'!B177,"00"), ". Episode_", TEXT('IDM Codes'!B177,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A177))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A177, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B177,"00"), ". Episode_", TEXT('IDM Codes'!B177,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D177" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A177))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A177, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B177, "00"),". Episode_", TEXT('IDM Codes'!B177, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A177))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A177, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B177, "00"),". Episode_", TEXT('IDM Codes'!B177, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E177" s="4" t="str">
@@ -3856,11 +3831,11 @@
         <v/>
       </c>
       <c r="C178" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A178))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A178, Params!$A$3,"""", TEXT('IDM Codes'!B178,"00"), ". Episode_", TEXT('IDM Codes'!B178,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A178))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A178, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B178,"00"), ". Episode_", TEXT('IDM Codes'!B178,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D178" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A178))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A178, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B178, "00"),". Episode_", TEXT('IDM Codes'!B178, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A178))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A178, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B178, "00"),". Episode_", TEXT('IDM Codes'!B178, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E178" s="4" t="str">
@@ -3874,11 +3849,11 @@
         <v/>
       </c>
       <c r="C179" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A179))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A179, Params!$A$3,"""", TEXT('IDM Codes'!B179,"00"), ". Episode_", TEXT('IDM Codes'!B179,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A179))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A179, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B179,"00"), ". Episode_", TEXT('IDM Codes'!B179,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D179" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A179))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A179, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B179, "00"),". Episode_", TEXT('IDM Codes'!B179, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A179))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A179, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B179, "00"),". Episode_", TEXT('IDM Codes'!B179, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E179" s="4" t="str">
@@ -3892,11 +3867,11 @@
         <v/>
       </c>
       <c r="C180" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A180))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A180, Params!$A$3,"""", TEXT('IDM Codes'!B180,"00"), ". Episode_", TEXT('IDM Codes'!B180,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A180))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A180, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B180,"00"), ". Episode_", TEXT('IDM Codes'!B180,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D180" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A180))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A180, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B180, "00"),". Episode_", TEXT('IDM Codes'!B180, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A180))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A180, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B180, "00"),". Episode_", TEXT('IDM Codes'!B180, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E180" s="4" t="str">
@@ -3910,11 +3885,11 @@
         <v/>
       </c>
       <c r="C181" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A181))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A181, Params!$A$3,"""", TEXT('IDM Codes'!B181,"00"), ". Episode_", TEXT('IDM Codes'!B181,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A181))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A181, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B181,"00"), ". Episode_", TEXT('IDM Codes'!B181,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D181" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A181))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A181, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B181, "00"),". Episode_", TEXT('IDM Codes'!B181, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A181))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A181, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B181, "00"),". Episode_", TEXT('IDM Codes'!B181, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E181" s="4" t="str">
@@ -3928,11 +3903,11 @@
         <v/>
       </c>
       <c r="C182" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A182))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A182, Params!$A$3,"""", TEXT('IDM Codes'!B182,"00"), ". Episode_", TEXT('IDM Codes'!B182,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A182))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A182, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B182,"00"), ". Episode_", TEXT('IDM Codes'!B182,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D182" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A182))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A182, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B182, "00"),". Episode_", TEXT('IDM Codes'!B182, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A182))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A182, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B182, "00"),". Episode_", TEXT('IDM Codes'!B182, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E182" s="4" t="str">
@@ -3946,11 +3921,11 @@
         <v/>
       </c>
       <c r="C183" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A183))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A183, Params!$A$3,"""", TEXT('IDM Codes'!B183,"00"), ". Episode_", TEXT('IDM Codes'!B183,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A183))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A183, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B183,"00"), ". Episode_", TEXT('IDM Codes'!B183,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D183" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A183))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A183, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B183, "00"),". Episode_", TEXT('IDM Codes'!B183, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A183))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A183, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B183, "00"),". Episode_", TEXT('IDM Codes'!B183, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E183" s="4" t="str">
@@ -3964,11 +3939,11 @@
         <v/>
       </c>
       <c r="C184" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A184))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A184, Params!$A$3,"""", TEXT('IDM Codes'!B184,"00"), ". Episode_", TEXT('IDM Codes'!B184,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A184))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A184, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B184,"00"), ". Episode_", TEXT('IDM Codes'!B184,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D184" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A184))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A184, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B184, "00"),". Episode_", TEXT('IDM Codes'!B184, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A184))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A184, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B184, "00"),". Episode_", TEXT('IDM Codes'!B184, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E184" s="4" t="str">
@@ -3982,11 +3957,11 @@
         <v/>
       </c>
       <c r="C185" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A185))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A185, Params!$A$3,"""", TEXT('IDM Codes'!B185,"00"), ". Episode_", TEXT('IDM Codes'!B185,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A185))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A185, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B185,"00"), ". Episode_", TEXT('IDM Codes'!B185,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D185" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A185))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A185, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B185, "00"),". Episode_", TEXT('IDM Codes'!B185, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A185))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A185, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B185, "00"),". Episode_", TEXT('IDM Codes'!B185, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E185" s="4" t="str">
@@ -4000,11 +3975,11 @@
         <v/>
       </c>
       <c r="C186" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A186))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A186, Params!$A$3,"""", TEXT('IDM Codes'!B186,"00"), ". Episode_", TEXT('IDM Codes'!B186,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A186))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A186, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B186,"00"), ". Episode_", TEXT('IDM Codes'!B186,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D186" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A186))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A186, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B186, "00"),". Episode_", TEXT('IDM Codes'!B186, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A186))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A186, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B186, "00"),". Episode_", TEXT('IDM Codes'!B186, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E186" s="4" t="str">
@@ -4018,11 +3993,11 @@
         <v/>
       </c>
       <c r="C187" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A187))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A187, Params!$A$3,"""", TEXT('IDM Codes'!B187,"00"), ". Episode_", TEXT('IDM Codes'!B187,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A187))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A187, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B187,"00"), ". Episode_", TEXT('IDM Codes'!B187,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D187" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A187))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A187, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B187, "00"),". Episode_", TEXT('IDM Codes'!B187, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A187))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A187, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B187, "00"),". Episode_", TEXT('IDM Codes'!B187, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E187" s="4" t="str">
@@ -4036,11 +4011,11 @@
         <v/>
       </c>
       <c r="C188" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A188))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A188, Params!$A$3,"""", TEXT('IDM Codes'!B188,"00"), ". Episode_", TEXT('IDM Codes'!B188,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A188))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A188, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B188,"00"), ". Episode_", TEXT('IDM Codes'!B188,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D188" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A188))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A188, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B188, "00"),". Episode_", TEXT('IDM Codes'!B188, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A188))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A188, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B188, "00"),". Episode_", TEXT('IDM Codes'!B188, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E188" s="4" t="str">
@@ -4054,11 +4029,11 @@
         <v/>
       </c>
       <c r="C189" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A189))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A189, Params!$A$3,"""", TEXT('IDM Codes'!B189,"00"), ". Episode_", TEXT('IDM Codes'!B189,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A189))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A189, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B189,"00"), ". Episode_", TEXT('IDM Codes'!B189,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D189" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A189))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A189, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B189, "00"),". Episode_", TEXT('IDM Codes'!B189, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A189))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A189, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B189, "00"),". Episode_", TEXT('IDM Codes'!B189, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E189" s="4" t="str">
@@ -4072,11 +4047,11 @@
         <v/>
       </c>
       <c r="C190" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A190))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A190, Params!$A$3,"""", TEXT('IDM Codes'!B190,"00"), ". Episode_", TEXT('IDM Codes'!B190,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A190))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A190, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B190,"00"), ". Episode_", TEXT('IDM Codes'!B190,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D190" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A190))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A190, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B190, "00"),". Episode_", TEXT('IDM Codes'!B190, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A190))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A190, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B190, "00"),". Episode_", TEXT('IDM Codes'!B190, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E190" s="4" t="str">
@@ -4090,11 +4065,11 @@
         <v/>
       </c>
       <c r="C191" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A191))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A191, Params!$A$3,"""", TEXT('IDM Codes'!B191,"00"), ". Episode_", TEXT('IDM Codes'!B191,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A191))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A191, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B191,"00"), ". Episode_", TEXT('IDM Codes'!B191,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D191" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A191))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A191, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B191, "00"),". Episode_", TEXT('IDM Codes'!B191, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A191))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A191, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B191, "00"),". Episode_", TEXT('IDM Codes'!B191, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E191" s="4" t="str">
@@ -4108,11 +4083,11 @@
         <v/>
       </c>
       <c r="C192" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A192))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A192, Params!$A$3,"""", TEXT('IDM Codes'!B192,"00"), ". Episode_", TEXT('IDM Codes'!B192,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A192))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A192, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B192,"00"), ". Episode_", TEXT('IDM Codes'!B192,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D192" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A192))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A192, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B192, "00"),". Episode_", TEXT('IDM Codes'!B192, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A192))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A192, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B192, "00"),". Episode_", TEXT('IDM Codes'!B192, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E192" s="4" t="str">
@@ -4126,11 +4101,11 @@
         <v/>
       </c>
       <c r="C193" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A193))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A193, Params!$A$3,"""", TEXT('IDM Codes'!B193,"00"), ". Episode_", TEXT('IDM Codes'!B193,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A193))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A193, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B193,"00"), ". Episode_", TEXT('IDM Codes'!B193,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D193" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A193))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A193, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B193, "00"),". Episode_", TEXT('IDM Codes'!B193, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A193))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A193, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B193, "00"),". Episode_", TEXT('IDM Codes'!B193, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E193" s="4" t="str">
@@ -4144,11 +4119,11 @@
         <v/>
       </c>
       <c r="C194" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A194))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A194, Params!$A$3,"""", TEXT('IDM Codes'!B194,"00"), ". Episode_", TEXT('IDM Codes'!B194,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A194))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A194, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B194,"00"), ". Episode_", TEXT('IDM Codes'!B194,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D194" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A194))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A194, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B194, "00"),". Episode_", TEXT('IDM Codes'!B194, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A194))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A194, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B194, "00"),". Episode_", TEXT('IDM Codes'!B194, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E194" s="4" t="str">
@@ -4162,11 +4137,11 @@
         <v/>
       </c>
       <c r="C195" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A195))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A195, Params!$A$3,"""", TEXT('IDM Codes'!B195,"00"), ". Episode_", TEXT('IDM Codes'!B195,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A195))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A195, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B195,"00"), ". Episode_", TEXT('IDM Codes'!B195,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D195" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A195))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A195, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B195, "00"),". Episode_", TEXT('IDM Codes'!B195, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A195))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A195, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B195, "00"),". Episode_", TEXT('IDM Codes'!B195, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E195" s="4" t="str">
@@ -4180,11 +4155,11 @@
         <v/>
       </c>
       <c r="C196" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A196))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A196, Params!$A$3,"""", TEXT('IDM Codes'!B196,"00"), ". Episode_", TEXT('IDM Codes'!B196,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A196))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A196, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B196,"00"), ". Episode_", TEXT('IDM Codes'!B196,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D196" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A196))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A196, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B196, "00"),". Episode_", TEXT('IDM Codes'!B196, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A196))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A196, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B196, "00"),". Episode_", TEXT('IDM Codes'!B196, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E196" s="4" t="str">
@@ -4198,11 +4173,11 @@
         <v/>
       </c>
       <c r="C197" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A197))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A197, Params!$A$3,"""", TEXT('IDM Codes'!B197,"00"), ". Episode_", TEXT('IDM Codes'!B197,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A197))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A197, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B197,"00"), ". Episode_", TEXT('IDM Codes'!B197,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D197" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A197))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A197, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B197, "00"),". Episode_", TEXT('IDM Codes'!B197, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A197))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A197, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B197, "00"),". Episode_", TEXT('IDM Codes'!B197, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E197" s="4" t="str">
@@ -4216,11 +4191,11 @@
         <v/>
       </c>
       <c r="C198" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A198))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A198, Params!$A$3,"""", TEXT('IDM Codes'!B198,"00"), ". Episode_", TEXT('IDM Codes'!B198,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A198))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A198, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B198,"00"), ". Episode_", TEXT('IDM Codes'!B198,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D198" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A198))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A198, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B198, "00"),". Episode_", TEXT('IDM Codes'!B198, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A198))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A198, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B198, "00"),". Episode_", TEXT('IDM Codes'!B198, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E198" s="4" t="str">
@@ -4234,11 +4209,11 @@
         <v/>
       </c>
       <c r="C199" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A199))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A199, Params!$A$3,"""", TEXT('IDM Codes'!B199,"00"), ". Episode_", TEXT('IDM Codes'!B199,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A199))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A199, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B199,"00"), ". Episode_", TEXT('IDM Codes'!B199,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D199" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A199))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A199, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B199, "00"),". Episode_", TEXT('IDM Codes'!B199, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A199))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A199, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B199, "00"),". Episode_", TEXT('IDM Codes'!B199, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E199" s="4" t="str">
@@ -4252,15 +4227,69 @@
         <v/>
       </c>
       <c r="C200" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A200))=0, "", CONCATENATE("""", Params!$A$1, """", " ", Params!$A$2,'IDM Codes'!A200, Params!$A$3,"""", TEXT('IDM Codes'!B200,"00"), ". Episode_", TEXT('IDM Codes'!B200,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A200))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A200, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B200,"00"), ". Episode_", TEXT('IDM Codes'!B200,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D200" s="4" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A200))=0, "", CONCATENATE("""",Params!$A$1,""""," ",Params!$A$2,SUBSTITUTE('IDM Codes'!A200, "track1","track2"), Params!$A$3,"""",  TEXT('IDM Codes'!B200, "00"),". Episode_", TEXT('IDM Codes'!B200, "00"), ".mp3"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A200))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A200, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B200, "00"),". Episode_", TEXT('IDM Codes'!B200, "00"), ".mp3"""))</f>
         <v/>
       </c>
       <c r="E200" s="4" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A200))=0, "", C200&amp;" &amp; "&amp;D200)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A201))=0,"", INT('IDM Codes'!B200)+1)</f>
+        <v/>
+      </c>
+      <c r="C201" s="3" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A201))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A201, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B201,"00"), ". Episode_", TEXT('IDM Codes'!B201,"00"), ".mp4"""))</f>
+        <v/>
+      </c>
+      <c r="D201" s="4" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A201))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A201, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B201, "00"),". Episode_", TEXT('IDM Codes'!B201, "00"), ".mp3"""))</f>
+        <v/>
+      </c>
+      <c r="E201" s="4" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A201))=0, "", C201&amp;" &amp; "&amp;D201)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A202))=0,"", INT('IDM Codes'!B201)+1)</f>
+        <v/>
+      </c>
+      <c r="C202" s="3" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A202))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A202, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B202,"00"), ". Episode_", TEXT('IDM Codes'!B202,"00"), ".mp4"""))</f>
+        <v/>
+      </c>
+      <c r="D202" s="4" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A202))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A202, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B202, "00"),". Episode_", TEXT('IDM Codes'!B202, "00"), ".mp3"""))</f>
+        <v/>
+      </c>
+      <c r="E202" s="4" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A202))=0, "", C202&amp;" &amp; "&amp;D202)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A203))=0,"", INT('IDM Codes'!B202)+1)</f>
+        <v/>
+      </c>
+      <c r="C203" s="3" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A203))=0, "", CONCATENATE("""", 'IDM Params'!#REF!, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A203, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B203,"00"), ". Episode_", TEXT('IDM Codes'!B203,"00"), ".mp4"""))</f>
+        <v/>
+      </c>
+      <c r="D203" s="4" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A203))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A203, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B203, "00"),". Episode_", TEXT('IDM Codes'!B203, "00"), ".mp3"""))</f>
+        <v/>
+      </c>
+      <c r="E203" s="4" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A203))=0, "", C203&amp;" &amp; "&amp;D203)</f>
         <v/>
       </c>
     </row>
@@ -4274,52 +4303,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="15">
         <v>10</v>
@@ -4327,7 +4357,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
@@ -4335,15 +4365,18 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="15">
         <v>1</v>
@@ -4352,7 +4385,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="13" t="str">
         <f>RIGHT(ffmpegCodes!B2,LEN(ffmpegCodes!B2)-SEARCH("/", SUBSTITUTE(ffmpegCodes!B2,"\","/",LEN(ffmpegCodes!B2)-LEN(SUBSTITUTE(ffmpegCodes!B2,"\","")))))</f>
@@ -4361,63 +4394,66 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>35</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="D11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14">
@@ -4429,17 +4465,17 @@
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\01. Episode_01.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\01. Episode_01.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\01. Mr. Queen - Episode 1.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\01. Episode 01.mp4"</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15">
-        <f>IF(ffmpegCodes!A14 &lt; ffmpegCodes!$B$4, ffmpegCodes!A14 + 1, "")</f>
+        <f>IF(ffmpegCodes!A14 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A14 + 1, "")</f>
         <v>2</v>
       </c>
       <c r="B15" s="16" t="str">
@@ -4447,17 +4483,17 @@
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\02. Episode_02.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\02. Episode_02.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\02. Mr. Queen - Episode 2.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\02. Episode 02.mp4"</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16">
-        <f>IF(ffmpegCodes!A15 &lt; ffmpegCodes!$B$4, ffmpegCodes!A15 + 1, "")</f>
+        <f>IF(ffmpegCodes!A15 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A15 + 1, "")</f>
         <v>3</v>
       </c>
       <c r="B16" s="16" t="str">
@@ -4465,103 +4501,119 @@
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\03. Episode_03.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\03. Episode_03.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\03. Mr. Queen - Episode 3.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\03. Episode 03.mp4"</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17">
-        <f>IF(ffmpegCodes!A16 &lt; ffmpegCodes!$B$4, ffmpegCodes!A16 + 1, "")</f>
+        <f>IF(ffmpegCodes!A16 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A16 + 1, "")</f>
         <v>4</v>
       </c>
       <c r="B17" s="16" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A17), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A17, "00"), ". Episode_", TEXT(ffmpegCodes!A17, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A17, "00"), ". Episode_", TEXT(ffmpegCodes!A17, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A17, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A17, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A17, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A17, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\04. Episode_04.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\04. Episode_04.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\04. Mr. Queen - Episode 4.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\04. Episode 04.mp4"</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18">
-        <f>IF(ffmpegCodes!A17 &lt; ffmpegCodes!$B$4, ffmpegCodes!A17 + 1, "")</f>
+        <f>IF(ffmpegCodes!A17 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A17 + 1, "")</f>
         <v>5</v>
       </c>
       <c r="B18" s="16" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A18), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A18, "00"), ". Episode_", TEXT(ffmpegCodes!A18, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A18, "00"), ". Episode_", TEXT(ffmpegCodes!A18, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A18, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A18, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A18, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A18, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\05. Episode_05.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\05. Episode_05.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\05. Mr. Queen - Episode 5.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\05. Episode 05.mp4"</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19">
-        <f>IF(ffmpegCodes!A18 &lt; ffmpegCodes!$B$4, ffmpegCodes!A18 + 1, "")</f>
+        <f>IF(ffmpegCodes!A18 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A18 + 1, "")</f>
         <v>6</v>
       </c>
       <c r="B19" s="16" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A19), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A19, "00"), ". Episode_", TEXT(ffmpegCodes!A19, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A19, "00"), ". Episode_", TEXT(ffmpegCodes!A19, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A19, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A19, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A19, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A19, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\06. Episode_06.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\06. Episode_06.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\06. Mr. Queen - Episode 6.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\06. Episode 06.mp4"</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20">
-        <f>IF(ffmpegCodes!A19 &lt; ffmpegCodes!$B$4, ffmpegCodes!A19 + 1, "")</f>
+        <f>IF(ffmpegCodes!A19 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A19 + 1, "")</f>
         <v>7</v>
       </c>
       <c r="B20" s="16" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A20), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A20, "00"), ". Episode_", TEXT(ffmpegCodes!A20, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A20, "00"), ". Episode_", TEXT(ffmpegCodes!A20, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A20, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A20, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A20, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A20, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\07. Episode_07.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\07. Episode_07.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\07. Mr. Queen - Episode 7.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\07. Episode 07.mp4"</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <f>IF(ffmpegCodes!A20 &lt; ffmpegCodes!$B$4, ffmpegCodes!A20 + 1, "")</f>
+        <f>IF(ffmpegCodes!A20 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A20 + 1, "")</f>
         <v>8</v>
       </c>
       <c r="B21" s="16" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A21), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A21, "00"), ". Episode_", TEXT(ffmpegCodes!A21, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A21, "00"), ". Episode_", TEXT(ffmpegCodes!A21, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A21, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A21, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A21, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A21, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\08. Episode_08.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\08. Episode_08.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\08. Mr. Queen - Episode 8.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\08. Episode 08.mp4"</v>
       </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <f>IF(ffmpegCodes!A21 &lt; ffmpegCodes!$B$4, ffmpegCodes!A21 + 1, "")</f>
+        <f>IF(ffmpegCodes!A21 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A21 + 1, "")</f>
         <v>9</v>
       </c>
       <c r="B22" s="16" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A22), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A22, "00"), ". Episode_", TEXT(ffmpegCodes!A22, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A22, "00"), ". Episode_", TEXT(ffmpegCodes!A22, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A22, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A22, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A22, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A22, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\09. Episode_09.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\09. Episode_09.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\09. Mr. Queen - Episode 9.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\09. Episode 09.mp4"</v>
       </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <f>IF(ffmpegCodes!A22 &lt; ffmpegCodes!$B$4, ffmpegCodes!A22 + 1, "")</f>
+        <f>IF(ffmpegCodes!A22 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A22 + 1, "")</f>
         <v>10</v>
       </c>
       <c r="B23" s="16" t="str">
@@ -4570,18 +4622,18 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" t="str">
-        <f>IF(ffmpegCodes!A23 &lt; ffmpegCodes!$B$4, ffmpegCodes!A23 + 1, "")</f>
-        <v/>
+      <c r="A24">
+        <f>IF(ffmpegCodes!A23 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A23 + 1, "")</f>
+        <v>11</v>
       </c>
       <c r="B24" s="16" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A24), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A24, "00"), ". Episode_", TEXT(ffmpegCodes!A24, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A24, "00"), ". Episode_", TEXT(ffmpegCodes!A24, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A24, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A24, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A24, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A24, "00")&amp;".mp4""","")</f>
-        <v/>
+        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\11. Episode_11.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\11. Episode_11.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\11. Mr. Queen - Episode 11.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\11. Episode 11.mp4"</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="str">
-        <f>IF(ffmpegCodes!A24 &lt; ffmpegCodes!$B$4, ffmpegCodes!A24 + 1, "")</f>
+        <f>IF(ffmpegCodes!A24 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A24 + 1, "")</f>
         <v/>
       </c>
       <c r="B25" s="16" t="str">
@@ -4591,7 +4643,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="str">
-        <f>IF(ffmpegCodes!A25 &lt; ffmpegCodes!$B$4, ffmpegCodes!A25 + 1, "")</f>
+        <f>IF(ffmpegCodes!A25 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A25 + 1, "")</f>
         <v/>
       </c>
       <c r="B26" s="16" t="str">
@@ -4601,7 +4653,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="str">
-        <f>IF(ffmpegCodes!A26 &lt; ffmpegCodes!$B$4, ffmpegCodes!A26 + 1, "")</f>
+        <f>IF(ffmpegCodes!A26 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A26 + 1, "")</f>
         <v/>
       </c>
       <c r="B27" s="16" t="str">
@@ -4611,7 +4663,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="str">
-        <f>IF(ffmpegCodes!A27 &lt; ffmpegCodes!$B$4, ffmpegCodes!A27 + 1, "")</f>
+        <f>IF(ffmpegCodes!A27 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A27 + 1, "")</f>
         <v/>
       </c>
       <c r="B28" s="16" t="str">
@@ -4621,7 +4673,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="str">
-        <f>IF(ffmpegCodes!A28 &lt; ffmpegCodes!$B$4, ffmpegCodes!A28 + 1, "")</f>
+        <f>IF(ffmpegCodes!A28 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A28 + 1, "")</f>
         <v/>
       </c>
       <c r="B29" s="16" t="str">
@@ -4631,7 +4683,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="str">
-        <f>IF(ffmpegCodes!A29 &lt; ffmpegCodes!$B$4, ffmpegCodes!A29 + 1, "")</f>
+        <f>IF(ffmpegCodes!A29 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A29 + 1, "")</f>
         <v/>
       </c>
       <c r="B30" s="16" t="str">
@@ -4641,7 +4693,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="str">
-        <f>IF(ffmpegCodes!A30 &lt; ffmpegCodes!$B$4, ffmpegCodes!A30 + 1, "")</f>
+        <f>IF(ffmpegCodes!A30 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A30 + 1, "")</f>
         <v/>
       </c>
       <c r="B31" s="16" t="str">
@@ -4651,7 +4703,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="str">
-        <f>IF(ffmpegCodes!A31 &lt; ffmpegCodes!$B$4, ffmpegCodes!A31 + 1, "")</f>
+        <f>IF(ffmpegCodes!A31 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A31 + 1, "")</f>
         <v/>
       </c>
       <c r="B32" s="16" t="str">
@@ -4661,7 +4713,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="str">
-        <f>IF(ffmpegCodes!A32 &lt; ffmpegCodes!$B$4, ffmpegCodes!A32 + 1, "")</f>
+        <f>IF(ffmpegCodes!A32 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A32 + 1, "")</f>
         <v/>
       </c>
       <c r="B33" s="16" t="str">
@@ -4671,7 +4723,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="str">
-        <f>IF(ffmpegCodes!A33 &lt; ffmpegCodes!$B$4, ffmpegCodes!A33 + 1, "")</f>
+        <f>IF(ffmpegCodes!A33 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A33 + 1, "")</f>
         <v/>
       </c>
       <c r="B34" s="16" t="str">
@@ -4681,7 +4733,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="str">
-        <f>IF(ffmpegCodes!A34 &lt; ffmpegCodes!$B$4, ffmpegCodes!A34 + 1, "")</f>
+        <f>IF(ffmpegCodes!A34 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A34 + 1, "")</f>
         <v/>
       </c>
       <c r="B35" s="16" t="str">
@@ -4691,7 +4743,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="str">
-        <f>IF(ffmpegCodes!A35 &lt; ffmpegCodes!$B$4, ffmpegCodes!A35 + 1, "")</f>
+        <f>IF(ffmpegCodes!A35 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A35 + 1, "")</f>
         <v/>
       </c>
       <c r="B36" s="16" t="str">
@@ -4701,7 +4753,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="str">
-        <f>IF(ffmpegCodes!A36 &lt; ffmpegCodes!$B$4, ffmpegCodes!A36 + 1, "")</f>
+        <f>IF(ffmpegCodes!A36 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A36 + 1, "")</f>
         <v/>
       </c>
       <c r="B37" s="16" t="str">
@@ -4711,7 +4763,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="str">
-        <f>IF(ffmpegCodes!A37 &lt; ffmpegCodes!$B$4, ffmpegCodes!A37 + 1, "")</f>
+        <f>IF(ffmpegCodes!A37 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A37 + 1, "")</f>
         <v/>
       </c>
       <c r="B38" s="16" t="str">
@@ -4721,7 +4773,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="str">
-        <f>IF(ffmpegCodes!A38 &lt; ffmpegCodes!$B$4, ffmpegCodes!A38 + 1, "")</f>
+        <f>IF(ffmpegCodes!A38 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A38 + 1, "")</f>
         <v/>
       </c>
       <c r="B39" s="16" t="str">
@@ -4731,7 +4783,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="str">
-        <f>IF(ffmpegCodes!A39 &lt; ffmpegCodes!$B$4, ffmpegCodes!A39 + 1, "")</f>
+        <f>IF(ffmpegCodes!A39 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A39 + 1, "")</f>
         <v/>
       </c>
       <c r="B40" s="16" t="str">
@@ -4741,7 +4793,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="str">
-        <f>IF(ffmpegCodes!A40 &lt; ffmpegCodes!$B$4, ffmpegCodes!A40 + 1, "")</f>
+        <f>IF(ffmpegCodes!A40 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A40 + 1, "")</f>
         <v/>
       </c>
       <c r="B41" s="16" t="str">
@@ -4751,7 +4803,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="str">
-        <f>IF(ffmpegCodes!A41 &lt; ffmpegCodes!$B$4, ffmpegCodes!A41 + 1, "")</f>
+        <f>IF(ffmpegCodes!A41 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A41 + 1, "")</f>
         <v/>
       </c>
       <c r="B42" s="16" t="str">
@@ -4761,7 +4813,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="str">
-        <f>IF(ffmpegCodes!A42 &lt; ffmpegCodes!$B$4, ffmpegCodes!A42 + 1, "")</f>
+        <f>IF(ffmpegCodes!A42 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A42 + 1, "")</f>
         <v/>
       </c>
       <c r="B43" s="16" t="str">
@@ -4771,7 +4823,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="str">
-        <f>IF(ffmpegCodes!A43 &lt; ffmpegCodes!$B$4, ffmpegCodes!A43 + 1, "")</f>
+        <f>IF(ffmpegCodes!A43 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A43 + 1, "")</f>
         <v/>
       </c>
       <c r="B44" s="16" t="str">
@@ -4781,7 +4833,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="str">
-        <f>IF(ffmpegCodes!A44 &lt; ffmpegCodes!$B$4, ffmpegCodes!A44 + 1, "")</f>
+        <f>IF(ffmpegCodes!A44 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A44 + 1, "")</f>
         <v/>
       </c>
       <c r="B45" s="16" t="str">
@@ -4791,7 +4843,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="str">
-        <f>IF(ffmpegCodes!A45 &lt; ffmpegCodes!$B$4, ffmpegCodes!A45 + 1, "")</f>
+        <f>IF(ffmpegCodes!A45 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A45 + 1, "")</f>
         <v/>
       </c>
       <c r="B46" s="16" t="str">
@@ -4801,7 +4853,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="str">
-        <f>IF(ffmpegCodes!A46 &lt; ffmpegCodes!$B$4, ffmpegCodes!A46 + 1, "")</f>
+        <f>IF(ffmpegCodes!A46 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A46 + 1, "")</f>
         <v/>
       </c>
       <c r="B47" s="16" t="str">
@@ -4811,7 +4863,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="str">
-        <f>IF(ffmpegCodes!A47 &lt; ffmpegCodes!$B$4, ffmpegCodes!A47 + 1, "")</f>
+        <f>IF(ffmpegCodes!A47 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A47 + 1, "")</f>
         <v/>
       </c>
       <c r="B48" s="16" t="str">
@@ -4821,7 +4873,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="str">
-        <f>IF(ffmpegCodes!A48 &lt; ffmpegCodes!$B$4, ffmpegCodes!A48 + 1, "")</f>
+        <f>IF(ffmpegCodes!A48 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A48 + 1, "")</f>
         <v/>
       </c>
       <c r="B49" s="16" t="str">
@@ -4831,7 +4883,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="str">
-        <f>IF(ffmpegCodes!A49 &lt; ffmpegCodes!$B$4, ffmpegCodes!A49 + 1, "")</f>
+        <f>IF(ffmpegCodes!A49 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A49 + 1, "")</f>
         <v/>
       </c>
       <c r="B50" s="16" t="str">
@@ -4841,7 +4893,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="str">
-        <f>IF(ffmpegCodes!A50 &lt; ffmpegCodes!$B$4, ffmpegCodes!A50 + 1, "")</f>
+        <f>IF(ffmpegCodes!A50 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A50 + 1, "")</f>
         <v/>
       </c>
       <c r="B51" s="16" t="str">
@@ -4851,7 +4903,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="str">
-        <f>IF(ffmpegCodes!A51 &lt; ffmpegCodes!$B$4, ffmpegCodes!A51 + 1, "")</f>
+        <f>IF(ffmpegCodes!A51 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A51 + 1, "")</f>
         <v/>
       </c>
       <c r="B52" s="16" t="str">
@@ -4861,7 +4913,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="str">
-        <f>IF(ffmpegCodes!A52 &lt; ffmpegCodes!$B$4, ffmpegCodes!A52 + 1, "")</f>
+        <f>IF(ffmpegCodes!A52 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A52 + 1, "")</f>
         <v/>
       </c>
       <c r="B53" s="16" t="str">
@@ -4871,7 +4923,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="str">
-        <f>IF(ffmpegCodes!A53 &lt; ffmpegCodes!$B$4, ffmpegCodes!A53 + 1, "")</f>
+        <f>IF(ffmpegCodes!A53 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A53 + 1, "")</f>
         <v/>
       </c>
       <c r="B54" s="16" t="str">
@@ -4881,7 +4933,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="str">
-        <f>IF(ffmpegCodes!A54 &lt; ffmpegCodes!$B$4, ffmpegCodes!A54 + 1, "")</f>
+        <f>IF(ffmpegCodes!A54 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A54 + 1, "")</f>
         <v/>
       </c>
       <c r="B55" s="16" t="str">
@@ -4891,7 +4943,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="str">
-        <f>IF(ffmpegCodes!A55 &lt; ffmpegCodes!$B$4, ffmpegCodes!A55 + 1, "")</f>
+        <f>IF(ffmpegCodes!A55 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A55 + 1, "")</f>
         <v/>
       </c>
       <c r="B56" s="16" t="str">
@@ -4901,7 +4953,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="str">
-        <f>IF(ffmpegCodes!A56 &lt; ffmpegCodes!$B$4, ffmpegCodes!A56 + 1, "")</f>
+        <f>IF(ffmpegCodes!A56 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A56 + 1, "")</f>
         <v/>
       </c>
       <c r="B57" s="16" t="str">
@@ -4911,7 +4963,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="str">
-        <f>IF(ffmpegCodes!A57 &lt; ffmpegCodes!$B$4, ffmpegCodes!A57 + 1, "")</f>
+        <f>IF(ffmpegCodes!A57 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A57 + 1, "")</f>
         <v/>
       </c>
       <c r="B58" s="16" t="str">
@@ -4921,7 +4973,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="str">
-        <f>IF(ffmpegCodes!A58 &lt; ffmpegCodes!$B$4, ffmpegCodes!A58 + 1, "")</f>
+        <f>IF(ffmpegCodes!A58 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A58 + 1, "")</f>
         <v/>
       </c>
       <c r="B59" s="16" t="str">
@@ -4931,7 +4983,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="str">
-        <f>IF(ffmpegCodes!A59 &lt; ffmpegCodes!$B$4, ffmpegCodes!A59 + 1, "")</f>
+        <f>IF(ffmpegCodes!A59 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A59 + 1, "")</f>
         <v/>
       </c>
       <c r="B60" s="16" t="str">
@@ -4941,7 +4993,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="str">
-        <f>IF(ffmpegCodes!A60 &lt; ffmpegCodes!$B$4, ffmpegCodes!A60 + 1, "")</f>
+        <f>IF(ffmpegCodes!A60 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A60 + 1, "")</f>
         <v/>
       </c>
       <c r="B61" s="16" t="str">
@@ -4951,7 +5003,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="str">
-        <f>IF(ffmpegCodes!A61 &lt; ffmpegCodes!$B$4, ffmpegCodes!A61 + 1, "")</f>
+        <f>IF(ffmpegCodes!A61 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A61 + 1, "")</f>
         <v/>
       </c>
       <c r="B62" s="16" t="str">
@@ -4961,7 +5013,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="str">
-        <f>IF(ffmpegCodes!A62 &lt; ffmpegCodes!$B$4, ffmpegCodes!A62 + 1, "")</f>
+        <f>IF(ffmpegCodes!A62 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A62 + 1, "")</f>
         <v/>
       </c>
       <c r="B63" s="16" t="str">
@@ -4971,7 +5023,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="str">
-        <f>IF(ffmpegCodes!A63 &lt; ffmpegCodes!$B$4, ffmpegCodes!A63 + 1, "")</f>
+        <f>IF(ffmpegCodes!A63 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A63 + 1, "")</f>
         <v/>
       </c>
       <c r="B64" s="16" t="str">
@@ -4981,7 +5033,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="str">
-        <f>IF(ffmpegCodes!A64 &lt; ffmpegCodes!$B$4, ffmpegCodes!A64 + 1, "")</f>
+        <f>IF(ffmpegCodes!A64 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A64 + 1, "")</f>
         <v/>
       </c>
       <c r="B65" s="16" t="str">
@@ -4991,7 +5043,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="str">
-        <f>IF(ffmpegCodes!A65 &lt; ffmpegCodes!$B$4, ffmpegCodes!A65 + 1, "")</f>
+        <f>IF(ffmpegCodes!A65 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A65 + 1, "")</f>
         <v/>
       </c>
       <c r="B66" s="16" t="str">
@@ -5001,7 +5053,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="str">
-        <f>IF(ffmpegCodes!A66 &lt; ffmpegCodes!$B$4, ffmpegCodes!A66 + 1, "")</f>
+        <f>IF(ffmpegCodes!A66 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A66 + 1, "")</f>
         <v/>
       </c>
       <c r="B67" s="16" t="str">
@@ -5011,7 +5063,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="str">
-        <f>IF(ffmpegCodes!A67 &lt; ffmpegCodes!$B$4, ffmpegCodes!A67 + 1, "")</f>
+        <f>IF(ffmpegCodes!A67 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A67 + 1, "")</f>
         <v/>
       </c>
       <c r="B68" s="16" t="str">
@@ -5021,7 +5073,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="str">
-        <f>IF(ffmpegCodes!A68 &lt; ffmpegCodes!$B$4, ffmpegCodes!A68 + 1, "")</f>
+        <f>IF(ffmpegCodes!A68 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A68 + 1, "")</f>
         <v/>
       </c>
       <c r="B69" s="16" t="str">
@@ -5031,7 +5083,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="str">
-        <f>IF(ffmpegCodes!A69 &lt; ffmpegCodes!$B$4, ffmpegCodes!A69 + 1, "")</f>
+        <f>IF(ffmpegCodes!A69 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A69 + 1, "")</f>
         <v/>
       </c>
       <c r="B70" s="16" t="str">
@@ -5041,7 +5093,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="str">
-        <f>IF(ffmpegCodes!A70 &lt; ffmpegCodes!$B$4, ffmpegCodes!A70 + 1, "")</f>
+        <f>IF(ffmpegCodes!A70 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A70 + 1, "")</f>
         <v/>
       </c>
       <c r="B71" s="16" t="str">
@@ -5051,7 +5103,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="str">
-        <f>IF(ffmpegCodes!A71 &lt; ffmpegCodes!$B$4, ffmpegCodes!A71 + 1, "")</f>
+        <f>IF(ffmpegCodes!A71 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A71 + 1, "")</f>
         <v/>
       </c>
       <c r="B72" s="16" t="str">
@@ -5061,7 +5113,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="str">
-        <f>IF(ffmpegCodes!A72 &lt; ffmpegCodes!$B$4, ffmpegCodes!A72 + 1, "")</f>
+        <f>IF(ffmpegCodes!A72 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A72 + 1, "")</f>
         <v/>
       </c>
       <c r="B73" s="16" t="str">
@@ -5071,7 +5123,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="str">
-        <f>IF(ffmpegCodes!A73 &lt; ffmpegCodes!$B$4, ffmpegCodes!A73 + 1, "")</f>
+        <f>IF(ffmpegCodes!A73 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A73 + 1, "")</f>
         <v/>
       </c>
       <c r="B74" s="16" t="str">
@@ -5081,7 +5133,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="str">
-        <f>IF(ffmpegCodes!A74 &lt; ffmpegCodes!$B$4, ffmpegCodes!A74 + 1, "")</f>
+        <f>IF(ffmpegCodes!A74 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A74 + 1, "")</f>
         <v/>
       </c>
       <c r="B75" s="16" t="str">
@@ -5091,7 +5143,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="str">
-        <f>IF(ffmpegCodes!A75 &lt; ffmpegCodes!$B$4, ffmpegCodes!A75 + 1, "")</f>
+        <f>IF(ffmpegCodes!A75 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A75 + 1, "")</f>
         <v/>
       </c>
       <c r="B76" s="16" t="str">
@@ -5101,7 +5153,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="str">
-        <f>IF(ffmpegCodes!A76 &lt; ffmpegCodes!$B$4, ffmpegCodes!A76 + 1, "")</f>
+        <f>IF(ffmpegCodes!A76 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A76 + 1, "")</f>
         <v/>
       </c>
       <c r="B77" s="16" t="str">
@@ -5111,7 +5163,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="str">
-        <f>IF(ffmpegCodes!A77 &lt; ffmpegCodes!$B$4, ffmpegCodes!A77 + 1, "")</f>
+        <f>IF(ffmpegCodes!A77 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A77 + 1, "")</f>
         <v/>
       </c>
       <c r="B78" s="16" t="str">
@@ -5121,7 +5173,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="str">
-        <f>IF(ffmpegCodes!A78 &lt; ffmpegCodes!$B$4, ffmpegCodes!A78 + 1, "")</f>
+        <f>IF(ffmpegCodes!A78 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A78 + 1, "")</f>
         <v/>
       </c>
       <c r="B79" s="16" t="str">
@@ -5131,7 +5183,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="str">
-        <f>IF(ffmpegCodes!A79 &lt; ffmpegCodes!$B$4, ffmpegCodes!A79 + 1, "")</f>
+        <f>IF(ffmpegCodes!A79 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A79 + 1, "")</f>
         <v/>
       </c>
       <c r="B80" s="16" t="str">
@@ -5141,7 +5193,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="str">
-        <f>IF(ffmpegCodes!A80 &lt; ffmpegCodes!$B$4, ffmpegCodes!A80 + 1, "")</f>
+        <f>IF(ffmpegCodes!A80 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A80 + 1, "")</f>
         <v/>
       </c>
       <c r="B81" s="16" t="str">
@@ -5151,7 +5203,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="str">
-        <f>IF(ffmpegCodes!A81 &lt; ffmpegCodes!$B$4, ffmpegCodes!A81 + 1, "")</f>
+        <f>IF(ffmpegCodes!A81 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A81 + 1, "")</f>
         <v/>
       </c>
       <c r="B82" s="16" t="str">
@@ -5161,7 +5213,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="str">
-        <f>IF(ffmpegCodes!A82 &lt; ffmpegCodes!$B$4, ffmpegCodes!A82 + 1, "")</f>
+        <f>IF(ffmpegCodes!A82 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A82 + 1, "")</f>
         <v/>
       </c>
       <c r="B83" s="16" t="str">
@@ -5171,7 +5223,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="str">
-        <f>IF(ffmpegCodes!A83 &lt; ffmpegCodes!$B$4, ffmpegCodes!A83 + 1, "")</f>
+        <f>IF(ffmpegCodes!A83 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A83 + 1, "")</f>
         <v/>
       </c>
       <c r="B84" s="16" t="str">
@@ -5181,7 +5233,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="str">
-        <f>IF(ffmpegCodes!A84 &lt; ffmpegCodes!$B$4, ffmpegCodes!A84 + 1, "")</f>
+        <f>IF(ffmpegCodes!A84 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A84 + 1, "")</f>
         <v/>
       </c>
       <c r="B85" s="16" t="str">
@@ -5191,7 +5243,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="str">
-        <f>IF(ffmpegCodes!A85 &lt; ffmpegCodes!$B$4, ffmpegCodes!A85 + 1, "")</f>
+        <f>IF(ffmpegCodes!A85 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A85 + 1, "")</f>
         <v/>
       </c>
       <c r="B86" s="16" t="str">
@@ -5201,7 +5253,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="str">
-        <f>IF(ffmpegCodes!A86 &lt; ffmpegCodes!$B$4, ffmpegCodes!A86 + 1, "")</f>
+        <f>IF(ffmpegCodes!A86 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A86 + 1, "")</f>
         <v/>
       </c>
       <c r="B87" s="16" t="str">
@@ -5211,7 +5263,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="str">
-        <f>IF(ffmpegCodes!A87 &lt; ffmpegCodes!$B$4, ffmpegCodes!A87 + 1, "")</f>
+        <f>IF(ffmpegCodes!A87 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A87 + 1, "")</f>
         <v/>
       </c>
       <c r="B88" s="16" t="str">
@@ -5221,7 +5273,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="str">
-        <f>IF(ffmpegCodes!A88 &lt; ffmpegCodes!$B$4, ffmpegCodes!A88 + 1, "")</f>
+        <f>IF(ffmpegCodes!A88 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A88 + 1, "")</f>
         <v/>
       </c>
       <c r="B89" s="16" t="str">
@@ -5231,7 +5283,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="str">
-        <f>IF(ffmpegCodes!A89 &lt; ffmpegCodes!$B$4, ffmpegCodes!A89 + 1, "")</f>
+        <f>IF(ffmpegCodes!A89 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A89 + 1, "")</f>
         <v/>
       </c>
       <c r="B90" s="16" t="str">
@@ -5241,7 +5293,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="str">
-        <f>IF(ffmpegCodes!A90 &lt; ffmpegCodes!$B$4, ffmpegCodes!A90 + 1, "")</f>
+        <f>IF(ffmpegCodes!A90 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A90 + 1, "")</f>
         <v/>
       </c>
       <c r="B91" s="16" t="str">
@@ -5251,7 +5303,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="str">
-        <f>IF(ffmpegCodes!A91 &lt; ffmpegCodes!$B$4, ffmpegCodes!A91 + 1, "")</f>
+        <f>IF(ffmpegCodes!A91 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A91 + 1, "")</f>
         <v/>
       </c>
       <c r="B92" s="16" t="str">
@@ -5261,7 +5313,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="str">
-        <f>IF(ffmpegCodes!A92 &lt; ffmpegCodes!$B$4, ffmpegCodes!A92 + 1, "")</f>
+        <f>IF(ffmpegCodes!A92 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A92 + 1, "")</f>
         <v/>
       </c>
       <c r="B93" s="16" t="str">
@@ -5271,7 +5323,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="str">
-        <f>IF(ffmpegCodes!A93 &lt; ffmpegCodes!$B$4, ffmpegCodes!A93 + 1, "")</f>
+        <f>IF(ffmpegCodes!A93 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A93 + 1, "")</f>
         <v/>
       </c>
       <c r="B94" s="16" t="str">
@@ -5281,7 +5333,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="str">
-        <f>IF(ffmpegCodes!A94 &lt; ffmpegCodes!$B$4, ffmpegCodes!A94 + 1, "")</f>
+        <f>IF(ffmpegCodes!A94 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A94 + 1, "")</f>
         <v/>
       </c>
       <c r="B95" s="16" t="str">
@@ -5291,7 +5343,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="str">
-        <f>IF(ffmpegCodes!A95 &lt; ffmpegCodes!$B$4, ffmpegCodes!A95 + 1, "")</f>
+        <f>IF(ffmpegCodes!A95 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A95 + 1, "")</f>
         <v/>
       </c>
       <c r="B96" s="16" t="str">
@@ -5301,7 +5353,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="str">
-        <f>IF(ffmpegCodes!A96 &lt; ffmpegCodes!$B$4, ffmpegCodes!A96 + 1, "")</f>
+        <f>IF(ffmpegCodes!A96 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A96 + 1, "")</f>
         <v/>
       </c>
       <c r="B97" s="16" t="str">
@@ -5311,7 +5363,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="str">
-        <f>IF(ffmpegCodes!A97 &lt; ffmpegCodes!$B$4, ffmpegCodes!A97 + 1, "")</f>
+        <f>IF(ffmpegCodes!A97 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A97 + 1, "")</f>
         <v/>
       </c>
       <c r="B98" s="16" t="str">
@@ -5321,7 +5373,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="str">
-        <f>IF(ffmpegCodes!A98 &lt; ffmpegCodes!$B$4, ffmpegCodes!A98 + 1, "")</f>
+        <f>IF(ffmpegCodes!A98 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A98 + 1, "")</f>
         <v/>
       </c>
       <c r="B99" s="16" t="str">
@@ -5331,7 +5383,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="str">
-        <f>IF(ffmpegCodes!A99 &lt; ffmpegCodes!$B$4, ffmpegCodes!A99 + 1, "")</f>
+        <f>IF(ffmpegCodes!A99 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A99 + 1, "")</f>
         <v/>
       </c>
       <c r="B100" s="16" t="str">
@@ -5341,7 +5393,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="str">
-        <f>IF(ffmpegCodes!A100 &lt; ffmpegCodes!$B$4, ffmpegCodes!A100 + 1, "")</f>
+        <f>IF(ffmpegCodes!A100 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A100 + 1, "")</f>
         <v/>
       </c>
       <c r="B101" s="16" t="str">
@@ -5351,7 +5403,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="str">
-        <f>IF(ffmpegCodes!A101 &lt; ffmpegCodes!$B$4, ffmpegCodes!A101 + 1, "")</f>
+        <f>IF(ffmpegCodes!A101 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A101 + 1, "")</f>
         <v/>
       </c>
       <c r="B102" s="16" t="str">
@@ -5361,7 +5413,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="str">
-        <f>IF(ffmpegCodes!A102 &lt; ffmpegCodes!$B$4, ffmpegCodes!A102 + 1, "")</f>
+        <f>IF(ffmpegCodes!A102 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A102 + 1, "")</f>
         <v/>
       </c>
       <c r="B103" s="16" t="str">
@@ -5371,7 +5423,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="str">
-        <f>IF(ffmpegCodes!A103 &lt; ffmpegCodes!$B$4, ffmpegCodes!A103 + 1, "")</f>
+        <f>IF(ffmpegCodes!A103 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A103 + 1, "")</f>
         <v/>
       </c>
       <c r="B104" s="16" t="str">
@@ -5381,7 +5433,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="str">
-        <f>IF(ffmpegCodes!A104 &lt; ffmpegCodes!$B$4, ffmpegCodes!A104 + 1, "")</f>
+        <f>IF(ffmpegCodes!A104 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A104 + 1, "")</f>
         <v/>
       </c>
       <c r="B105" s="16" t="str">
@@ -5391,7 +5443,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="str">
-        <f>IF(ffmpegCodes!A105 &lt; ffmpegCodes!$B$4, ffmpegCodes!A105 + 1, "")</f>
+        <f>IF(ffmpegCodes!A105 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A105 + 1, "")</f>
         <v/>
       </c>
       <c r="B106" s="16" t="str">
@@ -5401,7 +5453,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="str">
-        <f>IF(ffmpegCodes!A106 &lt; ffmpegCodes!$B$4, ffmpegCodes!A106 + 1, "")</f>
+        <f>IF(ffmpegCodes!A106 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A106 + 1, "")</f>
         <v/>
       </c>
       <c r="B107" s="16" t="str">
@@ -5411,7 +5463,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="str">
-        <f>IF(ffmpegCodes!A107 &lt; ffmpegCodes!$B$4, ffmpegCodes!A107 + 1, "")</f>
+        <f>IF(ffmpegCodes!A107 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A107 + 1, "")</f>
         <v/>
       </c>
       <c r="B108" s="16" t="str">
@@ -5421,7 +5473,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="str">
-        <f>IF(ffmpegCodes!A108 &lt; ffmpegCodes!$B$4, ffmpegCodes!A108 + 1, "")</f>
+        <f>IF(ffmpegCodes!A108 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A108 + 1, "")</f>
         <v/>
       </c>
       <c r="B109" s="16" t="str">
@@ -5431,7 +5483,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="str">
-        <f>IF(ffmpegCodes!A109 &lt; ffmpegCodes!$B$4, ffmpegCodes!A109 + 1, "")</f>
+        <f>IF(ffmpegCodes!A109 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A109 + 1, "")</f>
         <v/>
       </c>
       <c r="B110" s="16" t="str">
@@ -5441,7 +5493,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="str">
-        <f>IF(ffmpegCodes!A110 &lt; ffmpegCodes!$B$4, ffmpegCodes!A110 + 1, "")</f>
+        <f>IF(ffmpegCodes!A110 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A110 + 1, "")</f>
         <v/>
       </c>
       <c r="B111" s="16" t="str">
@@ -5451,7 +5503,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="str">
-        <f>IF(ffmpegCodes!A111 &lt; ffmpegCodes!$B$4, ffmpegCodes!A111 + 1, "")</f>
+        <f>IF(ffmpegCodes!A111 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A111 + 1, "")</f>
         <v/>
       </c>
       <c r="B112" s="16" t="str">
@@ -5461,7 +5513,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="str">
-        <f>IF(ffmpegCodes!A112 &lt; ffmpegCodes!$B$4, ffmpegCodes!A112 + 1, "")</f>
+        <f>IF(ffmpegCodes!A112 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A112 + 1, "")</f>
         <v/>
       </c>
       <c r="B113" s="16" t="str">
@@ -5471,7 +5523,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="str">
-        <f>IF(ffmpegCodes!A113 &lt; ffmpegCodes!$B$4, ffmpegCodes!A113 + 1, "")</f>
+        <f>IF(ffmpegCodes!A113 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A113 + 1, "")</f>
         <v/>
       </c>
       <c r="B114" s="16" t="str">
@@ -5481,7 +5533,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="str">
-        <f>IF(ffmpegCodes!A114 &lt; ffmpegCodes!$B$4, ffmpegCodes!A114 + 1, "")</f>
+        <f>IF(ffmpegCodes!A114 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A114 + 1, "")</f>
         <v/>
       </c>
       <c r="B115" s="16" t="str">
@@ -5491,7 +5543,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="str">
-        <f>IF(ffmpegCodes!A115 &lt; ffmpegCodes!$B$4, ffmpegCodes!A115 + 1, "")</f>
+        <f>IF(ffmpegCodes!A115 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A115 + 1, "")</f>
         <v/>
       </c>
       <c r="B116" s="16" t="str">
@@ -5501,7 +5553,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="str">
-        <f>IF(ffmpegCodes!A116 &lt; ffmpegCodes!$B$4, ffmpegCodes!A116 + 1, "")</f>
+        <f>IF(ffmpegCodes!A116 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A116 + 1, "")</f>
         <v/>
       </c>
       <c r="B117" s="16" t="str">
@@ -5511,7 +5563,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="str">
-        <f>IF(ffmpegCodes!A117 &lt; ffmpegCodes!$B$4, ffmpegCodes!A117 + 1, "")</f>
+        <f>IF(ffmpegCodes!A117 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A117 + 1, "")</f>
         <v/>
       </c>
       <c r="B118" s="16" t="str">
@@ -5521,7 +5573,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="str">
-        <f>IF(ffmpegCodes!A118 &lt; ffmpegCodes!$B$4, ffmpegCodes!A118 + 1, "")</f>
+        <f>IF(ffmpegCodes!A118 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A118 + 1, "")</f>
         <v/>
       </c>
       <c r="B119" s="16" t="str">
@@ -5531,7 +5583,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="str">
-        <f>IF(ffmpegCodes!A119 &lt; ffmpegCodes!$B$4, ffmpegCodes!A119 + 1, "")</f>
+        <f>IF(ffmpegCodes!A119 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A119 + 1, "")</f>
         <v/>
       </c>
       <c r="B120" s="16" t="str">
@@ -5541,7 +5593,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="str">
-        <f>IF(ffmpegCodes!A120 &lt; ffmpegCodes!$B$4, ffmpegCodes!A120 + 1, "")</f>
+        <f>IF(ffmpegCodes!A120 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A120 + 1, "")</f>
         <v/>
       </c>
       <c r="B121" s="16" t="str">
@@ -5551,7 +5603,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="str">
-        <f>IF(ffmpegCodes!A121 &lt; ffmpegCodes!$B$4, ffmpegCodes!A121 + 1, "")</f>
+        <f>IF(ffmpegCodes!A121 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A121 + 1, "")</f>
         <v/>
       </c>
       <c r="B122" s="16" t="str">
@@ -5561,7 +5613,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="str">
-        <f>IF(ffmpegCodes!A122 &lt; ffmpegCodes!$B$4, ffmpegCodes!A122 + 1, "")</f>
+        <f>IF(ffmpegCodes!A122 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A122 + 1, "")</f>
         <v/>
       </c>
       <c r="B123" s="16" t="str">
@@ -5571,7 +5623,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="str">
-        <f>IF(ffmpegCodes!A123 &lt; ffmpegCodes!$B$4, ffmpegCodes!A123 + 1, "")</f>
+        <f>IF(ffmpegCodes!A123 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A123 + 1, "")</f>
         <v/>
       </c>
       <c r="B124" s="16" t="str">
@@ -5581,7 +5633,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="str">
-        <f>IF(ffmpegCodes!A124 &lt; ffmpegCodes!$B$4, ffmpegCodes!A124 + 1, "")</f>
+        <f>IF(ffmpegCodes!A124 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A124 + 1, "")</f>
         <v/>
       </c>
       <c r="B125" s="16" t="str">
@@ -5591,7 +5643,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="str">
-        <f>IF(ffmpegCodes!A125 &lt; ffmpegCodes!$B$4, ffmpegCodes!A125 + 1, "")</f>
+        <f>IF(ffmpegCodes!A125 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A125 + 1, "")</f>
         <v/>
       </c>
       <c r="B126" s="16" t="str">
@@ -5601,7 +5653,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="str">
-        <f>IF(ffmpegCodes!A126 &lt; ffmpegCodes!$B$4, ffmpegCodes!A126 + 1, "")</f>
+        <f>IF(ffmpegCodes!A126 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A126 + 1, "")</f>
         <v/>
       </c>
       <c r="B127" s="16" t="str">
@@ -5611,7 +5663,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="str">
-        <f>IF(ffmpegCodes!A127 &lt; ffmpegCodes!$B$4, ffmpegCodes!A127 + 1, "")</f>
+        <f>IF(ffmpegCodes!A127 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A127 + 1, "")</f>
         <v/>
       </c>
       <c r="B128" s="16" t="str">
@@ -5621,7 +5673,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="str">
-        <f>IF(ffmpegCodes!A128 &lt; ffmpegCodes!$B$4, ffmpegCodes!A128 + 1, "")</f>
+        <f>IF(ffmpegCodes!A128 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A128 + 1, "")</f>
         <v/>
       </c>
       <c r="B129" s="16" t="str">
@@ -5631,7 +5683,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="str">
-        <f>IF(ffmpegCodes!A129 &lt; ffmpegCodes!$B$4, ffmpegCodes!A129 + 1, "")</f>
+        <f>IF(ffmpegCodes!A129 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A129 + 1, "")</f>
         <v/>
       </c>
       <c r="B130" s="16" t="str">
@@ -5641,7 +5693,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="str">
-        <f>IF(ffmpegCodes!A130 &lt; ffmpegCodes!$B$4, ffmpegCodes!A130 + 1, "")</f>
+        <f>IF(ffmpegCodes!A130 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A130 + 1, "")</f>
         <v/>
       </c>
       <c r="B131" s="16" t="str">
@@ -5651,7 +5703,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="str">
-        <f>IF(ffmpegCodes!A131 &lt; ffmpegCodes!$B$4, ffmpegCodes!A131 + 1, "")</f>
+        <f>IF(ffmpegCodes!A131 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A131 + 1, "")</f>
         <v/>
       </c>
       <c r="B132" s="16" t="str">
@@ -5661,7 +5713,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="str">
-        <f>IF(ffmpegCodes!A132 &lt; ffmpegCodes!$B$4, ffmpegCodes!A132 + 1, "")</f>
+        <f>IF(ffmpegCodes!A132 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A132 + 1, "")</f>
         <v/>
       </c>
       <c r="B133" s="16" t="str">
@@ -5671,7 +5723,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="str">
-        <f>IF(ffmpegCodes!A133 &lt; ffmpegCodes!$B$4, ffmpegCodes!A133 + 1, "")</f>
+        <f>IF(ffmpegCodes!A133 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A133 + 1, "")</f>
         <v/>
       </c>
       <c r="B134" s="16" t="str">
@@ -5681,7 +5733,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="str">
-        <f>IF(ffmpegCodes!A134 &lt; ffmpegCodes!$B$4, ffmpegCodes!A134 + 1, "")</f>
+        <f>IF(ffmpegCodes!A134 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A134 + 1, "")</f>
         <v/>
       </c>
       <c r="B135" s="16" t="str">
@@ -5691,7 +5743,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="str">
-        <f>IF(ffmpegCodes!A135 &lt; ffmpegCodes!$B$4, ffmpegCodes!A135 + 1, "")</f>
+        <f>IF(ffmpegCodes!A135 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A135 + 1, "")</f>
         <v/>
       </c>
       <c r="B136" s="16" t="str">
@@ -5701,7 +5753,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="str">
-        <f>IF(ffmpegCodes!A136 &lt; ffmpegCodes!$B$4, ffmpegCodes!A136 + 1, "")</f>
+        <f>IF(ffmpegCodes!A136 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A136 + 1, "")</f>
         <v/>
       </c>
       <c r="B137" s="16" t="str">
@@ -5711,7 +5763,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="str">
-        <f>IF(ffmpegCodes!A137 &lt; ffmpegCodes!$B$4, ffmpegCodes!A137 + 1, "")</f>
+        <f>IF(ffmpegCodes!A137 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A137 + 1, "")</f>
         <v/>
       </c>
       <c r="B138" s="16" t="str">
@@ -5721,7 +5773,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="str">
-        <f>IF(ffmpegCodes!A138 &lt; ffmpegCodes!$B$4, ffmpegCodes!A138 + 1, "")</f>
+        <f>IF(ffmpegCodes!A138 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A138 + 1, "")</f>
         <v/>
       </c>
       <c r="B139" s="16" t="str">
@@ -5731,7 +5783,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="str">
-        <f>IF(ffmpegCodes!A139 &lt; ffmpegCodes!$B$4, ffmpegCodes!A139 + 1, "")</f>
+        <f>IF(ffmpegCodes!A139 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A139 + 1, "")</f>
         <v/>
       </c>
       <c r="B140" s="16" t="str">
@@ -5741,7 +5793,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="str">
-        <f>IF(ffmpegCodes!A140 &lt; ffmpegCodes!$B$4, ffmpegCodes!A140 + 1, "")</f>
+        <f>IF(ffmpegCodes!A140 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A140 + 1, "")</f>
         <v/>
       </c>
       <c r="B141" s="16" t="str">
@@ -5751,7 +5803,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="str">
-        <f>IF(ffmpegCodes!A141 &lt; ffmpegCodes!$B$4, ffmpegCodes!A141 + 1, "")</f>
+        <f>IF(ffmpegCodes!A141 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A141 + 1, "")</f>
         <v/>
       </c>
       <c r="B142" s="16" t="str">
@@ -5761,7 +5813,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="str">
-        <f>IF(ffmpegCodes!A142 &lt; ffmpegCodes!$B$4, ffmpegCodes!A142 + 1, "")</f>
+        <f>IF(ffmpegCodes!A142 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A142 + 1, "")</f>
         <v/>
       </c>
       <c r="B143" s="16" t="str">
@@ -5771,7 +5823,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="str">
-        <f>IF(ffmpegCodes!A143 &lt; ffmpegCodes!$B$4, ffmpegCodes!A143 + 1, "")</f>
+        <f>IF(ffmpegCodes!A143 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A143 + 1, "")</f>
         <v/>
       </c>
       <c r="B144" s="16" t="str">
@@ -5781,7 +5833,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="str">
-        <f>IF(ffmpegCodes!A144 &lt; ffmpegCodes!$B$4, ffmpegCodes!A144 + 1, "")</f>
+        <f>IF(ffmpegCodes!A144 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A144 + 1, "")</f>
         <v/>
       </c>
       <c r="B145" s="16" t="str">
@@ -5791,7 +5843,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="str">
-        <f>IF(ffmpegCodes!A145 &lt; ffmpegCodes!$B$4, ffmpegCodes!A145 + 1, "")</f>
+        <f>IF(ffmpegCodes!A145 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A145 + 1, "")</f>
         <v/>
       </c>
       <c r="B146" s="16" t="str">
@@ -5801,7 +5853,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="str">
-        <f>IF(ffmpegCodes!A146 &lt; ffmpegCodes!$B$4, ffmpegCodes!A146 + 1, "")</f>
+        <f>IF(ffmpegCodes!A146 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A146 + 1, "")</f>
         <v/>
       </c>
       <c r="B147" s="16" t="str">
@@ -5811,7 +5863,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="str">
-        <f>IF(ffmpegCodes!A147 &lt; ffmpegCodes!$B$4, ffmpegCodes!A147 + 1, "")</f>
+        <f>IF(ffmpegCodes!A147 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A147 + 1, "")</f>
         <v/>
       </c>
       <c r="B148" s="16" t="str">
@@ -5821,7 +5873,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="str">
-        <f>IF(ffmpegCodes!A148 &lt; ffmpegCodes!$B$4, ffmpegCodes!A148 + 1, "")</f>
+        <f>IF(ffmpegCodes!A148 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A148 + 1, "")</f>
         <v/>
       </c>
       <c r="B149" s="16" t="str">
@@ -5831,7 +5883,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="str">
-        <f>IF(ffmpegCodes!A149 &lt; ffmpegCodes!$B$4, ffmpegCodes!A149 + 1, "")</f>
+        <f>IF(ffmpegCodes!A149 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A149 + 1, "")</f>
         <v/>
       </c>
       <c r="B150" s="16" t="str">
@@ -5841,7 +5893,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="str">
-        <f>IF(ffmpegCodes!A150 &lt; ffmpegCodes!$B$4, ffmpegCodes!A150 + 1, "")</f>
+        <f>IF(ffmpegCodes!A150 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A150 + 1, "")</f>
         <v/>
       </c>
       <c r="B151" s="16" t="str">
@@ -5851,7 +5903,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="str">
-        <f>IF(ffmpegCodes!A151 &lt; ffmpegCodes!$B$4, ffmpegCodes!A151 + 1, "")</f>
+        <f>IF(ffmpegCodes!A151 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A151 + 1, "")</f>
         <v/>
       </c>
       <c r="B152" s="16" t="str">
@@ -5861,7 +5913,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="str">
-        <f>IF(ffmpegCodes!A152 &lt; ffmpegCodes!$B$4, ffmpegCodes!A152 + 1, "")</f>
+        <f>IF(ffmpegCodes!A152 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A152 + 1, "")</f>
         <v/>
       </c>
       <c r="B153" s="16" t="str">
@@ -5871,7 +5923,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="str">
-        <f>IF(ffmpegCodes!A153 &lt; ffmpegCodes!$B$4, ffmpegCodes!A153 + 1, "")</f>
+        <f>IF(ffmpegCodes!A153 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A153 + 1, "")</f>
         <v/>
       </c>
       <c r="B154" s="16" t="str">
@@ -5881,7 +5933,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="str">
-        <f>IF(ffmpegCodes!A154 &lt; ffmpegCodes!$B$4, ffmpegCodes!A154 + 1, "")</f>
+        <f>IF(ffmpegCodes!A154 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A154 + 1, "")</f>
         <v/>
       </c>
       <c r="B155" s="16" t="str">
@@ -5891,7 +5943,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="str">
-        <f>IF(ffmpegCodes!A155 &lt; ffmpegCodes!$B$4, ffmpegCodes!A155 + 1, "")</f>
+        <f>IF(ffmpegCodes!A155 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A155 + 1, "")</f>
         <v/>
       </c>
       <c r="B156" s="16" t="str">
@@ -5901,7 +5953,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="str">
-        <f>IF(ffmpegCodes!A156 &lt; ffmpegCodes!$B$4, ffmpegCodes!A156 + 1, "")</f>
+        <f>IF(ffmpegCodes!A156 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A156 + 1, "")</f>
         <v/>
       </c>
       <c r="B157" s="16" t="str">
@@ -5911,7 +5963,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="str">
-        <f>IF(ffmpegCodes!A157 &lt; ffmpegCodes!$B$4, ffmpegCodes!A157 + 1, "")</f>
+        <f>IF(ffmpegCodes!A157 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A157 + 1, "")</f>
         <v/>
       </c>
       <c r="B158" s="16" t="str">
@@ -5921,7 +5973,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="str">
-        <f>IF(ffmpegCodes!A158 &lt; ffmpegCodes!$B$4, ffmpegCodes!A158 + 1, "")</f>
+        <f>IF(ffmpegCodes!A158 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A158 + 1, "")</f>
         <v/>
       </c>
       <c r="B159" s="16" t="str">
@@ -5931,7 +5983,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="str">
-        <f>IF(ffmpegCodes!A159 &lt; ffmpegCodes!$B$4, ffmpegCodes!A159 + 1, "")</f>
+        <f>IF(ffmpegCodes!A159 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A159 + 1, "")</f>
         <v/>
       </c>
       <c r="B160" s="16" t="str">
@@ -5941,7 +5993,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="str">
-        <f>IF(ffmpegCodes!A160 &lt; ffmpegCodes!$B$4, ffmpegCodes!A160 + 1, "")</f>
+        <f>IF(ffmpegCodes!A160 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A160 + 1, "")</f>
         <v/>
       </c>
       <c r="B161" s="16" t="str">
@@ -5951,7 +6003,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="str">
-        <f>IF(ffmpegCodes!A161 &lt; ffmpegCodes!$B$4, ffmpegCodes!A161 + 1, "")</f>
+        <f>IF(ffmpegCodes!A161 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A161 + 1, "")</f>
         <v/>
       </c>
       <c r="B162" s="16" t="str">
@@ -5961,7 +6013,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="str">
-        <f>IF(ffmpegCodes!A162 &lt; ffmpegCodes!$B$4, ffmpegCodes!A162 + 1, "")</f>
+        <f>IF(ffmpegCodes!A162 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A162 + 1, "")</f>
         <v/>
       </c>
       <c r="B163" s="16" t="str">
@@ -5971,7 +6023,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="str">
-        <f>IF(ffmpegCodes!A163 &lt; ffmpegCodes!$B$4, ffmpegCodes!A163 + 1, "")</f>
+        <f>IF(ffmpegCodes!A163 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A163 + 1, "")</f>
         <v/>
       </c>
       <c r="B164" s="16" t="str">
@@ -5981,7 +6033,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="str">
-        <f>IF(ffmpegCodes!A164 &lt; ffmpegCodes!$B$4, ffmpegCodes!A164 + 1, "")</f>
+        <f>IF(ffmpegCodes!A164 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A164 + 1, "")</f>
         <v/>
       </c>
       <c r="B165" s="16" t="str">
@@ -5991,7 +6043,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="str">
-        <f>IF(ffmpegCodes!A165 &lt; ffmpegCodes!$B$4, ffmpegCodes!A165 + 1, "")</f>
+        <f>IF(ffmpegCodes!A165 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A165 + 1, "")</f>
         <v/>
       </c>
       <c r="B166" s="16" t="str">
@@ -6001,7 +6053,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="str">
-        <f>IF(ffmpegCodes!A166 &lt; ffmpegCodes!$B$4, ffmpegCodes!A166 + 1, "")</f>
+        <f>IF(ffmpegCodes!A166 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A166 + 1, "")</f>
         <v/>
       </c>
       <c r="B167" s="16" t="str">
@@ -6011,7 +6063,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="str">
-        <f>IF(ffmpegCodes!A167 &lt; ffmpegCodes!$B$4, ffmpegCodes!A167 + 1, "")</f>
+        <f>IF(ffmpegCodes!A167 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A167 + 1, "")</f>
         <v/>
       </c>
       <c r="B168" s="16" t="str">
@@ -6021,7 +6073,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="str">
-        <f>IF(ffmpegCodes!A168 &lt; ffmpegCodes!$B$4, ffmpegCodes!A168 + 1, "")</f>
+        <f>IF(ffmpegCodes!A168 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A168 + 1, "")</f>
         <v/>
       </c>
       <c r="B169" s="16" t="str">
@@ -6031,7 +6083,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="str">
-        <f>IF(ffmpegCodes!A169 &lt; ffmpegCodes!$B$4, ffmpegCodes!A169 + 1, "")</f>
+        <f>IF(ffmpegCodes!A169 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A169 + 1, "")</f>
         <v/>
       </c>
       <c r="B170" s="16" t="str">
@@ -6041,7 +6093,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="str">
-        <f>IF(ffmpegCodes!A170 &lt; ffmpegCodes!$B$4, ffmpegCodes!A170 + 1, "")</f>
+        <f>IF(ffmpegCodes!A170 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A170 + 1, "")</f>
         <v/>
       </c>
       <c r="B171" s="16" t="str">
@@ -6051,7 +6103,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="str">
-        <f>IF(ffmpegCodes!A171 &lt; ffmpegCodes!$B$4, ffmpegCodes!A171 + 1, "")</f>
+        <f>IF(ffmpegCodes!A171 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A171 + 1, "")</f>
         <v/>
       </c>
       <c r="B172" s="16" t="str">
@@ -6061,7 +6113,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="str">
-        <f>IF(ffmpegCodes!A172 &lt; ffmpegCodes!$B$4, ffmpegCodes!A172 + 1, "")</f>
+        <f>IF(ffmpegCodes!A172 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A172 + 1, "")</f>
         <v/>
       </c>
       <c r="B173" s="16" t="str">
@@ -6071,7 +6123,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="str">
-        <f>IF(ffmpegCodes!A173 &lt; ffmpegCodes!$B$4, ffmpegCodes!A173 + 1, "")</f>
+        <f>IF(ffmpegCodes!A173 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A173 + 1, "")</f>
         <v/>
       </c>
       <c r="B174" s="16" t="str">
@@ -6081,7 +6133,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="str">
-        <f>IF(ffmpegCodes!A174 &lt; ffmpegCodes!$B$4, ffmpegCodes!A174 + 1, "")</f>
+        <f>IF(ffmpegCodes!A174 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A174 + 1, "")</f>
         <v/>
       </c>
       <c r="B175" s="16" t="str">
@@ -6091,7 +6143,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="str">
-        <f>IF(ffmpegCodes!A175 &lt; ffmpegCodes!$B$4, ffmpegCodes!A175 + 1, "")</f>
+        <f>IF(ffmpegCodes!A175 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A175 + 1, "")</f>
         <v/>
       </c>
       <c r="B176" s="16" t="str">
@@ -6101,7 +6153,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="str">
-        <f>IF(ffmpegCodes!A176 &lt; ffmpegCodes!$B$4, ffmpegCodes!A176 + 1, "")</f>
+        <f>IF(ffmpegCodes!A176 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A176 + 1, "")</f>
         <v/>
       </c>
       <c r="B177" s="16" t="str">
@@ -6111,7 +6163,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="str">
-        <f>IF(ffmpegCodes!A177 &lt; ffmpegCodes!$B$4, ffmpegCodes!A177 + 1, "")</f>
+        <f>IF(ffmpegCodes!A177 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A177 + 1, "")</f>
         <v/>
       </c>
       <c r="B178" s="16" t="str">
@@ -6121,7 +6173,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="str">
-        <f>IF(ffmpegCodes!A178 &lt; ffmpegCodes!$B$4, ffmpegCodes!A178 + 1, "")</f>
+        <f>IF(ffmpegCodes!A178 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A178 + 1, "")</f>
         <v/>
       </c>
       <c r="B179" s="16" t="str">
@@ -6131,7 +6183,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="str">
-        <f>IF(ffmpegCodes!A179 &lt; ffmpegCodes!$B$4, ffmpegCodes!A179 + 1, "")</f>
+        <f>IF(ffmpegCodes!A179 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A179 + 1, "")</f>
         <v/>
       </c>
       <c r="B180" s="16" t="str">
@@ -6141,7 +6193,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="str">
-        <f>IF(ffmpegCodes!A180 &lt; ffmpegCodes!$B$4, ffmpegCodes!A180 + 1, "")</f>
+        <f>IF(ffmpegCodes!A180 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A180 + 1, "")</f>
         <v/>
       </c>
       <c r="B181" s="16" t="str">
@@ -6151,7 +6203,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="str">
-        <f>IF(ffmpegCodes!A181 &lt; ffmpegCodes!$B$4, ffmpegCodes!A181 + 1, "")</f>
+        <f>IF(ffmpegCodes!A181 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A181 + 1, "")</f>
         <v/>
       </c>
       <c r="B182" s="16" t="str">
@@ -6161,7 +6213,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="str">
-        <f>IF(ffmpegCodes!A182 &lt; ffmpegCodes!$B$4, ffmpegCodes!A182 + 1, "")</f>
+        <f>IF(ffmpegCodes!A182 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A182 + 1, "")</f>
         <v/>
       </c>
       <c r="B183" s="16" t="str">
@@ -6171,7 +6223,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="str">
-        <f>IF(ffmpegCodes!A183 &lt; ffmpegCodes!$B$4, ffmpegCodes!A183 + 1, "")</f>
+        <f>IF(ffmpegCodes!A183 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A183 + 1, "")</f>
         <v/>
       </c>
       <c r="B184" s="16" t="str">
@@ -6181,7 +6233,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="str">
-        <f>IF(ffmpegCodes!A184 &lt; ffmpegCodes!$B$4, ffmpegCodes!A184 + 1, "")</f>
+        <f>IF(ffmpegCodes!A184 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A184 + 1, "")</f>
         <v/>
       </c>
       <c r="B185" s="16" t="str">
@@ -6191,7 +6243,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="str">
-        <f>IF(ffmpegCodes!A185 &lt; ffmpegCodes!$B$4, ffmpegCodes!A185 + 1, "")</f>
+        <f>IF(ffmpegCodes!A185 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A185 + 1, "")</f>
         <v/>
       </c>
       <c r="B186" s="16" t="str">
@@ -6201,7 +6253,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="str">
-        <f>IF(ffmpegCodes!A186 &lt; ffmpegCodes!$B$4, ffmpegCodes!A186 + 1, "")</f>
+        <f>IF(ffmpegCodes!A186 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A186 + 1, "")</f>
         <v/>
       </c>
       <c r="B187" s="16" t="str">
@@ -6211,7 +6263,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="str">
-        <f>IF(ffmpegCodes!A187 &lt; ffmpegCodes!$B$4, ffmpegCodes!A187 + 1, "")</f>
+        <f>IF(ffmpegCodes!A187 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A187 + 1, "")</f>
         <v/>
       </c>
       <c r="B188" s="16" t="str">
@@ -6221,7 +6273,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="str">
-        <f>IF(ffmpegCodes!A188 &lt; ffmpegCodes!$B$4, ffmpegCodes!A188 + 1, "")</f>
+        <f>IF(ffmpegCodes!A188 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A188 + 1, "")</f>
         <v/>
       </c>
       <c r="B189" s="16" t="str">
@@ -6231,7 +6283,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="str">
-        <f>IF(ffmpegCodes!A189 &lt; ffmpegCodes!$B$4, ffmpegCodes!A189 + 1, "")</f>
+        <f>IF(ffmpegCodes!A189 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A189 + 1, "")</f>
         <v/>
       </c>
       <c r="B190" s="16" t="str">
@@ -6241,7 +6293,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="str">
-        <f>IF(ffmpegCodes!A190 &lt; ffmpegCodes!$B$4, ffmpegCodes!A190 + 1, "")</f>
+        <f>IF(ffmpegCodes!A190 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A190 + 1, "")</f>
         <v/>
       </c>
       <c r="B191" s="16" t="str">
@@ -6251,7 +6303,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="str">
-        <f>IF(ffmpegCodes!A191 &lt; ffmpegCodes!$B$4, ffmpegCodes!A191 + 1, "")</f>
+        <f>IF(ffmpegCodes!A191 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A191 + 1, "")</f>
         <v/>
       </c>
       <c r="B192" s="16" t="str">
@@ -6261,7 +6313,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="str">
-        <f>IF(ffmpegCodes!A192 &lt; ffmpegCodes!$B$4, ffmpegCodes!A192 + 1, "")</f>
+        <f>IF(ffmpegCodes!A192 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A192 + 1, "")</f>
         <v/>
       </c>
       <c r="B193" s="16" t="str">
@@ -6271,7 +6323,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="str">
-        <f>IF(ffmpegCodes!A193 &lt; ffmpegCodes!$B$4, ffmpegCodes!A193 + 1, "")</f>
+        <f>IF(ffmpegCodes!A193 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A193 + 1, "")</f>
         <v/>
       </c>
       <c r="B194" s="16" t="str">
@@ -6281,7 +6333,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="str">
-        <f>IF(ffmpegCodes!A194 &lt; ffmpegCodes!$B$4, ffmpegCodes!A194 + 1, "")</f>
+        <f>IF(ffmpegCodes!A194 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A194 + 1, "")</f>
         <v/>
       </c>
       <c r="B195" s="16" t="str">
@@ -6291,7 +6343,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="str">
-        <f>IF(ffmpegCodes!A195 &lt; ffmpegCodes!$B$4, ffmpegCodes!A195 + 1, "")</f>
+        <f>IF(ffmpegCodes!A195 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A195 + 1, "")</f>
         <v/>
       </c>
       <c r="B196" s="16" t="str">
@@ -6301,7 +6353,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="str">
-        <f>IF(ffmpegCodes!A196 &lt; ffmpegCodes!$B$4, ffmpegCodes!A196 + 1, "")</f>
+        <f>IF(ffmpegCodes!A196 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A196 + 1, "")</f>
         <v/>
       </c>
       <c r="B197" s="16" t="str">
@@ -6311,7 +6363,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="str">
-        <f>IF(ffmpegCodes!A197 &lt; ffmpegCodes!$B$4, ffmpegCodes!A197 + 1, "")</f>
+        <f>IF(ffmpegCodes!A197 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A197 + 1, "")</f>
         <v/>
       </c>
       <c r="B198" s="16" t="str">
@@ -6321,7 +6373,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="str">
-        <f>IF(ffmpegCodes!A198 &lt; ffmpegCodes!$B$4, ffmpegCodes!A198 + 1, "")</f>
+        <f>IF(ffmpegCodes!A198 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A198 + 1, "")</f>
         <v/>
       </c>
       <c r="B199" s="16" t="str">
@@ -6331,7 +6383,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="str">
-        <f>IF(ffmpegCodes!A199 &lt; ffmpegCodes!$B$4, ffmpegCodes!A199 + 1, "")</f>
+        <f>IF(ffmpegCodes!A199 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A199 + 1, "")</f>
         <v/>
       </c>
       <c r="B200" s="16" t="str">
@@ -6345,18 +6397,22 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="D11:J18"/>
+    <mergeCell ref="D11:J22"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6366,22 +6422,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Viki Audio Link extractor & Merger.xlsx
+++ b/Viki Audio Link extractor & Merger.xlsx
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +206,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +238,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -282,8 +295,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -292,13 +320,13 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -338,9 +366,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
@@ -652,29 +687,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -685,15 +720,15 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A5))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A5, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B5,"00"), ". Episode_", TEXT('IDM Codes'!B5,"00"), ".mp4"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track1_dashinit.mp4" /f "01. Episode_01.mp4"</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A5))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A5, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B5, "00"),". Episode_", TEXT('IDM Codes'!B5, "00"), ".mp3"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track2_dashinit.mp4" /f "01. Episode_01.mp3"</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A5))=0, "", C5&amp;" &amp; "&amp;D5)</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track1_dashinit.mp4" /f "01. Episode_01.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track2_dashinit.mp4" /f "01. Episode_01.mp3"</v>
       </c>
@@ -706,15 +741,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A6))=0,"", INT('IDM Codes'!B5)+1)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A6))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A6, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B6,"00"), ". Episode_", TEXT('IDM Codes'!B6,"00"), ".mp4"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track1_dashinit.mp4" /f "02. Episode_02.mp4"</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A6))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A6, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B6, "00"),". Episode_", TEXT('IDM Codes'!B6, "00"), ".mp3"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track2_dashinit.mp4" /f "02. Episode_02.mp3"</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A6))=0, "", C6&amp;" &amp; "&amp;D6)</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track1_dashinit.mp4" /f "02. Episode_02.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track2_dashinit.mp4" /f "02. Episode_02.mp3"</v>
       </c>
@@ -727,20 +762,20 @@
         <f>IF(LEN(TRIM('IDM Codes'!A7))=0,"", INT('IDM Codes'!B6)+1)</f>
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A7))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A7, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B7,"00"), ". Episode_", TEXT('IDM Codes'!B7,"00"), ".mp4"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track1_dashinit.mp4" /f "03. Episode_03.mp4"</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A7))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A7, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B7, "00"),". Episode_", TEXT('IDM Codes'!B7, "00"), ".mp3"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track2_dashinit.mp4" /f "03. Episode_03.mp3"</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A7))=0, "", C7&amp;" &amp; "&amp;D7)</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track1_dashinit.mp4" /f "03. Episode_03.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track2_dashinit.mp4" /f "03. Episode_03.mp3"</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
@@ -750,20 +785,20 @@
         <f>IF(LEN(TRIM('IDM Codes'!A8))=0,"", INT('IDM Codes'!B7)+1)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A8))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A8, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B8,"00"), ". Episode_", TEXT('IDM Codes'!B8,"00"), ".mp4"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track1_dashinit.mp4" /f "04. Episode_04.mp4"</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A8))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A8, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B8, "00"),". Episode_", TEXT('IDM Codes'!B8, "00"), ".mp3"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track2_dashinit.mp4" /f "04. Episode_04.mp3"</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A8))=0, "", C8&amp;" &amp; "&amp;D8)</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track1_dashinit.mp4" /f "04. Episode_04.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track2_dashinit.mp4" /f "04. Episode_04.mp3"</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -773,15 +808,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A9))=0,"", INT('IDM Codes'!B8)+1)</f>
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A9))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A9, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B9,"00"), ". Episode_", TEXT('IDM Codes'!B9,"00"), ".mp4"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track1_dashinit.mp4" /f "05. Episode_05.mp4"</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A9))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A9, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B9, "00"),". Episode_", TEXT('IDM Codes'!B9, "00"), ".mp3"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track2_dashinit.mp4" /f "05. Episode_05.mp3"</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A9))=0, "", C9&amp;" &amp; "&amp;D9)</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track1_dashinit.mp4" /f "05. Episode_05.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track2_dashinit.mp4" /f "05. Episode_05.mp3"</v>
       </c>
@@ -794,15 +829,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A10))=0,"", INT('IDM Codes'!B9)+1)</f>
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A10))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A10, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B10,"00"), ". Episode_", TEXT('IDM Codes'!B10,"00"), ".mp4"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track1_dashinit.mp4" /f "06. Episode_06.mp4"</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A10))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A10, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B10, "00"),". Episode_", TEXT('IDM Codes'!B10, "00"), ".mp3"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track2_dashinit.mp4" /f "06. Episode_06.mp3"</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A10))=0, "", C10&amp;" &amp; "&amp;D10)</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track1_dashinit.mp4" /f "06. Episode_06.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track2_dashinit.mp4" /f "06. Episode_06.mp3"</v>
       </c>
@@ -815,15 +850,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A11))=0,"", INT('IDM Codes'!B10)+1)</f>
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A11))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A11, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B11,"00"), ". Episode_", TEXT('IDM Codes'!B11,"00"), ".mp4"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track1_dashinit.mp4" /f "07. Episode_07.mp4"</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A11))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A11, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B11, "00"),". Episode_", TEXT('IDM Codes'!B11, "00"), ".mp3"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track2_dashinit.mp4" /f "07. Episode_07.mp3"</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A11))=0, "", C11&amp;" &amp; "&amp;D11)</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track1_dashinit.mp4" /f "07. Episode_07.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track2_dashinit.mp4" /f "07. Episode_07.mp3"</v>
       </c>
@@ -836,15 +871,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A12))=0,"", INT('IDM Codes'!B11)+1)</f>
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A12))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A12, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B12,"00"), ". Episode_", TEXT('IDM Codes'!B12,"00"), ".mp4"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track1_dashinit.mp4" /f "08. Episode_08.mp4"</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A12))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A12, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B12, "00"),". Episode_", TEXT('IDM Codes'!B12, "00"), ".mp3"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track2_dashinit.mp4" /f "08. Episode_08.mp3"</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A12))=0, "", C12&amp;" &amp; "&amp;D12)</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track1_dashinit.mp4" /f "08. Episode_08.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track2_dashinit.mp4" /f "08. Episode_08.mp3"</v>
       </c>
@@ -857,15 +892,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A13))=0,"", INT('IDM Codes'!B12)+1)</f>
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A13))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A13, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B13,"00"), ". Episode_", TEXT('IDM Codes'!B13,"00"), ".mp4"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track1_dashinit.mp4" /f "09. Episode_09.mp4"</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A13))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A13, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B13, "00"),". Episode_", TEXT('IDM Codes'!B13, "00"), ".mp3"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track2_dashinit.mp4" /f "09. Episode_09.mp3"</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A13))=0, "", C13&amp;" &amp; "&amp;D13)</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track1_dashinit.mp4" /f "09. Episode_09.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track2_dashinit.mp4" /f "09. Episode_09.mp3"</v>
       </c>
@@ -878,15 +913,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A14))=0,"", INT('IDM Codes'!B13)+1)</f>
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A14))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A14, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B14,"00"), ". Episode_", TEXT('IDM Codes'!B14,"00"), ".mp4"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track1_dashinit.mp4" /f "10. Episode_10.mp4"</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A14))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A14, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B14, "00"),". Episode_", TEXT('IDM Codes'!B14, "00"), ".mp3"""))</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track2_dashinit.mp4" /f "10. Episode_10.mp3"</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E14" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A14))=0, "", C14&amp;" &amp; "&amp;D14)</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track1_dashinit.mp4" /f "10. Episode_10.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track2_dashinit.mp4" /f "10. Episode_10.mp3"</v>
       </c>
@@ -896,15 +931,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A15))=0,"", INT('IDM Codes'!B14)+1)</f>
         <v/>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A15))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A15, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B15,"00"), ". Episode_", TEXT('IDM Codes'!B15,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A15))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A15, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B15, "00"),". Episode_", TEXT('IDM Codes'!B15, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E15" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A15))=0, "", C15&amp;" &amp; "&amp;D15)</f>
         <v/>
       </c>
@@ -914,15 +949,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A16))=0,"", INT('IDM Codes'!B15)+1)</f>
         <v/>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A16))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A16, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B16,"00"), ". Episode_", TEXT('IDM Codes'!B16,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A16))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A16, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B16, "00"),". Episode_", TEXT('IDM Codes'!B16, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A16))=0, "", C16&amp;" &amp; "&amp;D16)</f>
         <v/>
       </c>
@@ -932,15 +967,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A17))=0,"", INT('IDM Codes'!B16)+1)</f>
         <v/>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A17))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A17, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B17,"00"), ". Episode_", TEXT('IDM Codes'!B17,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A17))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A17, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B17, "00"),". Episode_", TEXT('IDM Codes'!B17, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E17" s="4" t="str">
+      <c r="E17" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A17))=0, "", C17&amp;" &amp; "&amp;D17)</f>
         <v/>
       </c>
@@ -950,15 +985,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A18))=0,"", INT('IDM Codes'!B17)+1)</f>
         <v/>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A18))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A18, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B18,"00"), ". Episode_", TEXT('IDM Codes'!B18,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A18))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A18, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B18, "00"),". Episode_", TEXT('IDM Codes'!B18, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E18" s="4" t="str">
+      <c r="E18" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A18))=0, "", C18&amp;" &amp; "&amp;D18)</f>
         <v/>
       </c>
@@ -968,15 +1003,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A19))=0,"", INT('IDM Codes'!B18)+1)</f>
         <v/>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A19))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A19, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B19,"00"), ". Episode_", TEXT('IDM Codes'!B19,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A19))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A19, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B19, "00"),". Episode_", TEXT('IDM Codes'!B19, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E19" s="4" t="str">
+      <c r="E19" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A19))=0, "", C19&amp;" &amp; "&amp;D19)</f>
         <v/>
       </c>
@@ -986,15 +1021,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A20))=0,"", INT('IDM Codes'!B19)+1)</f>
         <v/>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A20))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A20, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B20,"00"), ". Episode_", TEXT('IDM Codes'!B20,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A20))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A20, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B20, "00"),". Episode_", TEXT('IDM Codes'!B20, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E20" s="4" t="str">
+      <c r="E20" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A20))=0, "", C20&amp;" &amp; "&amp;D20)</f>
         <v/>
       </c>
@@ -1004,15 +1039,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A21))=0,"", INT('IDM Codes'!B20)+1)</f>
         <v/>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C21" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A21))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A21, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B21,"00"), ". Episode_", TEXT('IDM Codes'!B21,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A21))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A21, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B21, "00"),". Episode_", TEXT('IDM Codes'!B21, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E21" s="4" t="str">
+      <c r="E21" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A21))=0, "", C21&amp;" &amp; "&amp;D21)</f>
         <v/>
       </c>
@@ -1022,15 +1057,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A22))=0,"", INT('IDM Codes'!B21)+1)</f>
         <v/>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A22))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A22, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B22,"00"), ". Episode_", TEXT('IDM Codes'!B22,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A22))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A22, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B22, "00"),". Episode_", TEXT('IDM Codes'!B22, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E22" s="4" t="str">
+      <c r="E22" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A22))=0, "", C22&amp;" &amp; "&amp;D22)</f>
         <v/>
       </c>
@@ -1040,15 +1075,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A23))=0,"", INT('IDM Codes'!B22)+1)</f>
         <v/>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A23))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A23, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B23,"00"), ". Episode_", TEXT('IDM Codes'!B23,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A23))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A23, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B23, "00"),". Episode_", TEXT('IDM Codes'!B23, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E23" s="4" t="str">
+      <c r="E23" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A23))=0, "", C23&amp;" &amp; "&amp;D23)</f>
         <v/>
       </c>
@@ -1058,15 +1093,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A24))=0,"", INT('IDM Codes'!B23)+1)</f>
         <v/>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A24))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A24, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B24,"00"), ". Episode_", TEXT('IDM Codes'!B24,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A24))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A24, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B24, "00"),". Episode_", TEXT('IDM Codes'!B24, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E24" s="4" t="str">
+      <c r="E24" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A24))=0, "", C24&amp;" &amp; "&amp;D24)</f>
         <v/>
       </c>
@@ -1076,15 +1111,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A25))=0,"", INT('IDM Codes'!B24)+1)</f>
         <v/>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A25))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A25, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B25,"00"), ". Episode_", TEXT('IDM Codes'!B25,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A25))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A25, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B25, "00"),". Episode_", TEXT('IDM Codes'!B25, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E25" s="4" t="str">
+      <c r="E25" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A25))=0, "", C25&amp;" &amp; "&amp;D25)</f>
         <v/>
       </c>
@@ -1094,15 +1129,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A26))=0,"", INT('IDM Codes'!B25)+1)</f>
         <v/>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A26))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A26, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B26,"00"), ". Episode_", TEXT('IDM Codes'!B26,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A26))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A26, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B26, "00"),". Episode_", TEXT('IDM Codes'!B26, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E26" s="4" t="str">
+      <c r="E26" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A26))=0, "", C26&amp;" &amp; "&amp;D26)</f>
         <v/>
       </c>
@@ -1112,15 +1147,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A27))=0,"", INT('IDM Codes'!B26)+1)</f>
         <v/>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A27))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A27, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B27,"00"), ". Episode_", TEXT('IDM Codes'!B27,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A27))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A27, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B27, "00"),". Episode_", TEXT('IDM Codes'!B27, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E27" s="4" t="str">
+      <c r="E27" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A27))=0, "", C27&amp;" &amp; "&amp;D27)</f>
         <v/>
       </c>
@@ -1130,15 +1165,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A28))=0,"", INT('IDM Codes'!B27)+1)</f>
         <v/>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A28))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A28, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B28,"00"), ". Episode_", TEXT('IDM Codes'!B28,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A28))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A28, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B28, "00"),". Episode_", TEXT('IDM Codes'!B28, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E28" s="4" t="str">
+      <c r="E28" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A28))=0, "", C28&amp;" &amp; "&amp;D28)</f>
         <v/>
       </c>
@@ -1148,15 +1183,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A29))=0,"", INT('IDM Codes'!B28)+1)</f>
         <v/>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A29))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A29, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B29,"00"), ". Episode_", TEXT('IDM Codes'!B29,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A29))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A29, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B29, "00"),". Episode_", TEXT('IDM Codes'!B29, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E29" s="4" t="str">
+      <c r="E29" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A29))=0, "", C29&amp;" &amp; "&amp;D29)</f>
         <v/>
       </c>
@@ -1166,15 +1201,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A30))=0,"", INT('IDM Codes'!B29)+1)</f>
         <v/>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A30))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A30, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B30,"00"), ". Episode_", TEXT('IDM Codes'!B30,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A30))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A30, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B30, "00"),". Episode_", TEXT('IDM Codes'!B30, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E30" s="4" t="str">
+      <c r="E30" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A30))=0, "", C30&amp;" &amp; "&amp;D30)</f>
         <v/>
       </c>
@@ -1184,15 +1219,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A31))=0,"", INT('IDM Codes'!B30)+1)</f>
         <v/>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A31))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A31, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B31,"00"), ". Episode_", TEXT('IDM Codes'!B31,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A31))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A31, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B31, "00"),". Episode_", TEXT('IDM Codes'!B31, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E31" s="4" t="str">
+      <c r="E31" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A31))=0, "", C31&amp;" &amp; "&amp;D31)</f>
         <v/>
       </c>
@@ -1202,15 +1237,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A32))=0,"", INT('IDM Codes'!B31)+1)</f>
         <v/>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A32))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A32, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B32,"00"), ". Episode_", TEXT('IDM Codes'!B32,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="D32" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A32))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A32, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B32, "00"),". Episode_", TEXT('IDM Codes'!B32, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E32" s="4" t="str">
+      <c r="E32" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A32))=0, "", C32&amp;" &amp; "&amp;D32)</f>
         <v/>
       </c>
@@ -1220,15 +1255,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A33))=0,"", INT('IDM Codes'!B32)+1)</f>
         <v/>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A33))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A33, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B33,"00"), ". Episode_", TEXT('IDM Codes'!B33,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D33" s="4" t="str">
+      <c r="D33" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A33))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A33, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B33, "00"),". Episode_", TEXT('IDM Codes'!B33, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E33" s="4" t="str">
+      <c r="E33" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A33))=0, "", C33&amp;" &amp; "&amp;D33)</f>
         <v/>
       </c>
@@ -1238,15 +1273,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A34))=0,"", INT('IDM Codes'!B33)+1)</f>
         <v/>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A34))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A34, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B34,"00"), ". Episode_", TEXT('IDM Codes'!B34,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D34" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A34))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A34, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B34, "00"),". Episode_", TEXT('IDM Codes'!B34, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E34" s="4" t="str">
+      <c r="E34" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A34))=0, "", C34&amp;" &amp; "&amp;D34)</f>
         <v/>
       </c>
@@ -1256,15 +1291,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A35))=0,"", INT('IDM Codes'!B34)+1)</f>
         <v/>
       </c>
-      <c r="C35" s="3" t="str">
+      <c r="C35" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A35))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A35, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B35,"00"), ". Episode_", TEXT('IDM Codes'!B35,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A35))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A35, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B35, "00"),". Episode_", TEXT('IDM Codes'!B35, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E35" s="4" t="str">
+      <c r="E35" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A35))=0, "", C35&amp;" &amp; "&amp;D35)</f>
         <v/>
       </c>
@@ -1274,15 +1309,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A36))=0,"", INT('IDM Codes'!B35)+1)</f>
         <v/>
       </c>
-      <c r="C36" s="3" t="str">
+      <c r="C36" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A36))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A36, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B36,"00"), ". Episode_", TEXT('IDM Codes'!B36,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A36))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A36, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B36, "00"),". Episode_", TEXT('IDM Codes'!B36, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E36" s="4" t="str">
+      <c r="E36" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A36))=0, "", C36&amp;" &amp; "&amp;D36)</f>
         <v/>
       </c>
@@ -1292,15 +1327,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A37))=0,"", INT('IDM Codes'!B36)+1)</f>
         <v/>
       </c>
-      <c r="C37" s="3" t="str">
+      <c r="C37" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A37))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A37, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B37,"00"), ". Episode_", TEXT('IDM Codes'!B37,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="D37" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A37))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A37, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B37, "00"),". Episode_", TEXT('IDM Codes'!B37, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E37" s="4" t="str">
+      <c r="E37" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A37))=0, "", C37&amp;" &amp; "&amp;D37)</f>
         <v/>
       </c>
@@ -1310,15 +1345,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A38))=0,"", INT('IDM Codes'!B37)+1)</f>
         <v/>
       </c>
-      <c r="C38" s="3" t="str">
+      <c r="C38" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A38))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A38, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B38,"00"), ". Episode_", TEXT('IDM Codes'!B38,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A38))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A38, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B38, "00"),". Episode_", TEXT('IDM Codes'!B38, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E38" s="4" t="str">
+      <c r="E38" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A38))=0, "", C38&amp;" &amp; "&amp;D38)</f>
         <v/>
       </c>
@@ -1328,15 +1363,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A39))=0,"", INT('IDM Codes'!B38)+1)</f>
         <v/>
       </c>
-      <c r="C39" s="3" t="str">
+      <c r="C39" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A39))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A39, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B39,"00"), ". Episode_", TEXT('IDM Codes'!B39,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D39" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A39))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A39, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B39, "00"),". Episode_", TEXT('IDM Codes'!B39, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E39" s="4" t="str">
+      <c r="E39" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A39))=0, "", C39&amp;" &amp; "&amp;D39)</f>
         <v/>
       </c>
@@ -1346,15 +1381,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A40))=0,"", INT('IDM Codes'!B39)+1)</f>
         <v/>
       </c>
-      <c r="C40" s="3" t="str">
+      <c r="C40" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A40))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A40, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B40,"00"), ". Episode_", TEXT('IDM Codes'!B40,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A40))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A40, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B40, "00"),". Episode_", TEXT('IDM Codes'!B40, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E40" s="4" t="str">
+      <c r="E40" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A40))=0, "", C40&amp;" &amp; "&amp;D40)</f>
         <v/>
       </c>
@@ -1364,15 +1399,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A41))=0,"", INT('IDM Codes'!B40)+1)</f>
         <v/>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A41))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A41, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B41,"00"), ". Episode_", TEXT('IDM Codes'!B41,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D41" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A41))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A41, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B41, "00"),". Episode_", TEXT('IDM Codes'!B41, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E41" s="4" t="str">
+      <c r="E41" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A41))=0, "", C41&amp;" &amp; "&amp;D41)</f>
         <v/>
       </c>
@@ -1382,15 +1417,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A42))=0,"", INT('IDM Codes'!B41)+1)</f>
         <v/>
       </c>
-      <c r="C42" s="3" t="str">
+      <c r="C42" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A42))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A42, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B42,"00"), ". Episode_", TEXT('IDM Codes'!B42,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D42" s="4" t="str">
+      <c r="D42" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A42))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A42, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B42, "00"),". Episode_", TEXT('IDM Codes'!B42, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E42" s="4" t="str">
+      <c r="E42" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A42))=0, "", C42&amp;" &amp; "&amp;D42)</f>
         <v/>
       </c>
@@ -1400,15 +1435,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A43))=0,"", INT('IDM Codes'!B42)+1)</f>
         <v/>
       </c>
-      <c r="C43" s="3" t="str">
+      <c r="C43" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A43))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A43, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B43,"00"), ". Episode_", TEXT('IDM Codes'!B43,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A43))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A43, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B43, "00"),". Episode_", TEXT('IDM Codes'!B43, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E43" s="4" t="str">
+      <c r="E43" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A43))=0, "", C43&amp;" &amp; "&amp;D43)</f>
         <v/>
       </c>
@@ -1418,15 +1453,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A44))=0,"", INT('IDM Codes'!B43)+1)</f>
         <v/>
       </c>
-      <c r="C44" s="3" t="str">
+      <c r="C44" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A44))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A44, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B44,"00"), ". Episode_", TEXT('IDM Codes'!B44,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D44" s="4" t="str">
+      <c r="D44" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A44))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A44, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B44, "00"),". Episode_", TEXT('IDM Codes'!B44, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E44" s="4" t="str">
+      <c r="E44" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A44))=0, "", C44&amp;" &amp; "&amp;D44)</f>
         <v/>
       </c>
@@ -1436,15 +1471,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A45))=0,"", INT('IDM Codes'!B44)+1)</f>
         <v/>
       </c>
-      <c r="C45" s="3" t="str">
+      <c r="C45" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A45))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A45, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B45,"00"), ". Episode_", TEXT('IDM Codes'!B45,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D45" s="4" t="str">
+      <c r="D45" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A45))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A45, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B45, "00"),". Episode_", TEXT('IDM Codes'!B45, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E45" s="4" t="str">
+      <c r="E45" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A45))=0, "", C45&amp;" &amp; "&amp;D45)</f>
         <v/>
       </c>
@@ -1454,15 +1489,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A46))=0,"", INT('IDM Codes'!B45)+1)</f>
         <v/>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C46" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A46))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A46, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B46,"00"), ". Episode_", TEXT('IDM Codes'!B46,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D46" s="4" t="str">
+      <c r="D46" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A46))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A46, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B46, "00"),". Episode_", TEXT('IDM Codes'!B46, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E46" s="4" t="str">
+      <c r="E46" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A46))=0, "", C46&amp;" &amp; "&amp;D46)</f>
         <v/>
       </c>
@@ -1472,15 +1507,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A47))=0,"", INT('IDM Codes'!B46)+1)</f>
         <v/>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C47" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A47))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A47, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B47,"00"), ". Episode_", TEXT('IDM Codes'!B47,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D47" s="4" t="str">
+      <c r="D47" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A47))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A47, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B47, "00"),". Episode_", TEXT('IDM Codes'!B47, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E47" s="4" t="str">
+      <c r="E47" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A47))=0, "", C47&amp;" &amp; "&amp;D47)</f>
         <v/>
       </c>
@@ -1490,15 +1525,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A48))=0,"", INT('IDM Codes'!B47)+1)</f>
         <v/>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C48" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A48))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A48, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B48,"00"), ". Episode_", TEXT('IDM Codes'!B48,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D48" s="4" t="str">
+      <c r="D48" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A48))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A48, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B48, "00"),". Episode_", TEXT('IDM Codes'!B48, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E48" s="4" t="str">
+      <c r="E48" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A48))=0, "", C48&amp;" &amp; "&amp;D48)</f>
         <v/>
       </c>
@@ -1508,15 +1543,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A49))=0,"", INT('IDM Codes'!B48)+1)</f>
         <v/>
       </c>
-      <c r="C49" s="3" t="str">
+      <c r="C49" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A49))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A49, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B49,"00"), ". Episode_", TEXT('IDM Codes'!B49,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D49" s="4" t="str">
+      <c r="D49" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A49))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A49, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B49, "00"),". Episode_", TEXT('IDM Codes'!B49, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E49" s="4" t="str">
+      <c r="E49" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A49))=0, "", C49&amp;" &amp; "&amp;D49)</f>
         <v/>
       </c>
@@ -1526,15 +1561,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A50))=0,"", INT('IDM Codes'!B49)+1)</f>
         <v/>
       </c>
-      <c r="C50" s="3" t="str">
+      <c r="C50" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A50))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A50, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B50,"00"), ". Episode_", TEXT('IDM Codes'!B50,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D50" s="4" t="str">
+      <c r="D50" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A50))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A50, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B50, "00"),". Episode_", TEXT('IDM Codes'!B50, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E50" s="4" t="str">
+      <c r="E50" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A50))=0, "", C50&amp;" &amp; "&amp;D50)</f>
         <v/>
       </c>
@@ -1544,15 +1579,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A51))=0,"", INT('IDM Codes'!B50)+1)</f>
         <v/>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A51))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A51, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B51,"00"), ". Episode_", TEXT('IDM Codes'!B51,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D51" s="4" t="str">
+      <c r="D51" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A51))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A51, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B51, "00"),". Episode_", TEXT('IDM Codes'!B51, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E51" s="4" t="str">
+      <c r="E51" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A51))=0, "", C51&amp;" &amp; "&amp;D51)</f>
         <v/>
       </c>
@@ -1562,15 +1597,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A52))=0,"", INT('IDM Codes'!B51)+1)</f>
         <v/>
       </c>
-      <c r="C52" s="3" t="str">
+      <c r="C52" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A52))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A52, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B52,"00"), ". Episode_", TEXT('IDM Codes'!B52,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D52" s="4" t="str">
+      <c r="D52" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A52))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A52, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B52, "00"),". Episode_", TEXT('IDM Codes'!B52, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E52" s="4" t="str">
+      <c r="E52" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A52))=0, "", C52&amp;" &amp; "&amp;D52)</f>
         <v/>
       </c>
@@ -1580,15 +1615,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A53))=0,"", INT('IDM Codes'!B52)+1)</f>
         <v/>
       </c>
-      <c r="C53" s="3" t="str">
+      <c r="C53" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A53))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A53, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B53,"00"), ". Episode_", TEXT('IDM Codes'!B53,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D53" s="4" t="str">
+      <c r="D53" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A53))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A53, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B53, "00"),". Episode_", TEXT('IDM Codes'!B53, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E53" s="4" t="str">
+      <c r="E53" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A53))=0, "", C53&amp;" &amp; "&amp;D53)</f>
         <v/>
       </c>
@@ -1598,15 +1633,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A54))=0,"", INT('IDM Codes'!B53)+1)</f>
         <v/>
       </c>
-      <c r="C54" s="3" t="str">
+      <c r="C54" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A54))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A54, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B54,"00"), ". Episode_", TEXT('IDM Codes'!B54,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D54" s="4" t="str">
+      <c r="D54" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A54))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A54, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B54, "00"),". Episode_", TEXT('IDM Codes'!B54, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E54" s="4" t="str">
+      <c r="E54" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A54))=0, "", C54&amp;" &amp; "&amp;D54)</f>
         <v/>
       </c>
@@ -1616,15 +1651,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A55))=0,"", INT('IDM Codes'!B54)+1)</f>
         <v/>
       </c>
-      <c r="C55" s="3" t="str">
+      <c r="C55" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A55))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A55, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B55,"00"), ". Episode_", TEXT('IDM Codes'!B55,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D55" s="4" t="str">
+      <c r="D55" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A55))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A55, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B55, "00"),". Episode_", TEXT('IDM Codes'!B55, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E55" s="4" t="str">
+      <c r="E55" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A55))=0, "", C55&amp;" &amp; "&amp;D55)</f>
         <v/>
       </c>
@@ -1634,15 +1669,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A56))=0,"", INT('IDM Codes'!B55)+1)</f>
         <v/>
       </c>
-      <c r="C56" s="3" t="str">
+      <c r="C56" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A56))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A56, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B56,"00"), ". Episode_", TEXT('IDM Codes'!B56,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D56" s="4" t="str">
+      <c r="D56" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A56))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A56, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B56, "00"),". Episode_", TEXT('IDM Codes'!B56, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E56" s="4" t="str">
+      <c r="E56" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A56))=0, "", C56&amp;" &amp; "&amp;D56)</f>
         <v/>
       </c>
@@ -1652,15 +1687,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A57))=0,"", INT('IDM Codes'!B56)+1)</f>
         <v/>
       </c>
-      <c r="C57" s="3" t="str">
+      <c r="C57" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A57))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A57, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B57,"00"), ". Episode_", TEXT('IDM Codes'!B57,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D57" s="4" t="str">
+      <c r="D57" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A57))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A57, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B57, "00"),". Episode_", TEXT('IDM Codes'!B57, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E57" s="4" t="str">
+      <c r="E57" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A57))=0, "", C57&amp;" &amp; "&amp;D57)</f>
         <v/>
       </c>
@@ -1670,15 +1705,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A58))=0,"", INT('IDM Codes'!B57)+1)</f>
         <v/>
       </c>
-      <c r="C58" s="3" t="str">
+      <c r="C58" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A58))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A58, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B58,"00"), ". Episode_", TEXT('IDM Codes'!B58,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D58" s="4" t="str">
+      <c r="D58" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A58))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A58, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B58, "00"),". Episode_", TEXT('IDM Codes'!B58, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E58" s="4" t="str">
+      <c r="E58" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A58))=0, "", C58&amp;" &amp; "&amp;D58)</f>
         <v/>
       </c>
@@ -1688,15 +1723,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A59))=0,"", INT('IDM Codes'!B58)+1)</f>
         <v/>
       </c>
-      <c r="C59" s="3" t="str">
+      <c r="C59" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A59))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A59, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B59,"00"), ". Episode_", TEXT('IDM Codes'!B59,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D59" s="4" t="str">
+      <c r="D59" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A59))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A59, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B59, "00"),". Episode_", TEXT('IDM Codes'!B59, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E59" s="4" t="str">
+      <c r="E59" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A59))=0, "", C59&amp;" &amp; "&amp;D59)</f>
         <v/>
       </c>
@@ -1706,15 +1741,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A60))=0,"", INT('IDM Codes'!B59)+1)</f>
         <v/>
       </c>
-      <c r="C60" s="3" t="str">
+      <c r="C60" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A60))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A60, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B60,"00"), ". Episode_", TEXT('IDM Codes'!B60,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D60" s="4" t="str">
+      <c r="D60" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A60))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A60, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B60, "00"),". Episode_", TEXT('IDM Codes'!B60, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E60" s="4" t="str">
+      <c r="E60" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A60))=0, "", C60&amp;" &amp; "&amp;D60)</f>
         <v/>
       </c>
@@ -1724,15 +1759,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A61))=0,"", INT('IDM Codes'!B60)+1)</f>
         <v/>
       </c>
-      <c r="C61" s="3" t="str">
+      <c r="C61" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A61))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A61, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B61,"00"), ". Episode_", TEXT('IDM Codes'!B61,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D61" s="4" t="str">
+      <c r="D61" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A61))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A61, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B61, "00"),". Episode_", TEXT('IDM Codes'!B61, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E61" s="4" t="str">
+      <c r="E61" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A61))=0, "", C61&amp;" &amp; "&amp;D61)</f>
         <v/>
       </c>
@@ -1742,15 +1777,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A62))=0,"", INT('IDM Codes'!B61)+1)</f>
         <v/>
       </c>
-      <c r="C62" s="3" t="str">
+      <c r="C62" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A62))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A62, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B62,"00"), ". Episode_", TEXT('IDM Codes'!B62,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D62" s="4" t="str">
+      <c r="D62" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A62))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A62, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B62, "00"),". Episode_", TEXT('IDM Codes'!B62, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E62" s="4" t="str">
+      <c r="E62" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A62))=0, "", C62&amp;" &amp; "&amp;D62)</f>
         <v/>
       </c>
@@ -1760,15 +1795,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A63))=0,"", INT('IDM Codes'!B62)+1)</f>
         <v/>
       </c>
-      <c r="C63" s="3" t="str">
+      <c r="C63" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A63))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A63, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B63,"00"), ". Episode_", TEXT('IDM Codes'!B63,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D63" s="4" t="str">
+      <c r="D63" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A63))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A63, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B63, "00"),". Episode_", TEXT('IDM Codes'!B63, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E63" s="4" t="str">
+      <c r="E63" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A63))=0, "", C63&amp;" &amp; "&amp;D63)</f>
         <v/>
       </c>
@@ -1778,15 +1813,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A64))=0,"", INT('IDM Codes'!B63)+1)</f>
         <v/>
       </c>
-      <c r="C64" s="3" t="str">
+      <c r="C64" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A64))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A64, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B64,"00"), ". Episode_", TEXT('IDM Codes'!B64,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D64" s="4" t="str">
+      <c r="D64" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A64))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A64, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B64, "00"),". Episode_", TEXT('IDM Codes'!B64, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E64" s="4" t="str">
+      <c r="E64" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A64))=0, "", C64&amp;" &amp; "&amp;D64)</f>
         <v/>
       </c>
@@ -1796,15 +1831,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A65))=0,"", INT('IDM Codes'!B64)+1)</f>
         <v/>
       </c>
-      <c r="C65" s="3" t="str">
+      <c r="C65" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A65))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A65, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B65,"00"), ". Episode_", TEXT('IDM Codes'!B65,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D65" s="4" t="str">
+      <c r="D65" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A65))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A65, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B65, "00"),". Episode_", TEXT('IDM Codes'!B65, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E65" s="4" t="str">
+      <c r="E65" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A65))=0, "", C65&amp;" &amp; "&amp;D65)</f>
         <v/>
       </c>
@@ -1814,15 +1849,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A66))=0,"", INT('IDM Codes'!B65)+1)</f>
         <v/>
       </c>
-      <c r="C66" s="3" t="str">
+      <c r="C66" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A66))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A66, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B66,"00"), ". Episode_", TEXT('IDM Codes'!B66,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D66" s="4" t="str">
+      <c r="D66" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A66))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A66, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B66, "00"),". Episode_", TEXT('IDM Codes'!B66, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E66" s="4" t="str">
+      <c r="E66" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A66))=0, "", C66&amp;" &amp; "&amp;D66)</f>
         <v/>
       </c>
@@ -1832,15 +1867,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A67))=0,"", INT('IDM Codes'!B66)+1)</f>
         <v/>
       </c>
-      <c r="C67" s="3" t="str">
+      <c r="C67" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A67))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A67, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B67,"00"), ". Episode_", TEXT('IDM Codes'!B67,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D67" s="4" t="str">
+      <c r="D67" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A67))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A67, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B67, "00"),". Episode_", TEXT('IDM Codes'!B67, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E67" s="4" t="str">
+      <c r="E67" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A67))=0, "", C67&amp;" &amp; "&amp;D67)</f>
         <v/>
       </c>
@@ -1850,15 +1885,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A68))=0,"", INT('IDM Codes'!B67)+1)</f>
         <v/>
       </c>
-      <c r="C68" s="3" t="str">
+      <c r="C68" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A68))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A68, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B68,"00"), ". Episode_", TEXT('IDM Codes'!B68,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D68" s="4" t="str">
+      <c r="D68" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A68))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A68, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B68, "00"),". Episode_", TEXT('IDM Codes'!B68, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E68" s="4" t="str">
+      <c r="E68" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A68))=0, "", C68&amp;" &amp; "&amp;D68)</f>
         <v/>
       </c>
@@ -1868,15 +1903,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A69))=0,"", INT('IDM Codes'!B68)+1)</f>
         <v/>
       </c>
-      <c r="C69" s="3" t="str">
+      <c r="C69" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A69))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A69, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B69,"00"), ". Episode_", TEXT('IDM Codes'!B69,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D69" s="4" t="str">
+      <c r="D69" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A69))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A69, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B69, "00"),". Episode_", TEXT('IDM Codes'!B69, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E69" s="4" t="str">
+      <c r="E69" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A69))=0, "", C69&amp;" &amp; "&amp;D69)</f>
         <v/>
       </c>
@@ -1886,15 +1921,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A70))=0,"", INT('IDM Codes'!B69)+1)</f>
         <v/>
       </c>
-      <c r="C70" s="3" t="str">
+      <c r="C70" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A70))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A70, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B70,"00"), ". Episode_", TEXT('IDM Codes'!B70,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D70" s="4" t="str">
+      <c r="D70" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A70))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A70, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B70, "00"),". Episode_", TEXT('IDM Codes'!B70, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E70" s="4" t="str">
+      <c r="E70" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A70))=0, "", C70&amp;" &amp; "&amp;D70)</f>
         <v/>
       </c>
@@ -1904,15 +1939,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A71))=0,"", INT('IDM Codes'!B70)+1)</f>
         <v/>
       </c>
-      <c r="C71" s="3" t="str">
+      <c r="C71" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A71))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A71, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B71,"00"), ". Episode_", TEXT('IDM Codes'!B71,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D71" s="4" t="str">
+      <c r="D71" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A71))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A71, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B71, "00"),". Episode_", TEXT('IDM Codes'!B71, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E71" s="4" t="str">
+      <c r="E71" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A71))=0, "", C71&amp;" &amp; "&amp;D71)</f>
         <v/>
       </c>
@@ -1922,15 +1957,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A72))=0,"", INT('IDM Codes'!B71)+1)</f>
         <v/>
       </c>
-      <c r="C72" s="3" t="str">
+      <c r="C72" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A72))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A72, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B72,"00"), ". Episode_", TEXT('IDM Codes'!B72,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D72" s="4" t="str">
+      <c r="D72" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A72))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A72, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B72, "00"),". Episode_", TEXT('IDM Codes'!B72, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E72" s="4" t="str">
+      <c r="E72" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A72))=0, "", C72&amp;" &amp; "&amp;D72)</f>
         <v/>
       </c>
@@ -1940,15 +1975,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A73))=0,"", INT('IDM Codes'!B72)+1)</f>
         <v/>
       </c>
-      <c r="C73" s="3" t="str">
+      <c r="C73" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A73))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A73, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B73,"00"), ". Episode_", TEXT('IDM Codes'!B73,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D73" s="4" t="str">
+      <c r="D73" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A73))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A73, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B73, "00"),". Episode_", TEXT('IDM Codes'!B73, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E73" s="4" t="str">
+      <c r="E73" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A73))=0, "", C73&amp;" &amp; "&amp;D73)</f>
         <v/>
       </c>
@@ -1958,15 +1993,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A74))=0,"", INT('IDM Codes'!B73)+1)</f>
         <v/>
       </c>
-      <c r="C74" s="3" t="str">
+      <c r="C74" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A74))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A74, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B74,"00"), ". Episode_", TEXT('IDM Codes'!B74,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D74" s="4" t="str">
+      <c r="D74" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A74))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A74, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B74, "00"),". Episode_", TEXT('IDM Codes'!B74, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E74" s="4" t="str">
+      <c r="E74" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A74))=0, "", C74&amp;" &amp; "&amp;D74)</f>
         <v/>
       </c>
@@ -1976,15 +2011,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A75))=0,"", INT('IDM Codes'!B74)+1)</f>
         <v/>
       </c>
-      <c r="C75" s="3" t="str">
+      <c r="C75" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A75))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A75, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B75,"00"), ". Episode_", TEXT('IDM Codes'!B75,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D75" s="4" t="str">
+      <c r="D75" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A75))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A75, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B75, "00"),". Episode_", TEXT('IDM Codes'!B75, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E75" s="4" t="str">
+      <c r="E75" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A75))=0, "", C75&amp;" &amp; "&amp;D75)</f>
         <v/>
       </c>
@@ -1994,15 +2029,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A76))=0,"", INT('IDM Codes'!B75)+1)</f>
         <v/>
       </c>
-      <c r="C76" s="3" t="str">
+      <c r="C76" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A76))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A76, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B76,"00"), ". Episode_", TEXT('IDM Codes'!B76,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D76" s="4" t="str">
+      <c r="D76" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A76))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A76, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B76, "00"),". Episode_", TEXT('IDM Codes'!B76, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E76" s="4" t="str">
+      <c r="E76" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A76))=0, "", C76&amp;" &amp; "&amp;D76)</f>
         <v/>
       </c>
@@ -2012,15 +2047,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A77))=0,"", INT('IDM Codes'!B76)+1)</f>
         <v/>
       </c>
-      <c r="C77" s="3" t="str">
+      <c r="C77" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A77))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A77, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B77,"00"), ". Episode_", TEXT('IDM Codes'!B77,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D77" s="4" t="str">
+      <c r="D77" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A77))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A77, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B77, "00"),". Episode_", TEXT('IDM Codes'!B77, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E77" s="4" t="str">
+      <c r="E77" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A77))=0, "", C77&amp;" &amp; "&amp;D77)</f>
         <v/>
       </c>
@@ -2030,15 +2065,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A78))=0,"", INT('IDM Codes'!B77)+1)</f>
         <v/>
       </c>
-      <c r="C78" s="3" t="str">
+      <c r="C78" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A78))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A78, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B78,"00"), ". Episode_", TEXT('IDM Codes'!B78,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D78" s="4" t="str">
+      <c r="D78" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A78))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A78, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B78, "00"),". Episode_", TEXT('IDM Codes'!B78, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E78" s="4" t="str">
+      <c r="E78" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A78))=0, "", C78&amp;" &amp; "&amp;D78)</f>
         <v/>
       </c>
@@ -2048,15 +2083,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A79))=0,"", INT('IDM Codes'!B78)+1)</f>
         <v/>
       </c>
-      <c r="C79" s="3" t="str">
+      <c r="C79" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A79))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A79, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B79,"00"), ". Episode_", TEXT('IDM Codes'!B79,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D79" s="4" t="str">
+      <c r="D79" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A79))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A79, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B79, "00"),". Episode_", TEXT('IDM Codes'!B79, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E79" s="4" t="str">
+      <c r="E79" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A79))=0, "", C79&amp;" &amp; "&amp;D79)</f>
         <v/>
       </c>
@@ -2066,15 +2101,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A80))=0,"", INT('IDM Codes'!B79)+1)</f>
         <v/>
       </c>
-      <c r="C80" s="3" t="str">
+      <c r="C80" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A80))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A80, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B80,"00"), ". Episode_", TEXT('IDM Codes'!B80,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D80" s="4" t="str">
+      <c r="D80" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A80))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A80, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B80, "00"),". Episode_", TEXT('IDM Codes'!B80, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E80" s="4" t="str">
+      <c r="E80" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A80))=0, "", C80&amp;" &amp; "&amp;D80)</f>
         <v/>
       </c>
@@ -2084,15 +2119,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A81))=0,"", INT('IDM Codes'!B80)+1)</f>
         <v/>
       </c>
-      <c r="C81" s="3" t="str">
+      <c r="C81" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A81))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A81, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B81,"00"), ". Episode_", TEXT('IDM Codes'!B81,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D81" s="4" t="str">
+      <c r="D81" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A81))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A81, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B81, "00"),". Episode_", TEXT('IDM Codes'!B81, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E81" s="4" t="str">
+      <c r="E81" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A81))=0, "", C81&amp;" &amp; "&amp;D81)</f>
         <v/>
       </c>
@@ -2102,15 +2137,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A82))=0,"", INT('IDM Codes'!B81)+1)</f>
         <v/>
       </c>
-      <c r="C82" s="3" t="str">
+      <c r="C82" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A82))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A82, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B82,"00"), ". Episode_", TEXT('IDM Codes'!B82,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D82" s="4" t="str">
+      <c r="D82" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A82))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A82, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B82, "00"),". Episode_", TEXT('IDM Codes'!B82, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E82" s="4" t="str">
+      <c r="E82" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A82))=0, "", C82&amp;" &amp; "&amp;D82)</f>
         <v/>
       </c>
@@ -2120,15 +2155,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A83))=0,"", INT('IDM Codes'!B82)+1)</f>
         <v/>
       </c>
-      <c r="C83" s="3" t="str">
+      <c r="C83" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A83))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A83, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B83,"00"), ". Episode_", TEXT('IDM Codes'!B83,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D83" s="4" t="str">
+      <c r="D83" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A83))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A83, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B83, "00"),". Episode_", TEXT('IDM Codes'!B83, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E83" s="4" t="str">
+      <c r="E83" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A83))=0, "", C83&amp;" &amp; "&amp;D83)</f>
         <v/>
       </c>
@@ -2138,15 +2173,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A84))=0,"", INT('IDM Codes'!B83)+1)</f>
         <v/>
       </c>
-      <c r="C84" s="3" t="str">
+      <c r="C84" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A84))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A84, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B84,"00"), ". Episode_", TEXT('IDM Codes'!B84,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D84" s="4" t="str">
+      <c r="D84" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A84))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A84, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B84, "00"),". Episode_", TEXT('IDM Codes'!B84, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E84" s="4" t="str">
+      <c r="E84" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A84))=0, "", C84&amp;" &amp; "&amp;D84)</f>
         <v/>
       </c>
@@ -2156,15 +2191,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A85))=0,"", INT('IDM Codes'!B84)+1)</f>
         <v/>
       </c>
-      <c r="C85" s="3" t="str">
+      <c r="C85" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A85))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A85, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B85,"00"), ". Episode_", TEXT('IDM Codes'!B85,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D85" s="4" t="str">
+      <c r="D85" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A85))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A85, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B85, "00"),". Episode_", TEXT('IDM Codes'!B85, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E85" s="4" t="str">
+      <c r="E85" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A85))=0, "", C85&amp;" &amp; "&amp;D85)</f>
         <v/>
       </c>
@@ -2174,15 +2209,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A86))=0,"", INT('IDM Codes'!B85)+1)</f>
         <v/>
       </c>
-      <c r="C86" s="3" t="str">
+      <c r="C86" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A86))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A86, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B86,"00"), ". Episode_", TEXT('IDM Codes'!B86,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D86" s="4" t="str">
+      <c r="D86" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A86))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A86, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B86, "00"),". Episode_", TEXT('IDM Codes'!B86, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E86" s="4" t="str">
+      <c r="E86" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A86))=0, "", C86&amp;" &amp; "&amp;D86)</f>
         <v/>
       </c>
@@ -2192,15 +2227,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A87))=0,"", INT('IDM Codes'!B86)+1)</f>
         <v/>
       </c>
-      <c r="C87" s="3" t="str">
+      <c r="C87" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A87))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A87, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B87,"00"), ". Episode_", TEXT('IDM Codes'!B87,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D87" s="4" t="str">
+      <c r="D87" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A87))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A87, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B87, "00"),". Episode_", TEXT('IDM Codes'!B87, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E87" s="4" t="str">
+      <c r="E87" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A87))=0, "", C87&amp;" &amp; "&amp;D87)</f>
         <v/>
       </c>
@@ -2210,15 +2245,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A88))=0,"", INT('IDM Codes'!B87)+1)</f>
         <v/>
       </c>
-      <c r="C88" s="3" t="str">
+      <c r="C88" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A88))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A88, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B88,"00"), ". Episode_", TEXT('IDM Codes'!B88,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D88" s="4" t="str">
+      <c r="D88" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A88))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A88, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B88, "00"),". Episode_", TEXT('IDM Codes'!B88, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E88" s="4" t="str">
+      <c r="E88" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A88))=0, "", C88&amp;" &amp; "&amp;D88)</f>
         <v/>
       </c>
@@ -2228,15 +2263,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A89))=0,"", INT('IDM Codes'!B88)+1)</f>
         <v/>
       </c>
-      <c r="C89" s="3" t="str">
+      <c r="C89" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A89))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A89, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B89,"00"), ". Episode_", TEXT('IDM Codes'!B89,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D89" s="4" t="str">
+      <c r="D89" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A89))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A89, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B89, "00"),". Episode_", TEXT('IDM Codes'!B89, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E89" s="4" t="str">
+      <c r="E89" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A89))=0, "", C89&amp;" &amp; "&amp;D89)</f>
         <v/>
       </c>
@@ -2246,15 +2281,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A90))=0,"", INT('IDM Codes'!B89)+1)</f>
         <v/>
       </c>
-      <c r="C90" s="3" t="str">
+      <c r="C90" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A90))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A90, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B90,"00"), ". Episode_", TEXT('IDM Codes'!B90,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D90" s="4" t="str">
+      <c r="D90" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A90))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A90, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B90, "00"),". Episode_", TEXT('IDM Codes'!B90, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E90" s="4" t="str">
+      <c r="E90" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A90))=0, "", C90&amp;" &amp; "&amp;D90)</f>
         <v/>
       </c>
@@ -2264,15 +2299,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A91))=0,"", INT('IDM Codes'!B90)+1)</f>
         <v/>
       </c>
-      <c r="C91" s="3" t="str">
+      <c r="C91" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A91))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A91, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B91,"00"), ". Episode_", TEXT('IDM Codes'!B91,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D91" s="4" t="str">
+      <c r="D91" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A91))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A91, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B91, "00"),". Episode_", TEXT('IDM Codes'!B91, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E91" s="4" t="str">
+      <c r="E91" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A91))=0, "", C91&amp;" &amp; "&amp;D91)</f>
         <v/>
       </c>
@@ -2282,15 +2317,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A92))=0,"", INT('IDM Codes'!B91)+1)</f>
         <v/>
       </c>
-      <c r="C92" s="3" t="str">
+      <c r="C92" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A92))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A92, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B92,"00"), ". Episode_", TEXT('IDM Codes'!B92,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D92" s="4" t="str">
+      <c r="D92" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A92))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A92, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B92, "00"),". Episode_", TEXT('IDM Codes'!B92, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E92" s="4" t="str">
+      <c r="E92" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A92))=0, "", C92&amp;" &amp; "&amp;D92)</f>
         <v/>
       </c>
@@ -2300,15 +2335,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A93))=0,"", INT('IDM Codes'!B92)+1)</f>
         <v/>
       </c>
-      <c r="C93" s="3" t="str">
+      <c r="C93" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A93))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A93, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B93,"00"), ". Episode_", TEXT('IDM Codes'!B93,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D93" s="4" t="str">
+      <c r="D93" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A93))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A93, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B93, "00"),". Episode_", TEXT('IDM Codes'!B93, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E93" s="4" t="str">
+      <c r="E93" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A93))=0, "", C93&amp;" &amp; "&amp;D93)</f>
         <v/>
       </c>
@@ -2318,15 +2353,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A94))=0,"", INT('IDM Codes'!B93)+1)</f>
         <v/>
       </c>
-      <c r="C94" s="3" t="str">
+      <c r="C94" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A94))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A94, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B94,"00"), ". Episode_", TEXT('IDM Codes'!B94,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D94" s="4" t="str">
+      <c r="D94" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A94))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A94, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B94, "00"),". Episode_", TEXT('IDM Codes'!B94, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E94" s="4" t="str">
+      <c r="E94" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A94))=0, "", C94&amp;" &amp; "&amp;D94)</f>
         <v/>
       </c>
@@ -2336,15 +2371,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A95))=0,"", INT('IDM Codes'!B94)+1)</f>
         <v/>
       </c>
-      <c r="C95" s="3" t="str">
+      <c r="C95" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A95))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A95, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B95,"00"), ". Episode_", TEXT('IDM Codes'!B95,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D95" s="4" t="str">
+      <c r="D95" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A95))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A95, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B95, "00"),". Episode_", TEXT('IDM Codes'!B95, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E95" s="4" t="str">
+      <c r="E95" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A95))=0, "", C95&amp;" &amp; "&amp;D95)</f>
         <v/>
       </c>
@@ -2354,15 +2389,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A96))=0,"", INT('IDM Codes'!B95)+1)</f>
         <v/>
       </c>
-      <c r="C96" s="3" t="str">
+      <c r="C96" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A96))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A96, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B96,"00"), ". Episode_", TEXT('IDM Codes'!B96,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D96" s="4" t="str">
+      <c r="D96" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A96))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A96, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B96, "00"),". Episode_", TEXT('IDM Codes'!B96, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E96" s="4" t="str">
+      <c r="E96" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A96))=0, "", C96&amp;" &amp; "&amp;D96)</f>
         <v/>
       </c>
@@ -2372,15 +2407,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A97))=0,"", INT('IDM Codes'!B96)+1)</f>
         <v/>
       </c>
-      <c r="C97" s="3" t="str">
+      <c r="C97" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A97))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A97, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B97,"00"), ". Episode_", TEXT('IDM Codes'!B97,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D97" s="4" t="str">
+      <c r="D97" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A97))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A97, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B97, "00"),". Episode_", TEXT('IDM Codes'!B97, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E97" s="4" t="str">
+      <c r="E97" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A97))=0, "", C97&amp;" &amp; "&amp;D97)</f>
         <v/>
       </c>
@@ -2390,15 +2425,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A98))=0,"", INT('IDM Codes'!B97)+1)</f>
         <v/>
       </c>
-      <c r="C98" s="3" t="str">
+      <c r="C98" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A98))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A98, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B98,"00"), ". Episode_", TEXT('IDM Codes'!B98,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D98" s="4" t="str">
+      <c r="D98" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A98))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A98, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B98, "00"),". Episode_", TEXT('IDM Codes'!B98, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E98" s="4" t="str">
+      <c r="E98" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A98))=0, "", C98&amp;" &amp; "&amp;D98)</f>
         <v/>
       </c>
@@ -2408,15 +2443,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A99))=0,"", INT('IDM Codes'!B98)+1)</f>
         <v/>
       </c>
-      <c r="C99" s="3" t="str">
+      <c r="C99" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A99))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A99, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B99,"00"), ". Episode_", TEXT('IDM Codes'!B99,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D99" s="4" t="str">
+      <c r="D99" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A99))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A99, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B99, "00"),". Episode_", TEXT('IDM Codes'!B99, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E99" s="4" t="str">
+      <c r="E99" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A99))=0, "", C99&amp;" &amp; "&amp;D99)</f>
         <v/>
       </c>
@@ -2426,15 +2461,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A100))=0,"", INT('IDM Codes'!B99)+1)</f>
         <v/>
       </c>
-      <c r="C100" s="3" t="str">
+      <c r="C100" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A100))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A100, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B100,"00"), ". Episode_", TEXT('IDM Codes'!B100,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D100" s="4" t="str">
+      <c r="D100" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A100))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A100, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B100, "00"),". Episode_", TEXT('IDM Codes'!B100, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E100" s="4" t="str">
+      <c r="E100" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A100))=0, "", C100&amp;" &amp; "&amp;D100)</f>
         <v/>
       </c>
@@ -2444,15 +2479,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A101))=0,"", INT('IDM Codes'!B100)+1)</f>
         <v/>
       </c>
-      <c r="C101" s="3" t="str">
+      <c r="C101" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A101))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A101, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B101,"00"), ". Episode_", TEXT('IDM Codes'!B101,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D101" s="4" t="str">
+      <c r="D101" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A101))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A101, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B101, "00"),". Episode_", TEXT('IDM Codes'!B101, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E101" s="4" t="str">
+      <c r="E101" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A101))=0, "", C101&amp;" &amp; "&amp;D101)</f>
         <v/>
       </c>
@@ -2462,15 +2497,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A102))=0,"", INT('IDM Codes'!B101)+1)</f>
         <v/>
       </c>
-      <c r="C102" s="3" t="str">
+      <c r="C102" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A102))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A102, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B102,"00"), ". Episode_", TEXT('IDM Codes'!B102,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D102" s="4" t="str">
+      <c r="D102" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A102))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A102, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B102, "00"),". Episode_", TEXT('IDM Codes'!B102, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E102" s="4" t="str">
+      <c r="E102" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A102))=0, "", C102&amp;" &amp; "&amp;D102)</f>
         <v/>
       </c>
@@ -2480,15 +2515,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A103))=0,"", INT('IDM Codes'!B102)+1)</f>
         <v/>
       </c>
-      <c r="C103" s="3" t="str">
+      <c r="C103" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A103))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A103, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B103,"00"), ". Episode_", TEXT('IDM Codes'!B103,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D103" s="4" t="str">
+      <c r="D103" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A103))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A103, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B103, "00"),". Episode_", TEXT('IDM Codes'!B103, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E103" s="4" t="str">
+      <c r="E103" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A103))=0, "", C103&amp;" &amp; "&amp;D103)</f>
         <v/>
       </c>
@@ -2498,15 +2533,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A104))=0,"", INT('IDM Codes'!B103)+1)</f>
         <v/>
       </c>
-      <c r="C104" s="3" t="str">
+      <c r="C104" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A104))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A104, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B104,"00"), ". Episode_", TEXT('IDM Codes'!B104,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D104" s="4" t="str">
+      <c r="D104" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A104))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A104, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B104, "00"),". Episode_", TEXT('IDM Codes'!B104, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E104" s="4" t="str">
+      <c r="E104" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A104))=0, "", C104&amp;" &amp; "&amp;D104)</f>
         <v/>
       </c>
@@ -2516,15 +2551,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A105))=0,"", INT('IDM Codes'!B104)+1)</f>
         <v/>
       </c>
-      <c r="C105" s="3" t="str">
+      <c r="C105" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A105))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A105, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B105,"00"), ". Episode_", TEXT('IDM Codes'!B105,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D105" s="4" t="str">
+      <c r="D105" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A105))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A105, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B105, "00"),". Episode_", TEXT('IDM Codes'!B105, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E105" s="4" t="str">
+      <c r="E105" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A105))=0, "", C105&amp;" &amp; "&amp;D105)</f>
         <v/>
       </c>
@@ -2534,15 +2569,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A106))=0,"", INT('IDM Codes'!B105)+1)</f>
         <v/>
       </c>
-      <c r="C106" s="3" t="str">
+      <c r="C106" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A106))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A106, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B106,"00"), ". Episode_", TEXT('IDM Codes'!B106,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D106" s="4" t="str">
+      <c r="D106" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A106))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A106, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B106, "00"),". Episode_", TEXT('IDM Codes'!B106, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E106" s="4" t="str">
+      <c r="E106" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A106))=0, "", C106&amp;" &amp; "&amp;D106)</f>
         <v/>
       </c>
@@ -2552,15 +2587,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A107))=0,"", INT('IDM Codes'!B106)+1)</f>
         <v/>
       </c>
-      <c r="C107" s="3" t="str">
+      <c r="C107" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A107))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A107, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B107,"00"), ". Episode_", TEXT('IDM Codes'!B107,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D107" s="4" t="str">
+      <c r="D107" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A107))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A107, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B107, "00"),". Episode_", TEXT('IDM Codes'!B107, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E107" s="4" t="str">
+      <c r="E107" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A107))=0, "", C107&amp;" &amp; "&amp;D107)</f>
         <v/>
       </c>
@@ -2570,15 +2605,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A108))=0,"", INT('IDM Codes'!B107)+1)</f>
         <v/>
       </c>
-      <c r="C108" s="3" t="str">
+      <c r="C108" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A108))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A108, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B108,"00"), ". Episode_", TEXT('IDM Codes'!B108,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D108" s="4" t="str">
+      <c r="D108" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A108))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A108, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B108, "00"),". Episode_", TEXT('IDM Codes'!B108, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E108" s="4" t="str">
+      <c r="E108" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A108))=0, "", C108&amp;" &amp; "&amp;D108)</f>
         <v/>
       </c>
@@ -2588,15 +2623,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A109))=0,"", INT('IDM Codes'!B108)+1)</f>
         <v/>
       </c>
-      <c r="C109" s="3" t="str">
+      <c r="C109" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A109))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A109, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B109,"00"), ". Episode_", TEXT('IDM Codes'!B109,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D109" s="4" t="str">
+      <c r="D109" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A109))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A109, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B109, "00"),". Episode_", TEXT('IDM Codes'!B109, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E109" s="4" t="str">
+      <c r="E109" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A109))=0, "", C109&amp;" &amp; "&amp;D109)</f>
         <v/>
       </c>
@@ -2606,15 +2641,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A110))=0,"", INT('IDM Codes'!B109)+1)</f>
         <v/>
       </c>
-      <c r="C110" s="3" t="str">
+      <c r="C110" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A110))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A110, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B110,"00"), ". Episode_", TEXT('IDM Codes'!B110,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D110" s="4" t="str">
+      <c r="D110" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A110))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A110, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B110, "00"),". Episode_", TEXT('IDM Codes'!B110, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E110" s="4" t="str">
+      <c r="E110" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A110))=0, "", C110&amp;" &amp; "&amp;D110)</f>
         <v/>
       </c>
@@ -2624,15 +2659,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A111))=0,"", INT('IDM Codes'!B110)+1)</f>
         <v/>
       </c>
-      <c r="C111" s="3" t="str">
+      <c r="C111" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A111))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A111, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B111,"00"), ". Episode_", TEXT('IDM Codes'!B111,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D111" s="4" t="str">
+      <c r="D111" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A111))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A111, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B111, "00"),". Episode_", TEXT('IDM Codes'!B111, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E111" s="4" t="str">
+      <c r="E111" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A111))=0, "", C111&amp;" &amp; "&amp;D111)</f>
         <v/>
       </c>
@@ -2642,15 +2677,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A112))=0,"", INT('IDM Codes'!B111)+1)</f>
         <v/>
       </c>
-      <c r="C112" s="3" t="str">
+      <c r="C112" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A112))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A112, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B112,"00"), ". Episode_", TEXT('IDM Codes'!B112,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D112" s="4" t="str">
+      <c r="D112" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A112))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A112, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B112, "00"),". Episode_", TEXT('IDM Codes'!B112, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E112" s="4" t="str">
+      <c r="E112" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A112))=0, "", C112&amp;" &amp; "&amp;D112)</f>
         <v/>
       </c>
@@ -2660,15 +2695,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A113))=0,"", INT('IDM Codes'!B112)+1)</f>
         <v/>
       </c>
-      <c r="C113" s="3" t="str">
+      <c r="C113" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A113))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A113, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B113,"00"), ". Episode_", TEXT('IDM Codes'!B113,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D113" s="4" t="str">
+      <c r="D113" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A113))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A113, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B113, "00"),". Episode_", TEXT('IDM Codes'!B113, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E113" s="4" t="str">
+      <c r="E113" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A113))=0, "", C113&amp;" &amp; "&amp;D113)</f>
         <v/>
       </c>
@@ -2678,15 +2713,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A114))=0,"", INT('IDM Codes'!B113)+1)</f>
         <v/>
       </c>
-      <c r="C114" s="3" t="str">
+      <c r="C114" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A114))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A114, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B114,"00"), ". Episode_", TEXT('IDM Codes'!B114,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D114" s="4" t="str">
+      <c r="D114" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A114))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A114, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B114, "00"),". Episode_", TEXT('IDM Codes'!B114, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E114" s="4" t="str">
+      <c r="E114" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A114))=0, "", C114&amp;" &amp; "&amp;D114)</f>
         <v/>
       </c>
@@ -2696,15 +2731,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A115))=0,"", INT('IDM Codes'!B114)+1)</f>
         <v/>
       </c>
-      <c r="C115" s="3" t="str">
+      <c r="C115" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A115))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A115, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B115,"00"), ". Episode_", TEXT('IDM Codes'!B115,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D115" s="4" t="str">
+      <c r="D115" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A115))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A115, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B115, "00"),". Episode_", TEXT('IDM Codes'!B115, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E115" s="4" t="str">
+      <c r="E115" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A115))=0, "", C115&amp;" &amp; "&amp;D115)</f>
         <v/>
       </c>
@@ -2714,15 +2749,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A116))=0,"", INT('IDM Codes'!B115)+1)</f>
         <v/>
       </c>
-      <c r="C116" s="3" t="str">
+      <c r="C116" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A116))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A116, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B116,"00"), ". Episode_", TEXT('IDM Codes'!B116,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D116" s="4" t="str">
+      <c r="D116" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A116))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A116, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B116, "00"),". Episode_", TEXT('IDM Codes'!B116, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E116" s="4" t="str">
+      <c r="E116" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A116))=0, "", C116&amp;" &amp; "&amp;D116)</f>
         <v/>
       </c>
@@ -2732,15 +2767,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A117))=0,"", INT('IDM Codes'!B116)+1)</f>
         <v/>
       </c>
-      <c r="C117" s="3" t="str">
+      <c r="C117" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A117))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A117, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B117,"00"), ". Episode_", TEXT('IDM Codes'!B117,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D117" s="4" t="str">
+      <c r="D117" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A117))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A117, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B117, "00"),". Episode_", TEXT('IDM Codes'!B117, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E117" s="4" t="str">
+      <c r="E117" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A117))=0, "", C117&amp;" &amp; "&amp;D117)</f>
         <v/>
       </c>
@@ -2750,15 +2785,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A118))=0,"", INT('IDM Codes'!B117)+1)</f>
         <v/>
       </c>
-      <c r="C118" s="3" t="str">
+      <c r="C118" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A118))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A118, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B118,"00"), ". Episode_", TEXT('IDM Codes'!B118,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D118" s="4" t="str">
+      <c r="D118" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A118))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A118, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B118, "00"),". Episode_", TEXT('IDM Codes'!B118, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E118" s="4" t="str">
+      <c r="E118" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A118))=0, "", C118&amp;" &amp; "&amp;D118)</f>
         <v/>
       </c>
@@ -2768,15 +2803,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A119))=0,"", INT('IDM Codes'!B118)+1)</f>
         <v/>
       </c>
-      <c r="C119" s="3" t="str">
+      <c r="C119" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A119))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A119, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B119,"00"), ". Episode_", TEXT('IDM Codes'!B119,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D119" s="4" t="str">
+      <c r="D119" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A119))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A119, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B119, "00"),". Episode_", TEXT('IDM Codes'!B119, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E119" s="4" t="str">
+      <c r="E119" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A119))=0, "", C119&amp;" &amp; "&amp;D119)</f>
         <v/>
       </c>
@@ -2786,15 +2821,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A120))=0,"", INT('IDM Codes'!B119)+1)</f>
         <v/>
       </c>
-      <c r="C120" s="3" t="str">
+      <c r="C120" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A120))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A120, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B120,"00"), ". Episode_", TEXT('IDM Codes'!B120,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D120" s="4" t="str">
+      <c r="D120" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A120))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A120, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B120, "00"),". Episode_", TEXT('IDM Codes'!B120, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E120" s="4" t="str">
+      <c r="E120" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A120))=0, "", C120&amp;" &amp; "&amp;D120)</f>
         <v/>
       </c>
@@ -2804,15 +2839,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A121))=0,"", INT('IDM Codes'!B120)+1)</f>
         <v/>
       </c>
-      <c r="C121" s="3" t="str">
+      <c r="C121" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A121))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A121, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B121,"00"), ". Episode_", TEXT('IDM Codes'!B121,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D121" s="4" t="str">
+      <c r="D121" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A121))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A121, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B121, "00"),". Episode_", TEXT('IDM Codes'!B121, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E121" s="4" t="str">
+      <c r="E121" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A121))=0, "", C121&amp;" &amp; "&amp;D121)</f>
         <v/>
       </c>
@@ -2822,15 +2857,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A122))=0,"", INT('IDM Codes'!B121)+1)</f>
         <v/>
       </c>
-      <c r="C122" s="3" t="str">
+      <c r="C122" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A122))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A122, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B122,"00"), ". Episode_", TEXT('IDM Codes'!B122,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D122" s="4" t="str">
+      <c r="D122" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A122))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A122, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B122, "00"),". Episode_", TEXT('IDM Codes'!B122, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E122" s="4" t="str">
+      <c r="E122" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A122))=0, "", C122&amp;" &amp; "&amp;D122)</f>
         <v/>
       </c>
@@ -2840,15 +2875,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A123))=0,"", INT('IDM Codes'!B122)+1)</f>
         <v/>
       </c>
-      <c r="C123" s="3" t="str">
+      <c r="C123" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A123))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A123, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B123,"00"), ". Episode_", TEXT('IDM Codes'!B123,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D123" s="4" t="str">
+      <c r="D123" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A123))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A123, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B123, "00"),". Episode_", TEXT('IDM Codes'!B123, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E123" s="4" t="str">
+      <c r="E123" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A123))=0, "", C123&amp;" &amp; "&amp;D123)</f>
         <v/>
       </c>
@@ -2858,15 +2893,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A124))=0,"", INT('IDM Codes'!B123)+1)</f>
         <v/>
       </c>
-      <c r="C124" s="3" t="str">
+      <c r="C124" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A124))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A124, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B124,"00"), ". Episode_", TEXT('IDM Codes'!B124,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D124" s="4" t="str">
+      <c r="D124" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A124))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A124, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B124, "00"),". Episode_", TEXT('IDM Codes'!B124, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E124" s="4" t="str">
+      <c r="E124" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A124))=0, "", C124&amp;" &amp; "&amp;D124)</f>
         <v/>
       </c>
@@ -2876,15 +2911,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A125))=0,"", INT('IDM Codes'!B124)+1)</f>
         <v/>
       </c>
-      <c r="C125" s="3" t="str">
+      <c r="C125" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A125))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A125, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B125,"00"), ". Episode_", TEXT('IDM Codes'!B125,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D125" s="4" t="str">
+      <c r="D125" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A125))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A125, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B125, "00"),". Episode_", TEXT('IDM Codes'!B125, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E125" s="4" t="str">
+      <c r="E125" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A125))=0, "", C125&amp;" &amp; "&amp;D125)</f>
         <v/>
       </c>
@@ -2894,15 +2929,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A126))=0,"", INT('IDM Codes'!B125)+1)</f>
         <v/>
       </c>
-      <c r="C126" s="3" t="str">
+      <c r="C126" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A126))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A126, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B126,"00"), ". Episode_", TEXT('IDM Codes'!B126,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D126" s="4" t="str">
+      <c r="D126" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A126))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A126, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B126, "00"),". Episode_", TEXT('IDM Codes'!B126, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E126" s="4" t="str">
+      <c r="E126" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A126))=0, "", C126&amp;" &amp; "&amp;D126)</f>
         <v/>
       </c>
@@ -2912,15 +2947,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A127))=0,"", INT('IDM Codes'!B126)+1)</f>
         <v/>
       </c>
-      <c r="C127" s="3" t="str">
+      <c r="C127" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A127))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A127, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B127,"00"), ". Episode_", TEXT('IDM Codes'!B127,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D127" s="4" t="str">
+      <c r="D127" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A127))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A127, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B127, "00"),". Episode_", TEXT('IDM Codes'!B127, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E127" s="4" t="str">
+      <c r="E127" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A127))=0, "", C127&amp;" &amp; "&amp;D127)</f>
         <v/>
       </c>
@@ -2930,15 +2965,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A128))=0,"", INT('IDM Codes'!B127)+1)</f>
         <v/>
       </c>
-      <c r="C128" s="3" t="str">
+      <c r="C128" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A128))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A128, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B128,"00"), ". Episode_", TEXT('IDM Codes'!B128,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D128" s="4" t="str">
+      <c r="D128" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A128))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A128, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B128, "00"),". Episode_", TEXT('IDM Codes'!B128, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E128" s="4" t="str">
+      <c r="E128" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A128))=0, "", C128&amp;" &amp; "&amp;D128)</f>
         <v/>
       </c>
@@ -2948,15 +2983,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A129))=0,"", INT('IDM Codes'!B128)+1)</f>
         <v/>
       </c>
-      <c r="C129" s="3" t="str">
+      <c r="C129" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A129))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A129, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B129,"00"), ". Episode_", TEXT('IDM Codes'!B129,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D129" s="4" t="str">
+      <c r="D129" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A129))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A129, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B129, "00"),". Episode_", TEXT('IDM Codes'!B129, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E129" s="4" t="str">
+      <c r="E129" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A129))=0, "", C129&amp;" &amp; "&amp;D129)</f>
         <v/>
       </c>
@@ -2966,15 +3001,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A130))=0,"", INT('IDM Codes'!B129)+1)</f>
         <v/>
       </c>
-      <c r="C130" s="3" t="str">
+      <c r="C130" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A130))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A130, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B130,"00"), ". Episode_", TEXT('IDM Codes'!B130,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D130" s="4" t="str">
+      <c r="D130" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A130))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A130, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B130, "00"),". Episode_", TEXT('IDM Codes'!B130, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E130" s="4" t="str">
+      <c r="E130" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A130))=0, "", C130&amp;" &amp; "&amp;D130)</f>
         <v/>
       </c>
@@ -2984,15 +3019,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A131))=0,"", INT('IDM Codes'!B130)+1)</f>
         <v/>
       </c>
-      <c r="C131" s="3" t="str">
+      <c r="C131" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A131))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A131, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B131,"00"), ". Episode_", TEXT('IDM Codes'!B131,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D131" s="4" t="str">
+      <c r="D131" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A131))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A131, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B131, "00"),". Episode_", TEXT('IDM Codes'!B131, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E131" s="4" t="str">
+      <c r="E131" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A131))=0, "", C131&amp;" &amp; "&amp;D131)</f>
         <v/>
       </c>
@@ -3002,15 +3037,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A132))=0,"", INT('IDM Codes'!B131)+1)</f>
         <v/>
       </c>
-      <c r="C132" s="3" t="str">
+      <c r="C132" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A132))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A132, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B132,"00"), ". Episode_", TEXT('IDM Codes'!B132,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D132" s="4" t="str">
+      <c r="D132" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A132))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A132, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B132, "00"),". Episode_", TEXT('IDM Codes'!B132, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E132" s="4" t="str">
+      <c r="E132" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A132))=0, "", C132&amp;" &amp; "&amp;D132)</f>
         <v/>
       </c>
@@ -3020,15 +3055,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A133))=0,"", INT('IDM Codes'!B132)+1)</f>
         <v/>
       </c>
-      <c r="C133" s="3" t="str">
+      <c r="C133" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A133))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A133, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B133,"00"), ". Episode_", TEXT('IDM Codes'!B133,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D133" s="4" t="str">
+      <c r="D133" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A133))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A133, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B133, "00"),". Episode_", TEXT('IDM Codes'!B133, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E133" s="4" t="str">
+      <c r="E133" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A133))=0, "", C133&amp;" &amp; "&amp;D133)</f>
         <v/>
       </c>
@@ -3038,15 +3073,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A134))=0,"", INT('IDM Codes'!B133)+1)</f>
         <v/>
       </c>
-      <c r="C134" s="3" t="str">
+      <c r="C134" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A134))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A134, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B134,"00"), ". Episode_", TEXT('IDM Codes'!B134,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D134" s="4" t="str">
+      <c r="D134" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A134))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A134, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B134, "00"),". Episode_", TEXT('IDM Codes'!B134, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E134" s="4" t="str">
+      <c r="E134" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A134))=0, "", C134&amp;" &amp; "&amp;D134)</f>
         <v/>
       </c>
@@ -3056,15 +3091,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A135))=0,"", INT('IDM Codes'!B134)+1)</f>
         <v/>
       </c>
-      <c r="C135" s="3" t="str">
+      <c r="C135" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A135))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A135, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B135,"00"), ". Episode_", TEXT('IDM Codes'!B135,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D135" s="4" t="str">
+      <c r="D135" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A135))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A135, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B135, "00"),". Episode_", TEXT('IDM Codes'!B135, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E135" s="4" t="str">
+      <c r="E135" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A135))=0, "", C135&amp;" &amp; "&amp;D135)</f>
         <v/>
       </c>
@@ -3074,15 +3109,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A136))=0,"", INT('IDM Codes'!B135)+1)</f>
         <v/>
       </c>
-      <c r="C136" s="3" t="str">
+      <c r="C136" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A136))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A136, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B136,"00"), ". Episode_", TEXT('IDM Codes'!B136,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D136" s="4" t="str">
+      <c r="D136" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A136))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A136, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B136, "00"),". Episode_", TEXT('IDM Codes'!B136, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E136" s="4" t="str">
+      <c r="E136" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A136))=0, "", C136&amp;" &amp; "&amp;D136)</f>
         <v/>
       </c>
@@ -3092,15 +3127,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A137))=0,"", INT('IDM Codes'!B136)+1)</f>
         <v/>
       </c>
-      <c r="C137" s="3" t="str">
+      <c r="C137" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A137))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A137, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B137,"00"), ". Episode_", TEXT('IDM Codes'!B137,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D137" s="4" t="str">
+      <c r="D137" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A137))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A137, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B137, "00"),". Episode_", TEXT('IDM Codes'!B137, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E137" s="4" t="str">
+      <c r="E137" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A137))=0, "", C137&amp;" &amp; "&amp;D137)</f>
         <v/>
       </c>
@@ -3110,15 +3145,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A138))=0,"", INT('IDM Codes'!B137)+1)</f>
         <v/>
       </c>
-      <c r="C138" s="3" t="str">
+      <c r="C138" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A138))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A138, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B138,"00"), ". Episode_", TEXT('IDM Codes'!B138,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D138" s="4" t="str">
+      <c r="D138" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A138))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A138, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B138, "00"),". Episode_", TEXT('IDM Codes'!B138, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E138" s="4" t="str">
+      <c r="E138" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A138))=0, "", C138&amp;" &amp; "&amp;D138)</f>
         <v/>
       </c>
@@ -3128,15 +3163,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A139))=0,"", INT('IDM Codes'!B138)+1)</f>
         <v/>
       </c>
-      <c r="C139" s="3" t="str">
+      <c r="C139" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A139))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A139, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B139,"00"), ". Episode_", TEXT('IDM Codes'!B139,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D139" s="4" t="str">
+      <c r="D139" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A139))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A139, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B139, "00"),". Episode_", TEXT('IDM Codes'!B139, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E139" s="4" t="str">
+      <c r="E139" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A139))=0, "", C139&amp;" &amp; "&amp;D139)</f>
         <v/>
       </c>
@@ -3146,15 +3181,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A140))=0,"", INT('IDM Codes'!B139)+1)</f>
         <v/>
       </c>
-      <c r="C140" s="3" t="str">
+      <c r="C140" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A140))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A140, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B140,"00"), ". Episode_", TEXT('IDM Codes'!B140,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D140" s="4" t="str">
+      <c r="D140" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A140))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A140, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B140, "00"),". Episode_", TEXT('IDM Codes'!B140, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E140" s="4" t="str">
+      <c r="E140" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A140))=0, "", C140&amp;" &amp; "&amp;D140)</f>
         <v/>
       </c>
@@ -3164,15 +3199,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A141))=0,"", INT('IDM Codes'!B140)+1)</f>
         <v/>
       </c>
-      <c r="C141" s="3" t="str">
+      <c r="C141" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A141))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A141, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B141,"00"), ". Episode_", TEXT('IDM Codes'!B141,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D141" s="4" t="str">
+      <c r="D141" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A141))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A141, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B141, "00"),". Episode_", TEXT('IDM Codes'!B141, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E141" s="4" t="str">
+      <c r="E141" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A141))=0, "", C141&amp;" &amp; "&amp;D141)</f>
         <v/>
       </c>
@@ -3182,15 +3217,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A142))=0,"", INT('IDM Codes'!B141)+1)</f>
         <v/>
       </c>
-      <c r="C142" s="3" t="str">
+      <c r="C142" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A142))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A142, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B142,"00"), ". Episode_", TEXT('IDM Codes'!B142,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D142" s="4" t="str">
+      <c r="D142" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A142))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A142, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B142, "00"),". Episode_", TEXT('IDM Codes'!B142, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E142" s="4" t="str">
+      <c r="E142" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A142))=0, "", C142&amp;" &amp; "&amp;D142)</f>
         <v/>
       </c>
@@ -3200,15 +3235,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A143))=0,"", INT('IDM Codes'!B142)+1)</f>
         <v/>
       </c>
-      <c r="C143" s="3" t="str">
+      <c r="C143" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A143))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A143, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B143,"00"), ". Episode_", TEXT('IDM Codes'!B143,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D143" s="4" t="str">
+      <c r="D143" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A143))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A143, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B143, "00"),". Episode_", TEXT('IDM Codes'!B143, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E143" s="4" t="str">
+      <c r="E143" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A143))=0, "", C143&amp;" &amp; "&amp;D143)</f>
         <v/>
       </c>
@@ -3218,15 +3253,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A144))=0,"", INT('IDM Codes'!B143)+1)</f>
         <v/>
       </c>
-      <c r="C144" s="3" t="str">
+      <c r="C144" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A144))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A144, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B144,"00"), ". Episode_", TEXT('IDM Codes'!B144,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D144" s="4" t="str">
+      <c r="D144" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A144))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A144, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B144, "00"),". Episode_", TEXT('IDM Codes'!B144, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E144" s="4" t="str">
+      <c r="E144" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A144))=0, "", C144&amp;" &amp; "&amp;D144)</f>
         <v/>
       </c>
@@ -3236,15 +3271,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A145))=0,"", INT('IDM Codes'!B144)+1)</f>
         <v/>
       </c>
-      <c r="C145" s="3" t="str">
+      <c r="C145" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A145))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A145, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B145,"00"), ". Episode_", TEXT('IDM Codes'!B145,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D145" s="4" t="str">
+      <c r="D145" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A145))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A145, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B145, "00"),". Episode_", TEXT('IDM Codes'!B145, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E145" s="4" t="str">
+      <c r="E145" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A145))=0, "", C145&amp;" &amp; "&amp;D145)</f>
         <v/>
       </c>
@@ -3254,15 +3289,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A146))=0,"", INT('IDM Codes'!B145)+1)</f>
         <v/>
       </c>
-      <c r="C146" s="3" t="str">
+      <c r="C146" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A146))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A146, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B146,"00"), ". Episode_", TEXT('IDM Codes'!B146,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D146" s="4" t="str">
+      <c r="D146" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A146))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A146, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B146, "00"),". Episode_", TEXT('IDM Codes'!B146, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E146" s="4" t="str">
+      <c r="E146" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A146))=0, "", C146&amp;" &amp; "&amp;D146)</f>
         <v/>
       </c>
@@ -3272,15 +3307,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A147))=0,"", INT('IDM Codes'!B146)+1)</f>
         <v/>
       </c>
-      <c r="C147" s="3" t="str">
+      <c r="C147" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A147))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A147, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B147,"00"), ". Episode_", TEXT('IDM Codes'!B147,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D147" s="4" t="str">
+      <c r="D147" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A147))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A147, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B147, "00"),". Episode_", TEXT('IDM Codes'!B147, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E147" s="4" t="str">
+      <c r="E147" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A147))=0, "", C147&amp;" &amp; "&amp;D147)</f>
         <v/>
       </c>
@@ -3290,15 +3325,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A148))=0,"", INT('IDM Codes'!B147)+1)</f>
         <v/>
       </c>
-      <c r="C148" s="3" t="str">
+      <c r="C148" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A148))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A148, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B148,"00"), ". Episode_", TEXT('IDM Codes'!B148,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D148" s="4" t="str">
+      <c r="D148" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A148))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A148, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B148, "00"),". Episode_", TEXT('IDM Codes'!B148, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E148" s="4" t="str">
+      <c r="E148" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A148))=0, "", C148&amp;" &amp; "&amp;D148)</f>
         <v/>
       </c>
@@ -3308,15 +3343,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A149))=0,"", INT('IDM Codes'!B148)+1)</f>
         <v/>
       </c>
-      <c r="C149" s="3" t="str">
+      <c r="C149" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A149))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A149, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B149,"00"), ". Episode_", TEXT('IDM Codes'!B149,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D149" s="4" t="str">
+      <c r="D149" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A149))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A149, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B149, "00"),". Episode_", TEXT('IDM Codes'!B149, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E149" s="4" t="str">
+      <c r="E149" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A149))=0, "", C149&amp;" &amp; "&amp;D149)</f>
         <v/>
       </c>
@@ -3326,15 +3361,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A150))=0,"", INT('IDM Codes'!B149)+1)</f>
         <v/>
       </c>
-      <c r="C150" s="3" t="str">
+      <c r="C150" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A150))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A150, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B150,"00"), ". Episode_", TEXT('IDM Codes'!B150,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D150" s="4" t="str">
+      <c r="D150" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A150))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A150, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B150, "00"),". Episode_", TEXT('IDM Codes'!B150, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E150" s="4" t="str">
+      <c r="E150" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A150))=0, "", C150&amp;" &amp; "&amp;D150)</f>
         <v/>
       </c>
@@ -3344,15 +3379,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A151))=0,"", INT('IDM Codes'!B150)+1)</f>
         <v/>
       </c>
-      <c r="C151" s="3" t="str">
+      <c r="C151" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A151))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A151, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B151,"00"), ". Episode_", TEXT('IDM Codes'!B151,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D151" s="4" t="str">
+      <c r="D151" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A151))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A151, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B151, "00"),". Episode_", TEXT('IDM Codes'!B151, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E151" s="4" t="str">
+      <c r="E151" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A151))=0, "", C151&amp;" &amp; "&amp;D151)</f>
         <v/>
       </c>
@@ -3362,15 +3397,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A152))=0,"", INT('IDM Codes'!B151)+1)</f>
         <v/>
       </c>
-      <c r="C152" s="3" t="str">
+      <c r="C152" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A152))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A152, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B152,"00"), ". Episode_", TEXT('IDM Codes'!B152,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D152" s="4" t="str">
+      <c r="D152" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A152))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A152, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B152, "00"),". Episode_", TEXT('IDM Codes'!B152, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E152" s="4" t="str">
+      <c r="E152" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A152))=0, "", C152&amp;" &amp; "&amp;D152)</f>
         <v/>
       </c>
@@ -3380,15 +3415,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A153))=0,"", INT('IDM Codes'!B152)+1)</f>
         <v/>
       </c>
-      <c r="C153" s="3" t="str">
+      <c r="C153" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A153))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A153, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B153,"00"), ". Episode_", TEXT('IDM Codes'!B153,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D153" s="4" t="str">
+      <c r="D153" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A153))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A153, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B153, "00"),". Episode_", TEXT('IDM Codes'!B153, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E153" s="4" t="str">
+      <c r="E153" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A153))=0, "", C153&amp;" &amp; "&amp;D153)</f>
         <v/>
       </c>
@@ -3398,15 +3433,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A154))=0,"", INT('IDM Codes'!B153)+1)</f>
         <v/>
       </c>
-      <c r="C154" s="3" t="str">
+      <c r="C154" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A154))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A154, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B154,"00"), ". Episode_", TEXT('IDM Codes'!B154,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D154" s="4" t="str">
+      <c r="D154" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A154))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A154, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B154, "00"),". Episode_", TEXT('IDM Codes'!B154, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E154" s="4" t="str">
+      <c r="E154" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A154))=0, "", C154&amp;" &amp; "&amp;D154)</f>
         <v/>
       </c>
@@ -3416,15 +3451,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A155))=0,"", INT('IDM Codes'!B154)+1)</f>
         <v/>
       </c>
-      <c r="C155" s="3" t="str">
+      <c r="C155" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A155))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A155, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B155,"00"), ". Episode_", TEXT('IDM Codes'!B155,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D155" s="4" t="str">
+      <c r="D155" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A155))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A155, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B155, "00"),". Episode_", TEXT('IDM Codes'!B155, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E155" s="4" t="str">
+      <c r="E155" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A155))=0, "", C155&amp;" &amp; "&amp;D155)</f>
         <v/>
       </c>
@@ -3434,15 +3469,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A156))=0,"", INT('IDM Codes'!B155)+1)</f>
         <v/>
       </c>
-      <c r="C156" s="3" t="str">
+      <c r="C156" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A156))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A156, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B156,"00"), ". Episode_", TEXT('IDM Codes'!B156,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D156" s="4" t="str">
+      <c r="D156" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A156))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A156, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B156, "00"),". Episode_", TEXT('IDM Codes'!B156, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E156" s="4" t="str">
+      <c r="E156" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A156))=0, "", C156&amp;" &amp; "&amp;D156)</f>
         <v/>
       </c>
@@ -3452,15 +3487,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A157))=0,"", INT('IDM Codes'!B156)+1)</f>
         <v/>
       </c>
-      <c r="C157" s="3" t="str">
+      <c r="C157" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A157))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A157, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B157,"00"), ". Episode_", TEXT('IDM Codes'!B157,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D157" s="4" t="str">
+      <c r="D157" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A157))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A157, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B157, "00"),". Episode_", TEXT('IDM Codes'!B157, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E157" s="4" t="str">
+      <c r="E157" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A157))=0, "", C157&amp;" &amp; "&amp;D157)</f>
         <v/>
       </c>
@@ -3470,15 +3505,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A158))=0,"", INT('IDM Codes'!B157)+1)</f>
         <v/>
       </c>
-      <c r="C158" s="3" t="str">
+      <c r="C158" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A158))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A158, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B158,"00"), ". Episode_", TEXT('IDM Codes'!B158,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D158" s="4" t="str">
+      <c r="D158" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A158))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A158, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B158, "00"),". Episode_", TEXT('IDM Codes'!B158, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E158" s="4" t="str">
+      <c r="E158" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A158))=0, "", C158&amp;" &amp; "&amp;D158)</f>
         <v/>
       </c>
@@ -3488,15 +3523,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A159))=0,"", INT('IDM Codes'!B158)+1)</f>
         <v/>
       </c>
-      <c r="C159" s="3" t="str">
+      <c r="C159" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A159))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A159, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B159,"00"), ". Episode_", TEXT('IDM Codes'!B159,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D159" s="4" t="str">
+      <c r="D159" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A159))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A159, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B159, "00"),". Episode_", TEXT('IDM Codes'!B159, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E159" s="4" t="str">
+      <c r="E159" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A159))=0, "", C159&amp;" &amp; "&amp;D159)</f>
         <v/>
       </c>
@@ -3506,15 +3541,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A160))=0,"", INT('IDM Codes'!B159)+1)</f>
         <v/>
       </c>
-      <c r="C160" s="3" t="str">
+      <c r="C160" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A160))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A160, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B160,"00"), ". Episode_", TEXT('IDM Codes'!B160,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D160" s="4" t="str">
+      <c r="D160" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A160))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A160, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B160, "00"),". Episode_", TEXT('IDM Codes'!B160, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E160" s="4" t="str">
+      <c r="E160" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A160))=0, "", C160&amp;" &amp; "&amp;D160)</f>
         <v/>
       </c>
@@ -3524,15 +3559,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A161))=0,"", INT('IDM Codes'!B160)+1)</f>
         <v/>
       </c>
-      <c r="C161" s="3" t="str">
+      <c r="C161" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A161))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A161, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B161,"00"), ". Episode_", TEXT('IDM Codes'!B161,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D161" s="4" t="str">
+      <c r="D161" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A161))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A161, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B161, "00"),". Episode_", TEXT('IDM Codes'!B161, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E161" s="4" t="str">
+      <c r="E161" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A161))=0, "", C161&amp;" &amp; "&amp;D161)</f>
         <v/>
       </c>
@@ -3542,15 +3577,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A162))=0,"", INT('IDM Codes'!B161)+1)</f>
         <v/>
       </c>
-      <c r="C162" s="3" t="str">
+      <c r="C162" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A162))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A162, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B162,"00"), ". Episode_", TEXT('IDM Codes'!B162,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D162" s="4" t="str">
+      <c r="D162" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A162))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A162, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B162, "00"),". Episode_", TEXT('IDM Codes'!B162, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E162" s="4" t="str">
+      <c r="E162" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A162))=0, "", C162&amp;" &amp; "&amp;D162)</f>
         <v/>
       </c>
@@ -3560,15 +3595,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A163))=0,"", INT('IDM Codes'!B162)+1)</f>
         <v/>
       </c>
-      <c r="C163" s="3" t="str">
+      <c r="C163" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A163))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A163, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B163,"00"), ". Episode_", TEXT('IDM Codes'!B163,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D163" s="4" t="str">
+      <c r="D163" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A163))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A163, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B163, "00"),". Episode_", TEXT('IDM Codes'!B163, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E163" s="4" t="str">
+      <c r="E163" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A163))=0, "", C163&amp;" &amp; "&amp;D163)</f>
         <v/>
       </c>
@@ -3578,15 +3613,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A164))=0,"", INT('IDM Codes'!B163)+1)</f>
         <v/>
       </c>
-      <c r="C164" s="3" t="str">
+      <c r="C164" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A164))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A164, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B164,"00"), ". Episode_", TEXT('IDM Codes'!B164,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D164" s="4" t="str">
+      <c r="D164" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A164))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A164, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B164, "00"),". Episode_", TEXT('IDM Codes'!B164, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E164" s="4" t="str">
+      <c r="E164" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A164))=0, "", C164&amp;" &amp; "&amp;D164)</f>
         <v/>
       </c>
@@ -3596,15 +3631,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A165))=0,"", INT('IDM Codes'!B164)+1)</f>
         <v/>
       </c>
-      <c r="C165" s="3" t="str">
+      <c r="C165" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A165))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A165, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B165,"00"), ". Episode_", TEXT('IDM Codes'!B165,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D165" s="4" t="str">
+      <c r="D165" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A165))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A165, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B165, "00"),". Episode_", TEXT('IDM Codes'!B165, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E165" s="4" t="str">
+      <c r="E165" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A165))=0, "", C165&amp;" &amp; "&amp;D165)</f>
         <v/>
       </c>
@@ -3614,15 +3649,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A166))=0,"", INT('IDM Codes'!B165)+1)</f>
         <v/>
       </c>
-      <c r="C166" s="3" t="str">
+      <c r="C166" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A166))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A166, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B166,"00"), ". Episode_", TEXT('IDM Codes'!B166,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D166" s="4" t="str">
+      <c r="D166" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A166))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A166, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B166, "00"),". Episode_", TEXT('IDM Codes'!B166, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E166" s="4" t="str">
+      <c r="E166" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A166))=0, "", C166&amp;" &amp; "&amp;D166)</f>
         <v/>
       </c>
@@ -3632,15 +3667,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A167))=0,"", INT('IDM Codes'!B166)+1)</f>
         <v/>
       </c>
-      <c r="C167" s="3" t="str">
+      <c r="C167" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A167))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A167, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B167,"00"), ". Episode_", TEXT('IDM Codes'!B167,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D167" s="4" t="str">
+      <c r="D167" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A167))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A167, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B167, "00"),". Episode_", TEXT('IDM Codes'!B167, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E167" s="4" t="str">
+      <c r="E167" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A167))=0, "", C167&amp;" &amp; "&amp;D167)</f>
         <v/>
       </c>
@@ -3650,15 +3685,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A168))=0,"", INT('IDM Codes'!B167)+1)</f>
         <v/>
       </c>
-      <c r="C168" s="3" t="str">
+      <c r="C168" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A168))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A168, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B168,"00"), ". Episode_", TEXT('IDM Codes'!B168,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D168" s="4" t="str">
+      <c r="D168" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A168))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A168, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B168, "00"),". Episode_", TEXT('IDM Codes'!B168, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E168" s="4" t="str">
+      <c r="E168" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A168))=0, "", C168&amp;" &amp; "&amp;D168)</f>
         <v/>
       </c>
@@ -3668,15 +3703,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A169))=0,"", INT('IDM Codes'!B168)+1)</f>
         <v/>
       </c>
-      <c r="C169" s="3" t="str">
+      <c r="C169" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A169))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A169, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B169,"00"), ". Episode_", TEXT('IDM Codes'!B169,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D169" s="4" t="str">
+      <c r="D169" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A169))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A169, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B169, "00"),". Episode_", TEXT('IDM Codes'!B169, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E169" s="4" t="str">
+      <c r="E169" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A169))=0, "", C169&amp;" &amp; "&amp;D169)</f>
         <v/>
       </c>
@@ -3686,15 +3721,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A170))=0,"", INT('IDM Codes'!B169)+1)</f>
         <v/>
       </c>
-      <c r="C170" s="3" t="str">
+      <c r="C170" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A170))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A170, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B170,"00"), ". Episode_", TEXT('IDM Codes'!B170,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D170" s="4" t="str">
+      <c r="D170" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A170))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A170, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B170, "00"),". Episode_", TEXT('IDM Codes'!B170, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E170" s="4" t="str">
+      <c r="E170" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A170))=0, "", C170&amp;" &amp; "&amp;D170)</f>
         <v/>
       </c>
@@ -3704,15 +3739,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A171))=0,"", INT('IDM Codes'!B170)+1)</f>
         <v/>
       </c>
-      <c r="C171" s="3" t="str">
+      <c r="C171" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A171))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A171, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B171,"00"), ". Episode_", TEXT('IDM Codes'!B171,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D171" s="4" t="str">
+      <c r="D171" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A171))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A171, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B171, "00"),". Episode_", TEXT('IDM Codes'!B171, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E171" s="4" t="str">
+      <c r="E171" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A171))=0, "", C171&amp;" &amp; "&amp;D171)</f>
         <v/>
       </c>
@@ -3722,15 +3757,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A172))=0,"", INT('IDM Codes'!B171)+1)</f>
         <v/>
       </c>
-      <c r="C172" s="3" t="str">
+      <c r="C172" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A172))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A172, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B172,"00"), ". Episode_", TEXT('IDM Codes'!B172,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D172" s="4" t="str">
+      <c r="D172" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A172))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A172, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B172, "00"),". Episode_", TEXT('IDM Codes'!B172, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E172" s="4" t="str">
+      <c r="E172" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A172))=0, "", C172&amp;" &amp; "&amp;D172)</f>
         <v/>
       </c>
@@ -3740,15 +3775,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A173))=0,"", INT('IDM Codes'!B172)+1)</f>
         <v/>
       </c>
-      <c r="C173" s="3" t="str">
+      <c r="C173" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A173))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A173, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B173,"00"), ". Episode_", TEXT('IDM Codes'!B173,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D173" s="4" t="str">
+      <c r="D173" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A173))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A173, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B173, "00"),". Episode_", TEXT('IDM Codes'!B173, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E173" s="4" t="str">
+      <c r="E173" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A173))=0, "", C173&amp;" &amp; "&amp;D173)</f>
         <v/>
       </c>
@@ -3758,15 +3793,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A174))=0,"", INT('IDM Codes'!B173)+1)</f>
         <v/>
       </c>
-      <c r="C174" s="3" t="str">
+      <c r="C174" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A174))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A174, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B174,"00"), ". Episode_", TEXT('IDM Codes'!B174,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D174" s="4" t="str">
+      <c r="D174" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A174))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A174, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B174, "00"),". Episode_", TEXT('IDM Codes'!B174, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E174" s="4" t="str">
+      <c r="E174" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A174))=0, "", C174&amp;" &amp; "&amp;D174)</f>
         <v/>
       </c>
@@ -3776,15 +3811,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A175))=0,"", INT('IDM Codes'!B174)+1)</f>
         <v/>
       </c>
-      <c r="C175" s="3" t="str">
+      <c r="C175" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A175))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A175, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B175,"00"), ". Episode_", TEXT('IDM Codes'!B175,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D175" s="4" t="str">
+      <c r="D175" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A175))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A175, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B175, "00"),". Episode_", TEXT('IDM Codes'!B175, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E175" s="4" t="str">
+      <c r="E175" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A175))=0, "", C175&amp;" &amp; "&amp;D175)</f>
         <v/>
       </c>
@@ -3794,15 +3829,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A176))=0,"", INT('IDM Codes'!B175)+1)</f>
         <v/>
       </c>
-      <c r="C176" s="3" t="str">
+      <c r="C176" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A176))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A176, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B176,"00"), ". Episode_", TEXT('IDM Codes'!B176,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D176" s="4" t="str">
+      <c r="D176" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A176))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A176, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B176, "00"),". Episode_", TEXT('IDM Codes'!B176, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E176" s="4" t="str">
+      <c r="E176" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A176))=0, "", C176&amp;" &amp; "&amp;D176)</f>
         <v/>
       </c>
@@ -3812,15 +3847,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A177))=0,"", INT('IDM Codes'!B176)+1)</f>
         <v/>
       </c>
-      <c r="C177" s="3" t="str">
+      <c r="C177" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A177))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A177, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B177,"00"), ". Episode_", TEXT('IDM Codes'!B177,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D177" s="4" t="str">
+      <c r="D177" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A177))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A177, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B177, "00"),". Episode_", TEXT('IDM Codes'!B177, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E177" s="4" t="str">
+      <c r="E177" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A177))=0, "", C177&amp;" &amp; "&amp;D177)</f>
         <v/>
       </c>
@@ -3830,15 +3865,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A178))=0,"", INT('IDM Codes'!B177)+1)</f>
         <v/>
       </c>
-      <c r="C178" s="3" t="str">
+      <c r="C178" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A178))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A178, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B178,"00"), ". Episode_", TEXT('IDM Codes'!B178,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D178" s="4" t="str">
+      <c r="D178" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A178))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A178, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B178, "00"),". Episode_", TEXT('IDM Codes'!B178, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E178" s="4" t="str">
+      <c r="E178" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A178))=0, "", C178&amp;" &amp; "&amp;D178)</f>
         <v/>
       </c>
@@ -3848,15 +3883,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A179))=0,"", INT('IDM Codes'!B178)+1)</f>
         <v/>
       </c>
-      <c r="C179" s="3" t="str">
+      <c r="C179" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A179))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A179, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B179,"00"), ". Episode_", TEXT('IDM Codes'!B179,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D179" s="4" t="str">
+      <c r="D179" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A179))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A179, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B179, "00"),". Episode_", TEXT('IDM Codes'!B179, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E179" s="4" t="str">
+      <c r="E179" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A179))=0, "", C179&amp;" &amp; "&amp;D179)</f>
         <v/>
       </c>
@@ -3866,15 +3901,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A180))=0,"", INT('IDM Codes'!B179)+1)</f>
         <v/>
       </c>
-      <c r="C180" s="3" t="str">
+      <c r="C180" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A180))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A180, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B180,"00"), ". Episode_", TEXT('IDM Codes'!B180,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D180" s="4" t="str">
+      <c r="D180" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A180))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A180, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B180, "00"),". Episode_", TEXT('IDM Codes'!B180, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E180" s="4" t="str">
+      <c r="E180" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A180))=0, "", C180&amp;" &amp; "&amp;D180)</f>
         <v/>
       </c>
@@ -3884,15 +3919,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A181))=0,"", INT('IDM Codes'!B180)+1)</f>
         <v/>
       </c>
-      <c r="C181" s="3" t="str">
+      <c r="C181" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A181))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A181, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B181,"00"), ". Episode_", TEXT('IDM Codes'!B181,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D181" s="4" t="str">
+      <c r="D181" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A181))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A181, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B181, "00"),". Episode_", TEXT('IDM Codes'!B181, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E181" s="4" t="str">
+      <c r="E181" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A181))=0, "", C181&amp;" &amp; "&amp;D181)</f>
         <v/>
       </c>
@@ -3902,15 +3937,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A182))=0,"", INT('IDM Codes'!B181)+1)</f>
         <v/>
       </c>
-      <c r="C182" s="3" t="str">
+      <c r="C182" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A182))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A182, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B182,"00"), ". Episode_", TEXT('IDM Codes'!B182,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D182" s="4" t="str">
+      <c r="D182" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A182))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A182, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B182, "00"),". Episode_", TEXT('IDM Codes'!B182, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E182" s="4" t="str">
+      <c r="E182" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A182))=0, "", C182&amp;" &amp; "&amp;D182)</f>
         <v/>
       </c>
@@ -3920,15 +3955,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A183))=0,"", INT('IDM Codes'!B182)+1)</f>
         <v/>
       </c>
-      <c r="C183" s="3" t="str">
+      <c r="C183" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A183))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A183, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B183,"00"), ". Episode_", TEXT('IDM Codes'!B183,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D183" s="4" t="str">
+      <c r="D183" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A183))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A183, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B183, "00"),". Episode_", TEXT('IDM Codes'!B183, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E183" s="4" t="str">
+      <c r="E183" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A183))=0, "", C183&amp;" &amp; "&amp;D183)</f>
         <v/>
       </c>
@@ -3938,15 +3973,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A184))=0,"", INT('IDM Codes'!B183)+1)</f>
         <v/>
       </c>
-      <c r="C184" s="3" t="str">
+      <c r="C184" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A184))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A184, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B184,"00"), ". Episode_", TEXT('IDM Codes'!B184,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D184" s="4" t="str">
+      <c r="D184" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A184))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A184, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B184, "00"),". Episode_", TEXT('IDM Codes'!B184, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E184" s="4" t="str">
+      <c r="E184" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A184))=0, "", C184&amp;" &amp; "&amp;D184)</f>
         <v/>
       </c>
@@ -3956,15 +3991,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A185))=0,"", INT('IDM Codes'!B184)+1)</f>
         <v/>
       </c>
-      <c r="C185" s="3" t="str">
+      <c r="C185" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A185))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A185, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B185,"00"), ". Episode_", TEXT('IDM Codes'!B185,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D185" s="4" t="str">
+      <c r="D185" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A185))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A185, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B185, "00"),". Episode_", TEXT('IDM Codes'!B185, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E185" s="4" t="str">
+      <c r="E185" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A185))=0, "", C185&amp;" &amp; "&amp;D185)</f>
         <v/>
       </c>
@@ -3974,15 +4009,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A186))=0,"", INT('IDM Codes'!B185)+1)</f>
         <v/>
       </c>
-      <c r="C186" s="3" t="str">
+      <c r="C186" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A186))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A186, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B186,"00"), ". Episode_", TEXT('IDM Codes'!B186,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D186" s="4" t="str">
+      <c r="D186" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A186))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A186, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B186, "00"),". Episode_", TEXT('IDM Codes'!B186, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E186" s="4" t="str">
+      <c r="E186" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A186))=0, "", C186&amp;" &amp; "&amp;D186)</f>
         <v/>
       </c>
@@ -3992,15 +4027,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A187))=0,"", INT('IDM Codes'!B186)+1)</f>
         <v/>
       </c>
-      <c r="C187" s="3" t="str">
+      <c r="C187" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A187))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A187, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B187,"00"), ". Episode_", TEXT('IDM Codes'!B187,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D187" s="4" t="str">
+      <c r="D187" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A187))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A187, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B187, "00"),". Episode_", TEXT('IDM Codes'!B187, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E187" s="4" t="str">
+      <c r="E187" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A187))=0, "", C187&amp;" &amp; "&amp;D187)</f>
         <v/>
       </c>
@@ -4010,15 +4045,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A188))=0,"", INT('IDM Codes'!B187)+1)</f>
         <v/>
       </c>
-      <c r="C188" s="3" t="str">
+      <c r="C188" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A188))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A188, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B188,"00"), ". Episode_", TEXT('IDM Codes'!B188,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D188" s="4" t="str">
+      <c r="D188" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A188))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A188, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B188, "00"),". Episode_", TEXT('IDM Codes'!B188, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E188" s="4" t="str">
+      <c r="E188" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A188))=0, "", C188&amp;" &amp; "&amp;D188)</f>
         <v/>
       </c>
@@ -4028,15 +4063,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A189))=0,"", INT('IDM Codes'!B188)+1)</f>
         <v/>
       </c>
-      <c r="C189" s="3" t="str">
+      <c r="C189" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A189))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A189, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B189,"00"), ". Episode_", TEXT('IDM Codes'!B189,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D189" s="4" t="str">
+      <c r="D189" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A189))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A189, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B189, "00"),". Episode_", TEXT('IDM Codes'!B189, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E189" s="4" t="str">
+      <c r="E189" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A189))=0, "", C189&amp;" &amp; "&amp;D189)</f>
         <v/>
       </c>
@@ -4046,15 +4081,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A190))=0,"", INT('IDM Codes'!B189)+1)</f>
         <v/>
       </c>
-      <c r="C190" s="3" t="str">
+      <c r="C190" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A190))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A190, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B190,"00"), ". Episode_", TEXT('IDM Codes'!B190,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D190" s="4" t="str">
+      <c r="D190" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A190))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A190, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B190, "00"),". Episode_", TEXT('IDM Codes'!B190, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E190" s="4" t="str">
+      <c r="E190" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A190))=0, "", C190&amp;" &amp; "&amp;D190)</f>
         <v/>
       </c>
@@ -4064,15 +4099,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A191))=0,"", INT('IDM Codes'!B190)+1)</f>
         <v/>
       </c>
-      <c r="C191" s="3" t="str">
+      <c r="C191" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A191))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A191, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B191,"00"), ". Episode_", TEXT('IDM Codes'!B191,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D191" s="4" t="str">
+      <c r="D191" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A191))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A191, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B191, "00"),". Episode_", TEXT('IDM Codes'!B191, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E191" s="4" t="str">
+      <c r="E191" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A191))=0, "", C191&amp;" &amp; "&amp;D191)</f>
         <v/>
       </c>
@@ -4082,15 +4117,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A192))=0,"", INT('IDM Codes'!B191)+1)</f>
         <v/>
       </c>
-      <c r="C192" s="3" t="str">
+      <c r="C192" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A192))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A192, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B192,"00"), ". Episode_", TEXT('IDM Codes'!B192,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D192" s="4" t="str">
+      <c r="D192" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A192))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A192, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B192, "00"),". Episode_", TEXT('IDM Codes'!B192, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E192" s="4" t="str">
+      <c r="E192" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A192))=0, "", C192&amp;" &amp; "&amp;D192)</f>
         <v/>
       </c>
@@ -4100,15 +4135,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A193))=0,"", INT('IDM Codes'!B192)+1)</f>
         <v/>
       </c>
-      <c r="C193" s="3" t="str">
+      <c r="C193" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A193))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A193, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B193,"00"), ". Episode_", TEXT('IDM Codes'!B193,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D193" s="4" t="str">
+      <c r="D193" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A193))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A193, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B193, "00"),". Episode_", TEXT('IDM Codes'!B193, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E193" s="4" t="str">
+      <c r="E193" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A193))=0, "", C193&amp;" &amp; "&amp;D193)</f>
         <v/>
       </c>
@@ -4118,15 +4153,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A194))=0,"", INT('IDM Codes'!B193)+1)</f>
         <v/>
       </c>
-      <c r="C194" s="3" t="str">
+      <c r="C194" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A194))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A194, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B194,"00"), ". Episode_", TEXT('IDM Codes'!B194,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D194" s="4" t="str">
+      <c r="D194" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A194))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A194, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B194, "00"),". Episode_", TEXT('IDM Codes'!B194, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E194" s="4" t="str">
+      <c r="E194" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A194))=0, "", C194&amp;" &amp; "&amp;D194)</f>
         <v/>
       </c>
@@ -4136,15 +4171,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A195))=0,"", INT('IDM Codes'!B194)+1)</f>
         <v/>
       </c>
-      <c r="C195" s="3" t="str">
+      <c r="C195" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A195))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A195, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B195,"00"), ". Episode_", TEXT('IDM Codes'!B195,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D195" s="4" t="str">
+      <c r="D195" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A195))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A195, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B195, "00"),". Episode_", TEXT('IDM Codes'!B195, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E195" s="4" t="str">
+      <c r="E195" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A195))=0, "", C195&amp;" &amp; "&amp;D195)</f>
         <v/>
       </c>
@@ -4154,15 +4189,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A196))=0,"", INT('IDM Codes'!B195)+1)</f>
         <v/>
       </c>
-      <c r="C196" s="3" t="str">
+      <c r="C196" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A196))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A196, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B196,"00"), ". Episode_", TEXT('IDM Codes'!B196,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D196" s="4" t="str">
+      <c r="D196" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A196))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A196, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B196, "00"),". Episode_", TEXT('IDM Codes'!B196, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E196" s="4" t="str">
+      <c r="E196" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A196))=0, "", C196&amp;" &amp; "&amp;D196)</f>
         <v/>
       </c>
@@ -4172,15 +4207,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A197))=0,"", INT('IDM Codes'!B196)+1)</f>
         <v/>
       </c>
-      <c r="C197" s="3" t="str">
+      <c r="C197" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A197))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A197, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B197,"00"), ". Episode_", TEXT('IDM Codes'!B197,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D197" s="4" t="str">
+      <c r="D197" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A197))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A197, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B197, "00"),". Episode_", TEXT('IDM Codes'!B197, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E197" s="4" t="str">
+      <c r="E197" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A197))=0, "", C197&amp;" &amp; "&amp;D197)</f>
         <v/>
       </c>
@@ -4190,15 +4225,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A198))=0,"", INT('IDM Codes'!B197)+1)</f>
         <v/>
       </c>
-      <c r="C198" s="3" t="str">
+      <c r="C198" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A198))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A198, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B198,"00"), ". Episode_", TEXT('IDM Codes'!B198,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D198" s="4" t="str">
+      <c r="D198" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A198))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A198, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B198, "00"),". Episode_", TEXT('IDM Codes'!B198, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E198" s="4" t="str">
+      <c r="E198" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A198))=0, "", C198&amp;" &amp; "&amp;D198)</f>
         <v/>
       </c>
@@ -4208,15 +4243,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A199))=0,"", INT('IDM Codes'!B198)+1)</f>
         <v/>
       </c>
-      <c r="C199" s="3" t="str">
+      <c r="C199" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A199))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A199, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B199,"00"), ". Episode_", TEXT('IDM Codes'!B199,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D199" s="4" t="str">
+      <c r="D199" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A199))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A199, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B199, "00"),". Episode_", TEXT('IDM Codes'!B199, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E199" s="4" t="str">
+      <c r="E199" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A199))=0, "", C199&amp;" &amp; "&amp;D199)</f>
         <v/>
       </c>
@@ -4226,15 +4261,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A200))=0,"", INT('IDM Codes'!B199)+1)</f>
         <v/>
       </c>
-      <c r="C200" s="3" t="str">
+      <c r="C200" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A200))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A200, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B200,"00"), ". Episode_", TEXT('IDM Codes'!B200,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D200" s="4" t="str">
+      <c r="D200" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A200))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A200, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B200, "00"),". Episode_", TEXT('IDM Codes'!B200, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E200" s="4" t="str">
+      <c r="E200" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A200))=0, "", C200&amp;" &amp; "&amp;D200)</f>
         <v/>
       </c>
@@ -4244,15 +4279,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A201))=0,"", INT('IDM Codes'!B200)+1)</f>
         <v/>
       </c>
-      <c r="C201" s="3" t="str">
+      <c r="C201" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A201))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A201, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B201,"00"), ". Episode_", TEXT('IDM Codes'!B201,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D201" s="4" t="str">
+      <c r="D201" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A201))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A201, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B201, "00"),". Episode_", TEXT('IDM Codes'!B201, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E201" s="4" t="str">
+      <c r="E201" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A201))=0, "", C201&amp;" &amp; "&amp;D201)</f>
         <v/>
       </c>
@@ -4262,15 +4297,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A202))=0,"", INT('IDM Codes'!B201)+1)</f>
         <v/>
       </c>
-      <c r="C202" s="3" t="str">
+      <c r="C202" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A202))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A202, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B202,"00"), ". Episode_", TEXT('IDM Codes'!B202,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D202" s="4" t="str">
+      <c r="D202" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A202))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A202, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B202, "00"),". Episode_", TEXT('IDM Codes'!B202, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E202" s="4" t="str">
+      <c r="E202" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A202))=0, "", C202&amp;" &amp; "&amp;D202)</f>
         <v/>
       </c>
@@ -4280,15 +4315,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A203))=0,"", INT('IDM Codes'!B202)+1)</f>
         <v/>
       </c>
-      <c r="C203" s="3" t="str">
+      <c r="C203" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A203))=0, "", CONCATENATE("""", 'IDM Params'!#REF!, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A203, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B203,"00"), ". Episode_", TEXT('IDM Codes'!B203,"00"), ".mp4"""))</f>
         <v/>
       </c>
-      <c r="D203" s="4" t="str">
+      <c r="D203" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A203))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A203, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B203, "00"),". Episode_", TEXT('IDM Codes'!B203, "00"), ".mp3"""))</f>
         <v/>
       </c>
-      <c r="E203" s="4" t="str">
+      <c r="E203" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A203))=0, "", C203&amp;" &amp; "&amp;D203)</f>
         <v/>
       </c>
@@ -4301,10 +4336,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4316,307 +4351,351 @@
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="19" t="str">
+        <f>IF(ffmpegCodes!$B$7 = 1, "Dummy SRT file-name (Make sure files are named like this)","")</f>
+        <v>Dummy SRT file-name (Make sure files are named like this)</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="21" t="str">
+        <f>IF(ffmpegCodes!$B$7 = 1, TEXT(ffmpegCodes!$B$5, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!$B$5, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt", "")</f>
+        <v>01. Mr. Queen - Episode 1.en.srt</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="22" t="str">
+        <f>IF(ffmpegCodes!$B$7 = 1, "To download subtitles, just check the ""Custom Args"" option in ""Youtube-DL GUI"", set the ""Link"" &amp; press ""Get Data"" button. This will download all subtitles to the ""youtube-dl gui"" folder.", "")</f>
+        <v>To download subtitles, just check the "Custom Args" option in "Youtube-DL GUI", set the "Link" &amp; press "Get Data" button. This will download all subtitles to the "youtube-dl gui" folder.</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="13" t="str">
+      <c r="B8" s="12" t="str">
         <f>RIGHT(ffmpegCodes!B2,LEN(ffmpegCodes!B2)-SEARCH("/", SUBSTITUTE(ffmpegCodes!B2,"\","/",LEN(ffmpegCodes!B2)-LEN(SUBSTITUTE(ffmpegCodes!B2,"\","")))))</f>
         <v>Mr. Queen</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="6" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="6" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickTop="1">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="C13" s="4"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14">
         <f>B5</f>
         <v>1</v>
       </c>
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A14), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A14, "00"), ". Episode_", TEXT(ffmpegCodes!A14, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A14, "00"), ". Episode_", TEXT(ffmpegCodes!A14, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A14, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A14, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A14, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A14, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\01. Episode_01.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\01. Episode_01.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\01. Mr. Queen - Episode 1.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\01. Episode 01.mp4"</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+      <c r="C14" s="4"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15">
         <f>IF(ffmpegCodes!A14 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A14 + 1, "")</f>
         <v>2</v>
       </c>
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A15), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A15, "00"), ". Episode_", TEXT(ffmpegCodes!A15, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A15, "00"), ". Episode_", TEXT(ffmpegCodes!A15, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A15, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A15, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A15, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A15, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\02. Episode_02.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\02. Episode_02.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\02. Mr. Queen - Episode 2.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\02. Episode 02.mp4"</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+      <c r="C15" s="4"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16">
         <f>IF(ffmpegCodes!A15 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A15 + 1, "")</f>
         <v>3</v>
       </c>
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A16), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A16, "00"), ". Episode_", TEXT(ffmpegCodes!A16, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A16, "00"), ". Episode_", TEXT(ffmpegCodes!A16, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A16, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A16, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A16, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A16, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\03. Episode_03.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\03. Episode_03.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\03. Mr. Queen - Episode 3.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\03. Episode 03.mp4"</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17">
         <f>IF(ffmpegCodes!A16 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A16 + 1, "")</f>
         <v>4</v>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A17), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A17, "00"), ". Episode_", TEXT(ffmpegCodes!A17, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A17, "00"), ". Episode_", TEXT(ffmpegCodes!A17, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A17, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A17, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A17, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A17, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\04. Episode_04.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\04. Episode_04.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\04. Mr. Queen - Episode 4.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\04. Episode 04.mp4"</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18">
         <f>IF(ffmpegCodes!A17 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A17 + 1, "")</f>
         <v>5</v>
       </c>
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A18), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A18, "00"), ". Episode_", TEXT(ffmpegCodes!A18, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A18, "00"), ". Episode_", TEXT(ffmpegCodes!A18, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A18, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A18, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A18, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A18, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\05. Episode_05.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\05. Episode_05.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\05. Mr. Queen - Episode 5.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\05. Episode 05.mp4"</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19">
         <f>IF(ffmpegCodes!A18 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A18 + 1, "")</f>
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A19), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A19, "00"), ". Episode_", TEXT(ffmpegCodes!A19, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A19, "00"), ". Episode_", TEXT(ffmpegCodes!A19, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A19, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A19, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A19, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A19, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\06. Episode_06.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\06. Episode_06.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\06. Mr. Queen - Episode 6.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\06. Episode 06.mp4"</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20">
         <f>IF(ffmpegCodes!A19 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A19 + 1, "")</f>
         <v>7</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A20), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A20, "00"), ". Episode_", TEXT(ffmpegCodes!A20, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A20, "00"), ". Episode_", TEXT(ffmpegCodes!A20, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A20, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A20, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A20, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A20, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\07. Episode_07.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\07. Episode_07.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\07. Mr. Queen - Episode 7.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\07. Episode 07.mp4"</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
         <f>IF(ffmpegCodes!A20 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A20 + 1, "")</f>
         <v>8</v>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A21), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A21, "00"), ". Episode_", TEXT(ffmpegCodes!A21, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A21, "00"), ". Episode_", TEXT(ffmpegCodes!A21, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A21, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A21, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A21, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A21, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\08. Episode_08.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\08. Episode_08.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\08. Mr. Queen - Episode 8.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\08. Episode 08.mp4"</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
         <f>IF(ffmpegCodes!A21 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A21 + 1, "")</f>
         <v>9</v>
       </c>
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A22), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A22, "00"), ". Episode_", TEXT(ffmpegCodes!A22, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A22, "00"), ". Episode_", TEXT(ffmpegCodes!A22, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A22, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A22, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A22, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A22, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\09. Episode_09.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\09. Episode_09.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\09. Mr. Queen - Episode 9.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\09. Episode 09.mp4"</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
         <f>IF(ffmpegCodes!A22 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A22 + 1, "")</f>
         <v>10</v>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A23), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A23, "00"), ". Episode_", TEXT(ffmpegCodes!A23, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A23, "00"), ". Episode_", TEXT(ffmpegCodes!A23, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A23, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A23, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A23, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A23, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\10. Episode_10.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\10. Episode_10.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\10. Mr. Queen - Episode 10.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\10. Episode 10.mp4"</v>
       </c>
@@ -4626,7 +4705,7 @@
         <f>IF(ffmpegCodes!A23 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A23 + 1, "")</f>
         <v>11</v>
       </c>
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A24), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A24, "00"), ". Episode_", TEXT(ffmpegCodes!A24, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A24, "00"), ". Episode_", TEXT(ffmpegCodes!A24, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A24, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A24, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A24, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A24, "00")&amp;".mp4""","")</f>
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\11. Episode_11.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\11. Episode_11.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\11. Mr. Queen - Episode 11.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\11. Episode 11.mp4"</v>
       </c>
@@ -4636,7 +4715,7 @@
         <f>IF(ffmpegCodes!A24 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A24 + 1, "")</f>
         <v/>
       </c>
-      <c r="B25" s="16" t="str">
+      <c r="B25" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A25), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A25, "00"), ". Episode_", TEXT(ffmpegCodes!A25, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A25, "00"), ". Episode_", TEXT(ffmpegCodes!A25, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A25, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A25, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A25, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A25, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4646,7 +4725,7 @@
         <f>IF(ffmpegCodes!A25 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A25 + 1, "")</f>
         <v/>
       </c>
-      <c r="B26" s="16" t="str">
+      <c r="B26" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A26), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A26, "00"), ". Episode_", TEXT(ffmpegCodes!A26, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A26, "00"), ". Episode_", TEXT(ffmpegCodes!A26, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A26, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A26, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A26, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A26, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4656,7 +4735,7 @@
         <f>IF(ffmpegCodes!A26 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A26 + 1, "")</f>
         <v/>
       </c>
-      <c r="B27" s="16" t="str">
+      <c r="B27" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A27), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A27, "00"), ". Episode_", TEXT(ffmpegCodes!A27, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A27, "00"), ". Episode_", TEXT(ffmpegCodes!A27, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A27, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A27, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A27, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A27, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4666,7 +4745,7 @@
         <f>IF(ffmpegCodes!A27 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A27 + 1, "")</f>
         <v/>
       </c>
-      <c r="B28" s="16" t="str">
+      <c r="B28" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A28), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A28, "00"), ". Episode_", TEXT(ffmpegCodes!A28, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A28, "00"), ". Episode_", TEXT(ffmpegCodes!A28, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A28, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A28, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A28, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A28, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4676,7 +4755,7 @@
         <f>IF(ffmpegCodes!A28 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A28 + 1, "")</f>
         <v/>
       </c>
-      <c r="B29" s="16" t="str">
+      <c r="B29" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A29), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A29, "00"), ". Episode_", TEXT(ffmpegCodes!A29, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A29, "00"), ". Episode_", TEXT(ffmpegCodes!A29, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A29, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A29, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A29, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A29, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4686,7 +4765,7 @@
         <f>IF(ffmpegCodes!A29 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A29 + 1, "")</f>
         <v/>
       </c>
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A30), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A30, "00"), ". Episode_", TEXT(ffmpegCodes!A30, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A30, "00"), ". Episode_", TEXT(ffmpegCodes!A30, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A30, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A30, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A30, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A30, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4696,7 +4775,7 @@
         <f>IF(ffmpegCodes!A30 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A30 + 1, "")</f>
         <v/>
       </c>
-      <c r="B31" s="16" t="str">
+      <c r="B31" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A31), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A31, "00"), ". Episode_", TEXT(ffmpegCodes!A31, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A31, "00"), ". Episode_", TEXT(ffmpegCodes!A31, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A31, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A31, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A31, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A31, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4706,7 +4785,7 @@
         <f>IF(ffmpegCodes!A31 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A31 + 1, "")</f>
         <v/>
       </c>
-      <c r="B32" s="16" t="str">
+      <c r="B32" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A32), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A32, "00"), ". Episode_", TEXT(ffmpegCodes!A32, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A32, "00"), ". Episode_", TEXT(ffmpegCodes!A32, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A32, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A32, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A32, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A32, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4716,7 +4795,7 @@
         <f>IF(ffmpegCodes!A32 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A32 + 1, "")</f>
         <v/>
       </c>
-      <c r="B33" s="16" t="str">
+      <c r="B33" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A33), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A33, "00"), ". Episode_", TEXT(ffmpegCodes!A33, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A33, "00"), ". Episode_", TEXT(ffmpegCodes!A33, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A33, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A33, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A33, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A33, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4726,7 +4805,7 @@
         <f>IF(ffmpegCodes!A33 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A33 + 1, "")</f>
         <v/>
       </c>
-      <c r="B34" s="16" t="str">
+      <c r="B34" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A34), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A34, "00"), ". Episode_", TEXT(ffmpegCodes!A34, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A34, "00"), ". Episode_", TEXT(ffmpegCodes!A34, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A34, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A34, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A34, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A34, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4736,7 +4815,7 @@
         <f>IF(ffmpegCodes!A34 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A34 + 1, "")</f>
         <v/>
       </c>
-      <c r="B35" s="16" t="str">
+      <c r="B35" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A35), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A35, "00"), ". Episode_", TEXT(ffmpegCodes!A35, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A35, "00"), ". Episode_", TEXT(ffmpegCodes!A35, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A35, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A35, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A35, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A35, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4746,7 +4825,7 @@
         <f>IF(ffmpegCodes!A35 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A35 + 1, "")</f>
         <v/>
       </c>
-      <c r="B36" s="16" t="str">
+      <c r="B36" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A36), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A36, "00"), ". Episode_", TEXT(ffmpegCodes!A36, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A36, "00"), ". Episode_", TEXT(ffmpegCodes!A36, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A36, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A36, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A36, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A36, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4756,7 +4835,7 @@
         <f>IF(ffmpegCodes!A36 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A36 + 1, "")</f>
         <v/>
       </c>
-      <c r="B37" s="16" t="str">
+      <c r="B37" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A37), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A37, "00"), ". Episode_", TEXT(ffmpegCodes!A37, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A37, "00"), ". Episode_", TEXT(ffmpegCodes!A37, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A37, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A37, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A37, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A37, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4766,7 +4845,7 @@
         <f>IF(ffmpegCodes!A37 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A37 + 1, "")</f>
         <v/>
       </c>
-      <c r="B38" s="16" t="str">
+      <c r="B38" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A38), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A38, "00"), ". Episode_", TEXT(ffmpegCodes!A38, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A38, "00"), ". Episode_", TEXT(ffmpegCodes!A38, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A38, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A38, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A38, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A38, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4776,7 +4855,7 @@
         <f>IF(ffmpegCodes!A38 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A38 + 1, "")</f>
         <v/>
       </c>
-      <c r="B39" s="16" t="str">
+      <c r="B39" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A39), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A39, "00"), ". Episode_", TEXT(ffmpegCodes!A39, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A39, "00"), ". Episode_", TEXT(ffmpegCodes!A39, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A39, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A39, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A39, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A39, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4786,7 +4865,7 @@
         <f>IF(ffmpegCodes!A39 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A39 + 1, "")</f>
         <v/>
       </c>
-      <c r="B40" s="16" t="str">
+      <c r="B40" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A40), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A40, "00"), ". Episode_", TEXT(ffmpegCodes!A40, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A40, "00"), ". Episode_", TEXT(ffmpegCodes!A40, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A40, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A40, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A40, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A40, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4796,7 +4875,7 @@
         <f>IF(ffmpegCodes!A40 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A40 + 1, "")</f>
         <v/>
       </c>
-      <c r="B41" s="16" t="str">
+      <c r="B41" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A41), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A41, "00"), ". Episode_", TEXT(ffmpegCodes!A41, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A41, "00"), ". Episode_", TEXT(ffmpegCodes!A41, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A41, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A41, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A41, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A41, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4806,7 +4885,7 @@
         <f>IF(ffmpegCodes!A41 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A41 + 1, "")</f>
         <v/>
       </c>
-      <c r="B42" s="16" t="str">
+      <c r="B42" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A42), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A42, "00"), ". Episode_", TEXT(ffmpegCodes!A42, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A42, "00"), ". Episode_", TEXT(ffmpegCodes!A42, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A42, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A42, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A42, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A42, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4816,7 +4895,7 @@
         <f>IF(ffmpegCodes!A42 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A42 + 1, "")</f>
         <v/>
       </c>
-      <c r="B43" s="16" t="str">
+      <c r="B43" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A43), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A43, "00"), ". Episode_", TEXT(ffmpegCodes!A43, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A43, "00"), ". Episode_", TEXT(ffmpegCodes!A43, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A43, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A43, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A43, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A43, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4826,7 +4905,7 @@
         <f>IF(ffmpegCodes!A43 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A43 + 1, "")</f>
         <v/>
       </c>
-      <c r="B44" s="16" t="str">
+      <c r="B44" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A44), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A44, "00"), ". Episode_", TEXT(ffmpegCodes!A44, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A44, "00"), ". Episode_", TEXT(ffmpegCodes!A44, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A44, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A44, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A44, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A44, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4836,7 +4915,7 @@
         <f>IF(ffmpegCodes!A44 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A44 + 1, "")</f>
         <v/>
       </c>
-      <c r="B45" s="16" t="str">
+      <c r="B45" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A45), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A45, "00"), ". Episode_", TEXT(ffmpegCodes!A45, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A45, "00"), ". Episode_", TEXT(ffmpegCodes!A45, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A45, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A45, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A45, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A45, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4846,7 +4925,7 @@
         <f>IF(ffmpegCodes!A45 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A45 + 1, "")</f>
         <v/>
       </c>
-      <c r="B46" s="16" t="str">
+      <c r="B46" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A46), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A46, "00"), ". Episode_", TEXT(ffmpegCodes!A46, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A46, "00"), ". Episode_", TEXT(ffmpegCodes!A46, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A46, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A46, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A46, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A46, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4856,7 +4935,7 @@
         <f>IF(ffmpegCodes!A46 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A46 + 1, "")</f>
         <v/>
       </c>
-      <c r="B47" s="16" t="str">
+      <c r="B47" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A47), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A47, "00"), ". Episode_", TEXT(ffmpegCodes!A47, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A47, "00"), ". Episode_", TEXT(ffmpegCodes!A47, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A47, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A47, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A47, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A47, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4866,7 +4945,7 @@
         <f>IF(ffmpegCodes!A47 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A47 + 1, "")</f>
         <v/>
       </c>
-      <c r="B48" s="16" t="str">
+      <c r="B48" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A48), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A48, "00"), ". Episode_", TEXT(ffmpegCodes!A48, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A48, "00"), ". Episode_", TEXT(ffmpegCodes!A48, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A48, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A48, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A48, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A48, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4876,7 +4955,7 @@
         <f>IF(ffmpegCodes!A48 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A48 + 1, "")</f>
         <v/>
       </c>
-      <c r="B49" s="16" t="str">
+      <c r="B49" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A49), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A49, "00"), ". Episode_", TEXT(ffmpegCodes!A49, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A49, "00"), ". Episode_", TEXT(ffmpegCodes!A49, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A49, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A49, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A49, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A49, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4886,7 +4965,7 @@
         <f>IF(ffmpegCodes!A49 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A49 + 1, "")</f>
         <v/>
       </c>
-      <c r="B50" s="16" t="str">
+      <c r="B50" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A50), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A50, "00"), ". Episode_", TEXT(ffmpegCodes!A50, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A50, "00"), ". Episode_", TEXT(ffmpegCodes!A50, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A50, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A50, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A50, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A50, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4896,7 +4975,7 @@
         <f>IF(ffmpegCodes!A50 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A50 + 1, "")</f>
         <v/>
       </c>
-      <c r="B51" s="16" t="str">
+      <c r="B51" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A51), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A51, "00"), ". Episode_", TEXT(ffmpegCodes!A51, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A51, "00"), ". Episode_", TEXT(ffmpegCodes!A51, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A51, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A51, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A51, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A51, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4906,7 +4985,7 @@
         <f>IF(ffmpegCodes!A51 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A51 + 1, "")</f>
         <v/>
       </c>
-      <c r="B52" s="16" t="str">
+      <c r="B52" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A52), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A52, "00"), ". Episode_", TEXT(ffmpegCodes!A52, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A52, "00"), ". Episode_", TEXT(ffmpegCodes!A52, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A52, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A52, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A52, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A52, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4916,7 +4995,7 @@
         <f>IF(ffmpegCodes!A52 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A52 + 1, "")</f>
         <v/>
       </c>
-      <c r="B53" s="16" t="str">
+      <c r="B53" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A53), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A53, "00"), ". Episode_", TEXT(ffmpegCodes!A53, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A53, "00"), ". Episode_", TEXT(ffmpegCodes!A53, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A53, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A53, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A53, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A53, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4926,7 +5005,7 @@
         <f>IF(ffmpegCodes!A53 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A53 + 1, "")</f>
         <v/>
       </c>
-      <c r="B54" s="16" t="str">
+      <c r="B54" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A54), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A54, "00"), ". Episode_", TEXT(ffmpegCodes!A54, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A54, "00"), ". Episode_", TEXT(ffmpegCodes!A54, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A54, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A54, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A54, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A54, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4936,7 +5015,7 @@
         <f>IF(ffmpegCodes!A54 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A54 + 1, "")</f>
         <v/>
       </c>
-      <c r="B55" s="16" t="str">
+      <c r="B55" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A55), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A55, "00"), ". Episode_", TEXT(ffmpegCodes!A55, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A55, "00"), ". Episode_", TEXT(ffmpegCodes!A55, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A55, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A55, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A55, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A55, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4946,7 +5025,7 @@
         <f>IF(ffmpegCodes!A55 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A55 + 1, "")</f>
         <v/>
       </c>
-      <c r="B56" s="16" t="str">
+      <c r="B56" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A56), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A56, "00"), ". Episode_", TEXT(ffmpegCodes!A56, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A56, "00"), ". Episode_", TEXT(ffmpegCodes!A56, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A56, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A56, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A56, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A56, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4956,7 +5035,7 @@
         <f>IF(ffmpegCodes!A56 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A56 + 1, "")</f>
         <v/>
       </c>
-      <c r="B57" s="16" t="str">
+      <c r="B57" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A57), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A57, "00"), ". Episode_", TEXT(ffmpegCodes!A57, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A57, "00"), ". Episode_", TEXT(ffmpegCodes!A57, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A57, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A57, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A57, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A57, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4966,7 +5045,7 @@
         <f>IF(ffmpegCodes!A57 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A57 + 1, "")</f>
         <v/>
       </c>
-      <c r="B58" s="16" t="str">
+      <c r="B58" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A58), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A58, "00"), ". Episode_", TEXT(ffmpegCodes!A58, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A58, "00"), ". Episode_", TEXT(ffmpegCodes!A58, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A58, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A58, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A58, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A58, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4976,7 +5055,7 @@
         <f>IF(ffmpegCodes!A58 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A58 + 1, "")</f>
         <v/>
       </c>
-      <c r="B59" s="16" t="str">
+      <c r="B59" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A59), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A59, "00"), ". Episode_", TEXT(ffmpegCodes!A59, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A59, "00"), ". Episode_", TEXT(ffmpegCodes!A59, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A59, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A59, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A59, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A59, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4986,7 +5065,7 @@
         <f>IF(ffmpegCodes!A59 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A59 + 1, "")</f>
         <v/>
       </c>
-      <c r="B60" s="16" t="str">
+      <c r="B60" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A60), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A60, "00"), ". Episode_", TEXT(ffmpegCodes!A60, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A60, "00"), ". Episode_", TEXT(ffmpegCodes!A60, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A60, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A60, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A60, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A60, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -4996,7 +5075,7 @@
         <f>IF(ffmpegCodes!A60 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A60 + 1, "")</f>
         <v/>
       </c>
-      <c r="B61" s="16" t="str">
+      <c r="B61" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A61), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A61, "00"), ". Episode_", TEXT(ffmpegCodes!A61, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A61, "00"), ". Episode_", TEXT(ffmpegCodes!A61, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A61, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A61, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A61, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A61, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5006,7 +5085,7 @@
         <f>IF(ffmpegCodes!A61 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A61 + 1, "")</f>
         <v/>
       </c>
-      <c r="B62" s="16" t="str">
+      <c r="B62" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A62), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A62, "00"), ". Episode_", TEXT(ffmpegCodes!A62, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A62, "00"), ". Episode_", TEXT(ffmpegCodes!A62, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A62, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A62, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A62, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A62, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5016,7 +5095,7 @@
         <f>IF(ffmpegCodes!A62 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A62 + 1, "")</f>
         <v/>
       </c>
-      <c r="B63" s="16" t="str">
+      <c r="B63" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A63), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A63, "00"), ". Episode_", TEXT(ffmpegCodes!A63, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A63, "00"), ". Episode_", TEXT(ffmpegCodes!A63, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A63, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A63, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A63, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A63, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5026,7 +5105,7 @@
         <f>IF(ffmpegCodes!A63 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A63 + 1, "")</f>
         <v/>
       </c>
-      <c r="B64" s="16" t="str">
+      <c r="B64" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A64), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A64, "00"), ". Episode_", TEXT(ffmpegCodes!A64, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A64, "00"), ". Episode_", TEXT(ffmpegCodes!A64, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A64, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A64, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A64, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A64, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5036,7 +5115,7 @@
         <f>IF(ffmpegCodes!A64 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A64 + 1, "")</f>
         <v/>
       </c>
-      <c r="B65" s="16" t="str">
+      <c r="B65" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A65), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A65, "00"), ". Episode_", TEXT(ffmpegCodes!A65, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A65, "00"), ". Episode_", TEXT(ffmpegCodes!A65, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A65, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A65, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A65, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A65, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5046,7 +5125,7 @@
         <f>IF(ffmpegCodes!A65 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A65 + 1, "")</f>
         <v/>
       </c>
-      <c r="B66" s="16" t="str">
+      <c r="B66" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A66), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A66, "00"), ". Episode_", TEXT(ffmpegCodes!A66, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A66, "00"), ". Episode_", TEXT(ffmpegCodes!A66, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A66, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A66, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A66, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A66, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5056,7 +5135,7 @@
         <f>IF(ffmpegCodes!A66 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A66 + 1, "")</f>
         <v/>
       </c>
-      <c r="B67" s="16" t="str">
+      <c r="B67" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A67), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A67, "00"), ". Episode_", TEXT(ffmpegCodes!A67, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A67, "00"), ". Episode_", TEXT(ffmpegCodes!A67, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A67, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A67, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A67, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A67, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5066,7 +5145,7 @@
         <f>IF(ffmpegCodes!A67 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A67 + 1, "")</f>
         <v/>
       </c>
-      <c r="B68" s="16" t="str">
+      <c r="B68" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A68), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A68, "00"), ". Episode_", TEXT(ffmpegCodes!A68, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A68, "00"), ". Episode_", TEXT(ffmpegCodes!A68, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A68, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A68, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A68, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A68, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5076,7 +5155,7 @@
         <f>IF(ffmpegCodes!A68 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A68 + 1, "")</f>
         <v/>
       </c>
-      <c r="B69" s="16" t="str">
+      <c r="B69" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A69), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A69, "00"), ". Episode_", TEXT(ffmpegCodes!A69, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A69, "00"), ". Episode_", TEXT(ffmpegCodes!A69, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A69, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A69, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A69, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A69, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5086,7 +5165,7 @@
         <f>IF(ffmpegCodes!A69 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A69 + 1, "")</f>
         <v/>
       </c>
-      <c r="B70" s="16" t="str">
+      <c r="B70" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A70), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A70, "00"), ". Episode_", TEXT(ffmpegCodes!A70, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A70, "00"), ". Episode_", TEXT(ffmpegCodes!A70, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A70, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A70, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A70, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A70, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5096,7 +5175,7 @@
         <f>IF(ffmpegCodes!A70 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A70 + 1, "")</f>
         <v/>
       </c>
-      <c r="B71" s="16" t="str">
+      <c r="B71" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A71), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A71, "00"), ". Episode_", TEXT(ffmpegCodes!A71, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A71, "00"), ". Episode_", TEXT(ffmpegCodes!A71, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A71, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A71, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A71, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A71, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5106,7 +5185,7 @@
         <f>IF(ffmpegCodes!A71 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A71 + 1, "")</f>
         <v/>
       </c>
-      <c r="B72" s="16" t="str">
+      <c r="B72" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A72), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A72, "00"), ". Episode_", TEXT(ffmpegCodes!A72, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A72, "00"), ". Episode_", TEXT(ffmpegCodes!A72, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A72, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A72, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A72, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A72, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5116,7 +5195,7 @@
         <f>IF(ffmpegCodes!A72 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A72 + 1, "")</f>
         <v/>
       </c>
-      <c r="B73" s="16" t="str">
+      <c r="B73" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A73), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A73, "00"), ". Episode_", TEXT(ffmpegCodes!A73, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A73, "00"), ". Episode_", TEXT(ffmpegCodes!A73, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A73, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A73, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A73, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A73, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5126,7 +5205,7 @@
         <f>IF(ffmpegCodes!A73 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A73 + 1, "")</f>
         <v/>
       </c>
-      <c r="B74" s="16" t="str">
+      <c r="B74" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A74), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A74, "00"), ". Episode_", TEXT(ffmpegCodes!A74, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A74, "00"), ". Episode_", TEXT(ffmpegCodes!A74, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A74, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A74, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A74, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A74, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5136,7 +5215,7 @@
         <f>IF(ffmpegCodes!A74 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A74 + 1, "")</f>
         <v/>
       </c>
-      <c r="B75" s="16" t="str">
+      <c r="B75" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A75), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A75, "00"), ". Episode_", TEXT(ffmpegCodes!A75, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A75, "00"), ". Episode_", TEXT(ffmpegCodes!A75, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A75, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A75, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A75, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A75, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5146,7 +5225,7 @@
         <f>IF(ffmpegCodes!A75 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A75 + 1, "")</f>
         <v/>
       </c>
-      <c r="B76" s="16" t="str">
+      <c r="B76" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A76), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A76, "00"), ". Episode_", TEXT(ffmpegCodes!A76, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A76, "00"), ". Episode_", TEXT(ffmpegCodes!A76, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A76, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A76, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A76, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A76, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5156,7 +5235,7 @@
         <f>IF(ffmpegCodes!A76 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A76 + 1, "")</f>
         <v/>
       </c>
-      <c r="B77" s="16" t="str">
+      <c r="B77" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A77), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A77, "00"), ". Episode_", TEXT(ffmpegCodes!A77, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A77, "00"), ". Episode_", TEXT(ffmpegCodes!A77, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A77, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A77, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A77, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A77, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5166,7 +5245,7 @@
         <f>IF(ffmpegCodes!A77 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A77 + 1, "")</f>
         <v/>
       </c>
-      <c r="B78" s="16" t="str">
+      <c r="B78" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A78), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A78, "00"), ". Episode_", TEXT(ffmpegCodes!A78, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A78, "00"), ". Episode_", TEXT(ffmpegCodes!A78, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A78, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A78, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A78, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A78, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5176,7 +5255,7 @@
         <f>IF(ffmpegCodes!A78 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A78 + 1, "")</f>
         <v/>
       </c>
-      <c r="B79" s="16" t="str">
+      <c r="B79" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A79), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A79, "00"), ". Episode_", TEXT(ffmpegCodes!A79, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A79, "00"), ". Episode_", TEXT(ffmpegCodes!A79, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A79, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A79, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A79, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A79, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5186,7 +5265,7 @@
         <f>IF(ffmpegCodes!A79 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A79 + 1, "")</f>
         <v/>
       </c>
-      <c r="B80" s="16" t="str">
+      <c r="B80" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A80), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A80, "00"), ". Episode_", TEXT(ffmpegCodes!A80, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A80, "00"), ". Episode_", TEXT(ffmpegCodes!A80, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A80, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A80, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A80, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A80, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5196,7 +5275,7 @@
         <f>IF(ffmpegCodes!A80 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A80 + 1, "")</f>
         <v/>
       </c>
-      <c r="B81" s="16" t="str">
+      <c r="B81" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A81), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A81, "00"), ". Episode_", TEXT(ffmpegCodes!A81, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A81, "00"), ". Episode_", TEXT(ffmpegCodes!A81, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A81, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A81, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A81, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A81, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5206,7 +5285,7 @@
         <f>IF(ffmpegCodes!A81 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A81 + 1, "")</f>
         <v/>
       </c>
-      <c r="B82" s="16" t="str">
+      <c r="B82" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A82), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A82, "00"), ". Episode_", TEXT(ffmpegCodes!A82, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A82, "00"), ". Episode_", TEXT(ffmpegCodes!A82, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A82, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A82, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A82, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A82, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5216,7 +5295,7 @@
         <f>IF(ffmpegCodes!A82 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A82 + 1, "")</f>
         <v/>
       </c>
-      <c r="B83" s="16" t="str">
+      <c r="B83" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A83), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A83, "00"), ". Episode_", TEXT(ffmpegCodes!A83, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A83, "00"), ". Episode_", TEXT(ffmpegCodes!A83, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A83, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A83, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A83, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A83, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5226,7 +5305,7 @@
         <f>IF(ffmpegCodes!A83 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A83 + 1, "")</f>
         <v/>
       </c>
-      <c r="B84" s="16" t="str">
+      <c r="B84" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A84), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A84, "00"), ". Episode_", TEXT(ffmpegCodes!A84, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A84, "00"), ". Episode_", TEXT(ffmpegCodes!A84, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A84, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A84, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A84, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A84, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5236,7 +5315,7 @@
         <f>IF(ffmpegCodes!A84 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A84 + 1, "")</f>
         <v/>
       </c>
-      <c r="B85" s="16" t="str">
+      <c r="B85" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A85), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A85, "00"), ". Episode_", TEXT(ffmpegCodes!A85, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A85, "00"), ". Episode_", TEXT(ffmpegCodes!A85, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A85, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A85, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A85, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A85, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5246,7 +5325,7 @@
         <f>IF(ffmpegCodes!A85 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A85 + 1, "")</f>
         <v/>
       </c>
-      <c r="B86" s="16" t="str">
+      <c r="B86" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A86), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A86, "00"), ". Episode_", TEXT(ffmpegCodes!A86, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A86, "00"), ". Episode_", TEXT(ffmpegCodes!A86, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A86, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A86, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A86, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A86, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5256,7 +5335,7 @@
         <f>IF(ffmpegCodes!A86 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A86 + 1, "")</f>
         <v/>
       </c>
-      <c r="B87" s="16" t="str">
+      <c r="B87" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A87), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A87, "00"), ". Episode_", TEXT(ffmpegCodes!A87, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A87, "00"), ". Episode_", TEXT(ffmpegCodes!A87, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A87, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A87, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A87, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A87, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5266,7 +5345,7 @@
         <f>IF(ffmpegCodes!A87 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A87 + 1, "")</f>
         <v/>
       </c>
-      <c r="B88" s="16" t="str">
+      <c r="B88" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A88), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A88, "00"), ". Episode_", TEXT(ffmpegCodes!A88, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A88, "00"), ". Episode_", TEXT(ffmpegCodes!A88, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A88, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A88, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A88, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A88, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5276,7 +5355,7 @@
         <f>IF(ffmpegCodes!A88 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A88 + 1, "")</f>
         <v/>
       </c>
-      <c r="B89" s="16" t="str">
+      <c r="B89" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A89), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A89, "00"), ". Episode_", TEXT(ffmpegCodes!A89, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A89, "00"), ". Episode_", TEXT(ffmpegCodes!A89, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A89, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A89, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A89, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A89, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5286,7 +5365,7 @@
         <f>IF(ffmpegCodes!A89 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A89 + 1, "")</f>
         <v/>
       </c>
-      <c r="B90" s="16" t="str">
+      <c r="B90" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A90), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A90, "00"), ". Episode_", TEXT(ffmpegCodes!A90, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A90, "00"), ". Episode_", TEXT(ffmpegCodes!A90, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A90, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A90, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A90, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A90, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5296,7 +5375,7 @@
         <f>IF(ffmpegCodes!A90 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A90 + 1, "")</f>
         <v/>
       </c>
-      <c r="B91" s="16" t="str">
+      <c r="B91" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A91), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A91, "00"), ". Episode_", TEXT(ffmpegCodes!A91, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A91, "00"), ". Episode_", TEXT(ffmpegCodes!A91, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A91, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A91, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A91, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A91, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5306,7 +5385,7 @@
         <f>IF(ffmpegCodes!A91 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A91 + 1, "")</f>
         <v/>
       </c>
-      <c r="B92" s="16" t="str">
+      <c r="B92" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A92), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A92, "00"), ". Episode_", TEXT(ffmpegCodes!A92, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A92, "00"), ". Episode_", TEXT(ffmpegCodes!A92, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A92, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A92, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A92, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A92, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5316,7 +5395,7 @@
         <f>IF(ffmpegCodes!A92 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A92 + 1, "")</f>
         <v/>
       </c>
-      <c r="B93" s="16" t="str">
+      <c r="B93" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A93), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A93, "00"), ". Episode_", TEXT(ffmpegCodes!A93, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A93, "00"), ". Episode_", TEXT(ffmpegCodes!A93, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A93, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A93, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A93, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A93, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5326,7 +5405,7 @@
         <f>IF(ffmpegCodes!A93 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A93 + 1, "")</f>
         <v/>
       </c>
-      <c r="B94" s="16" t="str">
+      <c r="B94" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A94), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A94, "00"), ". Episode_", TEXT(ffmpegCodes!A94, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A94, "00"), ". Episode_", TEXT(ffmpegCodes!A94, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A94, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A94, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A94, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A94, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5336,7 +5415,7 @@
         <f>IF(ffmpegCodes!A94 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A94 + 1, "")</f>
         <v/>
       </c>
-      <c r="B95" s="16" t="str">
+      <c r="B95" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A95), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A95, "00"), ". Episode_", TEXT(ffmpegCodes!A95, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A95, "00"), ". Episode_", TEXT(ffmpegCodes!A95, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A95, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A95, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A95, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A95, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5346,7 +5425,7 @@
         <f>IF(ffmpegCodes!A95 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A95 + 1, "")</f>
         <v/>
       </c>
-      <c r="B96" s="16" t="str">
+      <c r="B96" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A96), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A96, "00"), ". Episode_", TEXT(ffmpegCodes!A96, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A96, "00"), ". Episode_", TEXT(ffmpegCodes!A96, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A96, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A96, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A96, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A96, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5356,7 +5435,7 @@
         <f>IF(ffmpegCodes!A96 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A96 + 1, "")</f>
         <v/>
       </c>
-      <c r="B97" s="16" t="str">
+      <c r="B97" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A97), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A97, "00"), ". Episode_", TEXT(ffmpegCodes!A97, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A97, "00"), ". Episode_", TEXT(ffmpegCodes!A97, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A97, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A97, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A97, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A97, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5366,7 +5445,7 @@
         <f>IF(ffmpegCodes!A97 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A97 + 1, "")</f>
         <v/>
       </c>
-      <c r="B98" s="16" t="str">
+      <c r="B98" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A98), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A98, "00"), ". Episode_", TEXT(ffmpegCodes!A98, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A98, "00"), ". Episode_", TEXT(ffmpegCodes!A98, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A98, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A98, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A98, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A98, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5376,7 +5455,7 @@
         <f>IF(ffmpegCodes!A98 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A98 + 1, "")</f>
         <v/>
       </c>
-      <c r="B99" s="16" t="str">
+      <c r="B99" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A99), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A99, "00"), ". Episode_", TEXT(ffmpegCodes!A99, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A99, "00"), ". Episode_", TEXT(ffmpegCodes!A99, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A99, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A99, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A99, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A99, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5386,7 +5465,7 @@
         <f>IF(ffmpegCodes!A99 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A99 + 1, "")</f>
         <v/>
       </c>
-      <c r="B100" s="16" t="str">
+      <c r="B100" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A100), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A100, "00"), ". Episode_", TEXT(ffmpegCodes!A100, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A100, "00"), ". Episode_", TEXT(ffmpegCodes!A100, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A100, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A100, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A100, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A100, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5396,7 +5475,7 @@
         <f>IF(ffmpegCodes!A100 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A100 + 1, "")</f>
         <v/>
       </c>
-      <c r="B101" s="16" t="str">
+      <c r="B101" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A101), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A101, "00"), ". Episode_", TEXT(ffmpegCodes!A101, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A101, "00"), ". Episode_", TEXT(ffmpegCodes!A101, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A101, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A101, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A101, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A101, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5406,7 +5485,7 @@
         <f>IF(ffmpegCodes!A101 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A101 + 1, "")</f>
         <v/>
       </c>
-      <c r="B102" s="16" t="str">
+      <c r="B102" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A102), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A102, "00"), ". Episode_", TEXT(ffmpegCodes!A102, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A102, "00"), ". Episode_", TEXT(ffmpegCodes!A102, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A102, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A102, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A102, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A102, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5416,7 +5495,7 @@
         <f>IF(ffmpegCodes!A102 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A102 + 1, "")</f>
         <v/>
       </c>
-      <c r="B103" s="16" t="str">
+      <c r="B103" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A103), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A103, "00"), ". Episode_", TEXT(ffmpegCodes!A103, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A103, "00"), ". Episode_", TEXT(ffmpegCodes!A103, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A103, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A103, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A103, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A103, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5426,7 +5505,7 @@
         <f>IF(ffmpegCodes!A103 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A103 + 1, "")</f>
         <v/>
       </c>
-      <c r="B104" s="16" t="str">
+      <c r="B104" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A104), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A104, "00"), ". Episode_", TEXT(ffmpegCodes!A104, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A104, "00"), ". Episode_", TEXT(ffmpegCodes!A104, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A104, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A104, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A104, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A104, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5436,7 +5515,7 @@
         <f>IF(ffmpegCodes!A104 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A104 + 1, "")</f>
         <v/>
       </c>
-      <c r="B105" s="16" t="str">
+      <c r="B105" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A105), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A105, "00"), ". Episode_", TEXT(ffmpegCodes!A105, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A105, "00"), ". Episode_", TEXT(ffmpegCodes!A105, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A105, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A105, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A105, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A105, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5446,7 +5525,7 @@
         <f>IF(ffmpegCodes!A105 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A105 + 1, "")</f>
         <v/>
       </c>
-      <c r="B106" s="16" t="str">
+      <c r="B106" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A106), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A106, "00"), ". Episode_", TEXT(ffmpegCodes!A106, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A106, "00"), ". Episode_", TEXT(ffmpegCodes!A106, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A106, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A106, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A106, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A106, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5456,7 +5535,7 @@
         <f>IF(ffmpegCodes!A106 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A106 + 1, "")</f>
         <v/>
       </c>
-      <c r="B107" s="16" t="str">
+      <c r="B107" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A107), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A107, "00"), ". Episode_", TEXT(ffmpegCodes!A107, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A107, "00"), ". Episode_", TEXT(ffmpegCodes!A107, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A107, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A107, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A107, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A107, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5466,7 +5545,7 @@
         <f>IF(ffmpegCodes!A107 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A107 + 1, "")</f>
         <v/>
       </c>
-      <c r="B108" s="16" t="str">
+      <c r="B108" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A108), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A108, "00"), ". Episode_", TEXT(ffmpegCodes!A108, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A108, "00"), ". Episode_", TEXT(ffmpegCodes!A108, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A108, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A108, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A108, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A108, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5476,7 +5555,7 @@
         <f>IF(ffmpegCodes!A108 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A108 + 1, "")</f>
         <v/>
       </c>
-      <c r="B109" s="16" t="str">
+      <c r="B109" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A109), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A109, "00"), ". Episode_", TEXT(ffmpegCodes!A109, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A109, "00"), ". Episode_", TEXT(ffmpegCodes!A109, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A109, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A109, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A109, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A109, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5486,7 +5565,7 @@
         <f>IF(ffmpegCodes!A109 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A109 + 1, "")</f>
         <v/>
       </c>
-      <c r="B110" s="16" t="str">
+      <c r="B110" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A110), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A110, "00"), ". Episode_", TEXT(ffmpegCodes!A110, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A110, "00"), ". Episode_", TEXT(ffmpegCodes!A110, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A110, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A110, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A110, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A110, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5496,7 +5575,7 @@
         <f>IF(ffmpegCodes!A110 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A110 + 1, "")</f>
         <v/>
       </c>
-      <c r="B111" s="16" t="str">
+      <c r="B111" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A111), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A111, "00"), ". Episode_", TEXT(ffmpegCodes!A111, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A111, "00"), ". Episode_", TEXT(ffmpegCodes!A111, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A111, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A111, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A111, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A111, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5506,7 +5585,7 @@
         <f>IF(ffmpegCodes!A111 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A111 + 1, "")</f>
         <v/>
       </c>
-      <c r="B112" s="16" t="str">
+      <c r="B112" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A112), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A112, "00"), ". Episode_", TEXT(ffmpegCodes!A112, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A112, "00"), ". Episode_", TEXT(ffmpegCodes!A112, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A112, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A112, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A112, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A112, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5516,7 +5595,7 @@
         <f>IF(ffmpegCodes!A112 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A112 + 1, "")</f>
         <v/>
       </c>
-      <c r="B113" s="16" t="str">
+      <c r="B113" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A113), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A113, "00"), ". Episode_", TEXT(ffmpegCodes!A113, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A113, "00"), ". Episode_", TEXT(ffmpegCodes!A113, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A113, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A113, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A113, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A113, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5526,7 +5605,7 @@
         <f>IF(ffmpegCodes!A113 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A113 + 1, "")</f>
         <v/>
       </c>
-      <c r="B114" s="16" t="str">
+      <c r="B114" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A114), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A114, "00"), ". Episode_", TEXT(ffmpegCodes!A114, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A114, "00"), ". Episode_", TEXT(ffmpegCodes!A114, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A114, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A114, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A114, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A114, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5536,7 +5615,7 @@
         <f>IF(ffmpegCodes!A114 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A114 + 1, "")</f>
         <v/>
       </c>
-      <c r="B115" s="16" t="str">
+      <c r="B115" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A115), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A115, "00"), ". Episode_", TEXT(ffmpegCodes!A115, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A115, "00"), ". Episode_", TEXT(ffmpegCodes!A115, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A115, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A115, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A115, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A115, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5546,7 +5625,7 @@
         <f>IF(ffmpegCodes!A115 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A115 + 1, "")</f>
         <v/>
       </c>
-      <c r="B116" s="16" t="str">
+      <c r="B116" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A116), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A116, "00"), ". Episode_", TEXT(ffmpegCodes!A116, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A116, "00"), ". Episode_", TEXT(ffmpegCodes!A116, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A116, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A116, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A116, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A116, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5556,7 +5635,7 @@
         <f>IF(ffmpegCodes!A116 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A116 + 1, "")</f>
         <v/>
       </c>
-      <c r="B117" s="16" t="str">
+      <c r="B117" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A117), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A117, "00"), ". Episode_", TEXT(ffmpegCodes!A117, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A117, "00"), ". Episode_", TEXT(ffmpegCodes!A117, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A117, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A117, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A117, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A117, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5566,7 +5645,7 @@
         <f>IF(ffmpegCodes!A117 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A117 + 1, "")</f>
         <v/>
       </c>
-      <c r="B118" s="16" t="str">
+      <c r="B118" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A118), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A118, "00"), ". Episode_", TEXT(ffmpegCodes!A118, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A118, "00"), ". Episode_", TEXT(ffmpegCodes!A118, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A118, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A118, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A118, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A118, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5576,7 +5655,7 @@
         <f>IF(ffmpegCodes!A118 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A118 + 1, "")</f>
         <v/>
       </c>
-      <c r="B119" s="16" t="str">
+      <c r="B119" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A119), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A119, "00"), ". Episode_", TEXT(ffmpegCodes!A119, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A119, "00"), ". Episode_", TEXT(ffmpegCodes!A119, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A119, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A119, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A119, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A119, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5586,7 +5665,7 @@
         <f>IF(ffmpegCodes!A119 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A119 + 1, "")</f>
         <v/>
       </c>
-      <c r="B120" s="16" t="str">
+      <c r="B120" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A120), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A120, "00"), ". Episode_", TEXT(ffmpegCodes!A120, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A120, "00"), ". Episode_", TEXT(ffmpegCodes!A120, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A120, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A120, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A120, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A120, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5596,7 +5675,7 @@
         <f>IF(ffmpegCodes!A120 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A120 + 1, "")</f>
         <v/>
       </c>
-      <c r="B121" s="16" t="str">
+      <c r="B121" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A121), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A121, "00"), ". Episode_", TEXT(ffmpegCodes!A121, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A121, "00"), ". Episode_", TEXT(ffmpegCodes!A121, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A121, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A121, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A121, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A121, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5606,7 +5685,7 @@
         <f>IF(ffmpegCodes!A121 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A121 + 1, "")</f>
         <v/>
       </c>
-      <c r="B122" s="16" t="str">
+      <c r="B122" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A122), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A122, "00"), ". Episode_", TEXT(ffmpegCodes!A122, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A122, "00"), ". Episode_", TEXT(ffmpegCodes!A122, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A122, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A122, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A122, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A122, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5616,7 +5695,7 @@
         <f>IF(ffmpegCodes!A122 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A122 + 1, "")</f>
         <v/>
       </c>
-      <c r="B123" s="16" t="str">
+      <c r="B123" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A123), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A123, "00"), ". Episode_", TEXT(ffmpegCodes!A123, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A123, "00"), ". Episode_", TEXT(ffmpegCodes!A123, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A123, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A123, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A123, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A123, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5626,7 +5705,7 @@
         <f>IF(ffmpegCodes!A123 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A123 + 1, "")</f>
         <v/>
       </c>
-      <c r="B124" s="16" t="str">
+      <c r="B124" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A124), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A124, "00"), ". Episode_", TEXT(ffmpegCodes!A124, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A124, "00"), ". Episode_", TEXT(ffmpegCodes!A124, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A124, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A124, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A124, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A124, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5636,7 +5715,7 @@
         <f>IF(ffmpegCodes!A124 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A124 + 1, "")</f>
         <v/>
       </c>
-      <c r="B125" s="16" t="str">
+      <c r="B125" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A125), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A125, "00"), ". Episode_", TEXT(ffmpegCodes!A125, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A125, "00"), ". Episode_", TEXT(ffmpegCodes!A125, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A125, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A125, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A125, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A125, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5646,7 +5725,7 @@
         <f>IF(ffmpegCodes!A125 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A125 + 1, "")</f>
         <v/>
       </c>
-      <c r="B126" s="16" t="str">
+      <c r="B126" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A126), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A126, "00"), ". Episode_", TEXT(ffmpegCodes!A126, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A126, "00"), ". Episode_", TEXT(ffmpegCodes!A126, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A126, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A126, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A126, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A126, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5656,7 +5735,7 @@
         <f>IF(ffmpegCodes!A126 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A126 + 1, "")</f>
         <v/>
       </c>
-      <c r="B127" s="16" t="str">
+      <c r="B127" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A127), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A127, "00"), ". Episode_", TEXT(ffmpegCodes!A127, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A127, "00"), ". Episode_", TEXT(ffmpegCodes!A127, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A127, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A127, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A127, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A127, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5666,7 +5745,7 @@
         <f>IF(ffmpegCodes!A127 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A127 + 1, "")</f>
         <v/>
       </c>
-      <c r="B128" s="16" t="str">
+      <c r="B128" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A128), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A128, "00"), ". Episode_", TEXT(ffmpegCodes!A128, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A128, "00"), ". Episode_", TEXT(ffmpegCodes!A128, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A128, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A128, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A128, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A128, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5676,7 +5755,7 @@
         <f>IF(ffmpegCodes!A128 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A128 + 1, "")</f>
         <v/>
       </c>
-      <c r="B129" s="16" t="str">
+      <c r="B129" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A129), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A129, "00"), ". Episode_", TEXT(ffmpegCodes!A129, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A129, "00"), ". Episode_", TEXT(ffmpegCodes!A129, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A129, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A129, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A129, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A129, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5686,7 +5765,7 @@
         <f>IF(ffmpegCodes!A129 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A129 + 1, "")</f>
         <v/>
       </c>
-      <c r="B130" s="16" t="str">
+      <c r="B130" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A130), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A130, "00"), ". Episode_", TEXT(ffmpegCodes!A130, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A130, "00"), ". Episode_", TEXT(ffmpegCodes!A130, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A130, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A130, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A130, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A130, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5696,7 +5775,7 @@
         <f>IF(ffmpegCodes!A130 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A130 + 1, "")</f>
         <v/>
       </c>
-      <c r="B131" s="16" t="str">
+      <c r="B131" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A131), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A131, "00"), ". Episode_", TEXT(ffmpegCodes!A131, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A131, "00"), ". Episode_", TEXT(ffmpegCodes!A131, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A131, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A131, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A131, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A131, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5706,7 +5785,7 @@
         <f>IF(ffmpegCodes!A131 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A131 + 1, "")</f>
         <v/>
       </c>
-      <c r="B132" s="16" t="str">
+      <c r="B132" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A132), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A132, "00"), ". Episode_", TEXT(ffmpegCodes!A132, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A132, "00"), ". Episode_", TEXT(ffmpegCodes!A132, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A132, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A132, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A132, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A132, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5716,7 +5795,7 @@
         <f>IF(ffmpegCodes!A132 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A132 + 1, "")</f>
         <v/>
       </c>
-      <c r="B133" s="16" t="str">
+      <c r="B133" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A133), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A133, "00"), ". Episode_", TEXT(ffmpegCodes!A133, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A133, "00"), ". Episode_", TEXT(ffmpegCodes!A133, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A133, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A133, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A133, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A133, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5726,7 +5805,7 @@
         <f>IF(ffmpegCodes!A133 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A133 + 1, "")</f>
         <v/>
       </c>
-      <c r="B134" s="16" t="str">
+      <c r="B134" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A134), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A134, "00"), ". Episode_", TEXT(ffmpegCodes!A134, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A134, "00"), ". Episode_", TEXT(ffmpegCodes!A134, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A134, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A134, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A134, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A134, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5736,7 +5815,7 @@
         <f>IF(ffmpegCodes!A134 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A134 + 1, "")</f>
         <v/>
       </c>
-      <c r="B135" s="16" t="str">
+      <c r="B135" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A135), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A135, "00"), ". Episode_", TEXT(ffmpegCodes!A135, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A135, "00"), ". Episode_", TEXT(ffmpegCodes!A135, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A135, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A135, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A135, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A135, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5746,7 +5825,7 @@
         <f>IF(ffmpegCodes!A135 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A135 + 1, "")</f>
         <v/>
       </c>
-      <c r="B136" s="16" t="str">
+      <c r="B136" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A136), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A136, "00"), ". Episode_", TEXT(ffmpegCodes!A136, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A136, "00"), ". Episode_", TEXT(ffmpegCodes!A136, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A136, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A136, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A136, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A136, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5756,7 +5835,7 @@
         <f>IF(ffmpegCodes!A136 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A136 + 1, "")</f>
         <v/>
       </c>
-      <c r="B137" s="16" t="str">
+      <c r="B137" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A137), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A137, "00"), ". Episode_", TEXT(ffmpegCodes!A137, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A137, "00"), ". Episode_", TEXT(ffmpegCodes!A137, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A137, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A137, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A137, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A137, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5766,7 +5845,7 @@
         <f>IF(ffmpegCodes!A137 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A137 + 1, "")</f>
         <v/>
       </c>
-      <c r="B138" s="16" t="str">
+      <c r="B138" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A138), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A138, "00"), ". Episode_", TEXT(ffmpegCodes!A138, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A138, "00"), ". Episode_", TEXT(ffmpegCodes!A138, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A138, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A138, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A138, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A138, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5776,7 +5855,7 @@
         <f>IF(ffmpegCodes!A138 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A138 + 1, "")</f>
         <v/>
       </c>
-      <c r="B139" s="16" t="str">
+      <c r="B139" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A139), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A139, "00"), ". Episode_", TEXT(ffmpegCodes!A139, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A139, "00"), ". Episode_", TEXT(ffmpegCodes!A139, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A139, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A139, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A139, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A139, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5786,7 +5865,7 @@
         <f>IF(ffmpegCodes!A139 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A139 + 1, "")</f>
         <v/>
       </c>
-      <c r="B140" s="16" t="str">
+      <c r="B140" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A140), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A140, "00"), ". Episode_", TEXT(ffmpegCodes!A140, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A140, "00"), ". Episode_", TEXT(ffmpegCodes!A140, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A140, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A140, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A140, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A140, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5796,7 +5875,7 @@
         <f>IF(ffmpegCodes!A140 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A140 + 1, "")</f>
         <v/>
       </c>
-      <c r="B141" s="16" t="str">
+      <c r="B141" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A141), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A141, "00"), ". Episode_", TEXT(ffmpegCodes!A141, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A141, "00"), ". Episode_", TEXT(ffmpegCodes!A141, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A141, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A141, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A141, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A141, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5806,7 +5885,7 @@
         <f>IF(ffmpegCodes!A141 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A141 + 1, "")</f>
         <v/>
       </c>
-      <c r="B142" s="16" t="str">
+      <c r="B142" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A142), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A142, "00"), ". Episode_", TEXT(ffmpegCodes!A142, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A142, "00"), ". Episode_", TEXT(ffmpegCodes!A142, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A142, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A142, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A142, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A142, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5816,7 +5895,7 @@
         <f>IF(ffmpegCodes!A142 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A142 + 1, "")</f>
         <v/>
       </c>
-      <c r="B143" s="16" t="str">
+      <c r="B143" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A143), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A143, "00"), ". Episode_", TEXT(ffmpegCodes!A143, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A143, "00"), ". Episode_", TEXT(ffmpegCodes!A143, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A143, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A143, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A143, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A143, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5826,7 +5905,7 @@
         <f>IF(ffmpegCodes!A143 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A143 + 1, "")</f>
         <v/>
       </c>
-      <c r="B144" s="16" t="str">
+      <c r="B144" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A144), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A144, "00"), ". Episode_", TEXT(ffmpegCodes!A144, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A144, "00"), ". Episode_", TEXT(ffmpegCodes!A144, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A144, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A144, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A144, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A144, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5836,7 +5915,7 @@
         <f>IF(ffmpegCodes!A144 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A144 + 1, "")</f>
         <v/>
       </c>
-      <c r="B145" s="16" t="str">
+      <c r="B145" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A145), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A145, "00"), ". Episode_", TEXT(ffmpegCodes!A145, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A145, "00"), ". Episode_", TEXT(ffmpegCodes!A145, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A145, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A145, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A145, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A145, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5846,7 +5925,7 @@
         <f>IF(ffmpegCodes!A145 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A145 + 1, "")</f>
         <v/>
       </c>
-      <c r="B146" s="16" t="str">
+      <c r="B146" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A146), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A146, "00"), ". Episode_", TEXT(ffmpegCodes!A146, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A146, "00"), ". Episode_", TEXT(ffmpegCodes!A146, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A146, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A146, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A146, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A146, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5856,7 +5935,7 @@
         <f>IF(ffmpegCodes!A146 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A146 + 1, "")</f>
         <v/>
       </c>
-      <c r="B147" s="16" t="str">
+      <c r="B147" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A147), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A147, "00"), ". Episode_", TEXT(ffmpegCodes!A147, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A147, "00"), ". Episode_", TEXT(ffmpegCodes!A147, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A147, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A147, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A147, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A147, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5866,7 +5945,7 @@
         <f>IF(ffmpegCodes!A147 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A147 + 1, "")</f>
         <v/>
       </c>
-      <c r="B148" s="16" t="str">
+      <c r="B148" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A148), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A148, "00"), ". Episode_", TEXT(ffmpegCodes!A148, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A148, "00"), ". Episode_", TEXT(ffmpegCodes!A148, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A148, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A148, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A148, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A148, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5876,7 +5955,7 @@
         <f>IF(ffmpegCodes!A148 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A148 + 1, "")</f>
         <v/>
       </c>
-      <c r="B149" s="16" t="str">
+      <c r="B149" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A149), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A149, "00"), ". Episode_", TEXT(ffmpegCodes!A149, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A149, "00"), ". Episode_", TEXT(ffmpegCodes!A149, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A149, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A149, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A149, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A149, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5886,7 +5965,7 @@
         <f>IF(ffmpegCodes!A149 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A149 + 1, "")</f>
         <v/>
       </c>
-      <c r="B150" s="16" t="str">
+      <c r="B150" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A150), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A150, "00"), ". Episode_", TEXT(ffmpegCodes!A150, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A150, "00"), ". Episode_", TEXT(ffmpegCodes!A150, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A150, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A150, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A150, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A150, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5896,7 +5975,7 @@
         <f>IF(ffmpegCodes!A150 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A150 + 1, "")</f>
         <v/>
       </c>
-      <c r="B151" s="16" t="str">
+      <c r="B151" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A151), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A151, "00"), ". Episode_", TEXT(ffmpegCodes!A151, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A151, "00"), ". Episode_", TEXT(ffmpegCodes!A151, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A151, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A151, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A151, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A151, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5906,7 +5985,7 @@
         <f>IF(ffmpegCodes!A151 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A151 + 1, "")</f>
         <v/>
       </c>
-      <c r="B152" s="16" t="str">
+      <c r="B152" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A152), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A152, "00"), ". Episode_", TEXT(ffmpegCodes!A152, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A152, "00"), ". Episode_", TEXT(ffmpegCodes!A152, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A152, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A152, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A152, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A152, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5916,7 +5995,7 @@
         <f>IF(ffmpegCodes!A152 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A152 + 1, "")</f>
         <v/>
       </c>
-      <c r="B153" s="16" t="str">
+      <c r="B153" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A153), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A153, "00"), ". Episode_", TEXT(ffmpegCodes!A153, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A153, "00"), ". Episode_", TEXT(ffmpegCodes!A153, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A153, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A153, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A153, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A153, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5926,7 +6005,7 @@
         <f>IF(ffmpegCodes!A153 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A153 + 1, "")</f>
         <v/>
       </c>
-      <c r="B154" s="16" t="str">
+      <c r="B154" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A154), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A154, "00"), ". Episode_", TEXT(ffmpegCodes!A154, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A154, "00"), ". Episode_", TEXT(ffmpegCodes!A154, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A154, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A154, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A154, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A154, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5936,7 +6015,7 @@
         <f>IF(ffmpegCodes!A154 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A154 + 1, "")</f>
         <v/>
       </c>
-      <c r="B155" s="16" t="str">
+      <c r="B155" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A155), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A155, "00"), ". Episode_", TEXT(ffmpegCodes!A155, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A155, "00"), ". Episode_", TEXT(ffmpegCodes!A155, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A155, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A155, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A155, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A155, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5946,7 +6025,7 @@
         <f>IF(ffmpegCodes!A155 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A155 + 1, "")</f>
         <v/>
       </c>
-      <c r="B156" s="16" t="str">
+      <c r="B156" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A156), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A156, "00"), ". Episode_", TEXT(ffmpegCodes!A156, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A156, "00"), ". Episode_", TEXT(ffmpegCodes!A156, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A156, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A156, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A156, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A156, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5956,7 +6035,7 @@
         <f>IF(ffmpegCodes!A156 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A156 + 1, "")</f>
         <v/>
       </c>
-      <c r="B157" s="16" t="str">
+      <c r="B157" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A157), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A157, "00"), ". Episode_", TEXT(ffmpegCodes!A157, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A157, "00"), ". Episode_", TEXT(ffmpegCodes!A157, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A157, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A157, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A157, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A157, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5966,7 +6045,7 @@
         <f>IF(ffmpegCodes!A157 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A157 + 1, "")</f>
         <v/>
       </c>
-      <c r="B158" s="16" t="str">
+      <c r="B158" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A158), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A158, "00"), ". Episode_", TEXT(ffmpegCodes!A158, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A158, "00"), ". Episode_", TEXT(ffmpegCodes!A158, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A158, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A158, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A158, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A158, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5976,7 +6055,7 @@
         <f>IF(ffmpegCodes!A158 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A158 + 1, "")</f>
         <v/>
       </c>
-      <c r="B159" s="16" t="str">
+      <c r="B159" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A159), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A159, "00"), ". Episode_", TEXT(ffmpegCodes!A159, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A159, "00"), ". Episode_", TEXT(ffmpegCodes!A159, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A159, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A159, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A159, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A159, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5986,7 +6065,7 @@
         <f>IF(ffmpegCodes!A159 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A159 + 1, "")</f>
         <v/>
       </c>
-      <c r="B160" s="16" t="str">
+      <c r="B160" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A160), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A160, "00"), ". Episode_", TEXT(ffmpegCodes!A160, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A160, "00"), ". Episode_", TEXT(ffmpegCodes!A160, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A160, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A160, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A160, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A160, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -5996,7 +6075,7 @@
         <f>IF(ffmpegCodes!A160 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A160 + 1, "")</f>
         <v/>
       </c>
-      <c r="B161" s="16" t="str">
+      <c r="B161" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A161), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A161, "00"), ". Episode_", TEXT(ffmpegCodes!A161, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A161, "00"), ". Episode_", TEXT(ffmpegCodes!A161, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A161, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A161, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A161, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A161, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6006,7 +6085,7 @@
         <f>IF(ffmpegCodes!A161 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A161 + 1, "")</f>
         <v/>
       </c>
-      <c r="B162" s="16" t="str">
+      <c r="B162" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A162), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A162, "00"), ". Episode_", TEXT(ffmpegCodes!A162, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A162, "00"), ". Episode_", TEXT(ffmpegCodes!A162, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A162, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A162, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A162, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A162, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6016,7 +6095,7 @@
         <f>IF(ffmpegCodes!A162 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A162 + 1, "")</f>
         <v/>
       </c>
-      <c r="B163" s="16" t="str">
+      <c r="B163" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A163), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A163, "00"), ". Episode_", TEXT(ffmpegCodes!A163, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A163, "00"), ". Episode_", TEXT(ffmpegCodes!A163, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A163, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A163, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A163, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A163, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6026,7 +6105,7 @@
         <f>IF(ffmpegCodes!A163 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A163 + 1, "")</f>
         <v/>
       </c>
-      <c r="B164" s="16" t="str">
+      <c r="B164" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A164), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A164, "00"), ". Episode_", TEXT(ffmpegCodes!A164, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A164, "00"), ". Episode_", TEXT(ffmpegCodes!A164, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A164, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A164, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A164, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A164, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6036,7 +6115,7 @@
         <f>IF(ffmpegCodes!A164 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A164 + 1, "")</f>
         <v/>
       </c>
-      <c r="B165" s="16" t="str">
+      <c r="B165" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A165), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A165, "00"), ". Episode_", TEXT(ffmpegCodes!A165, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A165, "00"), ". Episode_", TEXT(ffmpegCodes!A165, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A165, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A165, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A165, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A165, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6046,7 +6125,7 @@
         <f>IF(ffmpegCodes!A165 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A165 + 1, "")</f>
         <v/>
       </c>
-      <c r="B166" s="16" t="str">
+      <c r="B166" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A166), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A166, "00"), ". Episode_", TEXT(ffmpegCodes!A166, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A166, "00"), ". Episode_", TEXT(ffmpegCodes!A166, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A166, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A166, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A166, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A166, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6056,7 +6135,7 @@
         <f>IF(ffmpegCodes!A166 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A166 + 1, "")</f>
         <v/>
       </c>
-      <c r="B167" s="16" t="str">
+      <c r="B167" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A167), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A167, "00"), ". Episode_", TEXT(ffmpegCodes!A167, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A167, "00"), ". Episode_", TEXT(ffmpegCodes!A167, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A167, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A167, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A167, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A167, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6066,7 +6145,7 @@
         <f>IF(ffmpegCodes!A167 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A167 + 1, "")</f>
         <v/>
       </c>
-      <c r="B168" s="16" t="str">
+      <c r="B168" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A168), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A168, "00"), ". Episode_", TEXT(ffmpegCodes!A168, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A168, "00"), ". Episode_", TEXT(ffmpegCodes!A168, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A168, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A168, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A168, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A168, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6076,7 +6155,7 @@
         <f>IF(ffmpegCodes!A168 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A168 + 1, "")</f>
         <v/>
       </c>
-      <c r="B169" s="16" t="str">
+      <c r="B169" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A169), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A169, "00"), ". Episode_", TEXT(ffmpegCodes!A169, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A169, "00"), ". Episode_", TEXT(ffmpegCodes!A169, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A169, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A169, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A169, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A169, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6086,7 +6165,7 @@
         <f>IF(ffmpegCodes!A169 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A169 + 1, "")</f>
         <v/>
       </c>
-      <c r="B170" s="16" t="str">
+      <c r="B170" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A170), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A170, "00"), ". Episode_", TEXT(ffmpegCodes!A170, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A170, "00"), ". Episode_", TEXT(ffmpegCodes!A170, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A170, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A170, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A170, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A170, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6096,7 +6175,7 @@
         <f>IF(ffmpegCodes!A170 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A170 + 1, "")</f>
         <v/>
       </c>
-      <c r="B171" s="16" t="str">
+      <c r="B171" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A171), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A171, "00"), ". Episode_", TEXT(ffmpegCodes!A171, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A171, "00"), ". Episode_", TEXT(ffmpegCodes!A171, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A171, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A171, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A171, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A171, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6106,7 +6185,7 @@
         <f>IF(ffmpegCodes!A171 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A171 + 1, "")</f>
         <v/>
       </c>
-      <c r="B172" s="16" t="str">
+      <c r="B172" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A172), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A172, "00"), ". Episode_", TEXT(ffmpegCodes!A172, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A172, "00"), ". Episode_", TEXT(ffmpegCodes!A172, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A172, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A172, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A172, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A172, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6116,7 +6195,7 @@
         <f>IF(ffmpegCodes!A172 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A172 + 1, "")</f>
         <v/>
       </c>
-      <c r="B173" s="16" t="str">
+      <c r="B173" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A173), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A173, "00"), ". Episode_", TEXT(ffmpegCodes!A173, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A173, "00"), ". Episode_", TEXT(ffmpegCodes!A173, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A173, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A173, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A173, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A173, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6126,7 +6205,7 @@
         <f>IF(ffmpegCodes!A173 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A173 + 1, "")</f>
         <v/>
       </c>
-      <c r="B174" s="16" t="str">
+      <c r="B174" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A174), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A174, "00"), ". Episode_", TEXT(ffmpegCodes!A174, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A174, "00"), ". Episode_", TEXT(ffmpegCodes!A174, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A174, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A174, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A174, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A174, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6136,7 +6215,7 @@
         <f>IF(ffmpegCodes!A174 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A174 + 1, "")</f>
         <v/>
       </c>
-      <c r="B175" s="16" t="str">
+      <c r="B175" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A175), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A175, "00"), ". Episode_", TEXT(ffmpegCodes!A175, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A175, "00"), ". Episode_", TEXT(ffmpegCodes!A175, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A175, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A175, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A175, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A175, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6146,7 +6225,7 @@
         <f>IF(ffmpegCodes!A175 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A175 + 1, "")</f>
         <v/>
       </c>
-      <c r="B176" s="16" t="str">
+      <c r="B176" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A176), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A176, "00"), ". Episode_", TEXT(ffmpegCodes!A176, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A176, "00"), ". Episode_", TEXT(ffmpegCodes!A176, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A176, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A176, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A176, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A176, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6156,7 +6235,7 @@
         <f>IF(ffmpegCodes!A176 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A176 + 1, "")</f>
         <v/>
       </c>
-      <c r="B177" s="16" t="str">
+      <c r="B177" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A177), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A177, "00"), ". Episode_", TEXT(ffmpegCodes!A177, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A177, "00"), ". Episode_", TEXT(ffmpegCodes!A177, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A177, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A177, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A177, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A177, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6166,7 +6245,7 @@
         <f>IF(ffmpegCodes!A177 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A177 + 1, "")</f>
         <v/>
       </c>
-      <c r="B178" s="16" t="str">
+      <c r="B178" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A178), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A178, "00"), ". Episode_", TEXT(ffmpegCodes!A178, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A178, "00"), ". Episode_", TEXT(ffmpegCodes!A178, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A178, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A178, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A178, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A178, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6176,7 +6255,7 @@
         <f>IF(ffmpegCodes!A178 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A178 + 1, "")</f>
         <v/>
       </c>
-      <c r="B179" s="16" t="str">
+      <c r="B179" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A179), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A179, "00"), ". Episode_", TEXT(ffmpegCodes!A179, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A179, "00"), ". Episode_", TEXT(ffmpegCodes!A179, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A179, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A179, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A179, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A179, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6186,7 +6265,7 @@
         <f>IF(ffmpegCodes!A179 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A179 + 1, "")</f>
         <v/>
       </c>
-      <c r="B180" s="16" t="str">
+      <c r="B180" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A180), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A180, "00"), ". Episode_", TEXT(ffmpegCodes!A180, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A180, "00"), ". Episode_", TEXT(ffmpegCodes!A180, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A180, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A180, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A180, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A180, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6196,7 +6275,7 @@
         <f>IF(ffmpegCodes!A180 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A180 + 1, "")</f>
         <v/>
       </c>
-      <c r="B181" s="16" t="str">
+      <c r="B181" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A181), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A181, "00"), ". Episode_", TEXT(ffmpegCodes!A181, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A181, "00"), ". Episode_", TEXT(ffmpegCodes!A181, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A181, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A181, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A181, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A181, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6206,7 +6285,7 @@
         <f>IF(ffmpegCodes!A181 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A181 + 1, "")</f>
         <v/>
       </c>
-      <c r="B182" s="16" t="str">
+      <c r="B182" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A182), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A182, "00"), ". Episode_", TEXT(ffmpegCodes!A182, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A182, "00"), ". Episode_", TEXT(ffmpegCodes!A182, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A182, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A182, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A182, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A182, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6216,7 +6295,7 @@
         <f>IF(ffmpegCodes!A182 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A182 + 1, "")</f>
         <v/>
       </c>
-      <c r="B183" s="16" t="str">
+      <c r="B183" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A183), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A183, "00"), ". Episode_", TEXT(ffmpegCodes!A183, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A183, "00"), ". Episode_", TEXT(ffmpegCodes!A183, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A183, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A183, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A183, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A183, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6226,7 +6305,7 @@
         <f>IF(ffmpegCodes!A183 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A183 + 1, "")</f>
         <v/>
       </c>
-      <c r="B184" s="16" t="str">
+      <c r="B184" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A184), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A184, "00"), ". Episode_", TEXT(ffmpegCodes!A184, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A184, "00"), ". Episode_", TEXT(ffmpegCodes!A184, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A184, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A184, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A184, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A184, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6236,7 +6315,7 @@
         <f>IF(ffmpegCodes!A184 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A184 + 1, "")</f>
         <v/>
       </c>
-      <c r="B185" s="16" t="str">
+      <c r="B185" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A185), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A185, "00"), ". Episode_", TEXT(ffmpegCodes!A185, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A185, "00"), ". Episode_", TEXT(ffmpegCodes!A185, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A185, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A185, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A185, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A185, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6246,7 +6325,7 @@
         <f>IF(ffmpegCodes!A185 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A185 + 1, "")</f>
         <v/>
       </c>
-      <c r="B186" s="16" t="str">
+      <c r="B186" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A186), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A186, "00"), ". Episode_", TEXT(ffmpegCodes!A186, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A186, "00"), ". Episode_", TEXT(ffmpegCodes!A186, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A186, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A186, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A186, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A186, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6256,7 +6335,7 @@
         <f>IF(ffmpegCodes!A186 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A186 + 1, "")</f>
         <v/>
       </c>
-      <c r="B187" s="16" t="str">
+      <c r="B187" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A187), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A187, "00"), ". Episode_", TEXT(ffmpegCodes!A187, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A187, "00"), ". Episode_", TEXT(ffmpegCodes!A187, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A187, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A187, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A187, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A187, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6266,7 +6345,7 @@
         <f>IF(ffmpegCodes!A187 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A187 + 1, "")</f>
         <v/>
       </c>
-      <c r="B188" s="16" t="str">
+      <c r="B188" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A188), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A188, "00"), ". Episode_", TEXT(ffmpegCodes!A188, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A188, "00"), ". Episode_", TEXT(ffmpegCodes!A188, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A188, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A188, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A188, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A188, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6276,7 +6355,7 @@
         <f>IF(ffmpegCodes!A188 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A188 + 1, "")</f>
         <v/>
       </c>
-      <c r="B189" s="16" t="str">
+      <c r="B189" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A189), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A189, "00"), ". Episode_", TEXT(ffmpegCodes!A189, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A189, "00"), ". Episode_", TEXT(ffmpegCodes!A189, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A189, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A189, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A189, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A189, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6286,7 +6365,7 @@
         <f>IF(ffmpegCodes!A189 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A189 + 1, "")</f>
         <v/>
       </c>
-      <c r="B190" s="16" t="str">
+      <c r="B190" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A190), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A190, "00"), ". Episode_", TEXT(ffmpegCodes!A190, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A190, "00"), ". Episode_", TEXT(ffmpegCodes!A190, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A190, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A190, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A190, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A190, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6296,7 +6375,7 @@
         <f>IF(ffmpegCodes!A190 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A190 + 1, "")</f>
         <v/>
       </c>
-      <c r="B191" s="16" t="str">
+      <c r="B191" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A191), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A191, "00"), ". Episode_", TEXT(ffmpegCodes!A191, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A191, "00"), ". Episode_", TEXT(ffmpegCodes!A191, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A191, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A191, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A191, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A191, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6306,7 +6385,7 @@
         <f>IF(ffmpegCodes!A191 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A191 + 1, "")</f>
         <v/>
       </c>
-      <c r="B192" s="16" t="str">
+      <c r="B192" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A192), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A192, "00"), ". Episode_", TEXT(ffmpegCodes!A192, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A192, "00"), ". Episode_", TEXT(ffmpegCodes!A192, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A192, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A192, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A192, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A192, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6316,7 +6395,7 @@
         <f>IF(ffmpegCodes!A192 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A192 + 1, "")</f>
         <v/>
       </c>
-      <c r="B193" s="16" t="str">
+      <c r="B193" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A193), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A193, "00"), ". Episode_", TEXT(ffmpegCodes!A193, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A193, "00"), ". Episode_", TEXT(ffmpegCodes!A193, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A193, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A193, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A193, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A193, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6326,7 +6405,7 @@
         <f>IF(ffmpegCodes!A193 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A193 + 1, "")</f>
         <v/>
       </c>
-      <c r="B194" s="16" t="str">
+      <c r="B194" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A194), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A194, "00"), ". Episode_", TEXT(ffmpegCodes!A194, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A194, "00"), ". Episode_", TEXT(ffmpegCodes!A194, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A194, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A194, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A194, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A194, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6336,7 +6415,7 @@
         <f>IF(ffmpegCodes!A194 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A194 + 1, "")</f>
         <v/>
       </c>
-      <c r="B195" s="16" t="str">
+      <c r="B195" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A195), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A195, "00"), ". Episode_", TEXT(ffmpegCodes!A195, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A195, "00"), ". Episode_", TEXT(ffmpegCodes!A195, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A195, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A195, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A195, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A195, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6346,7 +6425,7 @@
         <f>IF(ffmpegCodes!A195 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A195 + 1, "")</f>
         <v/>
       </c>
-      <c r="B196" s="16" t="str">
+      <c r="B196" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A196), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A196, "00"), ". Episode_", TEXT(ffmpegCodes!A196, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A196, "00"), ". Episode_", TEXT(ffmpegCodes!A196, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A196, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A196, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A196, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A196, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6356,7 +6435,7 @@
         <f>IF(ffmpegCodes!A196 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A196 + 1, "")</f>
         <v/>
       </c>
-      <c r="B197" s="16" t="str">
+      <c r="B197" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A197), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A197, "00"), ". Episode_", TEXT(ffmpegCodes!A197, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A197, "00"), ". Episode_", TEXT(ffmpegCodes!A197, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A197, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A197, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A197, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A197, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6366,7 +6445,7 @@
         <f>IF(ffmpegCodes!A197 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A197 + 1, "")</f>
         <v/>
       </c>
-      <c r="B198" s="16" t="str">
+      <c r="B198" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A198), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A198, "00"), ". Episode_", TEXT(ffmpegCodes!A198, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A198, "00"), ". Episode_", TEXT(ffmpegCodes!A198, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A198, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A198, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A198, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A198, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6376,7 +6455,7 @@
         <f>IF(ffmpegCodes!A198 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A198 + 1, "")</f>
         <v/>
       </c>
-      <c r="B199" s="16" t="str">
+      <c r="B199" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A199), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A199, "00"), ". Episode_", TEXT(ffmpegCodes!A199, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A199, "00"), ". Episode_", TEXT(ffmpegCodes!A199, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A199, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A199, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A199, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A199, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
@@ -6386,24 +6465,28 @@
         <f>IF(ffmpegCodes!A199 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A199 + 1, "")</f>
         <v/>
       </c>
-      <c r="B200" s="16" t="str">
+      <c r="B200" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A200), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A200, "00"), ". Episode_", TEXT(ffmpegCodes!A200, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A200, "00"), ". Episode_", TEXT(ffmpegCodes!A200, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A200, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A200, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A200, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A200, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="B201" s="16"/>
+      <c r="B201" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="D11:J22"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F6:K9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
     <hyperlink ref="C10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6421,12 +6504,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Viki Audio Link extractor & Merger.xlsx
+++ b/Viki Audio Link extractor & Merger.xlsx
@@ -16,42 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>C:\Program Files (x86)\Internet Download Manager\idman.exe</t>
   </si>
   <si>
     <t>/a /d "</t>
-  </si>
-  <si>
-    <t>https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track1_dashinit.mp4</t>
-  </si>
-  <si>
-    <t>https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track1_dashinit.mp4</t>
-  </si>
-  <si>
-    <t>https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track1_dashinit.mp4</t>
-  </si>
-  <si>
-    <t>https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track1_dashinit.mp4</t>
-  </si>
-  <si>
-    <t>https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track1_dashinit.mp4</t>
-  </si>
-  <si>
-    <t>https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track1_dashinit.mp4</t>
-  </si>
-  <si>
-    <t>https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track1_dashinit.mp4</t>
-  </si>
-  <si>
-    <t>https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track1_dashinit.mp4</t>
-  </si>
-  <si>
-    <t>https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track1_dashinit.mp4</t>
-  </si>
-  <si>
-    <t>https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track1_dashinit.mp4</t>
   </si>
   <si>
     <t>Index</t>
@@ -64,9 +34,6 @@
   </si>
   <si>
     <t xml:space="preserve">" /f </t>
-  </si>
-  <si>
-    <t>C:\Users\gmastergreatee\Downloads\Video\Mr. Queen</t>
   </si>
   <si>
     <t>Video Count</t>
@@ -108,25 +75,16 @@
     <t>Destination Directory</t>
   </si>
   <si>
-    <t>C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target</t>
-  </si>
-  <si>
     <t>Batch Commands</t>
   </si>
   <si>
     <t>URL(Enter URLs below from Youtube-DL GUI)</t>
   </si>
   <si>
-    <t>Batch Commands(Copy these &amp; run in CMD)</t>
-  </si>
-  <si>
     <t>Make sure mp4, mp3 &amp; srt files are all here</t>
   </si>
   <si>
     <t>eng</t>
-  </si>
-  <si>
-    <t>jpn</t>
   </si>
   <si>
     <t>Video Start</t>
@@ -148,6 +106,30 @@
   </si>
   <si>
     <t>/d = download link or url</t>
+  </si>
+  <si>
+    <t>kor</t>
+  </si>
+  <si>
+    <t>https://vikidash-4.akamaized.net/1174436v/dash/1174436v_dash_high_360p_c36817_2101231458_track1_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>https://vikidash-4.akamaized.net/1174437v/dash/1174437v_dash_high_360p_a72443_2101241445_track1_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\Users\gmastergreatee\Downloads\RAW</t>
+  </si>
+  <si>
+    <t>C:\Users\gmastergreatee\Downloads\RAW\Target</t>
+  </si>
+  <si>
+    <t>Video Number</t>
+  </si>
+  <si>
+    <t>Batch Commands(Copy these, create BAT file &amp; run)</t>
+  </si>
+  <si>
+    <t>Video Counter Start (First Episode Number - generally 1 unless you are downloading a particular episode)</t>
   </si>
 </sst>
 </file>
@@ -322,7 +304,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -371,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -671,24 +656,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="108.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -696,234 +681,185 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="23">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A5))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A5, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B5,"00"), ". Episode_", TEXT('IDM Codes'!B5,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track1_dashinit.mp4" /f "01. Episode_01.mp4"</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A5))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A5, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B5, "00"),". Episode_", TEXT('IDM Codes'!B5, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track2_dashinit.mp4" /f "01. Episode_01.mp3"</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A5))=0, "", C5&amp;" &amp; "&amp;D5)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track1_dashinit.mp4" /f "01. Episode_01.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174424v/dash/1174424v_dash_high_360p_3eef59_2012180544_track2_dashinit.mp4" /f "01. Episode_01.mp3"</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <f>IF(LEN(TRIM('IDM Codes'!A6))=0,"", INT('IDM Codes'!B5)+1)</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A6))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A6, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B6,"00"), ". Episode_", TEXT('IDM Codes'!B6,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track1_dashinit.mp4" /f "02. Episode_02.mp4"</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A6))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A6, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B6, "00"),". Episode_", TEXT('IDM Codes'!B6, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track2_dashinit.mp4" /f "02. Episode_02.mp3"</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A6))=0, "", C6&amp;" &amp; "&amp;D6)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track1_dashinit.mp4" /f "02. Episode_02.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174425v/dash/1174425v_dash_high_360p_9e93e4_2012180547_track2_dashinit.mp4" /f "02. Episode_02.mp3"</v>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <f>IF(LEN(TRIM('IDM Codes'!A7))=0,"", INT('IDM Codes'!B6)+1)</f>
-        <v>3</v>
+        <f>A4</f>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A7))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A7, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B7,"00"), ". Episode_", TEXT('IDM Codes'!B7,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track1_dashinit.mp4" /f "03. Episode_03.mp4"</v>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174436v/dash/1174436v_dash_high_360p_c36817_2101231458_track1_dashinit.mp4" /f "13. Episode_13.mp4"</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A7))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A7, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B7, "00"),". Episode_", TEXT('IDM Codes'!B7, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track2_dashinit.mp4" /f "03. Episode_03.mp3"</v>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174436v/dash/1174436v_dash_high_360p_c36817_2101231458_track2_dashinit.mp4" /f "13. Episode_13.mp3"</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A7))=0, "", C7&amp;" &amp; "&amp;D7)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track1_dashinit.mp4" /f "03. Episode_03.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174426v/dash/1174426v_dash_high_360p_97dcac_2012191453_track2_dashinit.mp4" /f "03. Episode_03.mp3"</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174436v/dash/1174436v_dash_high_360p_c36817_2101231458_track1_dashinit.mp4" /f "13. Episode_13.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174436v/dash/1174436v_dash_high_360p_c36817_2101231458_track2_dashinit.mp4" /f "13. Episode_13.mp3"</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <f>IF(LEN(TRIM('IDM Codes'!A8))=0,"", INT('IDM Codes'!B7)+1)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A8))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A8, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B8,"00"), ". Episode_", TEXT('IDM Codes'!B8,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track1_dashinit.mp4" /f "04. Episode_04.mp4"</v>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174437v/dash/1174437v_dash_high_360p_a72443_2101241445_track1_dashinit.mp4" /f "14. Episode_14.mp4"</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A8))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A8, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B8, "00"),". Episode_", TEXT('IDM Codes'!B8, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track2_dashinit.mp4" /f "04. Episode_04.mp3"</v>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174437v/dash/1174437v_dash_high_360p_a72443_2101241445_track2_dashinit.mp4" /f "14. Episode_14.mp3"</v>
       </c>
       <c r="E8" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A8))=0, "", C8&amp;" &amp; "&amp;D8)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track1_dashinit.mp4" /f "04. Episode_04.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174427v/dash/1174427v_dash_high_360p_a747dd_2012201504_track2_dashinit.mp4" /f "04. Episode_04.mp3"</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174437v/dash/1174437v_dash_high_360p_a72443_2101241445_track1_dashinit.mp4" /f "14. Episode_14.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174437v/dash/1174437v_dash_high_360p_a72443_2101241445_track2_dashinit.mp4" /f "14. Episode_14.mp3"</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
+      <c r="B9" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A9))=0,"", INT('IDM Codes'!B8)+1)</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C9" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A9))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A9, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B9,"00"), ". Episode_", TEXT('IDM Codes'!B9,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track1_dashinit.mp4" /f "05. Episode_05.mp4"</v>
+        <v/>
       </c>
       <c r="D9" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A9))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A9, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B9, "00"),". Episode_", TEXT('IDM Codes'!B9, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track2_dashinit.mp4" /f "05. Episode_05.mp3"</v>
+        <v/>
       </c>
       <c r="E9" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A9))=0, "", C9&amp;" &amp; "&amp;D9)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track1_dashinit.mp4" /f "05. Episode_05.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174428v/dash/1174428v_dash_high_360p_202712_2012261433_track2_dashinit.mp4" /f "05. Episode_05.mp3"</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
+      <c r="B10" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A10))=0,"", INT('IDM Codes'!B9)+1)</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="C10" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A10))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A10, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B10,"00"), ". Episode_", TEXT('IDM Codes'!B10,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track1_dashinit.mp4" /f "06. Episode_06.mp4"</v>
+        <v/>
       </c>
       <c r="D10" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A10))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A10, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B10, "00"),". Episode_", TEXT('IDM Codes'!B10, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track2_dashinit.mp4" /f "06. Episode_06.mp3"</v>
+        <v/>
       </c>
       <c r="E10" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A10))=0, "", C10&amp;" &amp; "&amp;D10)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track1_dashinit.mp4" /f "06. Episode_06.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174429v/dash/1174429v_dash_high_360p_cd35fb_2012271515_track2_dashinit.mp4" /f "06. Episode_06.mp3"</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
+      <c r="B11" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A11))=0,"", INT('IDM Codes'!B10)+1)</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="C11" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A11))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A11, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B11,"00"), ". Episode_", TEXT('IDM Codes'!B11,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track1_dashinit.mp4" /f "07. Episode_07.mp4"</v>
+        <v/>
       </c>
       <c r="D11" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A11))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A11, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B11, "00"),". Episode_", TEXT('IDM Codes'!B11, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track2_dashinit.mp4" /f "07. Episode_07.mp3"</v>
+        <v/>
       </c>
       <c r="E11" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A11))=0, "", C11&amp;" &amp; "&amp;D11)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track1_dashinit.mp4" /f "07. Episode_07.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174430v/dash/1174430v_dash_high_360p_01ef16_2101021555_track2_dashinit.mp4" /f "07. Episode_07.mp3"</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
+      <c r="B12" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A12))=0,"", INT('IDM Codes'!B11)+1)</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A12))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A12, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B12,"00"), ". Episode_", TEXT('IDM Codes'!B12,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track1_dashinit.mp4" /f "08. Episode_08.mp4"</v>
+        <v/>
       </c>
       <c r="D12" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A12))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A12, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B12, "00"),". Episode_", TEXT('IDM Codes'!B12, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track2_dashinit.mp4" /f "08. Episode_08.mp3"</v>
+        <v/>
       </c>
       <c r="E12" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A12))=0, "", C12&amp;" &amp; "&amp;D12)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track1_dashinit.mp4" /f "08. Episode_08.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174431v/dash/1174431v_dash_high_360p_5c5408_2101031429_track2_dashinit.mp4" /f "08. Episode_08.mp3"</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
+      <c r="B13" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A13))=0,"", INT('IDM Codes'!B12)+1)</f>
-        <v>9</v>
+        <v/>
       </c>
       <c r="C13" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A13))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A13, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B13,"00"), ". Episode_", TEXT('IDM Codes'!B13,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track1_dashinit.mp4" /f "09. Episode_09.mp4"</v>
+        <v/>
       </c>
       <c r="D13" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A13))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A13, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B13, "00"),". Episode_", TEXT('IDM Codes'!B13, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track2_dashinit.mp4" /f "09. Episode_09.mp3"</v>
+        <v/>
       </c>
       <c r="E13" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A13))=0, "", C13&amp;" &amp; "&amp;D13)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track1_dashinit.mp4" /f "09. Episode_09.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174432v/dash/1174432v_dash_high_360p_4ea24c_2101091509_track2_dashinit.mp4" /f "09. Episode_09.mp3"</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
+      <c r="B14" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A14))=0,"", INT('IDM Codes'!B13)+1)</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="C14" s="2" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A14))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A14, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B14,"00"), ". Episode_", TEXT('IDM Codes'!B14,"00"), ".mp4"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track1_dashinit.mp4" /f "10. Episode_10.mp4"</v>
+        <v/>
       </c>
       <c r="D14" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A14))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A14, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B14, "00"),". Episode_", TEXT('IDM Codes'!B14, "00"), ".mp3"""))</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track2_dashinit.mp4" /f "10. Episode_10.mp3"</v>
+        <v/>
       </c>
       <c r="E14" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A14))=0, "", C14&amp;" &amp; "&amp;D14)</f>
-        <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track1_dashinit.mp4" /f "10. Episode_10.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174433v/dash/1174433v_dash_high_360p_2ced9f_2101101501_track2_dashinit.mp4" /f "10. Episode_10.mp3"</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4316,7 +4252,7 @@
         <v/>
       </c>
       <c r="C203" s="2" t="str">
-        <f>IF(LEN(TRIM('IDM Codes'!A203))=0, "", CONCATENATE("""", 'IDM Params'!#REF!, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A203, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B203,"00"), ". Episode_", TEXT('IDM Codes'!B203,"00"), ".mp4"""))</f>
+        <f>IF(LEN(TRIM('IDM Codes'!A203))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A203, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B203,"00"), ". Episode_", TEXT('IDM Codes'!B203,"00"), ".mp4"""))</f>
         <v/>
       </c>
       <c r="D203" s="3" t="str">
@@ -4325,6 +4261,42 @@
       </c>
       <c r="E203" s="3" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A203))=0, "", C203&amp;" &amp; "&amp;D203)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A204))=0,"", INT('IDM Codes'!B203)+1)</f>
+        <v/>
+      </c>
+      <c r="C204" s="2" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A204))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A204, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B204,"00"), ". Episode_", TEXT('IDM Codes'!B204,"00"), ".mp4"""))</f>
+        <v/>
+      </c>
+      <c r="D204" s="3" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A204))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A204, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B204, "00"),". Episode_", TEXT('IDM Codes'!B204, "00"), ".mp3"""))</f>
+        <v/>
+      </c>
+      <c r="E204" s="3" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A204))=0, "", C204&amp;" &amp; "&amp;D204)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A205))=0,"", INT('IDM Codes'!B204)+1)</f>
+        <v/>
+      </c>
+      <c r="C205" s="2" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A205))=0, "", CONCATENATE("""", 'IDM Params'!#REF!, """", " ", 'IDM Params'!$A$1,'IDM Codes'!A205, 'IDM Params'!$A$2,"""", TEXT('IDM Codes'!B205,"00"), ". Episode_", TEXT('IDM Codes'!B205,"00"), ".mp4"""))</f>
+        <v/>
+      </c>
+      <c r="D205" s="3" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A205))=0, "", CONCATENATE("""", 'IDM Codes'!$A$2,""""," ",'IDM Params'!$A$1,SUBSTITUTE('IDM Codes'!A205, "track1","track2"), 'IDM Params'!$A$2,"""",  TEXT('IDM Codes'!B205, "00"),". Episode_", TEXT('IDM Codes'!B205, "00"), ".mp3"""))</f>
+        <v/>
+      </c>
+      <c r="E205" s="3" t="str">
+        <f>IF(LEN(TRIM('IDM Codes'!A205))=0, "", C205&amp;" &amp; "&amp;D205)</f>
         <v/>
       </c>
     </row>
@@ -4339,7 +4311,7 @@
   <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4353,21 +4325,21 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -4376,18 +4348,18 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B4" s="14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" s="19" t="str">
         <f>IF(ffmpegCodes!$B$7 = 1, "Dummy SRT file-name (Make sure files are named like this)","")</f>
@@ -4401,14 +4373,14 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B5" s="14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F5" s="21" t="str">
         <f>IF(ffmpegCodes!$B$7 = 1, TEXT(ffmpegCodes!$B$5, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!$B$5, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt", "")</f>
-        <v>01. Mr. Queen - Episode 1.en.srt</v>
+        <v>13. Mr. Queen - Episode 13.en.srt</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -4418,13 +4390,13 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F6" s="22" t="str">
         <f>IF(ffmpegCodes!$B$7 = 1, "To download subtitles, just check the ""Custom Args"" option in ""Youtube-DL GUI"", set the ""Link"" &amp; press ""Get Data"" button. This will download all subtitles to the ""youtube-dl gui"" folder.", "")</f>
@@ -4438,7 +4410,7 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B7" s="14">
         <v>1</v>
@@ -4452,11 +4424,11 @@
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B8" s="12" t="str">
         <f>RIGHT(ffmpegCodes!B2,LEN(ffmpegCodes!B2)-SEARCH("/", SUBSTITUTE(ffmpegCodes!B2,"\","/",LEN(ffmpegCodes!B2)-LEN(SUBSTITUTE(ffmpegCodes!B2,"\","")))))</f>
-        <v>Mr. Queen</v>
+        <v>RAW</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -4467,10 +4439,10 @@
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -4481,24 +4453,24 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -4520,10 +4492,10 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
@@ -4537,11 +4509,11 @@
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14">
         <f>B5</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A14), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A14, "00"), ". Episode_", TEXT(ffmpegCodes!A14, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A14, "00"), ". Episode_", TEXT(ffmpegCodes!A14, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A14, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A14, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A14, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A14, "00")&amp;".mp4""","")</f>
-        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\01. Episode_01.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\01. Episode_01.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\01. Mr. Queen - Episode 1.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\01. Episode 01.mp4"</v>
+        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\RAW\13. Episode_13.mp4" -i "C:\Users\gmastergreatee\Downloads\RAW\13. Episode_13.mp3" -i "C:\Users\gmastergreatee\Downloads\RAW\13. Mr. Queen - Episode 13.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="kor" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\RAW\Target\13. Episode 13.mp4"</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="20"/>
@@ -4555,11 +4527,11 @@
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15">
         <f>IF(ffmpegCodes!A14 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A14 + 1, "")</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B15" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A15), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A15, "00"), ". Episode_", TEXT(ffmpegCodes!A15, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A15, "00"), ". Episode_", TEXT(ffmpegCodes!A15, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A15, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A15, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A15, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A15, "00")&amp;".mp4""","")</f>
-        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\02. Episode_02.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\02. Episode_02.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\02. Mr. Queen - Episode 2.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\02. Episode 02.mp4"</v>
+        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\RAW\14. Episode_14.mp4" -i "C:\Users\gmastergreatee\Downloads\RAW\14. Episode_14.mp3" -i "C:\Users\gmastergreatee\Downloads\RAW\14. Mr. Queen - Episode 14.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="kor" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\RAW\Target\14. Episode 14.mp4"</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="20"/>
@@ -4573,11 +4545,11 @@
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16">
         <f>IF(ffmpegCodes!A15 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A15 + 1, "")</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A16), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A16, "00"), ". Episode_", TEXT(ffmpegCodes!A16, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A16, "00"), ". Episode_", TEXT(ffmpegCodes!A16, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A16, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A16, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A16, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A16, "00")&amp;".mp4""","")</f>
-        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\03. Episode_03.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\03. Episode_03.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\03. Mr. Queen - Episode 3.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\03. Episode 03.mp4"</v>
+        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\RAW\15. Episode_15.mp4" -i "C:\Users\gmastergreatee\Downloads\RAW\15. Episode_15.mp3" -i "C:\Users\gmastergreatee\Downloads\RAW\15. Mr. Queen - Episode 15.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="kor" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\RAW\Target\15. Episode 15.mp4"</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="20"/>
@@ -4589,13 +4561,13 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17">
+      <c r="A17" t="str">
         <f>IF(ffmpegCodes!A16 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A16 + 1, "")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="B17" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A17), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A17, "00"), ". Episode_", TEXT(ffmpegCodes!A17, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A17, "00"), ". Episode_", TEXT(ffmpegCodes!A17, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A17, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A17, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A17, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A17, "00")&amp;".mp4""","")</f>
-        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\04. Episode_04.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\04. Episode_04.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\04. Mr. Queen - Episode 4.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\04. Episode 04.mp4"</v>
+        <v/>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -4606,13 +4578,13 @@
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="A18">
+      <c r="A18" t="str">
         <f>IF(ffmpegCodes!A17 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A17 + 1, "")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="B18" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A18), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A18, "00"), ". Episode_", TEXT(ffmpegCodes!A18, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A18, "00"), ". Episode_", TEXT(ffmpegCodes!A18, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A18, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A18, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A18, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A18, "00")&amp;".mp4""","")</f>
-        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\05. Episode_05.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\05. Episode_05.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\05. Mr. Queen - Episode 5.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\05. Episode 05.mp4"</v>
+        <v/>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -4623,13 +4595,13 @@
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19">
+      <c r="A19" t="str">
         <f>IF(ffmpegCodes!A18 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A18 + 1, "")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="B19" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A19), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A19, "00"), ". Episode_", TEXT(ffmpegCodes!A19, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A19, "00"), ". Episode_", TEXT(ffmpegCodes!A19, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A19, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A19, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A19, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A19, "00")&amp;".mp4""","")</f>
-        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\06. Episode_06.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\06. Episode_06.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\06. Mr. Queen - Episode 6.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\06. Episode 06.mp4"</v>
+        <v/>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -4640,13 +4612,13 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
-      <c r="A20">
+      <c r="A20" t="str">
         <f>IF(ffmpegCodes!A19 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A19 + 1, "")</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="B20" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A20), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A20, "00"), ". Episode_", TEXT(ffmpegCodes!A20, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A20, "00"), ". Episode_", TEXT(ffmpegCodes!A20, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A20, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A20, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A20, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A20, "00")&amp;".mp4""","")</f>
-        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\07. Episode_07.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\07. Episode_07.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\07. Mr. Queen - Episode 7.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\07. Episode 07.mp4"</v>
+        <v/>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -4657,13 +4629,13 @@
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21">
+      <c r="A21" t="str">
         <f>IF(ffmpegCodes!A20 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A20 + 1, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="B21" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A21), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A21, "00"), ". Episode_", TEXT(ffmpegCodes!A21, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A21, "00"), ". Episode_", TEXT(ffmpegCodes!A21, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A21, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A21, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A21, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A21, "00")&amp;".mp4""","")</f>
-        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\08. Episode_08.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\08. Episode_08.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\08. Mr. Queen - Episode 8.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\08. Episode 08.mp4"</v>
+        <v/>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -4674,13 +4646,13 @@
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22">
+      <c r="A22" t="str">
         <f>IF(ffmpegCodes!A21 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A21 + 1, "")</f>
-        <v>9</v>
+        <v/>
       </c>
       <c r="B22" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A22), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A22, "00"), ". Episode_", TEXT(ffmpegCodes!A22, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A22, "00"), ". Episode_", TEXT(ffmpegCodes!A22, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A22, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A22, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A22, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A22, "00")&amp;".mp4""","")</f>
-        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\09. Episode_09.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\09. Episode_09.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\09. Mr. Queen - Episode 9.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\09. Episode 09.mp4"</v>
+        <v/>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -4691,23 +4663,23 @@
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23">
+      <c r="A23" t="str">
         <f>IF(ffmpegCodes!A22 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A22 + 1, "")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="B23" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A23), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A23, "00"), ". Episode_", TEXT(ffmpegCodes!A23, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A23, "00"), ". Episode_", TEXT(ffmpegCodes!A23, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A23, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A23, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A23, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A23, "00")&amp;".mp4""","")</f>
-        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\10. Episode_10.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\10. Episode_10.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\10. Mr. Queen - Episode 10.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\10. Episode 10.mp4"</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24">
+      <c r="A24" t="str">
         <f>IF(ffmpegCodes!A23 &lt; ffmpegCodes!$B$4 + ffmpegCodes!$B$5, ffmpegCodes!A23 + 1, "")</f>
-        <v>11</v>
+        <v/>
       </c>
       <c r="B24" s="15" t="str">
         <f>IF(ISNUMBER(ffmpegCodes!A24), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A24, "00"), ". Episode_", TEXT(ffmpegCodes!A24, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A24, "00"), ". Episode_", TEXT(ffmpegCodes!A24, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A24, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A24, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A24, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A24, "00")&amp;".mp4""","")</f>
-        <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\11. Episode_11.mp4" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\11. Episode_11.mp3" -i "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\11. Mr. Queen - Episode 11.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="jpn" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\Video\Mr. Queen\Target\11. Episode 11.mp4"</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6510,22 +6482,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Viki Audio Link extractor & Merger.xlsx
+++ b/Viki Audio Link extractor & Merger.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>C:\Program Files (x86)\Internet Download Manager\idman.exe</t>
   </si>
@@ -342,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -353,9 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -656,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -671,27 +671,59 @@
     <col min="5" max="5" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="G2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="23">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="19">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -707,8 +739,15 @@
       <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -728,8 +767,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A7))=0, "", C7&amp;" &amp; "&amp;D7)</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174436v/dash/1174436v_dash_high_360p_c36817_2101231458_track1_dashinit.mp4" /f "13. Episode_13.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174436v/dash/1174436v_dash_high_360p_c36817_2101231458_track2_dashinit.mp4" /f "13. Episode_13.mp3"</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -749,8 +795,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A8))=0, "", C8&amp;" &amp; "&amp;D8)</f>
         <v>"C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174437v/dash/1174437v_dash_high_360p_a72443_2101241445_track1_dashinit.mp4" /f "14. Episode_14.mp4" &amp; "C:\Program Files (x86)\Internet Download Manager\idman.exe" /a /d "https://vikidash-4.akamaized.net/1174437v/dash/1174437v_dash_high_360p_a72443_2101241445_track2_dashinit.mp4" /f "14. Episode_14.mp3"</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="B9" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A9))=0,"", INT('IDM Codes'!B8)+1)</f>
         <v/>
@@ -767,10 +820,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A9))=0, "", C9&amp;" &amp; "&amp;D9)</f>
         <v/>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="B10" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A10))=0,"", INT('IDM Codes'!B9)+1)</f>
         <v/>
@@ -787,10 +845,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A10))=0, "", C10&amp;" &amp; "&amp;D10)</f>
         <v/>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="B11" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A11))=0,"", INT('IDM Codes'!B10)+1)</f>
         <v/>
@@ -807,8 +870,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A11))=0, "", C11&amp;" &amp; "&amp;D11)</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="B12" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A12))=0,"", INT('IDM Codes'!B11)+1)</f>
         <v/>
@@ -825,8 +895,15 @@
         <f>IF(LEN(TRIM('IDM Codes'!A12))=0, "", C12&amp;" &amp; "&amp;D12)</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="B13" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A13))=0,"", INT('IDM Codes'!B12)+1)</f>
         <v/>
@@ -844,7 +921,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:13">
       <c r="B14" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A14))=0,"", INT('IDM Codes'!B13)+1)</f>
         <v/>
@@ -862,7 +939,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:13">
       <c r="B15" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A15))=0,"", INT('IDM Codes'!B14)+1)</f>
         <v/>
@@ -880,7 +957,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:13">
       <c r="B16" t="str">
         <f>IF(LEN(TRIM('IDM Codes'!A16))=0,"", INT('IDM Codes'!B15)+1)</f>
         <v/>
@@ -4301,6 +4378,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:M12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4311,7 +4391,7 @@
   <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+      <selection activeCell="D11" sqref="D11:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4338,13 +4418,13 @@
       <c r="B2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
@@ -4361,15 +4441,15 @@
       <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="F4" s="20" t="str">
         <f>IF(ffmpegCodes!$B$7 = 1, "Dummy SRT file-name (Make sure files are named like this)","")</f>
         <v>Dummy SRT file-name (Make sure files are named like this)</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="A5" s="5" t="s">
@@ -4378,15 +4458,15 @@
       <c r="B5" s="14">
         <v>13</v>
       </c>
-      <c r="F5" s="21" t="str">
+      <c r="F5" s="22" t="str">
         <f>IF(ffmpegCodes!$B$7 = 1, TEXT(ffmpegCodes!$B$5, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!$B$5, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt", "")</f>
         <v>13. Mr. Queen - Episode 13.en.srt</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
@@ -4398,15 +4478,15 @@
       <c r="C6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="22" t="str">
+      <c r="F6" s="23" t="str">
         <f>IF(ffmpegCodes!$B$7 = 1, "To download subtitles, just check the ""Custom Args"" option in ""Youtube-DL GUI"", set the ""Link"" &amp; press ""Get Data"" button. This will download all subtitles to the ""youtube-dl gui"" folder.", "")</f>
         <v>To download subtitles, just check the "Custom Args" option in "Youtube-DL GUI", set the "Link" &amp; press "Get Data" button. This will download all subtitles to the "youtube-dl gui" folder.</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -4415,12 +4495,12 @@
       <c r="B7" s="14">
         <v>1</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
@@ -4430,12 +4510,12 @@
         <f>RIGHT(ffmpegCodes!B2,LEN(ffmpegCodes!B2)-SEARCH("/", SUBSTITUTE(ffmpegCodes!B2,"\","/",LEN(ffmpegCodes!B2)-LEN(SUBSTITUTE(ffmpegCodes!B2,"\","")))))</f>
         <v>RAW</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
@@ -4444,12 +4524,12 @@
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1">
       <c r="A10" s="5" t="s">
@@ -4469,26 +4549,26 @@
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -4498,13 +4578,13 @@
         <v>19</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14">
@@ -4516,13 +4596,13 @@
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\RAW\13. Episode_13.mp4" -i "C:\Users\gmastergreatee\Downloads\RAW\13. Episode_13.mp3" -i "C:\Users\gmastergreatee\Downloads\RAW\13. Mr. Queen - Episode 13.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="kor" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\RAW\Target\13. Episode 13.mp4"</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15">
@@ -4534,13 +4614,13 @@
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\RAW\14. Episode_14.mp4" -i "C:\Users\gmastergreatee\Downloads\RAW\14. Episode_14.mp3" -i "C:\Users\gmastergreatee\Downloads\RAW\14. Mr. Queen - Episode 14.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="kor" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\RAW\Target\14. Episode 14.mp4"</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16">
@@ -4552,13 +4632,13 @@
         <v>"H:\Softwares\Multimedia\ffmpeg-20170921\ffmpeg.exe" -i "C:\Users\gmastergreatee\Downloads\RAW\15. Episode_15.mp4" -i "C:\Users\gmastergreatee\Downloads\RAW\15. Episode_15.mp3" -i "C:\Users\gmastergreatee\Downloads\RAW\15. Mr. Queen - Episode 15.en.srt" -map 0:0 -map 1:0 -map 2:0 -c:v copy -c:a copy -c:s mov_text -disposition:s default -metadata:s:a language="kor" -metadata:s:s language="eng" -y "C:\Users\gmastergreatee\Downloads\RAW\Target\15. Episode 15.mp4"</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" t="str">
@@ -4569,13 +4649,13 @@
         <f>IF(ISNUMBER(ffmpegCodes!A17), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A17, "00"), ". Episode_", TEXT(ffmpegCodes!A17, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A17, "00"), ". Episode_", TEXT(ffmpegCodes!A17, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A17, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A17, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A17, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A17, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" t="str">
@@ -4586,13 +4666,13 @@
         <f>IF(ISNUMBER(ffmpegCodes!A18), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A18, "00"), ". Episode_", TEXT(ffmpegCodes!A18, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A18, "00"), ". Episode_", TEXT(ffmpegCodes!A18, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A18, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A18, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A18, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A18, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" t="str">
@@ -4603,13 +4683,13 @@
         <f>IF(ISNUMBER(ffmpegCodes!A19), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A19, "00"), ". Episode_", TEXT(ffmpegCodes!A19, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A19, "00"), ". Episode_", TEXT(ffmpegCodes!A19, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A19, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A19, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A19, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A19, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" t="str">
@@ -4620,13 +4700,13 @@
         <f>IF(ISNUMBER(ffmpegCodes!A20), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A20, "00"), ". Episode_", TEXT(ffmpegCodes!A20, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A20, "00"), ". Episode_", TEXT(ffmpegCodes!A20, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A20, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A20, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A20, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A20, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="str">
@@ -4637,13 +4717,13 @@
         <f>IF(ISNUMBER(ffmpegCodes!A21), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A21, "00"), ". Episode_", TEXT(ffmpegCodes!A21, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A21, "00"), ". Episode_", TEXT(ffmpegCodes!A21, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A21, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A21, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A21, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A21, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="str">
@@ -4654,13 +4734,13 @@
         <f>IF(ISNUMBER(ffmpegCodes!A22), CONCATENATE("""",ffmpegCodes!$B$1, "\ffmpeg.exe","""", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A22, "00"), ". Episode_", TEXT(ffmpegCodes!A22, "00"), ".mp4", """", " -i ", """", ffmpegCodes!$B$2, "\", TEXT(ffmpegCodes!A22, "00"), ". Episode_", TEXT(ffmpegCodes!A22, "00"), ".mp3", """")&amp;IF(ffmpegCodes!$B$7 = 0, "", " -i "&amp;""""&amp;ffmpegCodes!$B$2&amp;"\"&amp;TEXT(ffmpegCodes!A22, "00")&amp;". "&amp;ffmpegCodes!$B$9&amp;" - Episode "&amp;TEXT(ffmpegCodes!A22, "0")&amp;"."&amp;ffmpegCodes!$B$11&amp;".srt"&amp;"""")&amp;" -map 0:0 -map 1:0"&amp;IF(ffmpegCodes!$B$7=0,""," -map 2:0")&amp;" -c:v copy -c:a copy"&amp;IF(ffmpegCodes!$B$7=0,""," -c:s mov_text")&amp;" -disposition:s default -metadata:s:a language="""&amp;ffmpegCodes!$B$6&amp;""""&amp;IF(ffmpegCodes!$B$7=0,""," -metadata:s:s language="""&amp;ffmpegCodes!$B$10&amp;"""")&amp;" -y"&amp;" """&amp;ffmpegCodes!$B$3&amp;"\"&amp;TEXT(ffmpegCodes!A22, "00")&amp;". Episode "&amp;TEXT(ffmpegCodes!A22, "00")&amp;".mp4""","")</f>
         <v/>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="str">
@@ -6467,7 +6547,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
